--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="222">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,6 +499,15 @@
     <t>['8']</t>
   </si>
   <si>
+    <t>['36', '71']</t>
+  </si>
+  <si>
+    <t>['32', '40']</t>
+  </si>
+  <si>
+    <t>['28', '85']</t>
+  </si>
+  <si>
     <t>['73', '87']</t>
   </si>
   <si>
@@ -662,6 +671,15 @@
   </si>
   <si>
     <t>['35', '51']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['53', '61']</t>
+  </si>
+  <si>
+    <t>['46']</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1357,7 +1375,7 @@
         <v>1.86</v>
       </c>
       <c r="AT2">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1458,7 +1476,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2118,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT6">
         <v>0.75</v>
@@ -2222,7 +2240,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2413,7 +2431,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2500,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -2604,7 +2622,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2694,7 +2712,7 @@
         <v>1.38</v>
       </c>
       <c r="AT9">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2882,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT10">
         <v>2.13</v>
@@ -3267,7 +3285,7 @@
         <v>0.88</v>
       </c>
       <c r="AT12">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3368,7 +3386,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3458,7 +3476,7 @@
         <v>1.25</v>
       </c>
       <c r="AT13">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3559,7 +3577,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3646,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT14">
         <v>1.43</v>
@@ -3837,10 +3855,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT15">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3941,7 +3959,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4031,7 +4049,7 @@
         <v>1.14</v>
       </c>
       <c r="AT16">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4219,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT17">
         <v>1.5</v>
@@ -4323,7 +4341,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -4601,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT19">
         <v>1</v>
@@ -4896,7 +4914,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -4986,7 +5004,7 @@
         <v>2.25</v>
       </c>
       <c r="AT21">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU21">
         <v>1.66</v>
@@ -5087,7 +5105,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5469,7 +5487,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5660,7 +5678,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5938,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT26">
         <v>1.5</v>
@@ -6042,7 +6060,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6129,10 +6147,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT27">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>0.99</v>
@@ -6233,7 +6251,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6320,10 +6338,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT28">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU28">
         <v>1.44</v>
@@ -6615,7 +6633,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6705,7 +6723,7 @@
         <v>1.14</v>
       </c>
       <c r="AT30">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU30">
         <v>1.32</v>
@@ -6806,7 +6824,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -6997,7 +7015,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7087,7 +7105,7 @@
         <v>1.86</v>
       </c>
       <c r="AT32">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU32">
         <v>1.5</v>
@@ -7188,7 +7206,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7275,7 +7293,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT33">
         <v>2.13</v>
@@ -7379,7 +7397,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7657,7 +7675,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT35">
         <v>0.75</v>
@@ -8042,7 +8060,7 @@
         <v>2.13</v>
       </c>
       <c r="AT37">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU37">
         <v>1.67</v>
@@ -8143,7 +8161,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8334,7 +8352,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>12</v>
@@ -8803,10 +8821,10 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT41">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU41">
         <v>1.98</v>
@@ -8994,10 +9012,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT42">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU42">
         <v>1.05</v>
@@ -9098,7 +9116,7 @@
         <v>88</v>
       </c>
       <c r="P43" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q43">
         <v>12</v>
@@ -9376,7 +9394,7 @@
         <v>0.33</v>
       </c>
       <c r="AS44">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT44">
         <v>0.63</v>
@@ -9567,7 +9585,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT45">
         <v>1.5</v>
@@ -9671,7 +9689,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9758,10 +9776,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT46">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU46">
         <v>2.02</v>
@@ -10140,7 +10158,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT48">
         <v>0.75</v>
@@ -10334,7 +10352,7 @@
         <v>1.38</v>
       </c>
       <c r="AT49">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU49">
         <v>1.18</v>
@@ -10435,7 +10453,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10626,7 +10644,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10817,7 +10835,7 @@
         <v>114</v>
       </c>
       <c r="P52" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11008,7 +11026,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11098,7 +11116,7 @@
         <v>1.86</v>
       </c>
       <c r="AT53">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU53">
         <v>2.15</v>
@@ -11390,7 +11408,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11477,7 +11495,7 @@
         <v>0.25</v>
       </c>
       <c r="AS55">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT55">
         <v>0.63</v>
@@ -11859,7 +11877,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT57">
         <v>0.75</v>
@@ -11963,7 +11981,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12244,7 +12262,7 @@
         <v>2.25</v>
       </c>
       <c r="AT59">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU59">
         <v>1.85</v>
@@ -12432,10 +12450,10 @@
         <v>0.5</v>
       </c>
       <c r="AS60">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT60">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU60">
         <v>2.09</v>
@@ -12623,10 +12641,10 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT61">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU61">
         <v>1.21</v>
@@ -13008,7 +13026,7 @@
         <v>0.88</v>
       </c>
       <c r="AT63">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU63">
         <v>2.04</v>
@@ -13109,7 +13127,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13196,7 +13214,7 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT64">
         <v>0.75</v>
@@ -13387,7 +13405,7 @@
         <v>0.25</v>
       </c>
       <c r="AS65">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT65">
         <v>1</v>
@@ -13491,7 +13509,7 @@
         <v>88</v>
       </c>
       <c r="P66" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -13873,7 +13891,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -13963,7 +13981,7 @@
         <v>1.63</v>
       </c>
       <c r="AT68">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU68">
         <v>1.68</v>
@@ -14064,7 +14082,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14255,7 +14273,7 @@
         <v>100</v>
       </c>
       <c r="P70" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14342,7 +14360,7 @@
         <v>0.4</v>
       </c>
       <c r="AS70">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT70">
         <v>0.63</v>
@@ -14446,7 +14464,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15106,10 +15124,10 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT74">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU74">
         <v>1.99</v>
@@ -15401,7 +15419,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15488,7 +15506,7 @@
         <v>0.4</v>
       </c>
       <c r="AS76">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT76">
         <v>0.75</v>
@@ -15592,7 +15610,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15682,7 +15700,7 @@
         <v>1.86</v>
       </c>
       <c r="AT77">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU77">
         <v>2.06</v>
@@ -15974,7 +15992,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16165,7 +16183,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16252,10 +16270,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT80">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU80">
         <v>1.67</v>
@@ -16547,7 +16565,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q82">
         <v>10</v>
@@ -16634,10 +16652,10 @@
         <v>0.8</v>
       </c>
       <c r="AS82">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT82">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU82">
         <v>1.4</v>
@@ -16825,7 +16843,7 @@
         <v>0.4</v>
       </c>
       <c r="AS83">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT83">
         <v>1</v>
@@ -16929,7 +16947,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17019,7 +17037,7 @@
         <v>2.13</v>
       </c>
       <c r="AT84">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU84">
         <v>1.98</v>
@@ -17210,7 +17228,7 @@
         <v>1.63</v>
       </c>
       <c r="AT85">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU85">
         <v>1.67</v>
@@ -17401,7 +17419,7 @@
         <v>2.13</v>
       </c>
       <c r="AT86">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU86">
         <v>1.98</v>
@@ -17502,7 +17520,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17589,7 +17607,7 @@
         <v>0.83</v>
       </c>
       <c r="AS87">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT87">
         <v>0.75</v>
@@ -17884,7 +17902,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18162,7 +18180,7 @@
         <v>0.83</v>
       </c>
       <c r="AS90">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT90">
         <v>0.63</v>
@@ -18266,7 +18284,7 @@
         <v>144</v>
       </c>
       <c r="P91" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18356,7 +18374,7 @@
         <v>1.86</v>
       </c>
       <c r="AT91">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU91">
         <v>2.09</v>
@@ -18457,7 +18475,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18544,7 +18562,7 @@
         <v>0.83</v>
       </c>
       <c r="AS92">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT92">
         <v>0.75</v>
@@ -18929,7 +18947,7 @@
         <v>1.22</v>
       </c>
       <c r="AT94">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU94">
         <v>1.06</v>
@@ -19308,10 +19326,10 @@
         <v>1.8</v>
       </c>
       <c r="AS96">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT96">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU96">
         <v>1.72</v>
@@ -19412,7 +19430,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19499,7 +19517,7 @@
         <v>1.17</v>
       </c>
       <c r="AS97">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT97">
         <v>1.11</v>
@@ -19603,7 +19621,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19794,7 +19812,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -19884,7 +19902,7 @@
         <v>1.38</v>
       </c>
       <c r="AT99">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU99">
         <v>1.3</v>
@@ -19985,7 +20003,7 @@
         <v>88</v>
       </c>
       <c r="P100" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20176,7 +20194,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q101">
         <v>12</v>
@@ -20263,10 +20281,10 @@
         <v>2</v>
       </c>
       <c r="AS101">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT101">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU101">
         <v>1.61</v>
@@ -20457,7 +20475,7 @@
         <v>1.63</v>
       </c>
       <c r="AT102">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU102">
         <v>1.57</v>
@@ -20558,7 +20576,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20836,7 +20854,7 @@
         <v>0.86</v>
       </c>
       <c r="AS104">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT104">
         <v>0.75</v>
@@ -21027,7 +21045,7 @@
         <v>0.86</v>
       </c>
       <c r="AS105">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT105">
         <v>0.75</v>
@@ -21131,7 +21149,7 @@
         <v>152</v>
       </c>
       <c r="P106" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21412,7 +21430,7 @@
         <v>1.14</v>
       </c>
       <c r="AT107">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU107">
         <v>1.67</v>
@@ -21704,7 +21722,7 @@
         <v>155</v>
       </c>
       <c r="P109" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q109">
         <v>8</v>
@@ -21895,7 +21913,7 @@
         <v>100</v>
       </c>
       <c r="P110" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -21982,7 +22000,7 @@
         <v>2.17</v>
       </c>
       <c r="AS110">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT110">
         <v>2.13</v>
@@ -22086,7 +22104,7 @@
         <v>88</v>
       </c>
       <c r="P111" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22367,7 +22385,7 @@
         <v>1.25</v>
       </c>
       <c r="AT112">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU112">
         <v>1.68</v>
@@ -22555,7 +22573,7 @@
         <v>1.14</v>
       </c>
       <c r="AS113">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT113">
         <v>1.11</v>
@@ -22659,7 +22677,7 @@
         <v>157</v>
       </c>
       <c r="P114" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22746,7 +22764,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT114">
         <v>1.43</v>
@@ -22850,7 +22868,7 @@
         <v>116</v>
       </c>
       <c r="P115" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -22937,10 +22955,10 @@
         <v>1.75</v>
       </c>
       <c r="AS115">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT115">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU115">
         <v>1.62</v>
@@ -23131,7 +23149,7 @@
         <v>1.38</v>
       </c>
       <c r="AT116">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU116">
         <v>1.29</v>
@@ -23322,7 +23340,7 @@
         <v>0.88</v>
       </c>
       <c r="AT117">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU117">
         <v>2.02</v>
@@ -23423,7 +23441,7 @@
         <v>159</v>
       </c>
       <c r="P118" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23614,7 +23632,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -23996,7 +24014,7 @@
         <v>88</v>
       </c>
       <c r="P121" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24138,6 +24156,1152 @@
       </c>
       <c r="BK121">
         <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>2708217</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>44864.55208333334</v>
+      </c>
+      <c r="F122">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H122" t="s">
+        <v>67</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122" t="s">
+        <v>88</v>
+      </c>
+      <c r="P122" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q122">
+        <v>8</v>
+      </c>
+      <c r="R122">
+        <v>2</v>
+      </c>
+      <c r="S122">
+        <v>10</v>
+      </c>
+      <c r="T122">
+        <v>2.63</v>
+      </c>
+      <c r="U122">
+        <v>1.95</v>
+      </c>
+      <c r="V122">
+        <v>5.5</v>
+      </c>
+      <c r="W122">
+        <v>1.57</v>
+      </c>
+      <c r="X122">
+        <v>2.25</v>
+      </c>
+      <c r="Y122">
+        <v>3.75</v>
+      </c>
+      <c r="Z122">
+        <v>1.25</v>
+      </c>
+      <c r="AA122">
+        <v>11</v>
+      </c>
+      <c r="AB122">
+        <v>1.05</v>
+      </c>
+      <c r="AC122">
+        <v>1.86</v>
+      </c>
+      <c r="AD122">
+        <v>3.15</v>
+      </c>
+      <c r="AE122">
+        <v>4.7</v>
+      </c>
+      <c r="AF122">
+        <v>1.09</v>
+      </c>
+      <c r="AG122">
+        <v>6.5</v>
+      </c>
+      <c r="AH122">
+        <v>1.52</v>
+      </c>
+      <c r="AI122">
+        <v>2.48</v>
+      </c>
+      <c r="AJ122">
+        <v>2.55</v>
+      </c>
+      <c r="AK122">
+        <v>1.45</v>
+      </c>
+      <c r="AL122">
+        <v>2.25</v>
+      </c>
+      <c r="AM122">
+        <v>1.57</v>
+      </c>
+      <c r="AN122">
+        <v>1.18</v>
+      </c>
+      <c r="AO122">
+        <v>1.33</v>
+      </c>
+      <c r="AP122">
+        <v>1.9</v>
+      </c>
+      <c r="AQ122">
+        <v>1.57</v>
+      </c>
+      <c r="AR122">
+        <v>0.57</v>
+      </c>
+      <c r="AS122">
+        <v>1.38</v>
+      </c>
+      <c r="AT122">
+        <v>0.88</v>
+      </c>
+      <c r="AU122">
+        <v>1.52</v>
+      </c>
+      <c r="AV122">
+        <v>1.09</v>
+      </c>
+      <c r="AW122">
+        <v>2.61</v>
+      </c>
+      <c r="AX122">
+        <v>1.5</v>
+      </c>
+      <c r="AY122">
+        <v>5.75</v>
+      </c>
+      <c r="AZ122">
+        <v>3.05</v>
+      </c>
+      <c r="BA122">
+        <v>1.55</v>
+      </c>
+      <c r="BB122">
+        <v>2</v>
+      </c>
+      <c r="BC122">
+        <v>2.69</v>
+      </c>
+      <c r="BD122">
+        <v>3.74</v>
+      </c>
+      <c r="BE122">
+        <v>5</v>
+      </c>
+      <c r="BF122">
+        <v>8</v>
+      </c>
+      <c r="BG122">
+        <v>2</v>
+      </c>
+      <c r="BH122">
+        <v>15</v>
+      </c>
+      <c r="BI122">
+        <v>5</v>
+      </c>
+      <c r="BJ122">
+        <v>23</v>
+      </c>
+      <c r="BK122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>2708220</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>44864.66666666666</v>
+      </c>
+      <c r="F123">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>78</v>
+      </c>
+      <c r="H123" t="s">
+        <v>68</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>161</v>
+      </c>
+      <c r="P123" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q123">
+        <v>6</v>
+      </c>
+      <c r="R123">
+        <v>6</v>
+      </c>
+      <c r="S123">
+        <v>12</v>
+      </c>
+      <c r="T123">
+        <v>3.3</v>
+      </c>
+      <c r="U123">
+        <v>1.88</v>
+      </c>
+      <c r="V123">
+        <v>3.5</v>
+      </c>
+      <c r="W123">
+        <v>1.55</v>
+      </c>
+      <c r="X123">
+        <v>2.25</v>
+      </c>
+      <c r="Y123">
+        <v>3.7</v>
+      </c>
+      <c r="Z123">
+        <v>1.24</v>
+      </c>
+      <c r="AA123">
+        <v>11</v>
+      </c>
+      <c r="AB123">
+        <v>1.04</v>
+      </c>
+      <c r="AC123">
+        <v>2.7</v>
+      </c>
+      <c r="AD123">
+        <v>2.9</v>
+      </c>
+      <c r="AE123">
+        <v>2.85</v>
+      </c>
+      <c r="AF123">
+        <v>1.11</v>
+      </c>
+      <c r="AG123">
+        <v>6</v>
+      </c>
+      <c r="AH123">
+        <v>1.52</v>
+      </c>
+      <c r="AI123">
+        <v>2.48</v>
+      </c>
+      <c r="AJ123">
+        <v>2.55</v>
+      </c>
+      <c r="AK123">
+        <v>1.45</v>
+      </c>
+      <c r="AL123">
+        <v>2.15</v>
+      </c>
+      <c r="AM123">
+        <v>1.61</v>
+      </c>
+      <c r="AN123">
+        <v>1.42</v>
+      </c>
+      <c r="AO123">
+        <v>1.35</v>
+      </c>
+      <c r="AP123">
+        <v>1.47</v>
+      </c>
+      <c r="AQ123">
+        <v>2.43</v>
+      </c>
+      <c r="AR123">
+        <v>2</v>
+      </c>
+      <c r="AS123">
+        <v>2.5</v>
+      </c>
+      <c r="AT123">
+        <v>1.67</v>
+      </c>
+      <c r="AU123">
+        <v>2.03</v>
+      </c>
+      <c r="AV123">
+        <v>1.59</v>
+      </c>
+      <c r="AW123">
+        <v>3.62</v>
+      </c>
+      <c r="AX123">
+        <v>1.75</v>
+      </c>
+      <c r="AY123">
+        <v>7.5</v>
+      </c>
+      <c r="AZ123">
+        <v>2.53</v>
+      </c>
+      <c r="BA123">
+        <v>1.39</v>
+      </c>
+      <c r="BB123">
+        <v>1.73</v>
+      </c>
+      <c r="BC123">
+        <v>2.23</v>
+      </c>
+      <c r="BD123">
+        <v>2.98</v>
+      </c>
+      <c r="BE123">
+        <v>4.4</v>
+      </c>
+      <c r="BF123">
+        <v>6</v>
+      </c>
+      <c r="BG123">
+        <v>5</v>
+      </c>
+      <c r="BH123">
+        <v>9</v>
+      </c>
+      <c r="BI123">
+        <v>6</v>
+      </c>
+      <c r="BJ123">
+        <v>15</v>
+      </c>
+      <c r="BK123">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2708223</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>44865.54166666666</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>73</v>
+      </c>
+      <c r="H124" t="s">
+        <v>65</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>88</v>
+      </c>
+      <c r="P124" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q124">
+        <v>2</v>
+      </c>
+      <c r="R124">
+        <v>6</v>
+      </c>
+      <c r="S124">
+        <v>8</v>
+      </c>
+      <c r="T124">
+        <v>3.4</v>
+      </c>
+      <c r="U124">
+        <v>1.8</v>
+      </c>
+      <c r="V124">
+        <v>3.7</v>
+      </c>
+      <c r="W124">
+        <v>1.62</v>
+      </c>
+      <c r="X124">
+        <v>2.15</v>
+      </c>
+      <c r="Y124">
+        <v>3.9</v>
+      </c>
+      <c r="Z124">
+        <v>1.21</v>
+      </c>
+      <c r="AA124">
+        <v>12</v>
+      </c>
+      <c r="AB124">
+        <v>1.03</v>
+      </c>
+      <c r="AC124">
+        <v>2.5</v>
+      </c>
+      <c r="AD124">
+        <v>2.8</v>
+      </c>
+      <c r="AE124">
+        <v>2.95</v>
+      </c>
+      <c r="AF124">
+        <v>1.12</v>
+      </c>
+      <c r="AG124">
+        <v>5.5</v>
+      </c>
+      <c r="AH124">
+        <v>1.57</v>
+      </c>
+      <c r="AI124">
+        <v>2.35</v>
+      </c>
+      <c r="AJ124">
+        <v>2.55</v>
+      </c>
+      <c r="AK124">
+        <v>1.45</v>
+      </c>
+      <c r="AL124">
+        <v>2.25</v>
+      </c>
+      <c r="AM124">
+        <v>1.55</v>
+      </c>
+      <c r="AN124">
+        <v>1.38</v>
+      </c>
+      <c r="AO124">
+        <v>1.39</v>
+      </c>
+      <c r="AP124">
+        <v>1.47</v>
+      </c>
+      <c r="AQ124">
+        <v>0.57</v>
+      </c>
+      <c r="AR124">
+        <v>1.43</v>
+      </c>
+      <c r="AS124">
+        <v>0.5</v>
+      </c>
+      <c r="AT124">
+        <v>1.63</v>
+      </c>
+      <c r="AU124">
+        <v>1.36</v>
+      </c>
+      <c r="AV124">
+        <v>1.34</v>
+      </c>
+      <c r="AW124">
+        <v>2.7</v>
+      </c>
+      <c r="AX124">
+        <v>1.91</v>
+      </c>
+      <c r="AY124">
+        <v>7.5</v>
+      </c>
+      <c r="AZ124">
+        <v>2.2</v>
+      </c>
+      <c r="BA124">
+        <v>1.53</v>
+      </c>
+      <c r="BB124">
+        <v>1.95</v>
+      </c>
+      <c r="BC124">
+        <v>2.62</v>
+      </c>
+      <c r="BD124">
+        <v>3.56</v>
+      </c>
+      <c r="BE124">
+        <v>5.4</v>
+      </c>
+      <c r="BF124">
+        <v>3</v>
+      </c>
+      <c r="BG124">
+        <v>5</v>
+      </c>
+      <c r="BH124">
+        <v>5</v>
+      </c>
+      <c r="BI124">
+        <v>0</v>
+      </c>
+      <c r="BJ124">
+        <v>8</v>
+      </c>
+      <c r="BK124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2708219</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>44865.66666666666</v>
+      </c>
+      <c r="F125">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>77</v>
+      </c>
+      <c r="H125" t="s">
+        <v>70</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125" t="s">
+        <v>162</v>
+      </c>
+      <c r="P125" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q125">
+        <v>7</v>
+      </c>
+      <c r="R125">
+        <v>7</v>
+      </c>
+      <c r="S125">
+        <v>14</v>
+      </c>
+      <c r="T125">
+        <v>4.75</v>
+      </c>
+      <c r="U125">
+        <v>2.1</v>
+      </c>
+      <c r="V125">
+        <v>2.6</v>
+      </c>
+      <c r="W125">
+        <v>1.44</v>
+      </c>
+      <c r="X125">
+        <v>2.63</v>
+      </c>
+      <c r="Y125">
+        <v>3.25</v>
+      </c>
+      <c r="Z125">
+        <v>1.33</v>
+      </c>
+      <c r="AA125">
+        <v>10</v>
+      </c>
+      <c r="AB125">
+        <v>1.06</v>
+      </c>
+      <c r="AC125">
+        <v>3.3</v>
+      </c>
+      <c r="AD125">
+        <v>3.2</v>
+      </c>
+      <c r="AE125">
+        <v>1.98</v>
+      </c>
+      <c r="AF125">
+        <v>1.04</v>
+      </c>
+      <c r="AG125">
+        <v>7.8</v>
+      </c>
+      <c r="AH125">
+        <v>1.36</v>
+      </c>
+      <c r="AI125">
+        <v>2.88</v>
+      </c>
+      <c r="AJ125">
+        <v>2.15</v>
+      </c>
+      <c r="AK125">
+        <v>1.67</v>
+      </c>
+      <c r="AL125">
+        <v>1.91</v>
+      </c>
+      <c r="AM125">
+        <v>1.8</v>
+      </c>
+      <c r="AN125">
+        <v>1.9</v>
+      </c>
+      <c r="AO125">
+        <v>1.34</v>
+      </c>
+      <c r="AP125">
+        <v>1.22</v>
+      </c>
+      <c r="AQ125">
+        <v>1.14</v>
+      </c>
+      <c r="AR125">
+        <v>1.17</v>
+      </c>
+      <c r="AS125">
+        <v>1.38</v>
+      </c>
+      <c r="AT125">
+        <v>1</v>
+      </c>
+      <c r="AU125">
+        <v>1.66</v>
+      </c>
+      <c r="AV125">
+        <v>1.6</v>
+      </c>
+      <c r="AW125">
+        <v>3.26</v>
+      </c>
+      <c r="AX125">
+        <v>3.08</v>
+      </c>
+      <c r="AY125">
+        <v>7.6</v>
+      </c>
+      <c r="AZ125">
+        <v>1.58</v>
+      </c>
+      <c r="BA125">
+        <v>1.51</v>
+      </c>
+      <c r="BB125">
+        <v>1.8</v>
+      </c>
+      <c r="BC125">
+        <v>2.38</v>
+      </c>
+      <c r="BD125">
+        <v>3.2</v>
+      </c>
+      <c r="BE125">
+        <v>5</v>
+      </c>
+      <c r="BF125">
+        <v>7</v>
+      </c>
+      <c r="BG125">
+        <v>7</v>
+      </c>
+      <c r="BH125">
+        <v>8</v>
+      </c>
+      <c r="BI125">
+        <v>9</v>
+      </c>
+      <c r="BJ125">
+        <v>15</v>
+      </c>
+      <c r="BK125">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2708232</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>44869.54166666666</v>
+      </c>
+      <c r="F126">
+        <v>17</v>
+      </c>
+      <c r="G126" t="s">
+        <v>71</v>
+      </c>
+      <c r="H126" t="s">
+        <v>74</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126" t="s">
+        <v>88</v>
+      </c>
+      <c r="P126" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q126">
+        <v>4</v>
+      </c>
+      <c r="R126">
+        <v>7</v>
+      </c>
+      <c r="S126">
+        <v>11</v>
+      </c>
+      <c r="T126">
+        <v>3</v>
+      </c>
+      <c r="U126">
+        <v>1.9</v>
+      </c>
+      <c r="V126">
+        <v>3.8</v>
+      </c>
+      <c r="W126">
+        <v>1.53</v>
+      </c>
+      <c r="X126">
+        <v>2.3</v>
+      </c>
+      <c r="Y126">
+        <v>3.5</v>
+      </c>
+      <c r="Z126">
+        <v>1.26</v>
+      </c>
+      <c r="AA126">
+        <v>10</v>
+      </c>
+      <c r="AB126">
+        <v>1.05</v>
+      </c>
+      <c r="AC126">
+        <v>2.25</v>
+      </c>
+      <c r="AD126">
+        <v>2.85</v>
+      </c>
+      <c r="AE126">
+        <v>3.1</v>
+      </c>
+      <c r="AF126">
+        <v>1.09</v>
+      </c>
+      <c r="AG126">
+        <v>6.5</v>
+      </c>
+      <c r="AH126">
+        <v>1.54</v>
+      </c>
+      <c r="AI126">
+        <v>2.43</v>
+      </c>
+      <c r="AJ126">
+        <v>2.4</v>
+      </c>
+      <c r="AK126">
+        <v>1.5</v>
+      </c>
+      <c r="AL126">
+        <v>2.05</v>
+      </c>
+      <c r="AM126">
+        <v>1.66</v>
+      </c>
+      <c r="AN126">
+        <v>1.33</v>
+      </c>
+      <c r="AO126">
+        <v>1.35</v>
+      </c>
+      <c r="AP126">
+        <v>1.58</v>
+      </c>
+      <c r="AQ126">
+        <v>1.5</v>
+      </c>
+      <c r="AR126">
+        <v>0.86</v>
+      </c>
+      <c r="AS126">
+        <v>1.29</v>
+      </c>
+      <c r="AT126">
+        <v>1.13</v>
+      </c>
+      <c r="AU126">
+        <v>1.65</v>
+      </c>
+      <c r="AV126">
+        <v>1.28</v>
+      </c>
+      <c r="AW126">
+        <v>2.93</v>
+      </c>
+      <c r="AX126">
+        <v>1.82</v>
+      </c>
+      <c r="AY126">
+        <v>7.5</v>
+      </c>
+      <c r="AZ126">
+        <v>2.4</v>
+      </c>
+      <c r="BA126">
+        <v>1.48</v>
+      </c>
+      <c r="BB126">
+        <v>1.9</v>
+      </c>
+      <c r="BC126">
+        <v>2.46</v>
+      </c>
+      <c r="BD126">
+        <v>3.42</v>
+      </c>
+      <c r="BE126">
+        <v>5.4</v>
+      </c>
+      <c r="BF126">
+        <v>4</v>
+      </c>
+      <c r="BG126">
+        <v>4</v>
+      </c>
+      <c r="BH126">
+        <v>11</v>
+      </c>
+      <c r="BI126">
+        <v>4</v>
+      </c>
+      <c r="BJ126">
+        <v>15</v>
+      </c>
+      <c r="BK126">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2708230</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44869.66666666666</v>
+      </c>
+      <c r="F127">
+        <v>17</v>
+      </c>
+      <c r="G127" t="s">
+        <v>69</v>
+      </c>
+      <c r="H127" t="s">
+        <v>73</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127" t="s">
+        <v>163</v>
+      </c>
+      <c r="P127" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q127">
+        <v>4</v>
+      </c>
+      <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>6</v>
+      </c>
+      <c r="T127">
+        <v>1.88</v>
+      </c>
+      <c r="U127">
+        <v>2.25</v>
+      </c>
+      <c r="V127">
+        <v>7.25</v>
+      </c>
+      <c r="W127">
+        <v>1.4</v>
+      </c>
+      <c r="X127">
+        <v>2.7</v>
+      </c>
+      <c r="Y127">
+        <v>2.87</v>
+      </c>
+      <c r="Z127">
+        <v>1.36</v>
+      </c>
+      <c r="AA127">
+        <v>7.5</v>
+      </c>
+      <c r="AB127">
+        <v>1.07</v>
+      </c>
+      <c r="AC127">
+        <v>1.3</v>
+      </c>
+      <c r="AD127">
+        <v>4.33</v>
+      </c>
+      <c r="AE127">
+        <v>8.5</v>
+      </c>
+      <c r="AF127">
+        <v>1.02</v>
+      </c>
+      <c r="AG127">
+        <v>8.6</v>
+      </c>
+      <c r="AH127">
+        <v>1.33</v>
+      </c>
+      <c r="AI127">
+        <v>3.1</v>
+      </c>
+      <c r="AJ127">
+        <v>2</v>
+      </c>
+      <c r="AK127">
+        <v>1.7</v>
+      </c>
+      <c r="AL127">
+        <v>2.37</v>
+      </c>
+      <c r="AM127">
+        <v>1.51</v>
+      </c>
+      <c r="AN127">
+        <v>1.07</v>
+      </c>
+      <c r="AO127">
+        <v>1.19</v>
+      </c>
+      <c r="AP127">
+        <v>2.95</v>
+      </c>
+      <c r="AQ127">
+        <v>2.5</v>
+      </c>
+      <c r="AR127">
+        <v>0.5</v>
+      </c>
+      <c r="AS127">
+        <v>2.56</v>
+      </c>
+      <c r="AT127">
+        <v>0.44</v>
+      </c>
+      <c r="AU127">
+        <v>1.84</v>
+      </c>
+      <c r="AV127">
+        <v>1.35</v>
+      </c>
+      <c r="AW127">
+        <v>3.19</v>
+      </c>
+      <c r="AX127">
+        <v>1.31</v>
+      </c>
+      <c r="AY127">
+        <v>9</v>
+      </c>
+      <c r="AZ127">
+        <v>4.42</v>
+      </c>
+      <c r="BA127">
+        <v>1.49</v>
+      </c>
+      <c r="BB127">
+        <v>1.93</v>
+      </c>
+      <c r="BC127">
+        <v>2.52</v>
+      </c>
+      <c r="BD127">
+        <v>3.48</v>
+      </c>
+      <c r="BE127">
+        <v>4.8</v>
+      </c>
+      <c r="BF127">
+        <v>10</v>
+      </c>
+      <c r="BG127">
+        <v>2</v>
+      </c>
+      <c r="BH127">
+        <v>6</v>
+      </c>
+      <c r="BI127">
+        <v>3</v>
+      </c>
+      <c r="BJ127">
+        <v>16</v>
+      </c>
+      <c r="BK127">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,6 +508,27 @@
     <t>['28', '85']</t>
   </si>
   <si>
+    <t>['52', '67']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['14', '29', '57']</t>
+  </si>
+  <si>
+    <t>['16', '33', '67']</t>
+  </si>
+  <si>
+    <t>['16', '56']</t>
+  </si>
+  <si>
+    <t>['24', '72']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
     <t>['73', '87']</t>
   </si>
   <si>
@@ -590,9 +611,6 @@
   </si>
   <si>
     <t>['8', '22', '82']</t>
-  </si>
-  <si>
-    <t>['60']</t>
   </si>
   <si>
     <t>['89']</t>
@@ -680,6 +698,24 @@
   </si>
   <si>
     <t>['46']</t>
+  </si>
+  <si>
+    <t>['28', '37', '52', '68', '89']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['5', '19']</t>
+  </si>
+  <si>
+    <t>['4', '26']</t>
+  </si>
+  <si>
+    <t>['18']</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK127"/>
+  <dimension ref="A1:BK141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1372,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT2">
         <v>0.44</v>
@@ -1476,7 +1512,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1563,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT3">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1754,10 +1790,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT4">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1945,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT5">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2139,7 +2175,7 @@
         <v>2.56</v>
       </c>
       <c r="AT6">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2240,7 +2276,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2327,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT7">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2431,7 +2467,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2518,10 +2554,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2622,7 +2658,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2709,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT9">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2900,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT10">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3282,10 +3318,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT12">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3386,7 +3422,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3473,10 +3509,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT13">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3577,7 +3613,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3664,10 +3700,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
+        <v>1.33</v>
+      </c>
+      <c r="AT14">
         <v>1.38</v>
-      </c>
-      <c r="AT14">
-        <v>1.43</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3855,10 +3891,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3959,7 +3995,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4046,10 +4082,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT16">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4237,10 +4273,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT17">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4341,7 +4377,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -4428,10 +4464,10 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT18">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU18">
         <v>1.63</v>
@@ -4622,7 +4658,7 @@
         <v>2.56</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU19">
         <v>1.9</v>
@@ -4813,7 +4849,7 @@
         <v>1.22</v>
       </c>
       <c r="AT20">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU20">
         <v>1.27</v>
@@ -4914,7 +4950,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5001,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT21">
         <v>0.44</v>
@@ -5105,7 +5141,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5192,10 +5228,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT22">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU22">
         <v>1.32</v>
@@ -5383,10 +5419,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT23">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU23">
         <v>1.65</v>
@@ -5487,7 +5523,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5574,10 +5610,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT24">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU24">
         <v>1.56</v>
@@ -5678,7 +5714,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5765,7 +5801,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT25">
         <v>1.11</v>
@@ -5956,10 +5992,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT26">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU26">
         <v>1.8</v>
@@ -6060,7 +6096,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6147,10 +6183,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU27">
         <v>0.99</v>
@@ -6251,7 +6287,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6338,10 +6374,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT28">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU28">
         <v>1.44</v>
@@ -6529,10 +6565,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT29">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU29">
         <v>2.09</v>
@@ -6633,7 +6669,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6720,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT30">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU30">
         <v>1.32</v>
@@ -6824,7 +6860,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -6911,10 +6947,10 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT31">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU31">
         <v>1.66</v>
@@ -7015,7 +7051,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7102,10 +7138,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT32">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU32">
         <v>1.5</v>
@@ -7206,7 +7242,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7293,10 +7329,10 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT33">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU33">
         <v>1.22</v>
@@ -7397,7 +7433,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7484,10 +7520,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT34">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU34">
         <v>1.66</v>
@@ -7675,10 +7711,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT35">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU35">
         <v>1.29</v>
@@ -7866,10 +7902,10 @@
         <v>1.5</v>
       </c>
       <c r="AS36">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT36">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU36">
         <v>1.22</v>
@@ -8057,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT37">
         <v>0.44</v>
@@ -8161,7 +8197,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8248,7 +8284,7 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT38">
         <v>1.11</v>
@@ -8352,7 +8388,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q39">
         <v>12</v>
@@ -8439,10 +8475,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU39">
         <v>1.91</v>
@@ -8633,7 +8669,7 @@
         <v>1.22</v>
       </c>
       <c r="AT40">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU40">
         <v>1.45</v>
@@ -8824,7 +8860,7 @@
         <v>2.56</v>
       </c>
       <c r="AT41">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU41">
         <v>1.98</v>
@@ -9012,10 +9048,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT42">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU42">
         <v>1.05</v>
@@ -9116,7 +9152,7 @@
         <v>88</v>
       </c>
       <c r="P43" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q43">
         <v>12</v>
@@ -9203,10 +9239,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT43">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU43">
         <v>1.7</v>
@@ -9394,10 +9430,10 @@
         <v>0.33</v>
       </c>
       <c r="AS44">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT44">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU44">
         <v>1.52</v>
@@ -9585,10 +9621,10 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT45">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU45">
         <v>1.57</v>
@@ -9689,7 +9725,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9779,7 +9815,7 @@
         <v>2.56</v>
       </c>
       <c r="AT46">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU46">
         <v>2.02</v>
@@ -9970,7 +10006,7 @@
         <v>1.22</v>
       </c>
       <c r="AT47">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU47">
         <v>1.24</v>
@@ -10158,10 +10194,10 @@
         <v>1.33</v>
       </c>
       <c r="AS48">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT48">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU48">
         <v>1.45</v>
@@ -10349,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT49">
         <v>0.44</v>
@@ -10453,7 +10489,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10540,10 +10576,10 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT50">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU50">
         <v>1.75</v>
@@ -10644,7 +10680,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10731,10 +10767,10 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT51">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU51">
         <v>1.62</v>
@@ -10835,7 +10871,7 @@
         <v>114</v>
       </c>
       <c r="P52" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -10922,10 +10958,10 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT52">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU52">
         <v>1.88</v>
@@ -11026,7 +11062,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11113,10 +11149,10 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT53">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU53">
         <v>2.15</v>
@@ -11304,7 +11340,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT54">
         <v>1.11</v>
@@ -11408,7 +11444,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11495,10 +11531,10 @@
         <v>0.25</v>
       </c>
       <c r="AS55">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT55">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU55">
         <v>1.1</v>
@@ -11686,10 +11722,10 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT56">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU56">
         <v>1.87</v>
@@ -11877,10 +11913,10 @@
         <v>0.5</v>
       </c>
       <c r="AS57">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT57">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU57">
         <v>1.42</v>
@@ -11981,7 +12017,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12068,10 +12104,10 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT58">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU58">
         <v>1.66</v>
@@ -12259,10 +12295,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT59">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU59">
         <v>1.85</v>
@@ -12453,7 +12489,7 @@
         <v>2.56</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU60">
         <v>2.09</v>
@@ -12641,10 +12677,10 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT61">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU61">
         <v>1.21</v>
@@ -12832,10 +12868,10 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT62">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU62">
         <v>1.44</v>
@@ -13023,7 +13059,7 @@
         <v>0.25</v>
       </c>
       <c r="AS63">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT63">
         <v>0.44</v>
@@ -13127,7 +13163,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13214,10 +13250,10 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT64">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU64">
         <v>1.69</v>
@@ -13405,10 +13441,10 @@
         <v>0.25</v>
       </c>
       <c r="AS65">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT65">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU65">
         <v>1.5</v>
@@ -13509,7 +13545,7 @@
         <v>88</v>
       </c>
       <c r="P66" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -13599,7 +13635,7 @@
         <v>1.22</v>
       </c>
       <c r="AT66">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU66">
         <v>1.11</v>
@@ -13787,7 +13823,7 @@
         <v>1.75</v>
       </c>
       <c r="AS67">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT67">
         <v>1.11</v>
@@ -13891,7 +13927,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -13978,10 +14014,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT68">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU68">
         <v>1.68</v>
@@ -14082,7 +14118,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14169,10 +14205,10 @@
         <v>2.33</v>
       </c>
       <c r="AS69">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT69">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU69">
         <v>1.96</v>
@@ -14273,7 +14309,7 @@
         <v>100</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14360,10 +14396,10 @@
         <v>0.4</v>
       </c>
       <c r="AS70">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT70">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU70">
         <v>1.69</v>
@@ -14464,7 +14500,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14551,10 +14587,10 @@
         <v>1.2</v>
       </c>
       <c r="AS71">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT71">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU71">
         <v>1.9</v>
@@ -14742,10 +14778,10 @@
         <v>2.25</v>
       </c>
       <c r="AS72">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT72">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU72">
         <v>1.34</v>
@@ -14933,10 +14969,10 @@
         <v>1.8</v>
       </c>
       <c r="AS73">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT73">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU73">
         <v>1.75</v>
@@ -15127,7 +15163,7 @@
         <v>2.56</v>
       </c>
       <c r="AT74">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU74">
         <v>1.99</v>
@@ -15315,10 +15351,10 @@
         <v>1.33</v>
       </c>
       <c r="AS75">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT75">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU75">
         <v>1.88</v>
@@ -15419,7 +15455,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15506,10 +15542,10 @@
         <v>0.4</v>
       </c>
       <c r="AS76">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT76">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU76">
         <v>1.22</v>
@@ -15610,7 +15646,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15697,10 +15733,10 @@
         <v>0.75</v>
       </c>
       <c r="AS77">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT77">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU77">
         <v>2.06</v>
@@ -15891,7 +15927,7 @@
         <v>1.22</v>
       </c>
       <c r="AT78">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU78">
         <v>1.08</v>
@@ -15992,7 +16028,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16079,10 +16115,10 @@
         <v>1.75</v>
       </c>
       <c r="AS79">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT79">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU79">
         <v>1.25</v>
@@ -16183,7 +16219,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16270,10 +16306,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT80">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU80">
         <v>1.67</v>
@@ -16461,7 +16497,7 @@
         <v>1.4</v>
       </c>
       <c r="AS81">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT81">
         <v>1.11</v>
@@ -16565,7 +16601,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q82">
         <v>10</v>
@@ -16652,7 +16688,7 @@
         <v>0.8</v>
       </c>
       <c r="AS82">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT82">
         <v>0.44</v>
@@ -16843,10 +16879,10 @@
         <v>0.4</v>
       </c>
       <c r="AS83">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT83">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU83">
         <v>1.76</v>
@@ -16947,7 +16983,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17034,10 +17070,10 @@
         <v>0.33</v>
       </c>
       <c r="AS84">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT84">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU84">
         <v>1.98</v>
@@ -17225,10 +17261,10 @@
         <v>1.5</v>
       </c>
       <c r="AS85">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT85">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU85">
         <v>1.67</v>
@@ -17416,10 +17452,10 @@
         <v>0.8</v>
       </c>
       <c r="AS86">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT86">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU86">
         <v>1.98</v>
@@ -17520,7 +17556,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17607,10 +17643,10 @@
         <v>0.83</v>
       </c>
       <c r="AS87">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT87">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU87">
         <v>1.34</v>
@@ -17798,10 +17834,10 @@
         <v>1.8</v>
       </c>
       <c r="AS88">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT88">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU88">
         <v>1.83</v>
@@ -17902,7 +17938,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -17989,10 +18025,10 @@
         <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT89">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU89">
         <v>1.42</v>
@@ -18183,7 +18219,7 @@
         <v>2.56</v>
       </c>
       <c r="AT90">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU90">
         <v>1.95</v>
@@ -18284,7 +18320,7 @@
         <v>144</v>
       </c>
       <c r="P91" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18371,10 +18407,10 @@
         <v>0.8</v>
       </c>
       <c r="AS91">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT91">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU91">
         <v>2.09</v>
@@ -18475,7 +18511,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18562,10 +18598,10 @@
         <v>0.83</v>
       </c>
       <c r="AS92">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT92">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU92">
         <v>1.64</v>
@@ -18753,10 +18789,10 @@
         <v>1.5</v>
       </c>
       <c r="AS93">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT93">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU93">
         <v>1.71</v>
@@ -19135,10 +19171,10 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT95">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU95">
         <v>1.61</v>
@@ -19326,10 +19362,10 @@
         <v>1.8</v>
       </c>
       <c r="AS96">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT96">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU96">
         <v>1.72</v>
@@ -19430,7 +19466,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19517,7 +19553,7 @@
         <v>1.17</v>
       </c>
       <c r="AS97">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT97">
         <v>1.11</v>
@@ -19621,7 +19657,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19708,10 +19744,10 @@
         <v>2</v>
       </c>
       <c r="AS98">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT98">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU98">
         <v>1.99</v>
@@ -19812,7 +19848,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -19899,10 +19935,10 @@
         <v>0.25</v>
       </c>
       <c r="AS99">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT99">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU99">
         <v>1.3</v>
@@ -20003,7 +20039,7 @@
         <v>88</v>
       </c>
       <c r="P100" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20090,10 +20126,10 @@
         <v>0.33</v>
       </c>
       <c r="AS100">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT100">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU100">
         <v>1.79</v>
@@ -20194,7 +20230,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q101">
         <v>12</v>
@@ -20281,10 +20317,10 @@
         <v>2</v>
       </c>
       <c r="AS101">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT101">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU101">
         <v>1.61</v>
@@ -20472,10 +20508,10 @@
         <v>0.83</v>
       </c>
       <c r="AS102">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT102">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU102">
         <v>1.57</v>
@@ -20576,7 +20612,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20663,10 +20699,10 @@
         <v>1.29</v>
       </c>
       <c r="AS103">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT103">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU103">
         <v>1.38</v>
@@ -20854,10 +20890,10 @@
         <v>0.86</v>
       </c>
       <c r="AS104">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT104">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU104">
         <v>1.54</v>
@@ -21048,7 +21084,7 @@
         <v>2.56</v>
       </c>
       <c r="AT105">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU105">
         <v>1.82</v>
@@ -21149,7 +21185,7 @@
         <v>152</v>
       </c>
       <c r="P106" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21236,10 +21272,10 @@
         <v>1.5</v>
       </c>
       <c r="AS106">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT106">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU106">
         <v>2.04</v>
@@ -21427,7 +21463,7 @@
         <v>0.57</v>
       </c>
       <c r="AS107">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT107">
         <v>0.44</v>
@@ -21618,10 +21654,10 @@
         <v>0.71</v>
       </c>
       <c r="AS108">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT108">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU108">
         <v>2.28</v>
@@ -21722,7 +21758,7 @@
         <v>155</v>
       </c>
       <c r="P109" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q109">
         <v>8</v>
@@ -21809,10 +21845,10 @@
         <v>1.71</v>
       </c>
       <c r="AS109">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT109">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU109">
         <v>1.85</v>
@@ -21913,7 +21949,7 @@
         <v>100</v>
       </c>
       <c r="P110" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22000,10 +22036,10 @@
         <v>2.17</v>
       </c>
       <c r="AS110">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT110">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU110">
         <v>1.85</v>
@@ -22104,7 +22140,7 @@
         <v>88</v>
       </c>
       <c r="P111" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22194,7 +22230,7 @@
         <v>1.22</v>
       </c>
       <c r="AT111">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU111">
         <v>1.07</v>
@@ -22382,10 +22418,10 @@
         <v>1.5</v>
       </c>
       <c r="AS112">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT112">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU112">
         <v>1.68</v>
@@ -22573,7 +22609,7 @@
         <v>1.14</v>
       </c>
       <c r="AS113">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT113">
         <v>1.11</v>
@@ -22677,7 +22713,7 @@
         <v>157</v>
       </c>
       <c r="P114" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22764,10 +22800,10 @@
         <v>0.8</v>
       </c>
       <c r="AS114">
+        <v>1.33</v>
+      </c>
+      <c r="AT114">
         <v>1.38</v>
-      </c>
-      <c r="AT114">
-        <v>1.43</v>
       </c>
       <c r="AU114">
         <v>1.58</v>
@@ -22868,7 +22904,7 @@
         <v>116</v>
       </c>
       <c r="P115" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -22955,10 +22991,10 @@
         <v>1.75</v>
       </c>
       <c r="AS115">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT115">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU115">
         <v>1.62</v>
@@ -23146,10 +23182,10 @@
         <v>0.67</v>
       </c>
       <c r="AS116">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT116">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU116">
         <v>1.29</v>
@@ -23337,10 +23373,10 @@
         <v>0.8</v>
       </c>
       <c r="AS117">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT117">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU117">
         <v>2.02</v>
@@ -23441,7 +23477,7 @@
         <v>159</v>
       </c>
       <c r="P118" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23528,7 +23564,7 @@
         <v>1.13</v>
       </c>
       <c r="AS118">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT118">
         <v>1.11</v>
@@ -23632,7 +23668,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -23719,10 +23755,10 @@
         <v>2</v>
       </c>
       <c r="AS119">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT119">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU119">
         <v>1.68</v>
@@ -23913,7 +23949,7 @@
         <v>1.22</v>
       </c>
       <c r="AT120">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU120">
         <v>1.1</v>
@@ -24014,7 +24050,7 @@
         <v>88</v>
       </c>
       <c r="P121" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24101,10 +24137,10 @@
         <v>1.17</v>
       </c>
       <c r="AS121">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT121">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU121">
         <v>1.9</v>
@@ -24205,7 +24241,7 @@
         <v>88</v>
       </c>
       <c r="P122" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24292,10 +24328,10 @@
         <v>0.57</v>
       </c>
       <c r="AS122">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT122">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU122">
         <v>1.52</v>
@@ -24396,7 +24432,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24483,10 +24519,10 @@
         <v>2</v>
       </c>
       <c r="AS123">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT123">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU123">
         <v>2.03</v>
@@ -24587,7 +24623,7 @@
         <v>88</v>
       </c>
       <c r="P124" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -24674,10 +24710,10 @@
         <v>1.43</v>
       </c>
       <c r="AS124">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT124">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU124">
         <v>1.36</v>
@@ -24865,10 +24901,10 @@
         <v>1.17</v>
       </c>
       <c r="AS125">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT125">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU125">
         <v>1.66</v>
@@ -24969,7 +25005,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25056,10 +25092,10 @@
         <v>0.86</v>
       </c>
       <c r="AS126">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT126">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU126">
         <v>1.65</v>
@@ -25302,6 +25338,2680 @@
       </c>
       <c r="BK127">
         <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>2708226</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>44870.41666666666</v>
+      </c>
+      <c r="F128">
+        <v>17</v>
+      </c>
+      <c r="G128" t="s">
+        <v>67</v>
+      </c>
+      <c r="H128" t="s">
+        <v>75</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>2</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>5</v>
+      </c>
+      <c r="N128">
+        <v>5</v>
+      </c>
+      <c r="O128" t="s">
+        <v>88</v>
+      </c>
+      <c r="P128" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q128">
+        <v>6</v>
+      </c>
+      <c r="R128">
+        <v>8</v>
+      </c>
+      <c r="S128">
+        <v>14</v>
+      </c>
+      <c r="T128">
+        <v>4</v>
+      </c>
+      <c r="U128">
+        <v>2</v>
+      </c>
+      <c r="V128">
+        <v>3</v>
+      </c>
+      <c r="W128">
+        <v>1.53</v>
+      </c>
+      <c r="X128">
+        <v>2.38</v>
+      </c>
+      <c r="Y128">
+        <v>3.5</v>
+      </c>
+      <c r="Z128">
+        <v>1.29</v>
+      </c>
+      <c r="AA128">
+        <v>11</v>
+      </c>
+      <c r="AB128">
+        <v>1.05</v>
+      </c>
+      <c r="AC128">
+        <v>2.7</v>
+      </c>
+      <c r="AD128">
+        <v>3</v>
+      </c>
+      <c r="AE128">
+        <v>2.39</v>
+      </c>
+      <c r="AF128">
+        <v>1.03</v>
+      </c>
+      <c r="AG128">
+        <v>8.75</v>
+      </c>
+      <c r="AH128">
+        <v>1.5</v>
+      </c>
+      <c r="AI128">
+        <v>2.43</v>
+      </c>
+      <c r="AJ128">
+        <v>2.3</v>
+      </c>
+      <c r="AK128">
+        <v>1.55</v>
+      </c>
+      <c r="AL128">
+        <v>2</v>
+      </c>
+      <c r="AM128">
+        <v>1.73</v>
+      </c>
+      <c r="AN128">
+        <v>1.83</v>
+      </c>
+      <c r="AO128">
+        <v>1.29</v>
+      </c>
+      <c r="AP128">
+        <v>1.23</v>
+      </c>
+      <c r="AQ128">
+        <v>1.63</v>
+      </c>
+      <c r="AR128">
+        <v>1.5</v>
+      </c>
+      <c r="AS128">
+        <v>1.44</v>
+      </c>
+      <c r="AT128">
+        <v>1.67</v>
+      </c>
+      <c r="AU128">
+        <v>1.52</v>
+      </c>
+      <c r="AV128">
+        <v>1.71</v>
+      </c>
+      <c r="AW128">
+        <v>3.23</v>
+      </c>
+      <c r="AX128">
+        <v>2.92</v>
+      </c>
+      <c r="AY128">
+        <v>7.5</v>
+      </c>
+      <c r="AZ128">
+        <v>1.64</v>
+      </c>
+      <c r="BA128">
+        <v>1.51</v>
+      </c>
+      <c r="BB128">
+        <v>1.95</v>
+      </c>
+      <c r="BC128">
+        <v>2.57</v>
+      </c>
+      <c r="BD128">
+        <v>3.48</v>
+      </c>
+      <c r="BE128">
+        <v>5.2</v>
+      </c>
+      <c r="BF128">
+        <v>2</v>
+      </c>
+      <c r="BG128">
+        <v>10</v>
+      </c>
+      <c r="BH128">
+        <v>3</v>
+      </c>
+      <c r="BI128">
+        <v>9</v>
+      </c>
+      <c r="BJ128">
+        <v>5</v>
+      </c>
+      <c r="BK128">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>2708225</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>44870.54166666666</v>
+      </c>
+      <c r="F129">
+        <v>17</v>
+      </c>
+      <c r="G129" t="s">
+        <v>72</v>
+      </c>
+      <c r="H129" t="s">
+        <v>80</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>3</v>
+      </c>
+      <c r="O129" t="s">
+        <v>164</v>
+      </c>
+      <c r="P129" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q129">
+        <v>1</v>
+      </c>
+      <c r="R129">
+        <v>4</v>
+      </c>
+      <c r="S129">
+        <v>5</v>
+      </c>
+      <c r="T129">
+        <v>3.4</v>
+      </c>
+      <c r="U129">
+        <v>1.91</v>
+      </c>
+      <c r="V129">
+        <v>3.75</v>
+      </c>
+      <c r="W129">
+        <v>1.57</v>
+      </c>
+      <c r="X129">
+        <v>2.25</v>
+      </c>
+      <c r="Y129">
+        <v>3.75</v>
+      </c>
+      <c r="Z129">
+        <v>1.25</v>
+      </c>
+      <c r="AA129">
+        <v>13</v>
+      </c>
+      <c r="AB129">
+        <v>1.04</v>
+      </c>
+      <c r="AC129">
+        <v>2.55</v>
+      </c>
+      <c r="AD129">
+        <v>2.95</v>
+      </c>
+      <c r="AE129">
+        <v>2.6</v>
+      </c>
+      <c r="AF129">
+        <v>1.11</v>
+      </c>
+      <c r="AG129">
+        <v>6</v>
+      </c>
+      <c r="AH129">
+        <v>1.58</v>
+      </c>
+      <c r="AI129">
+        <v>2.33</v>
+      </c>
+      <c r="AJ129">
+        <v>2.55</v>
+      </c>
+      <c r="AK129">
+        <v>1.45</v>
+      </c>
+      <c r="AL129">
+        <v>2.2</v>
+      </c>
+      <c r="AM129">
+        <v>1.62</v>
+      </c>
+      <c r="AN129">
+        <v>1.39</v>
+      </c>
+      <c r="AO129">
+        <v>1.36</v>
+      </c>
+      <c r="AP129">
+        <v>1.49</v>
+      </c>
+      <c r="AQ129">
+        <v>1.38</v>
+      </c>
+      <c r="AR129">
+        <v>0.63</v>
+      </c>
+      <c r="AS129">
+        <v>1.56</v>
+      </c>
+      <c r="AT129">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU129">
+        <v>1.31</v>
+      </c>
+      <c r="AV129">
+        <v>1.22</v>
+      </c>
+      <c r="AW129">
+        <v>2.53</v>
+      </c>
+      <c r="AX129">
+        <v>2.14</v>
+      </c>
+      <c r="AY129">
+        <v>7.1</v>
+      </c>
+      <c r="AZ129">
+        <v>2.06</v>
+      </c>
+      <c r="BA129">
+        <v>1.51</v>
+      </c>
+      <c r="BB129">
+        <v>1.9</v>
+      </c>
+      <c r="BC129">
+        <v>2.55</v>
+      </c>
+      <c r="BD129">
+        <v>3.48</v>
+      </c>
+      <c r="BE129">
+        <v>5.2</v>
+      </c>
+      <c r="BF129">
+        <v>5</v>
+      </c>
+      <c r="BG129">
+        <v>4</v>
+      </c>
+      <c r="BH129">
+        <v>4</v>
+      </c>
+      <c r="BI129">
+        <v>5</v>
+      </c>
+      <c r="BJ129">
+        <v>9</v>
+      </c>
+      <c r="BK129">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>2708227</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>44870.66666666666</v>
+      </c>
+      <c r="F130">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>66</v>
+      </c>
+      <c r="H130" t="s">
+        <v>77</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130" t="s">
+        <v>165</v>
+      </c>
+      <c r="P130" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q130">
+        <v>6</v>
+      </c>
+      <c r="R130">
+        <v>2</v>
+      </c>
+      <c r="S130">
+        <v>8</v>
+      </c>
+      <c r="T130">
+        <v>2.38</v>
+      </c>
+      <c r="U130">
+        <v>2.05</v>
+      </c>
+      <c r="V130">
+        <v>6</v>
+      </c>
+      <c r="W130">
+        <v>1.5</v>
+      </c>
+      <c r="X130">
+        <v>2.5</v>
+      </c>
+      <c r="Y130">
+        <v>3.5</v>
+      </c>
+      <c r="Z130">
+        <v>1.29</v>
+      </c>
+      <c r="AA130">
+        <v>11</v>
+      </c>
+      <c r="AB130">
+        <v>1.05</v>
+      </c>
+      <c r="AC130">
+        <v>1.77</v>
+      </c>
+      <c r="AD130">
+        <v>3.44</v>
+      </c>
+      <c r="AE130">
+        <v>4.74</v>
+      </c>
+      <c r="AF130">
+        <v>1.03</v>
+      </c>
+      <c r="AG130">
+        <v>8.75</v>
+      </c>
+      <c r="AH130">
+        <v>1.37</v>
+      </c>
+      <c r="AI130">
+        <v>2.8</v>
+      </c>
+      <c r="AJ130">
+        <v>2.28</v>
+      </c>
+      <c r="AK130">
+        <v>1.61</v>
+      </c>
+      <c r="AL130">
+        <v>2.25</v>
+      </c>
+      <c r="AM130">
+        <v>1.57</v>
+      </c>
+      <c r="AN130">
+        <v>1.12</v>
+      </c>
+      <c r="AO130">
+        <v>1.25</v>
+      </c>
+      <c r="AP130">
+        <v>2.25</v>
+      </c>
+      <c r="AQ130">
+        <v>2.13</v>
+      </c>
+      <c r="AR130">
+        <v>0.75</v>
+      </c>
+      <c r="AS130">
+        <v>2.22</v>
+      </c>
+      <c r="AT130">
+        <v>0.67</v>
+      </c>
+      <c r="AU130">
+        <v>1.99</v>
+      </c>
+      <c r="AV130">
+        <v>1.25</v>
+      </c>
+      <c r="AW130">
+        <v>3.24</v>
+      </c>
+      <c r="AX130">
+        <v>1.25</v>
+      </c>
+      <c r="AY130">
+        <v>6.75</v>
+      </c>
+      <c r="AZ130">
+        <v>4.75</v>
+      </c>
+      <c r="BA130">
+        <v>1.49</v>
+      </c>
+      <c r="BB130">
+        <v>1.83</v>
+      </c>
+      <c r="BC130">
+        <v>2.52</v>
+      </c>
+      <c r="BD130">
+        <v>3.42</v>
+      </c>
+      <c r="BE130">
+        <v>5</v>
+      </c>
+      <c r="BF130">
+        <v>7</v>
+      </c>
+      <c r="BG130">
+        <v>2</v>
+      </c>
+      <c r="BH130">
+        <v>10</v>
+      </c>
+      <c r="BI130">
+        <v>7</v>
+      </c>
+      <c r="BJ130">
+        <v>17</v>
+      </c>
+      <c r="BK130">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2708231</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>44871.46875</v>
+      </c>
+      <c r="F131">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>65</v>
+      </c>
+      <c r="H131" t="s">
+        <v>79</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>88</v>
+      </c>
+      <c r="P131" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q131">
+        <v>9</v>
+      </c>
+      <c r="R131">
+        <v>3</v>
+      </c>
+      <c r="S131">
+        <v>12</v>
+      </c>
+      <c r="T131">
+        <v>3.1</v>
+      </c>
+      <c r="U131">
+        <v>1.9</v>
+      </c>
+      <c r="V131">
+        <v>3.7</v>
+      </c>
+      <c r="W131">
+        <v>1.52</v>
+      </c>
+      <c r="X131">
+        <v>2.35</v>
+      </c>
+      <c r="Y131">
+        <v>3.4</v>
+      </c>
+      <c r="Z131">
+        <v>1.27</v>
+      </c>
+      <c r="AA131">
+        <v>9.75</v>
+      </c>
+      <c r="AB131">
+        <v>1.05</v>
+      </c>
+      <c r="AC131">
+        <v>2.36</v>
+      </c>
+      <c r="AD131">
+        <v>2.91</v>
+      </c>
+      <c r="AE131">
+        <v>2.84</v>
+      </c>
+      <c r="AF131">
+        <v>1.1</v>
+      </c>
+      <c r="AG131">
+        <v>8</v>
+      </c>
+      <c r="AH131">
+        <v>1.53</v>
+      </c>
+      <c r="AI131">
+        <v>2.5</v>
+      </c>
+      <c r="AJ131">
+        <v>2.35</v>
+      </c>
+      <c r="AK131">
+        <v>1.53</v>
+      </c>
+      <c r="AL131">
+        <v>2.05</v>
+      </c>
+      <c r="AM131">
+        <v>1.68</v>
+      </c>
+      <c r="AN131">
+        <v>1.36</v>
+      </c>
+      <c r="AO131">
+        <v>1.35</v>
+      </c>
+      <c r="AP131">
+        <v>1.53</v>
+      </c>
+      <c r="AQ131">
+        <v>1.86</v>
+      </c>
+      <c r="AR131">
+        <v>1</v>
+      </c>
+      <c r="AS131">
+        <v>1.63</v>
+      </c>
+      <c r="AT131">
+        <v>1.22</v>
+      </c>
+      <c r="AU131">
+        <v>1.38</v>
+      </c>
+      <c r="AV131">
+        <v>1.57</v>
+      </c>
+      <c r="AW131">
+        <v>2.95</v>
+      </c>
+      <c r="AX131">
+        <v>1.75</v>
+      </c>
+      <c r="AY131">
+        <v>7.5</v>
+      </c>
+      <c r="AZ131">
+        <v>2.53</v>
+      </c>
+      <c r="BA131">
+        <v>1.67</v>
+      </c>
+      <c r="BB131">
+        <v>2.14</v>
+      </c>
+      <c r="BC131">
+        <v>2.93</v>
+      </c>
+      <c r="BD131">
+        <v>4.2</v>
+      </c>
+      <c r="BE131">
+        <v>5</v>
+      </c>
+      <c r="BF131">
+        <v>5</v>
+      </c>
+      <c r="BG131">
+        <v>7</v>
+      </c>
+      <c r="BH131">
+        <v>7</v>
+      </c>
+      <c r="BI131">
+        <v>2</v>
+      </c>
+      <c r="BJ131">
+        <v>12</v>
+      </c>
+      <c r="BK131">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>2708228</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>44871.66666666666</v>
+      </c>
+      <c r="F132">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>70</v>
+      </c>
+      <c r="H132" t="s">
+        <v>78</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>3</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>4</v>
+      </c>
+      <c r="O132" t="s">
+        <v>166</v>
+      </c>
+      <c r="P132" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q132">
+        <v>3</v>
+      </c>
+      <c r="R132">
+        <v>7</v>
+      </c>
+      <c r="S132">
+        <v>10</v>
+      </c>
+      <c r="T132">
+        <v>2.8</v>
+      </c>
+      <c r="U132">
+        <v>2</v>
+      </c>
+      <c r="V132">
+        <v>3.7</v>
+      </c>
+      <c r="W132">
+        <v>1.46</v>
+      </c>
+      <c r="X132">
+        <v>2.55</v>
+      </c>
+      <c r="Y132">
+        <v>3.1</v>
+      </c>
+      <c r="Z132">
+        <v>1.31</v>
+      </c>
+      <c r="AA132">
+        <v>8.5</v>
+      </c>
+      <c r="AB132">
+        <v>1.06</v>
+      </c>
+      <c r="AC132">
+        <v>2.13</v>
+      </c>
+      <c r="AD132">
+        <v>3.07</v>
+      </c>
+      <c r="AE132">
+        <v>3.07</v>
+      </c>
+      <c r="AF132">
+        <v>1.07</v>
+      </c>
+      <c r="AG132">
+        <v>7.5</v>
+      </c>
+      <c r="AH132">
+        <v>1.41</v>
+      </c>
+      <c r="AI132">
+        <v>2.95</v>
+      </c>
+      <c r="AJ132">
+        <v>2.2</v>
+      </c>
+      <c r="AK132">
+        <v>1.6</v>
+      </c>
+      <c r="AL132">
+        <v>1.95</v>
+      </c>
+      <c r="AM132">
+        <v>1.73</v>
+      </c>
+      <c r="AN132">
+        <v>1.33</v>
+      </c>
+      <c r="AO132">
+        <v>1.32</v>
+      </c>
+      <c r="AP132">
+        <v>1.62</v>
+      </c>
+      <c r="AQ132">
+        <v>1.86</v>
+      </c>
+      <c r="AR132">
+        <v>1.5</v>
+      </c>
+      <c r="AS132">
+        <v>2</v>
+      </c>
+      <c r="AT132">
+        <v>1.33</v>
+      </c>
+      <c r="AU132">
+        <v>2.22</v>
+      </c>
+      <c r="AV132">
+        <v>1.32</v>
+      </c>
+      <c r="AW132">
+        <v>3.54</v>
+      </c>
+      <c r="AX132">
+        <v>1.64</v>
+      </c>
+      <c r="AY132">
+        <v>8</v>
+      </c>
+      <c r="AZ132">
+        <v>2.67</v>
+      </c>
+      <c r="BA132">
+        <v>1.41</v>
+      </c>
+      <c r="BB132">
+        <v>1.75</v>
+      </c>
+      <c r="BC132">
+        <v>2.25</v>
+      </c>
+      <c r="BD132">
+        <v>3.04</v>
+      </c>
+      <c r="BE132">
+        <v>4.75</v>
+      </c>
+      <c r="BF132">
+        <v>7</v>
+      </c>
+      <c r="BG132">
+        <v>8</v>
+      </c>
+      <c r="BH132">
+        <v>7</v>
+      </c>
+      <c r="BI132">
+        <v>4</v>
+      </c>
+      <c r="BJ132">
+        <v>14</v>
+      </c>
+      <c r="BK132">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>2708229</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44872.66666666666</v>
+      </c>
+      <c r="F133">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>68</v>
+      </c>
+      <c r="H133" t="s">
+        <v>76</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>2</v>
+      </c>
+      <c r="L133">
+        <v>3</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>4</v>
+      </c>
+      <c r="O133" t="s">
+        <v>167</v>
+      </c>
+      <c r="P133" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q133">
+        <v>10</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="S133">
+        <v>10</v>
+      </c>
+      <c r="T133">
+        <v>2.3</v>
+      </c>
+      <c r="U133">
+        <v>2.05</v>
+      </c>
+      <c r="V133">
+        <v>5.25</v>
+      </c>
+      <c r="W133">
+        <v>1.47</v>
+      </c>
+      <c r="X133">
+        <v>2.45</v>
+      </c>
+      <c r="Y133">
+        <v>3.25</v>
+      </c>
+      <c r="Z133">
+        <v>1.29</v>
+      </c>
+      <c r="AA133">
+        <v>9</v>
+      </c>
+      <c r="AB133">
+        <v>1.06</v>
+      </c>
+      <c r="AC133">
+        <v>1.65</v>
+      </c>
+      <c r="AD133">
+        <v>3.5</v>
+      </c>
+      <c r="AE133">
+        <v>5</v>
+      </c>
+      <c r="AF133">
+        <v>1.08</v>
+      </c>
+      <c r="AG133">
+        <v>7</v>
+      </c>
+      <c r="AH133">
+        <v>1.44</v>
+      </c>
+      <c r="AI133">
+        <v>2.6</v>
+      </c>
+      <c r="AJ133">
+        <v>2.13</v>
+      </c>
+      <c r="AK133">
+        <v>1.56</v>
+      </c>
+      <c r="AL133">
+        <v>2.25</v>
+      </c>
+      <c r="AM133">
+        <v>1.57</v>
+      </c>
+      <c r="AN133">
+        <v>1.16</v>
+      </c>
+      <c r="AO133">
+        <v>1.28</v>
+      </c>
+      <c r="AP133">
+        <v>2.1</v>
+      </c>
+      <c r="AQ133">
+        <v>2.25</v>
+      </c>
+      <c r="AR133">
+        <v>0.75</v>
+      </c>
+      <c r="AS133">
+        <v>2.33</v>
+      </c>
+      <c r="AT133">
+        <v>0.67</v>
+      </c>
+      <c r="AU133">
+        <v>1.87</v>
+      </c>
+      <c r="AV133">
+        <v>1.52</v>
+      </c>
+      <c r="AW133">
+        <v>3.39</v>
+      </c>
+      <c r="AX133">
+        <v>1.64</v>
+      </c>
+      <c r="AY133">
+        <v>8</v>
+      </c>
+      <c r="AZ133">
+        <v>2.77</v>
+      </c>
+      <c r="BA133">
+        <v>1.39</v>
+      </c>
+      <c r="BB133">
+        <v>1.73</v>
+      </c>
+      <c r="BC133">
+        <v>2.23</v>
+      </c>
+      <c r="BD133">
+        <v>2.98</v>
+      </c>
+      <c r="BE133">
+        <v>4.75</v>
+      </c>
+      <c r="BF133">
+        <v>6</v>
+      </c>
+      <c r="BG133">
+        <v>5</v>
+      </c>
+      <c r="BH133">
+        <v>13</v>
+      </c>
+      <c r="BI133">
+        <v>8</v>
+      </c>
+      <c r="BJ133">
+        <v>19</v>
+      </c>
+      <c r="BK133">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>2708233</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44876.66666666666</v>
+      </c>
+      <c r="F134">
+        <v>18</v>
+      </c>
+      <c r="G134" t="s">
+        <v>75</v>
+      </c>
+      <c r="H134" t="s">
+        <v>72</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134" t="s">
+        <v>168</v>
+      </c>
+      <c r="P134" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q134">
+        <v>6</v>
+      </c>
+      <c r="R134">
+        <v>1</v>
+      </c>
+      <c r="S134">
+        <v>7</v>
+      </c>
+      <c r="T134">
+        <v>2.45</v>
+      </c>
+      <c r="U134">
+        <v>2.05</v>
+      </c>
+      <c r="V134">
+        <v>4.75</v>
+      </c>
+      <c r="W134">
+        <v>1.45</v>
+      </c>
+      <c r="X134">
+        <v>2.5</v>
+      </c>
+      <c r="Y134">
+        <v>3.1</v>
+      </c>
+      <c r="Z134">
+        <v>1.32</v>
+      </c>
+      <c r="AA134">
+        <v>7.25</v>
+      </c>
+      <c r="AB134">
+        <v>1.06</v>
+      </c>
+      <c r="AC134">
+        <v>1.47</v>
+      </c>
+      <c r="AD134">
+        <v>3.9</v>
+      </c>
+      <c r="AE134">
+        <v>5.6</v>
+      </c>
+      <c r="AF134">
+        <v>1.07</v>
+      </c>
+      <c r="AG134">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AH134">
+        <v>1.33</v>
+      </c>
+      <c r="AI134">
+        <v>3.1</v>
+      </c>
+      <c r="AJ134">
+        <v>2.24</v>
+      </c>
+      <c r="AK134">
+        <v>1.58</v>
+      </c>
+      <c r="AL134">
+        <v>1.95</v>
+      </c>
+      <c r="AM134">
+        <v>1.75</v>
+      </c>
+      <c r="AN134">
+        <v>1.08</v>
+      </c>
+      <c r="AO134">
+        <v>1.2</v>
+      </c>
+      <c r="AP134">
+        <v>2.25</v>
+      </c>
+      <c r="AQ134">
+        <v>0.88</v>
+      </c>
+      <c r="AR134">
+        <v>1.5</v>
+      </c>
+      <c r="AS134">
+        <v>1.11</v>
+      </c>
+      <c r="AT134">
+        <v>1.33</v>
+      </c>
+      <c r="AU134">
+        <v>1.9</v>
+      </c>
+      <c r="AV134">
+        <v>1.08</v>
+      </c>
+      <c r="AW134">
+        <v>2.98</v>
+      </c>
+      <c r="AX134">
+        <v>1.21</v>
+      </c>
+      <c r="AY134">
+        <v>10</v>
+      </c>
+      <c r="AZ134">
+        <v>5.65</v>
+      </c>
+      <c r="BA134">
+        <v>1.39</v>
+      </c>
+      <c r="BB134">
+        <v>1.73</v>
+      </c>
+      <c r="BC134">
+        <v>2.23</v>
+      </c>
+      <c r="BD134">
+        <v>2.98</v>
+      </c>
+      <c r="BE134">
+        <v>3.9</v>
+      </c>
+      <c r="BF134">
+        <v>10</v>
+      </c>
+      <c r="BG134">
+        <v>0</v>
+      </c>
+      <c r="BH134">
+        <v>3</v>
+      </c>
+      <c r="BI134">
+        <v>3</v>
+      </c>
+      <c r="BJ134">
+        <v>13</v>
+      </c>
+      <c r="BK134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>2708238</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44877.52083333334</v>
+      </c>
+      <c r="F135">
+        <v>18</v>
+      </c>
+      <c r="G135" t="s">
+        <v>79</v>
+      </c>
+      <c r="H135" t="s">
+        <v>69</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135" t="s">
+        <v>141</v>
+      </c>
+      <c r="P135" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q135">
+        <v>5</v>
+      </c>
+      <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
+        <v>7</v>
+      </c>
+      <c r="T135">
+        <v>3.75</v>
+      </c>
+      <c r="U135">
+        <v>1.9</v>
+      </c>
+      <c r="V135">
+        <v>3</v>
+      </c>
+      <c r="W135">
+        <v>1.53</v>
+      </c>
+      <c r="X135">
+        <v>2.37</v>
+      </c>
+      <c r="Y135">
+        <v>3.4</v>
+      </c>
+      <c r="Z135">
+        <v>1.27</v>
+      </c>
+      <c r="AA135">
+        <v>8</v>
+      </c>
+      <c r="AB135">
+        <v>1.05</v>
+      </c>
+      <c r="AC135">
+        <v>3.42</v>
+      </c>
+      <c r="AD135">
+        <v>3.18</v>
+      </c>
+      <c r="AE135">
+        <v>2.18</v>
+      </c>
+      <c r="AF135">
+        <v>1.09</v>
+      </c>
+      <c r="AG135">
+        <v>7.8</v>
+      </c>
+      <c r="AH135">
+        <v>1.45</v>
+      </c>
+      <c r="AI135">
+        <v>2.65</v>
+      </c>
+      <c r="AJ135">
+        <v>2.35</v>
+      </c>
+      <c r="AK135">
+        <v>1.53</v>
+      </c>
+      <c r="AL135">
+        <v>2</v>
+      </c>
+      <c r="AM135">
+        <v>1.75</v>
+      </c>
+      <c r="AN135">
+        <v>1.53</v>
+      </c>
+      <c r="AO135">
+        <v>1.3</v>
+      </c>
+      <c r="AP135">
+        <v>1.28</v>
+      </c>
+      <c r="AQ135">
+        <v>1.14</v>
+      </c>
+      <c r="AR135">
+        <v>2.13</v>
+      </c>
+      <c r="AS135">
+        <v>1.13</v>
+      </c>
+      <c r="AT135">
+        <v>2</v>
+      </c>
+      <c r="AU135">
+        <v>1.63</v>
+      </c>
+      <c r="AV135">
+        <v>1.58</v>
+      </c>
+      <c r="AW135">
+        <v>3.21</v>
+      </c>
+      <c r="AX135">
+        <v>2.53</v>
+      </c>
+      <c r="AY135">
+        <v>7.5</v>
+      </c>
+      <c r="AZ135">
+        <v>1.75</v>
+      </c>
+      <c r="BA135">
+        <v>1.51</v>
+      </c>
+      <c r="BB135">
+        <v>1.95</v>
+      </c>
+      <c r="BC135">
+        <v>2.55</v>
+      </c>
+      <c r="BD135">
+        <v>3.48</v>
+      </c>
+      <c r="BE135">
+        <v>5.4</v>
+      </c>
+      <c r="BF135">
+        <v>8</v>
+      </c>
+      <c r="BG135">
+        <v>5</v>
+      </c>
+      <c r="BH135">
+        <v>6</v>
+      </c>
+      <c r="BI135">
+        <v>5</v>
+      </c>
+      <c r="BJ135">
+        <v>14</v>
+      </c>
+      <c r="BK135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>2708235</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44877.64583333334</v>
+      </c>
+      <c r="F136">
+        <v>18</v>
+      </c>
+      <c r="G136" t="s">
+        <v>78</v>
+      </c>
+      <c r="H136" t="s">
+        <v>66</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>2</v>
+      </c>
+      <c r="K136">
+        <v>3</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>2</v>
+      </c>
+      <c r="N136">
+        <v>4</v>
+      </c>
+      <c r="O136" t="s">
+        <v>169</v>
+      </c>
+      <c r="P136" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q136">
+        <v>4</v>
+      </c>
+      <c r="R136">
+        <v>5</v>
+      </c>
+      <c r="S136">
+        <v>9</v>
+      </c>
+      <c r="T136">
+        <v>3.3</v>
+      </c>
+      <c r="U136">
+        <v>1.88</v>
+      </c>
+      <c r="V136">
+        <v>3.7</v>
+      </c>
+      <c r="W136">
+        <v>1.58</v>
+      </c>
+      <c r="X136">
+        <v>2.25</v>
+      </c>
+      <c r="Y136">
+        <v>3.6</v>
+      </c>
+      <c r="Z136">
+        <v>1.25</v>
+      </c>
+      <c r="AA136">
+        <v>8.5</v>
+      </c>
+      <c r="AB136">
+        <v>1.04</v>
+      </c>
+      <c r="AC136">
+        <v>2.8</v>
+      </c>
+      <c r="AD136">
+        <v>3.1</v>
+      </c>
+      <c r="AE136">
+        <v>2.55</v>
+      </c>
+      <c r="AF136">
+        <v>1.11</v>
+      </c>
+      <c r="AG136">
+        <v>7.15</v>
+      </c>
+      <c r="AH136">
+        <v>1.5</v>
+      </c>
+      <c r="AI136">
+        <v>2.45</v>
+      </c>
+      <c r="AJ136">
+        <v>2.25</v>
+      </c>
+      <c r="AK136">
+        <v>1.65</v>
+      </c>
+      <c r="AL136">
+        <v>2.1</v>
+      </c>
+      <c r="AM136">
+        <v>1.65</v>
+      </c>
+      <c r="AN136">
+        <v>1.33</v>
+      </c>
+      <c r="AO136">
+        <v>1.3</v>
+      </c>
+      <c r="AP136">
+        <v>1.44</v>
+      </c>
+      <c r="AQ136">
+        <v>2.5</v>
+      </c>
+      <c r="AR136">
+        <v>1.43</v>
+      </c>
+      <c r="AS136">
+        <v>2.33</v>
+      </c>
+      <c r="AT136">
+        <v>1.38</v>
+      </c>
+      <c r="AU136">
+        <v>2</v>
+      </c>
+      <c r="AV136">
+        <v>1.68</v>
+      </c>
+      <c r="AW136">
+        <v>3.68</v>
+      </c>
+      <c r="AX136">
+        <v>1.91</v>
+      </c>
+      <c r="AY136">
+        <v>7.5</v>
+      </c>
+      <c r="AZ136">
+        <v>2.2</v>
+      </c>
+      <c r="BA136">
+        <v>1.41</v>
+      </c>
+      <c r="BB136">
+        <v>1.75</v>
+      </c>
+      <c r="BC136">
+        <v>2.25</v>
+      </c>
+      <c r="BD136">
+        <v>3.04</v>
+      </c>
+      <c r="BE136">
+        <v>4.32</v>
+      </c>
+      <c r="BF136">
+        <v>5</v>
+      </c>
+      <c r="BG136">
+        <v>5</v>
+      </c>
+      <c r="BH136">
+        <v>8</v>
+      </c>
+      <c r="BI136">
+        <v>3</v>
+      </c>
+      <c r="BJ136">
+        <v>13</v>
+      </c>
+      <c r="BK136">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>2708240</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>44878.44791666666</v>
+      </c>
+      <c r="F137">
+        <v>18</v>
+      </c>
+      <c r="G137" t="s">
+        <v>80</v>
+      </c>
+      <c r="H137" t="s">
+        <v>74</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>157</v>
+      </c>
+      <c r="P137" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q137">
+        <v>5</v>
+      </c>
+      <c r="R137">
+        <v>4</v>
+      </c>
+      <c r="S137">
+        <v>9</v>
+      </c>
+      <c r="T137">
+        <v>2.88</v>
+      </c>
+      <c r="U137">
+        <v>1.91</v>
+      </c>
+      <c r="V137">
+        <v>5</v>
+      </c>
+      <c r="W137">
+        <v>1.62</v>
+      </c>
+      <c r="X137">
+        <v>2.2</v>
+      </c>
+      <c r="Y137">
+        <v>4</v>
+      </c>
+      <c r="Z137">
+        <v>1.22</v>
+      </c>
+      <c r="AA137">
+        <v>13</v>
+      </c>
+      <c r="AB137">
+        <v>1.04</v>
+      </c>
+      <c r="AC137">
+        <v>2.14</v>
+      </c>
+      <c r="AD137">
+        <v>2.89</v>
+      </c>
+      <c r="AE137">
+        <v>3.5</v>
+      </c>
+      <c r="AF137">
+        <v>1.07</v>
+      </c>
+      <c r="AG137">
+        <v>6.25</v>
+      </c>
+      <c r="AH137">
+        <v>1.53</v>
+      </c>
+      <c r="AI137">
+        <v>2.37</v>
+      </c>
+      <c r="AJ137">
+        <v>2.61</v>
+      </c>
+      <c r="AK137">
+        <v>1.4</v>
+      </c>
+      <c r="AL137">
+        <v>2.25</v>
+      </c>
+      <c r="AM137">
+        <v>1.57</v>
+      </c>
+      <c r="AN137">
+        <v>1.2</v>
+      </c>
+      <c r="AO137">
+        <v>1.3</v>
+      </c>
+      <c r="AP137">
+        <v>1.72</v>
+      </c>
+      <c r="AQ137">
+        <v>1.38</v>
+      </c>
+      <c r="AR137">
+        <v>1.13</v>
+      </c>
+      <c r="AS137">
+        <v>1.33</v>
+      </c>
+      <c r="AT137">
+        <v>1.11</v>
+      </c>
+      <c r="AU137">
+        <v>1.66</v>
+      </c>
+      <c r="AV137">
+        <v>1.26</v>
+      </c>
+      <c r="AW137">
+        <v>2.92</v>
+      </c>
+      <c r="AX137">
+        <v>1.64</v>
+      </c>
+      <c r="AY137">
+        <v>8</v>
+      </c>
+      <c r="AZ137">
+        <v>2.81</v>
+      </c>
+      <c r="BA137">
+        <v>1.52</v>
+      </c>
+      <c r="BB137">
+        <v>1.9</v>
+      </c>
+      <c r="BC137">
+        <v>2.48</v>
+      </c>
+      <c r="BD137">
+        <v>3.4</v>
+      </c>
+      <c r="BE137">
+        <v>5</v>
+      </c>
+      <c r="BF137">
+        <v>7</v>
+      </c>
+      <c r="BG137">
+        <v>4</v>
+      </c>
+      <c r="BH137">
+        <v>14</v>
+      </c>
+      <c r="BI137">
+        <v>11</v>
+      </c>
+      <c r="BJ137">
+        <v>21</v>
+      </c>
+      <c r="BK137">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>2708237</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44878.54166666666</v>
+      </c>
+      <c r="F138">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>73</v>
+      </c>
+      <c r="H138" t="s">
+        <v>68</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138" t="s">
+        <v>88</v>
+      </c>
+      <c r="P138" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q138">
+        <v>5</v>
+      </c>
+      <c r="R138">
+        <v>5</v>
+      </c>
+      <c r="S138">
+        <v>10</v>
+      </c>
+      <c r="T138">
+        <v>5.6</v>
+      </c>
+      <c r="U138">
+        <v>2.1</v>
+      </c>
+      <c r="V138">
+        <v>2.28</v>
+      </c>
+      <c r="W138">
+        <v>1.44</v>
+      </c>
+      <c r="X138">
+        <v>2.62</v>
+      </c>
+      <c r="Y138">
+        <v>3</v>
+      </c>
+      <c r="Z138">
+        <v>1.36</v>
+      </c>
+      <c r="AA138">
+        <v>7.5</v>
+      </c>
+      <c r="AB138">
+        <v>1.07</v>
+      </c>
+      <c r="AC138">
+        <v>4.5</v>
+      </c>
+      <c r="AD138">
+        <v>3.34</v>
+      </c>
+      <c r="AE138">
+        <v>1.84</v>
+      </c>
+      <c r="AF138">
+        <v>1.08</v>
+      </c>
+      <c r="AG138">
+        <v>7</v>
+      </c>
+      <c r="AH138">
+        <v>1.5</v>
+      </c>
+      <c r="AI138">
+        <v>2.6</v>
+      </c>
+      <c r="AJ138">
+        <v>2.43</v>
+      </c>
+      <c r="AK138">
+        <v>1.54</v>
+      </c>
+      <c r="AL138">
+        <v>2.05</v>
+      </c>
+      <c r="AM138">
+        <v>1.7</v>
+      </c>
+      <c r="AN138">
+        <v>2.2</v>
+      </c>
+      <c r="AO138">
+        <v>1.29</v>
+      </c>
+      <c r="AP138">
+        <v>1.14</v>
+      </c>
+      <c r="AQ138">
+        <v>0.5</v>
+      </c>
+      <c r="AR138">
+        <v>1.67</v>
+      </c>
+      <c r="AS138">
+        <v>0.44</v>
+      </c>
+      <c r="AT138">
+        <v>1.86</v>
+      </c>
+      <c r="AU138">
+        <v>1.31</v>
+      </c>
+      <c r="AV138">
+        <v>1.57</v>
+      </c>
+      <c r="AW138">
+        <v>2.88</v>
+      </c>
+      <c r="AX138">
+        <v>3.44</v>
+      </c>
+      <c r="AY138">
+        <v>7.8</v>
+      </c>
+      <c r="AZ138">
+        <v>1.5</v>
+      </c>
+      <c r="BA138">
+        <v>1.51</v>
+      </c>
+      <c r="BB138">
+        <v>1.91</v>
+      </c>
+      <c r="BC138">
+        <v>2.55</v>
+      </c>
+      <c r="BD138">
+        <v>3.48</v>
+      </c>
+      <c r="BE138">
+        <v>5.4</v>
+      </c>
+      <c r="BF138">
+        <v>5</v>
+      </c>
+      <c r="BG138">
+        <v>3</v>
+      </c>
+      <c r="BH138">
+        <v>4</v>
+      </c>
+      <c r="BI138">
+        <v>5</v>
+      </c>
+      <c r="BJ138">
+        <v>9</v>
+      </c>
+      <c r="BK138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>2708236</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44878.66666666666</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>76</v>
+      </c>
+      <c r="H139" t="s">
+        <v>70</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>2</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>88</v>
+      </c>
+      <c r="P139" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q139">
+        <v>8</v>
+      </c>
+      <c r="R139">
+        <v>5</v>
+      </c>
+      <c r="S139">
+        <v>13</v>
+      </c>
+      <c r="T139">
+        <v>3.8</v>
+      </c>
+      <c r="U139">
+        <v>2.03</v>
+      </c>
+      <c r="V139">
+        <v>2.72</v>
+      </c>
+      <c r="W139">
+        <v>1.44</v>
+      </c>
+      <c r="X139">
+        <v>2.62</v>
+      </c>
+      <c r="Y139">
+        <v>3</v>
+      </c>
+      <c r="Z139">
+        <v>1.36</v>
+      </c>
+      <c r="AA139">
+        <v>7.5</v>
+      </c>
+      <c r="AB139">
+        <v>1.07</v>
+      </c>
+      <c r="AC139">
+        <v>3.34</v>
+      </c>
+      <c r="AD139">
+        <v>3.24</v>
+      </c>
+      <c r="AE139">
+        <v>2.19</v>
+      </c>
+      <c r="AF139">
+        <v>1.08</v>
+      </c>
+      <c r="AG139">
+        <v>7</v>
+      </c>
+      <c r="AH139">
+        <v>1.4</v>
+      </c>
+      <c r="AI139">
+        <v>2.75</v>
+      </c>
+      <c r="AJ139">
+        <v>2.28</v>
+      </c>
+      <c r="AK139">
+        <v>1.6</v>
+      </c>
+      <c r="AL139">
+        <v>1.91</v>
+      </c>
+      <c r="AM139">
+        <v>1.8</v>
+      </c>
+      <c r="AN139">
+        <v>1.6</v>
+      </c>
+      <c r="AO139">
+        <v>1.33</v>
+      </c>
+      <c r="AP139">
+        <v>1.3</v>
+      </c>
+      <c r="AQ139">
+        <v>1.25</v>
+      </c>
+      <c r="AR139">
+        <v>1</v>
+      </c>
+      <c r="AS139">
+        <v>1.11</v>
+      </c>
+      <c r="AT139">
+        <v>1.25</v>
+      </c>
+      <c r="AU139">
+        <v>1.72</v>
+      </c>
+      <c r="AV139">
+        <v>1.68</v>
+      </c>
+      <c r="AW139">
+        <v>3.4</v>
+      </c>
+      <c r="AX139">
+        <v>2.55</v>
+      </c>
+      <c r="AY139">
+        <v>7.4</v>
+      </c>
+      <c r="AZ139">
+        <v>1.79</v>
+      </c>
+      <c r="BA139">
+        <v>1.37</v>
+      </c>
+      <c r="BB139">
+        <v>1.69</v>
+      </c>
+      <c r="BC139">
+        <v>2.17</v>
+      </c>
+      <c r="BD139">
+        <v>2.88</v>
+      </c>
+      <c r="BE139">
+        <v>4.3</v>
+      </c>
+      <c r="BF139">
+        <v>5</v>
+      </c>
+      <c r="BG139">
+        <v>4</v>
+      </c>
+      <c r="BH139">
+        <v>8</v>
+      </c>
+      <c r="BI139">
+        <v>6</v>
+      </c>
+      <c r="BJ139">
+        <v>13</v>
+      </c>
+      <c r="BK139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>2708234</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>44879.54166666666</v>
+      </c>
+      <c r="F140">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>77</v>
+      </c>
+      <c r="H140" t="s">
+        <v>67</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140" t="s">
+        <v>170</v>
+      </c>
+      <c r="P140" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q140">
+        <v>2</v>
+      </c>
+      <c r="R140">
+        <v>0</v>
+      </c>
+      <c r="S140">
+        <v>2</v>
+      </c>
+      <c r="T140">
+        <v>3</v>
+      </c>
+      <c r="U140">
+        <v>1.91</v>
+      </c>
+      <c r="V140">
+        <v>4.75</v>
+      </c>
+      <c r="W140">
+        <v>1.62</v>
+      </c>
+      <c r="X140">
+        <v>2.2</v>
+      </c>
+      <c r="Y140">
+        <v>4</v>
+      </c>
+      <c r="Z140">
+        <v>1.22</v>
+      </c>
+      <c r="AA140">
+        <v>13</v>
+      </c>
+      <c r="AB140">
+        <v>1.04</v>
+      </c>
+      <c r="AC140">
+        <v>1.95</v>
+      </c>
+      <c r="AD140">
+        <v>3</v>
+      </c>
+      <c r="AE140">
+        <v>4</v>
+      </c>
+      <c r="AF140">
+        <v>1.12</v>
+      </c>
+      <c r="AG140">
+        <v>6.35</v>
+      </c>
+      <c r="AH140">
+        <v>1.57</v>
+      </c>
+      <c r="AI140">
+        <v>2.35</v>
+      </c>
+      <c r="AJ140">
+        <v>2.62</v>
+      </c>
+      <c r="AK140">
+        <v>1.43</v>
+      </c>
+      <c r="AL140">
+        <v>2.25</v>
+      </c>
+      <c r="AM140">
+        <v>1.57</v>
+      </c>
+      <c r="AN140">
+        <v>1.25</v>
+      </c>
+      <c r="AO140">
+        <v>1.38</v>
+      </c>
+      <c r="AP140">
+        <v>1.72</v>
+      </c>
+      <c r="AQ140">
+        <v>1.38</v>
+      </c>
+      <c r="AR140">
+        <v>0.88</v>
+      </c>
+      <c r="AS140">
+        <v>1.33</v>
+      </c>
+      <c r="AT140">
+        <v>0.89</v>
+      </c>
+      <c r="AU140">
+        <v>1.69</v>
+      </c>
+      <c r="AV140">
+        <v>1.06</v>
+      </c>
+      <c r="AW140">
+        <v>2.75</v>
+      </c>
+      <c r="AX140">
+        <v>1.57</v>
+      </c>
+      <c r="AY140">
+        <v>5.5</v>
+      </c>
+      <c r="AZ140">
+        <v>2.95</v>
+      </c>
+      <c r="BA140">
+        <v>1.57</v>
+      </c>
+      <c r="BB140">
+        <v>2.05</v>
+      </c>
+      <c r="BC140">
+        <v>2.7</v>
+      </c>
+      <c r="BD140">
+        <v>3.9</v>
+      </c>
+      <c r="BE140">
+        <v>5.5</v>
+      </c>
+      <c r="BF140">
+        <v>8</v>
+      </c>
+      <c r="BG140">
+        <v>3</v>
+      </c>
+      <c r="BH140">
+        <v>7</v>
+      </c>
+      <c r="BI140">
+        <v>0</v>
+      </c>
+      <c r="BJ140">
+        <v>15</v>
+      </c>
+      <c r="BK140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>2708239</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44879.66666666666</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>71</v>
+      </c>
+      <c r="H141" t="s">
+        <v>65</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141" t="s">
+        <v>88</v>
+      </c>
+      <c r="P141" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q141">
+        <v>2</v>
+      </c>
+      <c r="R141">
+        <v>2</v>
+      </c>
+      <c r="S141">
+        <v>4</v>
+      </c>
+      <c r="T141">
+        <v>3.6</v>
+      </c>
+      <c r="U141">
+        <v>1.91</v>
+      </c>
+      <c r="V141">
+        <v>3.6</v>
+      </c>
+      <c r="W141">
+        <v>1.62</v>
+      </c>
+      <c r="X141">
+        <v>2.2</v>
+      </c>
+      <c r="Y141">
+        <v>4</v>
+      </c>
+      <c r="Z141">
+        <v>1.22</v>
+      </c>
+      <c r="AA141">
+        <v>13</v>
+      </c>
+      <c r="AB141">
+        <v>1.04</v>
+      </c>
+      <c r="AC141">
+        <v>2.65</v>
+      </c>
+      <c r="AD141">
+        <v>2.8</v>
+      </c>
+      <c r="AE141">
+        <v>2.8</v>
+      </c>
+      <c r="AF141">
+        <v>1.12</v>
+      </c>
+      <c r="AG141">
+        <v>5.5</v>
+      </c>
+      <c r="AH141">
+        <v>1.54</v>
+      </c>
+      <c r="AI141">
+        <v>2.43</v>
+      </c>
+      <c r="AJ141">
+        <v>2.89</v>
+      </c>
+      <c r="AK141">
+        <v>1.36</v>
+      </c>
+      <c r="AL141">
+        <v>2.2</v>
+      </c>
+      <c r="AM141">
+        <v>1.62</v>
+      </c>
+      <c r="AN141">
+        <v>1.43</v>
+      </c>
+      <c r="AO141">
+        <v>1.37</v>
+      </c>
+      <c r="AP141">
+        <v>1.43</v>
+      </c>
+      <c r="AQ141">
+        <v>1.29</v>
+      </c>
+      <c r="AR141">
+        <v>1.63</v>
+      </c>
+      <c r="AS141">
+        <v>1.25</v>
+      </c>
+      <c r="AT141">
+        <v>1.56</v>
+      </c>
+      <c r="AU141">
+        <v>1.68</v>
+      </c>
+      <c r="AV141">
+        <v>1.3</v>
+      </c>
+      <c r="AW141">
+        <v>2.98</v>
+      </c>
+      <c r="AX141">
+        <v>2.02</v>
+      </c>
+      <c r="AY141">
+        <v>7.1</v>
+      </c>
+      <c r="AZ141">
+        <v>2.19</v>
+      </c>
+      <c r="BA141">
+        <v>1.52</v>
+      </c>
+      <c r="BB141">
+        <v>1.93</v>
+      </c>
+      <c r="BC141">
+        <v>2.58</v>
+      </c>
+      <c r="BD141">
+        <v>3.56</v>
+      </c>
+      <c r="BE141">
+        <v>4.4</v>
+      </c>
+      <c r="BF141">
+        <v>7</v>
+      </c>
+      <c r="BG141">
+        <v>3</v>
+      </c>
+      <c r="BH141">
+        <v>4</v>
+      </c>
+      <c r="BI141">
+        <v>6</v>
+      </c>
+      <c r="BJ141">
+        <v>11</v>
+      </c>
+      <c r="BK141">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK142"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT2" t="n">
         <v>0.44</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT4" t="n">
         <v>0.5600000000000001</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT9" t="n">
         <v>1.11</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.11</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.11</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT17" t="n">
         <v>1.33</v>
@@ -4148,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU18" t="n">
         <v>1.63</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU19" t="n">
         <v>1.9</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT20" t="n">
         <v>0.5600000000000001</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT21" t="n">
         <v>0.44</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU22" t="n">
         <v>1.32</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU23" t="n">
         <v>1.65</v>
@@ -5369,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU24" t="n">
         <v>1.56</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>1.65</v>
@@ -5978,7 +5978,7 @@
         <v>0.44</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU27" t="n">
         <v>0.99</v>
@@ -6587,7 +6587,7 @@
         <v>1.11</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU30" t="n">
         <v>1.32</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT32" t="n">
         <v>1.11</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT33" t="n">
         <v>2</v>
@@ -7396,10 +7396,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU34" t="n">
         <v>1.66</v>
@@ -7599,10 +7599,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU35" t="n">
         <v>1.29</v>
@@ -7802,10 +7802,10 @@
         <v>1.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU36" t="n">
         <v>1.22</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT37" t="n">
         <v>0.44</v>
@@ -8208,10 +8208,10 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>1.89</v>
@@ -8414,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU39" t="n">
         <v>1.91</v>
@@ -8614,10 +8614,10 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU40" t="n">
         <v>1.45</v>
@@ -8817,10 +8817,10 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU41" t="n">
         <v>1.98</v>
@@ -9632,7 +9632,7 @@
         <v>1.33</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU45" t="n">
         <v>1.57</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT46" t="n">
         <v>1.11</v>
@@ -10035,10 +10035,10 @@
         <v>0.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU47" t="n">
         <v>1.24</v>
@@ -10238,10 +10238,10 @@
         <v>1.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU48" t="n">
         <v>1.45</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT49" t="n">
         <v>0.44</v>
@@ -10647,7 +10647,7 @@
         <v>1.11</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU50" t="n">
         <v>1.75</v>
@@ -10847,10 +10847,10 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU51" t="n">
         <v>1.62</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT52" t="n">
         <v>2</v>
@@ -11256,7 +11256,7 @@
         <v>2</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU53" t="n">
         <v>2.15</v>
@@ -11456,10 +11456,10 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU54" t="n">
         <v>1.81</v>
@@ -11865,7 +11865,7 @@
         <v>1.11</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU56" t="n">
         <v>1.87</v>
@@ -12068,7 +12068,7 @@
         <v>2.33</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU57" t="n">
         <v>1.42</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT59" t="n">
         <v>1.11</v>
@@ -12674,10 +12674,10 @@
         <v>0.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU60" t="n">
         <v>2.09</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT61" t="n">
         <v>0.89</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT62" t="n">
         <v>1.33</v>
@@ -13489,7 +13489,7 @@
         <v>1.33</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU64" t="n">
         <v>1.69</v>
@@ -13689,10 +13689,10 @@
         <v>0.25</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU65" t="n">
         <v>1.5</v>
@@ -13892,10 +13892,10 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU66" t="n">
         <v>1.11</v>
@@ -14095,10 +14095,10 @@
         <v>1.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>1.21</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU68" t="n">
         <v>1.68</v>
@@ -14501,7 +14501,7 @@
         <v>2.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT69" t="n">
         <v>2</v>
@@ -14704,7 +14704,7 @@
         <v>0.4</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT70" t="n">
         <v>0.5600000000000001</v>
@@ -14910,7 +14910,7 @@
         <v>1.11</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU71" t="n">
         <v>1.9</v>
@@ -15110,7 +15110,7 @@
         <v>2.25</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT72" t="n">
         <v>1.33</v>
@@ -15316,7 +15316,7 @@
         <v>1.11</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU73" t="n">
         <v>1.75</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT74" t="n">
         <v>0.89</v>
@@ -15719,7 +15719,7 @@
         <v>1.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT75" t="n">
         <v>1.33</v>
@@ -15925,7 +15925,7 @@
         <v>0.44</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU76" t="n">
         <v>1.22</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU78" t="n">
         <v>1.08</v>
@@ -16531,7 +16531,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT79" t="n">
         <v>2</v>
@@ -16734,10 +16734,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU80" t="n">
         <v>1.67</v>
@@ -16940,7 +16940,7 @@
         <v>1.11</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU81" t="n">
         <v>1.91</v>
@@ -17346,7 +17346,7 @@
         <v>1.33</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.76</v>
@@ -17546,10 +17546,10 @@
         <v>0.33</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU84" t="n">
         <v>1.98</v>
@@ -17749,10 +17749,10 @@
         <v>1.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU85" t="n">
         <v>1.67</v>
@@ -17952,7 +17952,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT86" t="n">
         <v>1.11</v>
@@ -18158,7 +18158,7 @@
         <v>0.44</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU87" t="n">
         <v>1.34</v>
@@ -18358,7 +18358,7 @@
         <v>1.8</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT88" t="n">
         <v>1.33</v>
@@ -18561,10 +18561,10 @@
         <v>1.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU89" t="n">
         <v>1.42</v>
@@ -18764,7 +18764,7 @@
         <v>0.83</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT90" t="n">
         <v>0.5600000000000001</v>
@@ -19170,10 +19170,10 @@
         <v>0.83</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU92" t="n">
         <v>1.64</v>
@@ -19376,7 +19376,7 @@
         <v>1.11</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU93" t="n">
         <v>1.71</v>
@@ -19576,7 +19576,7 @@
         <v>0.67</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT94" t="n">
         <v>0.44</v>
@@ -19779,7 +19779,7 @@
         <v>1</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT95" t="n">
         <v>1.33</v>
@@ -19985,7 +19985,7 @@
         <v>1.33</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU96" t="n">
         <v>1.72</v>
@@ -20188,7 +20188,7 @@
         <v>2.33</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU97" t="n">
         <v>1.64</v>
@@ -20591,10 +20591,10 @@
         <v>0.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU99" t="n">
         <v>1.3</v>
@@ -20797,7 +20797,7 @@
         <v>1.11</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU100" t="n">
         <v>1.79</v>
@@ -20997,10 +20997,10 @@
         <v>2</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU101" t="n">
         <v>1.61</v>
@@ -21200,7 +21200,7 @@
         <v>0.83</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT102" t="n">
         <v>1.11</v>
@@ -21403,10 +21403,10 @@
         <v>1.29</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU103" t="n">
         <v>1.38</v>
@@ -21606,10 +21606,10 @@
         <v>0.86</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU104" t="n">
         <v>1.54</v>
@@ -21809,10 +21809,10 @@
         <v>0.86</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU105" t="n">
         <v>1.82</v>
@@ -22012,7 +22012,7 @@
         <v>1.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT106" t="n">
         <v>1.33</v>
@@ -22621,10 +22621,10 @@
         <v>1.71</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU109" t="n">
         <v>1.85</v>
@@ -23027,10 +23027,10 @@
         <v>0.71</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU111" t="n">
         <v>1.07</v>
@@ -23233,7 +23233,7 @@
         <v>1.11</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU112" t="n">
         <v>1.68</v>
@@ -23436,7 +23436,7 @@
         <v>0.44</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU113" t="n">
         <v>1.35</v>
@@ -23636,7 +23636,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT114" t="n">
         <v>1.33</v>
@@ -23842,7 +23842,7 @@
         <v>1.33</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU115" t="n">
         <v>1.62</v>
@@ -24042,7 +24042,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT116" t="n">
         <v>0.89</v>
@@ -24248,7 +24248,7 @@
         <v>1.11</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU117" t="n">
         <v>2.02</v>
@@ -24451,7 +24451,7 @@
         <v>1.11</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU118" t="n">
         <v>1.71</v>
@@ -24854,7 +24854,7 @@
         <v>1.29</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT120" t="n">
         <v>1.33</v>
@@ -25260,7 +25260,7 @@
         <v>0.57</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT122" t="n">
         <v>0.89</v>
@@ -25466,7 +25466,7 @@
         <v>2.33</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU123" t="n">
         <v>2.03</v>
@@ -25669,7 +25669,7 @@
         <v>0.44</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU124" t="n">
         <v>1.36</v>
@@ -25872,7 +25872,7 @@
         <v>1.33</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU125" t="n">
         <v>1.66</v>
@@ -26072,7 +26072,7 @@
         <v>0.86</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT126" t="n">
         <v>1.11</v>
@@ -26275,7 +26275,7 @@
         <v>0.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT127" t="n">
         <v>0.44</v>
@@ -26478,10 +26478,10 @@
         <v>1.5</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU128" t="n">
         <v>1.52</v>
@@ -26681,7 +26681,7 @@
         <v>0.63</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT129" t="n">
         <v>0.5600000000000001</v>
@@ -26884,10 +26884,10 @@
         <v>0.75</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU130" t="n">
         <v>1.99</v>
@@ -27087,10 +27087,10 @@
         <v>1</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU131" t="n">
         <v>1.38</v>
@@ -27293,7 +27293,7 @@
         <v>2</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU132" t="n">
         <v>2.22</v>
@@ -27493,10 +27493,10 @@
         <v>0.75</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU133" t="n">
         <v>1.87</v>
@@ -28305,7 +28305,7 @@
         <v>1.13</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT137" t="n">
         <v>1.11</v>
@@ -28511,7 +28511,7 @@
         <v>0.44</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU138" t="n">
         <v>1.31</v>
@@ -28714,7 +28714,7 @@
         <v>1.11</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU139" t="n">
         <v>1.72</v>
@@ -29117,10 +29117,10 @@
         <v>1.63</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU141" t="n">
         <v>1.68</v>
@@ -29375,6 +29375,1833 @@
       </c>
       <c r="BK142" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2708141</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>44895.58333333334</v>
+      </c>
+      <c r="F143" t="n">
+        <v>6</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2</v>
+      </c>
+      <c r="K143" t="n">
+        <v>3</v>
+      </c>
+      <c r="L143" t="n">
+        <v>2</v>
+      </c>
+      <c r="M143" t="n">
+        <v>3</v>
+      </c>
+      <c r="N143" t="n">
+        <v>5</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['35', '56']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['10', '26', '73']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>1</v>
+      </c>
+      <c r="R143" t="n">
+        <v>2</v>
+      </c>
+      <c r="S143" t="n">
+        <v>3</v>
+      </c>
+      <c r="T143" t="n">
+        <v>5</v>
+      </c>
+      <c r="U143" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V143" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X143" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2708139</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>44896.58333333334</v>
+      </c>
+      <c r="F144" t="n">
+        <v>6</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2</v>
+      </c>
+      <c r="K144" t="n">
+        <v>3</v>
+      </c>
+      <c r="L144" t="n">
+        <v>2</v>
+      </c>
+      <c r="M144" t="n">
+        <v>3</v>
+      </c>
+      <c r="N144" t="n">
+        <v>5</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['13', '66']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['21', '30', '73']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>7</v>
+      </c>
+      <c r="R144" t="n">
+        <v>4</v>
+      </c>
+      <c r="S144" t="n">
+        <v>11</v>
+      </c>
+      <c r="T144" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2</v>
+      </c>
+      <c r="V144" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2708247</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>44897.4375</v>
+      </c>
+      <c r="F145" t="n">
+        <v>19</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Sepsi</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>2</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="n">
+        <v>4</v>
+      </c>
+      <c r="N145" t="n">
+        <v>5</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['29', '53', '64', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>8</v>
+      </c>
+      <c r="R145" t="n">
+        <v>6</v>
+      </c>
+      <c r="S145" t="n">
+        <v>14</v>
+      </c>
+      <c r="T145" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U145" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V145" t="n">
+        <v>3</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X145" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2708241</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>44897.58333333334</v>
+      </c>
+      <c r="F146" t="n">
+        <v>19</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>2</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>2</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['45+4', '90+4']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>7</v>
+      </c>
+      <c r="R146" t="n">
+        <v>3</v>
+      </c>
+      <c r="S146" t="n">
+        <v>10</v>
+      </c>
+      <c r="T146" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U146" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V146" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X146" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2708248</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>44898.4375</v>
+      </c>
+      <c r="F147" t="n">
+        <v>19</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Voluntari</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>3</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>3</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['16', '72', '83']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>1</v>
+      </c>
+      <c r="R147" t="n">
+        <v>3</v>
+      </c>
+      <c r="S147" t="n">
+        <v>4</v>
+      </c>
+      <c r="T147" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U147" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V147" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X147" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2708243</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>44898.58333333334</v>
+      </c>
+      <c r="F148" t="n">
+        <v>19</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>U Craiova 1948</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>2</v>
+      </c>
+      <c r="N148" t="n">
+        <v>2</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['50', '60']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>4</v>
+      </c>
+      <c r="R148" t="n">
+        <v>3</v>
+      </c>
+      <c r="S148" t="n">
+        <v>7</v>
+      </c>
+      <c r="T148" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V148" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X148" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2708246</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>44899.34375</v>
+      </c>
+      <c r="F149" t="n">
+        <v>19</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>SSC Farul</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>2</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>2</v>
+      </c>
+      <c r="L149" t="n">
+        <v>8</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>8</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['11', '45+2', '51', '66', '69', '77', '81', '87']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>4</v>
+      </c>
+      <c r="R149" t="n">
+        <v>3</v>
+      </c>
+      <c r="S149" t="n">
+        <v>7</v>
+      </c>
+      <c r="T149" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V149" t="n">
+        <v>6</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X149" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2708245</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>44899.4375</v>
+      </c>
+      <c r="F150" t="n">
+        <v>19</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Chindia Târgovişte</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>2</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>2</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['17', '80']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>6</v>
+      </c>
+      <c r="R150" t="n">
+        <v>5</v>
+      </c>
+      <c r="S150" t="n">
+        <v>11</v>
+      </c>
+      <c r="T150" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V150" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X150" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2708242</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>44899.58333333334</v>
+      </c>
+      <c r="F151" t="n">
+        <v>19</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Argeș</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="n">
+        <v>2</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>3</v>
+      </c>
+      <c r="R151" t="n">
+        <v>6</v>
+      </c>
+      <c r="S151" t="n">
+        <v>9</v>
+      </c>
+      <c r="T151" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V151" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X151" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.44</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT7" t="n">
         <v>0.6</v>
@@ -4760,7 +4760,7 @@
         <v>2.4</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU21" t="n">
         <v>1.66</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT24" t="n">
         <v>0.9</v>
@@ -8008,7 +8008,7 @@
         <v>2</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU37" t="n">
         <v>1.67</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT39" t="n">
         <v>1.1</v>
@@ -10444,7 +10444,7 @@
         <v>1.7</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU49" t="n">
         <v>1.18</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT53" t="n">
         <v>1.4</v>
@@ -13286,7 +13286,7 @@
         <v>1.11</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU63" t="n">
         <v>2.04</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT77" t="n">
         <v>1.11</v>
@@ -17143,7 +17143,7 @@
         <v>2.33</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU82" t="n">
         <v>1.4</v>
@@ -18967,7 +18967,7 @@
         <v>0.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT91" t="n">
         <v>0.89</v>
@@ -19579,7 +19579,7 @@
         <v>1.4</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU94" t="n">
         <v>1.06</v>
@@ -22218,7 +22218,7 @@
         <v>1.11</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU107" t="n">
         <v>1.67</v>
@@ -22418,7 +22418,7 @@
         <v>0.71</v>
       </c>
       <c r="AS108" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT108" t="n">
         <v>0.5600000000000001</v>
@@ -26278,7 +26278,7 @@
         <v>2.6</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU127" t="n">
         <v>1.84</v>
@@ -27290,7 +27290,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT132" t="n">
         <v>1.3</v>
@@ -31202,6 +31202,209 @@
       </c>
       <c r="BK151" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2708244</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>44900.58333333334</v>
+      </c>
+      <c r="F152" t="n">
+        <v>19</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Mioveni</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>2</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2</v>
+      </c>
+      <c r="L152" t="n">
+        <v>5</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="n">
+        <v>6</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['31', '45', '58', '77', '87']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>7</v>
+      </c>
+      <c r="R152" t="n">
+        <v>3</v>
+      </c>
+      <c r="S152" t="n">
+        <v>10</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V152" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK152"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,7 +2324,7 @@
         <v>1.7</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT12" t="n">
         <v>0.89</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT29" t="n">
         <v>0.5600000000000001</v>
@@ -6993,7 +6993,7 @@
         <v>1.44</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.5</v>
@@ -9835,7 +9835,7 @@
         <v>2.6</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU46" t="n">
         <v>2.02</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT50" t="n">
         <v>1.3</v>
@@ -12474,7 +12474,7 @@
         <v>2.4</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU59" t="n">
         <v>1.85</v>
@@ -13283,7 +13283,7 @@
         <v>0.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT63" t="n">
         <v>0.4</v>
@@ -16128,7 +16128,7 @@
         <v>2.11</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU77" t="n">
         <v>2.06</v>
@@ -16937,7 +16937,7 @@
         <v>1.4</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT81" t="n">
         <v>1</v>
@@ -17955,7 +17955,7 @@
         <v>2</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU86" t="n">
         <v>1.98</v>
@@ -20388,7 +20388,7 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT98" t="n">
         <v>2</v>
@@ -21203,7 +21203,7 @@
         <v>1.4</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU102" t="n">
         <v>1.57</v>
@@ -24245,7 +24245,7 @@
         <v>0.8</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT117" t="n">
         <v>1.44</v>
@@ -25057,7 +25057,7 @@
         <v>1.17</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT121" t="n">
         <v>1.33</v>
@@ -26075,7 +26075,7 @@
         <v>1.11</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU126" t="n">
         <v>1.65</v>
@@ -27696,7 +27696,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT134" t="n">
         <v>1.33</v>
@@ -28308,7 +28308,7 @@
         <v>1.2</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU137" t="n">
         <v>1.66</v>
@@ -31405,6 +31405,209 @@
       </c>
       <c r="BK152" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2708256</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>44904.58333333334</v>
+      </c>
+      <c r="F153" t="n">
+        <v>20</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Sepsi</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Voluntari</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="n">
+        <v>2</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>1</v>
+      </c>
+      <c r="R153" t="n">
+        <v>2</v>
+      </c>
+      <c r="S153" t="n">
+        <v>3</v>
+      </c>
+      <c r="T153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V153" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT2" t="n">
         <v>0.4</v>
@@ -1309,7 +1309,7 @@
         <v>1.4</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT7" t="n">
         <v>0.6</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT8" t="n">
         <v>1.1</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT10" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.1</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT13" t="n">
         <v>2</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT16" t="n">
         <v>1.4</v>
@@ -3948,7 +3948,7 @@
         <v>1.2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.4</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU20" t="n">
         <v>1.27</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT24" t="n">
         <v>0.9</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU26" t="n">
         <v>1.8</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU27" t="n">
         <v>0.99</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU28" t="n">
         <v>1.44</v>
@@ -6384,7 +6384,7 @@
         <v>1.1</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU29" t="n">
         <v>2.09</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT30" t="n">
         <v>2</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU31" t="n">
         <v>1.66</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT32" t="n">
         <v>1.1</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT33" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU33" t="n">
         <v>1.22</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT39" t="n">
         <v>1.1</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU42" t="n">
         <v>1.05</v>
@@ -9223,10 +9223,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU43" t="n">
         <v>1.7</v>
@@ -9426,10 +9426,10 @@
         <v>0.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU44" t="n">
         <v>1.52</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT45" t="n">
         <v>1.8</v>
@@ -11053,7 +11053,7 @@
         <v>2.4</v>
       </c>
       <c r="AT52" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU52" t="n">
         <v>1.88</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT53" t="n">
         <v>1.4</v>
@@ -11659,10 +11659,10 @@
         <v>0.25</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU55" t="n">
         <v>1.1</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT56" t="n">
         <v>1.8</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT57" t="n">
         <v>0.6</v>
@@ -12268,10 +12268,10 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU58" t="n">
         <v>1.66</v>
@@ -12677,7 +12677,7 @@
         <v>2.6</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU60" t="n">
         <v>2.09</v>
@@ -12877,10 +12877,10 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU61" t="n">
         <v>1.21</v>
@@ -13080,10 +13080,10 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU62" t="n">
         <v>1.44</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT64" t="n">
         <v>0.9</v>
@@ -14504,7 +14504,7 @@
         <v>2</v>
       </c>
       <c r="AT69" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU69" t="n">
         <v>1.96</v>
@@ -14704,10 +14704,10 @@
         <v>0.4</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU70" t="n">
         <v>1.69</v>
@@ -14907,7 +14907,7 @@
         <v>1.2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT71" t="n">
         <v>1.8</v>
@@ -15110,10 +15110,10 @@
         <v>2.25</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU72" t="n">
         <v>1.34</v>
@@ -15313,7 +15313,7 @@
         <v>1.8</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT73" t="n">
         <v>1.3</v>
@@ -15519,7 +15519,7 @@
         <v>2.6</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU74" t="n">
         <v>1.99</v>
@@ -15722,7 +15722,7 @@
         <v>2.4</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU75" t="n">
         <v>1.88</v>
@@ -15922,7 +15922,7 @@
         <v>0.4</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT76" t="n">
         <v>0.6</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT77" t="n">
         <v>1.1</v>
@@ -16534,7 +16534,7 @@
         <v>1.7</v>
       </c>
       <c r="AT79" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU79" t="n">
         <v>1.25</v>
@@ -17140,7 +17140,7 @@
         <v>0.8</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT82" t="n">
         <v>0.4</v>
@@ -17343,7 +17343,7 @@
         <v>0.4</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT83" t="n">
         <v>1.1</v>
@@ -17549,7 +17549,7 @@
         <v>2</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU84" t="n">
         <v>1.98</v>
@@ -18155,7 +18155,7 @@
         <v>0.83</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT87" t="n">
         <v>0.9</v>
@@ -18361,7 +18361,7 @@
         <v>2.4</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU88" t="n">
         <v>1.83</v>
@@ -18561,7 +18561,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT89" t="n">
         <v>1.8</v>
@@ -18767,7 +18767,7 @@
         <v>2.6</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU90" t="n">
         <v>1.95</v>
@@ -18967,10 +18967,10 @@
         <v>0.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU91" t="n">
         <v>2.09</v>
@@ -19170,7 +19170,7 @@
         <v>0.83</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT92" t="n">
         <v>0.6</v>
@@ -19373,7 +19373,7 @@
         <v>1.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT93" t="n">
         <v>1.3</v>
@@ -19782,7 +19782,7 @@
         <v>1.4</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU95" t="n">
         <v>1.61</v>
@@ -19982,7 +19982,7 @@
         <v>1.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT96" t="n">
         <v>1.4</v>
@@ -20185,7 +20185,7 @@
         <v>1.17</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT97" t="n">
         <v>1</v>
@@ -20391,7 +20391,7 @@
         <v>1.1</v>
       </c>
       <c r="AT98" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU98" t="n">
         <v>1.99</v>
@@ -20594,7 +20594,7 @@
         <v>1.7</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU99" t="n">
         <v>1.3</v>
@@ -20794,7 +20794,7 @@
         <v>0.33</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT100" t="n">
         <v>1.1</v>
@@ -21403,7 +21403,7 @@
         <v>1.29</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT103" t="n">
         <v>1.3</v>
@@ -21606,7 +21606,7 @@
         <v>0.86</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT104" t="n">
         <v>0.9</v>
@@ -22015,7 +22015,7 @@
         <v>2</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU106" t="n">
         <v>2.04</v>
@@ -22215,7 +22215,7 @@
         <v>0.57</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT107" t="n">
         <v>0.4</v>
@@ -22418,10 +22418,10 @@
         <v>0.71</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU108" t="n">
         <v>2.28</v>
@@ -22824,10 +22824,10 @@
         <v>2.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT110" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU110" t="n">
         <v>1.85</v>
@@ -23230,7 +23230,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT112" t="n">
         <v>1.4</v>
@@ -23433,7 +23433,7 @@
         <v>1.14</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT113" t="n">
         <v>1</v>
@@ -23639,7 +23639,7 @@
         <v>1.2</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU114" t="n">
         <v>1.58</v>
@@ -23839,7 +23839,7 @@
         <v>1.75</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT115" t="n">
         <v>2</v>
@@ -24045,7 +24045,7 @@
         <v>1.7</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU116" t="n">
         <v>1.29</v>
@@ -24248,7 +24248,7 @@
         <v>1.1</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU117" t="n">
         <v>2.02</v>
@@ -24448,7 +24448,7 @@
         <v>1.13</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT118" t="n">
         <v>1</v>
@@ -24651,10 +24651,10 @@
         <v>2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT119" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU119" t="n">
         <v>1.68</v>
@@ -24857,7 +24857,7 @@
         <v>1.4</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU120" t="n">
         <v>1.1</v>
@@ -25060,7 +25060,7 @@
         <v>1.1</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU121" t="n">
         <v>1.9</v>
@@ -25263,7 +25263,7 @@
         <v>1.2</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU122" t="n">
         <v>1.52</v>
@@ -25463,7 +25463,7 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT123" t="n">
         <v>2</v>
@@ -25666,7 +25666,7 @@
         <v>1.43</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT124" t="n">
         <v>1.4</v>
@@ -25869,10 +25869,10 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU125" t="n">
         <v>1.66</v>
@@ -26072,7 +26072,7 @@
         <v>0.86</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT126" t="n">
         <v>1.1</v>
@@ -26684,7 +26684,7 @@
         <v>1.7</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU129" t="n">
         <v>1.31</v>
@@ -27087,7 +27087,7 @@
         <v>1</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT131" t="n">
         <v>1.1</v>
@@ -27290,7 +27290,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT132" t="n">
         <v>1.3</v>
@@ -27699,7 +27699,7 @@
         <v>1.1</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU134" t="n">
         <v>1.9</v>
@@ -27899,10 +27899,10 @@
         <v>2.13</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT135" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU135" t="n">
         <v>1.63</v>
@@ -28102,10 +28102,10 @@
         <v>1.43</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU136" t="n">
         <v>2</v>
@@ -28508,7 +28508,7 @@
         <v>1.67</v>
       </c>
       <c r="AS138" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT138" t="n">
         <v>2</v>
@@ -28711,10 +28711,10 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU139" t="n">
         <v>1.72</v>
@@ -28914,10 +28914,10 @@
         <v>0.88</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU140" t="n">
         <v>1.69</v>
@@ -29117,7 +29117,7 @@
         <v>1.63</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT141" t="n">
         <v>1.4</v>
@@ -29320,10 +29320,10 @@
         <v>1.38</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU142" t="n">
         <v>1.67</v>
@@ -29523,7 +29523,7 @@
         <v>1.86</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT143" t="n">
         <v>2</v>
@@ -29726,10 +29726,10 @@
         <v>1.25</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU144" t="n">
         <v>1.7</v>
@@ -31350,7 +31350,7 @@
         <v>0.44</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT152" t="n">
         <v>0.4</v>
@@ -31608,6 +31608,1630 @@
       </c>
       <c r="BK153" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2708255</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>44905.58333333334</v>
+      </c>
+      <c r="F154" t="n">
+        <v>20</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>SSC Farul</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>4</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>4</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['2', '54', '71', '90+4']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>2</v>
+      </c>
+      <c r="R154" t="n">
+        <v>7</v>
+      </c>
+      <c r="S154" t="n">
+        <v>9</v>
+      </c>
+      <c r="T154" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U154" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V154" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X154" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2708254</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>44906.39583333334</v>
+      </c>
+      <c r="F155" t="n">
+        <v>20</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>6</v>
+      </c>
+      <c r="R155" t="n">
+        <v>5</v>
+      </c>
+      <c r="S155" t="n">
+        <v>11</v>
+      </c>
+      <c r="T155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U155" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V155" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X155" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2708253</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>44906.52083333334</v>
+      </c>
+      <c r="F156" t="n">
+        <v>20</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>2</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>4</v>
+      </c>
+      <c r="R156" t="n">
+        <v>4</v>
+      </c>
+      <c r="S156" t="n">
+        <v>8</v>
+      </c>
+      <c r="T156" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2</v>
+      </c>
+      <c r="V156" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2708252</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>44906.64583333334</v>
+      </c>
+      <c r="F157" t="n">
+        <v>20</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Chindia Târgovişte</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>2</v>
+      </c>
+      <c r="N157" t="n">
+        <v>2</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['24', '73']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>2</v>
+      </c>
+      <c r="R157" t="n">
+        <v>3</v>
+      </c>
+      <c r="S157" t="n">
+        <v>5</v>
+      </c>
+      <c r="T157" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V157" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2708250</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>44907.52083333334</v>
+      </c>
+      <c r="F158" t="n">
+        <v>20</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>U Craiova 1948</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Argeș</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>9</v>
+      </c>
+      <c r="R158" t="n">
+        <v>1</v>
+      </c>
+      <c r="S158" t="n">
+        <v>10</v>
+      </c>
+      <c r="T158" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V158" t="n">
+        <v>4</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X158" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2708251</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>44907.64583333334</v>
+      </c>
+      <c r="F159" t="n">
+        <v>20</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Mioveni</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R159" t="n">
+        <v>5</v>
+      </c>
+      <c r="S159" t="n">
+        <v>5</v>
+      </c>
+      <c r="T159" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U159" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V159" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X159" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2708249</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>44909.58333333334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>20</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>3</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>4</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['9', '73', '90+4']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>10</v>
+      </c>
+      <c r="R160" t="n">
+        <v>5</v>
+      </c>
+      <c r="S160" t="n">
+        <v>15</v>
+      </c>
+      <c r="T160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U160" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V160" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X160" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2708166</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>44910.625</v>
+      </c>
+      <c r="F161" t="n">
+        <v>9</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>6</v>
+      </c>
+      <c r="R161" t="n">
+        <v>4</v>
+      </c>
+      <c r="S161" t="n">
+        <v>10</v>
+      </c>
+      <c r="T161" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U161" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V161" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X161" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.6</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT3" t="n">
         <v>1.8</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT4" t="n">
         <v>0.6</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.6</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.1</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT9" t="n">
         <v>1.1</v>
@@ -2527,7 +2527,7 @@
         <v>0.4</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT12" t="n">
         <v>0.8</v>
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT17" t="n">
         <v>1.2</v>
@@ -4148,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU18" t="n">
         <v>1.63</v>
@@ -4354,7 +4354,7 @@
         <v>2.6</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>1.9</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT20" t="n">
         <v>0.6</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU21" t="n">
         <v>1.66</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT22" t="n">
         <v>1.8</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU23" t="n">
         <v>1.65</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU24" t="n">
         <v>1.56</v>
@@ -5572,7 +5572,7 @@
         <v>1.6</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU25" t="n">
         <v>1.65</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT29" t="n">
         <v>0.6</v>
@@ -7196,7 +7196,7 @@
         <v>1.1</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU33" t="n">
         <v>1.22</v>
@@ -7396,10 +7396,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU34" t="n">
         <v>1.66</v>
@@ -7599,10 +7599,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU35" t="n">
         <v>1.29</v>
@@ -7802,10 +7802,10 @@
         <v>1.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU36" t="n">
         <v>1.22</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU37" t="n">
         <v>1.67</v>
@@ -8208,10 +8208,10 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU38" t="n">
         <v>1.89</v>
@@ -8411,10 +8411,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>1.91</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT40" t="n">
         <v>1.8</v>
@@ -8820,7 +8820,7 @@
         <v>2.6</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU41" t="n">
         <v>1.98</v>
@@ -10035,10 +10035,10 @@
         <v>0.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU47" t="n">
         <v>1.24</v>
@@ -10238,10 +10238,10 @@
         <v>1.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU48" t="n">
         <v>1.45</v>
@@ -10441,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU49" t="n">
         <v>1.18</v>
@@ -10644,10 +10644,10 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU50" t="n">
         <v>1.75</v>
@@ -10847,10 +10847,10 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
         <v>1.62</v>
@@ -11050,10 +11050,10 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU52" t="n">
         <v>1.88</v>
@@ -11253,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU53" t="n">
         <v>2.15</v>
@@ -11456,10 +11456,10 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT54" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU54" t="n">
         <v>1.81</v>
@@ -12068,7 +12068,7 @@
         <v>2.4</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU57" t="n">
         <v>1.42</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT59" t="n">
         <v>1.1</v>
@@ -13283,10 +13283,10 @@
         <v>0.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU63" t="n">
         <v>2.04</v>
@@ -13489,7 +13489,7 @@
         <v>1.3</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU64" t="n">
         <v>1.69</v>
@@ -13689,10 +13689,10 @@
         <v>0.25</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU65" t="n">
         <v>1.5</v>
@@ -13892,10 +13892,10 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU66" t="n">
         <v>1.11</v>
@@ -14095,10 +14095,10 @@
         <v>1.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU67" t="n">
         <v>1.21</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU68" t="n">
         <v>1.68</v>
@@ -14501,10 +14501,10 @@
         <v>2.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU69" t="n">
         <v>1.96</v>
@@ -15316,7 +15316,7 @@
         <v>1.3</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU73" t="n">
         <v>1.75</v>
@@ -15719,7 +15719,7 @@
         <v>1.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT75" t="n">
         <v>1.5</v>
@@ -15925,7 +15925,7 @@
         <v>0.4</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU76" t="n">
         <v>1.22</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT77" t="n">
         <v>1.1</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU78" t="n">
         <v>1.08</v>
@@ -16531,10 +16531,10 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU79" t="n">
         <v>1.25</v>
@@ -16734,10 +16734,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU80" t="n">
         <v>1.67</v>
@@ -16937,10 +16937,10 @@
         <v>1.4</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT81" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU81" t="n">
         <v>1.91</v>
@@ -17143,7 +17143,7 @@
         <v>2.4</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU82" t="n">
         <v>1.4</v>
@@ -17346,7 +17346,7 @@
         <v>1.3</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.76</v>
@@ -17546,7 +17546,7 @@
         <v>0.33</v>
       </c>
       <c r="AS84" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT84" t="n">
         <v>1.6</v>
@@ -17749,7 +17749,7 @@
         <v>1.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT85" t="n">
         <v>2</v>
@@ -17952,7 +17952,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT86" t="n">
         <v>1.1</v>
@@ -18158,7 +18158,7 @@
         <v>0.4</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU87" t="n">
         <v>1.34</v>
@@ -18358,7 +18358,7 @@
         <v>1.8</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT88" t="n">
         <v>1.2</v>
@@ -18967,7 +18967,7 @@
         <v>0.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT91" t="n">
         <v>0.8</v>
@@ -19173,7 +19173,7 @@
         <v>1.1</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU92" t="n">
         <v>1.64</v>
@@ -19376,7 +19376,7 @@
         <v>1</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU93" t="n">
         <v>1.71</v>
@@ -19576,10 +19576,10 @@
         <v>0.67</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU94" t="n">
         <v>1.06</v>
@@ -19779,7 +19779,7 @@
         <v>1</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT95" t="n">
         <v>1.5</v>
@@ -19985,7 +19985,7 @@
         <v>1.3</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU96" t="n">
         <v>1.72</v>
@@ -20188,7 +20188,7 @@
         <v>2.4</v>
       </c>
       <c r="AT97" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU97" t="n">
         <v>1.64</v>
@@ -20388,10 +20388,10 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU98" t="n">
         <v>1.99</v>
@@ -20591,7 +20591,7 @@
         <v>0.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT99" t="n">
         <v>1.6</v>
@@ -20797,7 +20797,7 @@
         <v>1.3</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU100" t="n">
         <v>1.79</v>
@@ -20997,7 +20997,7 @@
         <v>2</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT101" t="n">
         <v>2</v>
@@ -21200,7 +21200,7 @@
         <v>0.83</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT102" t="n">
         <v>1.1</v>
@@ -21406,7 +21406,7 @@
         <v>1.6</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU103" t="n">
         <v>1.38</v>
@@ -21609,7 +21609,7 @@
         <v>1.1</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU104" t="n">
         <v>1.54</v>
@@ -21812,7 +21812,7 @@
         <v>2.6</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU105" t="n">
         <v>1.82</v>
@@ -22012,7 +22012,7 @@
         <v>1.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT106" t="n">
         <v>1.2</v>
@@ -22218,7 +22218,7 @@
         <v>1</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU107" t="n">
         <v>1.67</v>
@@ -22418,7 +22418,7 @@
         <v>0.71</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT108" t="n">
         <v>0.6</v>
@@ -22621,7 +22621,7 @@
         <v>1.71</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT109" t="n">
         <v>1.8</v>
@@ -22827,7 +22827,7 @@
         <v>2.4</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU110" t="n">
         <v>1.85</v>
@@ -23027,10 +23027,10 @@
         <v>0.71</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU111" t="n">
         <v>1.07</v>
@@ -23233,7 +23233,7 @@
         <v>1.3</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU112" t="n">
         <v>1.68</v>
@@ -23436,7 +23436,7 @@
         <v>0.4</v>
       </c>
       <c r="AT113" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU113" t="n">
         <v>1.35</v>
@@ -23636,7 +23636,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT114" t="n">
         <v>1.5</v>
@@ -24042,7 +24042,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT116" t="n">
         <v>0.8</v>
@@ -24245,7 +24245,7 @@
         <v>0.8</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT117" t="n">
         <v>1.6</v>
@@ -24451,7 +24451,7 @@
         <v>1</v>
       </c>
       <c r="AT118" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU118" t="n">
         <v>1.71</v>
@@ -24654,7 +24654,7 @@
         <v>1.3</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU119" t="n">
         <v>1.68</v>
@@ -24854,7 +24854,7 @@
         <v>1.29</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT120" t="n">
         <v>1.2</v>
@@ -25057,7 +25057,7 @@
         <v>1.17</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT121" t="n">
         <v>1.5</v>
@@ -25260,7 +25260,7 @@
         <v>0.57</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT122" t="n">
         <v>0.8</v>
@@ -25669,7 +25669,7 @@
         <v>0.4</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU124" t="n">
         <v>1.36</v>
@@ -26278,7 +26278,7 @@
         <v>2.6</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU127" t="n">
         <v>1.84</v>
@@ -26478,7 +26478,7 @@
         <v>1.5</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT128" t="n">
         <v>1.8</v>
@@ -26681,7 +26681,7 @@
         <v>0.63</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT129" t="n">
         <v>0.6</v>
@@ -26884,10 +26884,10 @@
         <v>0.75</v>
       </c>
       <c r="AS130" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU130" t="n">
         <v>1.99</v>
@@ -27090,7 +27090,7 @@
         <v>1.6</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU131" t="n">
         <v>1.38</v>
@@ -27290,10 +27290,10 @@
         <v>1.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU132" t="n">
         <v>2.22</v>
@@ -27493,10 +27493,10 @@
         <v>0.75</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU133" t="n">
         <v>1.87</v>
@@ -27696,7 +27696,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT134" t="n">
         <v>1.2</v>
@@ -27902,7 +27902,7 @@
         <v>1</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU135" t="n">
         <v>1.63</v>
@@ -28305,7 +28305,7 @@
         <v>1.13</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT137" t="n">
         <v>1.1</v>
@@ -29120,7 +29120,7 @@
         <v>1.1</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU141" t="n">
         <v>1.68</v>
@@ -29929,7 +29929,7 @@
         <v>1.67</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT145" t="n">
         <v>1.8</v>
@@ -30132,10 +30132,10 @@
         <v>0.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU146" t="n">
         <v>1.32</v>
@@ -30335,10 +30335,10 @@
         <v>1.56</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU147" t="n">
         <v>1.18</v>
@@ -30538,10 +30538,10 @@
         <v>0.67</v>
       </c>
       <c r="AS148" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU148" t="n">
         <v>2</v>
@@ -30744,7 +30744,7 @@
         <v>2.6</v>
       </c>
       <c r="AT149" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU149" t="n">
         <v>1.88</v>
@@ -30944,10 +30944,10 @@
         <v>1.22</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU150" t="n">
         <v>1.88</v>
@@ -31147,10 +31147,10 @@
         <v>1.33</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU151" t="n">
         <v>1.43</v>
@@ -31350,10 +31350,10 @@
         <v>0.44</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU152" t="n">
         <v>2.15</v>
@@ -31553,7 +31553,7 @@
         <v>1.11</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT153" t="n">
         <v>1.1</v>
@@ -31759,7 +31759,7 @@
         <v>1.6</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU154" t="n">
         <v>1.39</v>
@@ -33177,7 +33177,7 @@
         <v>1.89</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT161" t="n">
         <v>2</v>
@@ -33232,6 +33232,1630 @@
       </c>
       <c r="BK161" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2708264</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>44911.625</v>
+      </c>
+      <c r="F162" t="n">
+        <v>21</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Voluntari</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>SSC Farul</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="n">
+        <v>2</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>8</v>
+      </c>
+      <c r="R162" t="n">
+        <v>2</v>
+      </c>
+      <c r="S162" t="n">
+        <v>10</v>
+      </c>
+      <c r="T162" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U162" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V162" t="n">
+        <v>3</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X162" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2708263</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>44912.41666666666</v>
+      </c>
+      <c r="F163" t="n">
+        <v>21</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Sepsi</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>2</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="n">
+        <v>3</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['30', '51']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>1</v>
+      </c>
+      <c r="R163" t="n">
+        <v>3</v>
+      </c>
+      <c r="S163" t="n">
+        <v>4</v>
+      </c>
+      <c r="T163" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V163" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X163" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2708259</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>44912.64583333334</v>
+      </c>
+      <c r="F164" t="n">
+        <v>21</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Chindia Târgovişte</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>2</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>2</v>
+      </c>
+      <c r="L164" t="n">
+        <v>3</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>3</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['22', '29', '65']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>4</v>
+      </c>
+      <c r="R164" t="n">
+        <v>3</v>
+      </c>
+      <c r="S164" t="n">
+        <v>7</v>
+      </c>
+      <c r="T164" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V164" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X164" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2708258</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>44913.29166666666</v>
+      </c>
+      <c r="F165" t="n">
+        <v>21</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Argeș</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Mioveni</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>2</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>2</v>
+      </c>
+      <c r="L165" t="n">
+        <v>2</v>
+      </c>
+      <c r="M165" t="n">
+        <v>2</v>
+      </c>
+      <c r="N165" t="n">
+        <v>4</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['14', '19']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['58', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>4</v>
+      </c>
+      <c r="R165" t="n">
+        <v>3</v>
+      </c>
+      <c r="S165" t="n">
+        <v>7</v>
+      </c>
+      <c r="T165" t="n">
+        <v>3</v>
+      </c>
+      <c r="U165" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V165" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X165" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2708257</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>44913.39583333334</v>
+      </c>
+      <c r="F166" t="n">
+        <v>21</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>U Craiova 1948</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>2</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>3</v>
+      </c>
+      <c r="R166" t="n">
+        <v>8</v>
+      </c>
+      <c r="S166" t="n">
+        <v>11</v>
+      </c>
+      <c r="T166" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U166" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V166" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X166" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2708261</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>44913.64583333334</v>
+      </c>
+      <c r="F167" t="n">
+        <v>21</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="n">
+        <v>2</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>5</v>
+      </c>
+      <c r="R167" t="n">
+        <v>6</v>
+      </c>
+      <c r="S167" t="n">
+        <v>11</v>
+      </c>
+      <c r="T167" t="n">
+        <v>4</v>
+      </c>
+      <c r="U167" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V167" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X167" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2708260</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>44914.625</v>
+      </c>
+      <c r="F168" t="n">
+        <v>21</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>7</v>
+      </c>
+      <c r="R168" t="n">
+        <v>5</v>
+      </c>
+      <c r="S168" t="n">
+        <v>12</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V168" t="n">
+        <v>7</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X168" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2708262</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>44915.625</v>
+      </c>
+      <c r="F169" t="n">
+        <v>21</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>2</v>
+      </c>
+      <c r="R169" t="n">
+        <v>3</v>
+      </c>
+      <c r="S169" t="n">
+        <v>5</v>
+      </c>
+      <c r="T169" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U169" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V169" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X169" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK169"/>
+  <dimension ref="A1:BK170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,7 +2324,7 @@
         <v>1.64</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT14" t="n">
         <v>1.5</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT26" t="n">
         <v>1.2</v>
@@ -6993,7 +6993,7 @@
         <v>1.6</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.5</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT45" t="n">
         <v>1.8</v>
@@ -9835,7 +9835,7 @@
         <v>2.6</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU46" t="n">
         <v>2.02</v>
@@ -12474,7 +12474,7 @@
         <v>2.18</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU59" t="n">
         <v>1.85</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT64" t="n">
         <v>0.91</v>
@@ -16128,7 +16128,7 @@
         <v>2</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU77" t="n">
         <v>2.06</v>
@@ -17343,7 +17343,7 @@
         <v>0.4</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT83" t="n">
         <v>1</v>
@@ -17955,7 +17955,7 @@
         <v>2.09</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU86" t="n">
         <v>1.98</v>
@@ -19982,7 +19982,7 @@
         <v>1.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT96" t="n">
         <v>1.55</v>
@@ -21203,7 +21203,7 @@
         <v>1.36</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU102" t="n">
         <v>1.57</v>
@@ -23839,7 +23839,7 @@
         <v>1.75</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT115" t="n">
         <v>2</v>
@@ -25869,7 +25869,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT125" t="n">
         <v>1.6</v>
@@ -26075,7 +26075,7 @@
         <v>1.1</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU126" t="n">
         <v>1.65</v>
@@ -28308,7 +28308,7 @@
         <v>1.18</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU137" t="n">
         <v>1.66</v>
@@ -28914,7 +28914,7 @@
         <v>0.88</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT140" t="n">
         <v>0.8</v>
@@ -31556,7 +31556,7 @@
         <v>1.27</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU153" t="n">
         <v>1.92</v>
@@ -31959,7 +31959,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT155" t="n">
         <v>0.6</v>
@@ -34856,6 +34856,209 @@
       </c>
       <c r="BK169" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2708272</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>44946.47916666666</v>
+      </c>
+      <c r="F170" t="n">
+        <v>22</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Voluntari</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>2</v>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="n">
+        <v>3</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['37', '88']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>9</v>
+      </c>
+      <c r="R170" t="n">
+        <v>2</v>
+      </c>
+      <c r="S170" t="n">
+        <v>11</v>
+      </c>
+      <c r="T170" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U170" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V170" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X170" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK170"/>
+  <dimension ref="A1:BK171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2.09</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT15" t="n">
         <v>1.6</v>
@@ -4963,7 +4963,7 @@
         <v>1.64</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU22" t="n">
         <v>1.32</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT28" t="n">
         <v>0.8</v>
@@ -8617,7 +8617,7 @@
         <v>1.36</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU40" t="n">
         <v>1.45</v>
@@ -9426,7 +9426,7 @@
         <v>0.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT44" t="n">
         <v>0.6</v>
@@ -9632,7 +9632,7 @@
         <v>1.45</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU45" t="n">
         <v>1.57</v>
@@ -11865,7 +11865,7 @@
         <v>1.3</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU56" t="n">
         <v>1.87</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT57" t="n">
         <v>0.55</v>
@@ -14910,7 +14910,7 @@
         <v>1</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU71" t="n">
         <v>1.9</v>
@@ -17140,7 +17140,7 @@
         <v>0.8</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT82" t="n">
         <v>0.45</v>
@@ -18564,7 +18564,7 @@
         <v>1.6</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU89" t="n">
         <v>1.42</v>
@@ -20185,7 +20185,7 @@
         <v>1.17</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT97" t="n">
         <v>0.91</v>
@@ -22624,7 +22624,7 @@
         <v>2.18</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU109" t="n">
         <v>1.85</v>
@@ -22824,7 +22824,7 @@
         <v>2.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT110" t="n">
         <v>1.73</v>
@@ -25463,7 +25463,7 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT123" t="n">
         <v>2</v>
@@ -26481,7 +26481,7 @@
         <v>1.36</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU128" t="n">
         <v>1.52</v>
@@ -28102,7 +28102,7 @@
         <v>1.43</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT136" t="n">
         <v>1.5</v>
@@ -29932,7 +29932,7 @@
         <v>1.18</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU145" t="n">
         <v>1.75</v>
@@ -32974,7 +32974,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT160" t="n">
         <v>1.2</v>
@@ -35059,6 +35059,209 @@
       </c>
       <c r="BK170" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2708270</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>44946.625</v>
+      </c>
+      <c r="F171" t="n">
+        <v>22</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Sepsi</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>3</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>3</v>
+      </c>
+      <c r="L171" t="n">
+        <v>3</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>3</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['5', '13', '19']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>4</v>
+      </c>
+      <c r="R171" t="n">
+        <v>6</v>
+      </c>
+      <c r="S171" t="n">
+        <v>10</v>
+      </c>
+      <c r="T171" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U171" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V171" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X171" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK171"/>
+  <dimension ref="A1:BK174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.36</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AT10" t="n">
         <v>1.73</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT13" t="n">
         <v>2</v>
@@ -3339,7 +3339,7 @@
         <v>1.45</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.18</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.36</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU20" t="n">
         <v>1.27</v>
@@ -5775,7 +5775,7 @@
         <v>1.45</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU26" t="n">
         <v>1.8</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AT27" t="n">
         <v>1.6</v>
@@ -6384,7 +6384,7 @@
         <v>1.27</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU29" t="n">
         <v>2.09</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU31" t="n">
         <v>1.66</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT33" t="n">
         <v>1.73</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AT42" t="n">
         <v>0.8</v>
@@ -9223,10 +9223,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU43" t="n">
         <v>1.7</v>
@@ -9429,7 +9429,7 @@
         <v>2.45</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU44" t="n">
         <v>1.52</v>
@@ -11659,10 +11659,10 @@
         <v>0.25</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU55" t="n">
         <v>1.1</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT56" t="n">
         <v>1.64</v>
@@ -12271,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU58" t="n">
         <v>1.66</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT61" t="n">
         <v>0.8</v>
@@ -13083,7 +13083,7 @@
         <v>1.6</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU62" t="n">
         <v>1.44</v>
@@ -14704,10 +14704,10 @@
         <v>0.4</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU70" t="n">
         <v>1.69</v>
@@ -15113,7 +15113,7 @@
         <v>1.6</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU72" t="n">
         <v>1.34</v>
@@ -15313,7 +15313,7 @@
         <v>1.8</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT73" t="n">
         <v>1.27</v>
@@ -15722,7 +15722,7 @@
         <v>2.18</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU75" t="n">
         <v>1.88</v>
@@ -15922,7 +15922,7 @@
         <v>0.4</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AT76" t="n">
         <v>0.55</v>
@@ -18155,7 +18155,7 @@
         <v>0.83</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AT87" t="n">
         <v>0.91</v>
@@ -18361,7 +18361,7 @@
         <v>2.18</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU88" t="n">
         <v>1.83</v>
@@ -18767,7 +18767,7 @@
         <v>2.6</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU90" t="n">
         <v>1.95</v>
@@ -19170,7 +19170,7 @@
         <v>0.83</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT92" t="n">
         <v>0.55</v>
@@ -19782,7 +19782,7 @@
         <v>1.36</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU95" t="n">
         <v>1.61</v>
@@ -20794,7 +20794,7 @@
         <v>0.33</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT100" t="n">
         <v>1</v>
@@ -21606,7 +21606,7 @@
         <v>0.86</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT104" t="n">
         <v>0.91</v>
@@ -22015,7 +22015,7 @@
         <v>2.09</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU106" t="n">
         <v>2.04</v>
@@ -22421,7 +22421,7 @@
         <v>2</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU108" t="n">
         <v>2.28</v>
@@ -23230,7 +23230,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT112" t="n">
         <v>1.55</v>
@@ -23433,7 +23433,7 @@
         <v>1.14</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AT113" t="n">
         <v>0.91</v>
@@ -23639,7 +23639,7 @@
         <v>1.18</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU114" t="n">
         <v>1.58</v>
@@ -24651,7 +24651,7 @@
         <v>2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT119" t="n">
         <v>1.73</v>
@@ -24857,7 +24857,7 @@
         <v>1.36</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU120" t="n">
         <v>1.1</v>
@@ -25060,7 +25060,7 @@
         <v>1.27</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU121" t="n">
         <v>1.9</v>
@@ -25666,7 +25666,7 @@
         <v>1.43</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AT124" t="n">
         <v>1.55</v>
@@ -26072,7 +26072,7 @@
         <v>0.86</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT126" t="n">
         <v>1</v>
@@ -26684,7 +26684,7 @@
         <v>1.64</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU129" t="n">
         <v>1.31</v>
@@ -27699,7 +27699,7 @@
         <v>1.27</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU134" t="n">
         <v>1.9</v>
@@ -28105,7 +28105,7 @@
         <v>2.45</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU136" t="n">
         <v>2</v>
@@ -28508,7 +28508,7 @@
         <v>1.67</v>
       </c>
       <c r="AS138" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AT138" t="n">
         <v>2</v>
@@ -28711,7 +28711,7 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT139" t="n">
         <v>1.6</v>
@@ -29117,7 +29117,7 @@
         <v>1.63</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT141" t="n">
         <v>1.55</v>
@@ -29323,7 +29323,7 @@
         <v>1</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU142" t="n">
         <v>1.67</v>
@@ -29726,7 +29726,7 @@
         <v>1.25</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT144" t="n">
         <v>1.6</v>
@@ -31962,7 +31962,7 @@
         <v>1.45</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU155" t="n">
         <v>1.74</v>
@@ -32162,7 +32162,7 @@
         <v>2</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT156" t="n">
         <v>2</v>
@@ -32568,7 +32568,7 @@
         <v>0.89</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT158" t="n">
         <v>0.8</v>
@@ -32771,10 +32771,10 @@
         <v>1.33</v>
       </c>
       <c r="AS159" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU159" t="n">
         <v>1.31</v>
@@ -32977,7 +32977,7 @@
         <v>2.45</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU160" t="n">
         <v>1.96</v>
@@ -35262,6 +35262,615 @@
       </c>
       <c r="BK171" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2708265</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>22</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Mioveni</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>4</v>
+      </c>
+      <c r="R172" t="n">
+        <v>7</v>
+      </c>
+      <c r="S172" t="n">
+        <v>11</v>
+      </c>
+      <c r="T172" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U172" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V172" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X172" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2708267</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>44947.625</v>
+      </c>
+      <c r="F173" t="n">
+        <v>22</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>3</v>
+      </c>
+      <c r="R173" t="n">
+        <v>5</v>
+      </c>
+      <c r="S173" t="n">
+        <v>8</v>
+      </c>
+      <c r="T173" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V173" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X173" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2708268</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>44948.4375</v>
+      </c>
+      <c r="F174" t="n">
+        <v>22</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>U Craiova 1948</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="n">
+        <v>2</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>5</v>
+      </c>
+      <c r="R174" t="n">
+        <v>7</v>
+      </c>
+      <c r="S174" t="n">
+        <v>12</v>
+      </c>
+      <c r="T174" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U174" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V174" t="n">
+        <v>4</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X174" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK174"/>
+  <dimension ref="A1:BK175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT2" t="n">
         <v>0.45</v>
@@ -3542,7 +3542,7 @@
         <v>2.45</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT25" t="n">
         <v>0.91</v>
@@ -5978,7 +5978,7 @@
         <v>0.64</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU27" t="n">
         <v>0.99</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT32" t="n">
         <v>1</v>
@@ -12677,7 +12677,7 @@
         <v>2.6</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU60" t="n">
         <v>2.09</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT62" t="n">
         <v>1.36</v>
@@ -15110,7 +15110,7 @@
         <v>2.25</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT72" t="n">
         <v>1.09</v>
@@ -17549,7 +17549,7 @@
         <v>2.09</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU84" t="n">
         <v>1.98</v>
@@ -18561,7 +18561,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT89" t="n">
         <v>1.64</v>
@@ -20594,7 +20594,7 @@
         <v>1.64</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU99" t="n">
         <v>1.3</v>
@@ -21403,7 +21403,7 @@
         <v>1.29</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT103" t="n">
         <v>1.27</v>
@@ -24248,7 +24248,7 @@
         <v>1.27</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU117" t="n">
         <v>2.02</v>
@@ -25872,7 +25872,7 @@
         <v>1.45</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU125" t="n">
         <v>1.66</v>
@@ -27087,7 +27087,7 @@
         <v>1</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT131" t="n">
         <v>1</v>
@@ -28714,7 +28714,7 @@
         <v>1.27</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU139" t="n">
         <v>1.72</v>
@@ -29523,7 +29523,7 @@
         <v>1.86</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT143" t="n">
         <v>2</v>
@@ -29729,7 +29729,7 @@
         <v>1.27</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU144" t="n">
         <v>1.7</v>
@@ -31756,7 +31756,7 @@
         <v>2</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT154" t="n">
         <v>1.73</v>
@@ -32368,7 +32368,7 @@
         <v>1</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU157" t="n">
         <v>1.61</v>
@@ -35123,13 +35123,13 @@
         </is>
       </c>
       <c r="Q171" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R171" t="n">
         <v>6</v>
       </c>
       <c r="S171" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T171" t="n">
         <v>3.1</v>
@@ -35871,6 +35871,209 @@
       </c>
       <c r="BK174" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2708269</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>44948.65625</v>
+      </c>
+      <c r="F175" t="n">
+        <v>22</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>2</v>
+      </c>
+      <c r="R175" t="n">
+        <v>4</v>
+      </c>
+      <c r="S175" t="n">
+        <v>6</v>
+      </c>
+      <c r="T175" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V175" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X175" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK175"/>
+  <dimension ref="A1:BK177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AT6" t="n">
         <v>0.91</v>
@@ -2933,7 +2933,7 @@
         <v>1.27</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.27</v>
       </c>
       <c r="AT13" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -6181,7 +6181,7 @@
         <v>2.45</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU28" t="n">
         <v>1.44</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU30" t="n">
         <v>1.32</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AT41" t="n">
         <v>1.55</v>
@@ -9023,7 +9023,7 @@
         <v>0.64</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU42" t="n">
         <v>1.05</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AT46" t="n">
         <v>1</v>
@@ -12674,7 +12674,7 @@
         <v>0.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AT60" t="n">
         <v>1.73</v>
@@ -12880,7 +12880,7 @@
         <v>1.27</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU61" t="n">
         <v>1.21</v>
@@ -15516,10 +15516,10 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU74" t="n">
         <v>1.99</v>
@@ -17752,7 +17752,7 @@
         <v>1.36</v>
       </c>
       <c r="AT85" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU85" t="n">
         <v>1.67</v>
@@ -18764,7 +18764,7 @@
         <v>0.83</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AT90" t="n">
         <v>0.64</v>
@@ -18970,7 +18970,7 @@
         <v>2</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU91" t="n">
         <v>2.09</v>
@@ -21000,7 +21000,7 @@
         <v>1.18</v>
       </c>
       <c r="AT101" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU101" t="n">
         <v>1.61</v>
@@ -21809,7 +21809,7 @@
         <v>0.86</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AT105" t="n">
         <v>0.55</v>
@@ -23842,7 +23842,7 @@
         <v>1.45</v>
       </c>
       <c r="AT115" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU115" t="n">
         <v>1.62</v>
@@ -24045,7 +24045,7 @@
         <v>1.64</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU116" t="n">
         <v>1.29</v>
@@ -25263,7 +25263,7 @@
         <v>1.18</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU122" t="n">
         <v>1.52</v>
@@ -25466,7 +25466,7 @@
         <v>2.45</v>
       </c>
       <c r="AT123" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU123" t="n">
         <v>2.03</v>
@@ -26275,7 +26275,7 @@
         <v>0.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AT127" t="n">
         <v>0.45</v>
@@ -28511,7 +28511,7 @@
         <v>0.64</v>
       </c>
       <c r="AT138" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU138" t="n">
         <v>1.31</v>
@@ -28917,7 +28917,7 @@
         <v>1.45</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU140" t="n">
         <v>1.69</v>
@@ -29526,7 +29526,7 @@
         <v>1.45</v>
       </c>
       <c r="AT143" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU143" t="n">
         <v>1.42</v>
@@ -30741,7 +30741,7 @@
         <v>1.11</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AT149" t="n">
         <v>0.91</v>
@@ -32165,7 +32165,7 @@
         <v>1.27</v>
       </c>
       <c r="AT156" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU156" t="n">
         <v>1.68</v>
@@ -32571,7 +32571,7 @@
         <v>1.27</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU158" t="n">
         <v>1.72</v>
@@ -33180,7 +33180,7 @@
         <v>2</v>
       </c>
       <c r="AT161" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU161" t="n">
         <v>2.11</v>
@@ -36074,6 +36074,412 @@
       </c>
       <c r="BK175" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2708266</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>44949.5</v>
+      </c>
+      <c r="F176" t="n">
+        <v>22</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Chindia Târgovişte</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Argeș</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="n">
+        <v>2</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>8</v>
+      </c>
+      <c r="R176" t="n">
+        <v>3</v>
+      </c>
+      <c r="S176" t="n">
+        <v>11</v>
+      </c>
+      <c r="T176" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U176" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V176" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2708271</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>44949.625</v>
+      </c>
+      <c r="F177" t="n">
+        <v>22</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>SSC Farul</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>3</v>
+      </c>
+      <c r="N177" t="n">
+        <v>3</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['49', '59', '77']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>2</v>
+      </c>
+      <c r="R177" t="n">
+        <v>3</v>
+      </c>
+      <c r="S177" t="n">
+        <v>5</v>
+      </c>
+      <c r="T177" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U177" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V177" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X177" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK177"/>
+  <dimension ref="A1:BK178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>2.18</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT14" t="n">
         <v>1.36</v>
@@ -5166,7 +5166,7 @@
         <v>2.09</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU23" t="n">
         <v>1.65</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT26" t="n">
         <v>1.09</v>
@@ -7805,7 +7805,7 @@
         <v>1.64</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU36" t="n">
         <v>1.22</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT45" t="n">
         <v>1.64</v>
@@ -10647,7 +10647,7 @@
         <v>1.27</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU50" t="n">
         <v>1.75</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT64" t="n">
         <v>0.91</v>
@@ -13895,7 +13895,7 @@
         <v>1.36</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU66" t="n">
         <v>1.11</v>
@@ -15316,7 +15316,7 @@
         <v>1.27</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU73" t="n">
         <v>1.75</v>
@@ -17343,7 +17343,7 @@
         <v>0.4</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT83" t="n">
         <v>1</v>
@@ -19376,7 +19376,7 @@
         <v>1</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU93" t="n">
         <v>1.71</v>
@@ -19982,7 +19982,7 @@
         <v>1.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT96" t="n">
         <v>1.55</v>
@@ -21406,7 +21406,7 @@
         <v>1.45</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU103" t="n">
         <v>1.38</v>
@@ -23839,7 +23839,7 @@
         <v>1.75</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT115" t="n">
         <v>2.09</v>
@@ -25869,7 +25869,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT125" t="n">
         <v>1.73</v>
@@ -27293,7 +27293,7 @@
         <v>2</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU132" t="n">
         <v>2.22</v>
@@ -28914,7 +28914,7 @@
         <v>0.88</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT140" t="n">
         <v>0.82</v>
@@ -31150,7 +31150,7 @@
         <v>1.36</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU151" t="n">
         <v>1.43</v>
@@ -31959,7 +31959,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT155" t="n">
         <v>0.64</v>
@@ -34398,7 +34398,7 @@
         <v>1.18</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU167" t="n">
         <v>1.68</v>
@@ -35004,7 +35004,7 @@
         <v>1.1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT170" t="n">
         <v>1</v>
@@ -36480,6 +36480,209 @@
       </c>
       <c r="BK177" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2708279</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>44953.625</v>
+      </c>
+      <c r="F178" t="n">
+        <v>23</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>7</v>
+      </c>
+      <c r="R178" t="n">
+        <v>6</v>
+      </c>
+      <c r="S178" t="n">
+        <v>13</v>
+      </c>
+      <c r="T178" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U178" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V178" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X178" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK178"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.45</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT3" t="n">
         <v>1.64</v>
@@ -2121,7 +2121,7 @@
         <v>1.27</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT17" t="n">
         <v>1.09</v>
@@ -4354,7 +4354,7 @@
         <v>2.36</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU19" t="n">
         <v>1.9</v>
@@ -4760,7 +4760,7 @@
         <v>2.18</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU21" t="n">
         <v>1.66</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT22" t="n">
         <v>1.64</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT23" t="n">
         <v>1.25</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT35" t="n">
         <v>0.55</v>
@@ -7802,7 +7802,7 @@
         <v>1.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT36" t="n">
         <v>1.25</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU37" t="n">
         <v>1.67</v>
@@ -8414,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU39" t="n">
         <v>1.91</v>
@@ -8820,7 +8820,7 @@
         <v>2.36</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU41" t="n">
         <v>1.98</v>
@@ -10238,7 +10238,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT48" t="n">
         <v>0.91</v>
@@ -10441,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU49" t="n">
         <v>1.18</v>
@@ -10850,7 +10850,7 @@
         <v>1.36</v>
       </c>
       <c r="AT51" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU51" t="n">
         <v>1.62</v>
@@ -11256,7 +11256,7 @@
         <v>2</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU53" t="n">
         <v>2.15</v>
@@ -11456,7 +11456,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT54" t="n">
         <v>0.91</v>
@@ -13286,7 +13286,7 @@
         <v>1.27</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU63" t="n">
         <v>2.04</v>
@@ -13689,10 +13689,10 @@
         <v>0.25</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT65" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU65" t="n">
         <v>1.5</v>
@@ -14095,7 +14095,7 @@
         <v>1.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT67" t="n">
         <v>0.91</v>
@@ -14301,7 +14301,7 @@
         <v>1.36</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU68" t="n">
         <v>1.68</v>
@@ -14501,7 +14501,7 @@
         <v>2.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT69" t="n">
         <v>1.73</v>
@@ -16531,7 +16531,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT79" t="n">
         <v>1.73</v>
@@ -16734,10 +16734,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU80" t="n">
         <v>1.67</v>
@@ -17143,7 +17143,7 @@
         <v>2.45</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU82" t="n">
         <v>1.4</v>
@@ -17346,7 +17346,7 @@
         <v>1.42</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU83" t="n">
         <v>1.76</v>
@@ -17546,7 +17546,7 @@
         <v>0.33</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT84" t="n">
         <v>1.73</v>
@@ -17952,7 +17952,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT86" t="n">
         <v>1</v>
@@ -19579,7 +19579,7 @@
         <v>1.36</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU94" t="n">
         <v>1.06</v>
@@ -19985,7 +19985,7 @@
         <v>1.42</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU96" t="n">
         <v>1.72</v>
@@ -20591,7 +20591,7 @@
         <v>0.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT99" t="n">
         <v>1.73</v>
@@ -20797,7 +20797,7 @@
         <v>1.27</v>
       </c>
       <c r="AT100" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU100" t="n">
         <v>1.79</v>
@@ -20997,7 +20997,7 @@
         <v>2</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT101" t="n">
         <v>2.09</v>
@@ -22012,7 +22012,7 @@
         <v>1.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT106" t="n">
         <v>1.09</v>
@@ -22218,7 +22218,7 @@
         <v>1</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU107" t="n">
         <v>1.67</v>
@@ -23030,7 +23030,7 @@
         <v>1.36</v>
       </c>
       <c r="AT111" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU111" t="n">
         <v>1.07</v>
@@ -23233,7 +23233,7 @@
         <v>1.27</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU112" t="n">
         <v>1.68</v>
@@ -23636,7 +23636,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT114" t="n">
         <v>1.36</v>
@@ -24042,7 +24042,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT116" t="n">
         <v>0.82</v>
@@ -25260,7 +25260,7 @@
         <v>0.57</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT122" t="n">
         <v>0.82</v>
@@ -25669,7 +25669,7 @@
         <v>0.64</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU124" t="n">
         <v>1.36</v>
@@ -26278,7 +26278,7 @@
         <v>2.36</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU127" t="n">
         <v>1.84</v>
@@ -26681,7 +26681,7 @@
         <v>0.63</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT129" t="n">
         <v>0.64</v>
@@ -26884,7 +26884,7 @@
         <v>0.75</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT130" t="n">
         <v>0.55</v>
@@ -27090,7 +27090,7 @@
         <v>1.45</v>
       </c>
       <c r="AT131" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU131" t="n">
         <v>1.38</v>
@@ -28305,7 +28305,7 @@
         <v>1.13</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT137" t="n">
         <v>1</v>
@@ -29120,7 +29120,7 @@
         <v>1.27</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU141" t="n">
         <v>1.68</v>
@@ -29929,7 +29929,7 @@
         <v>1.67</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT145" t="n">
         <v>1.64</v>
@@ -30132,7 +30132,7 @@
         <v>0.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT146" t="n">
         <v>0.55</v>
@@ -30338,7 +30338,7 @@
         <v>1.36</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU147" t="n">
         <v>1.18</v>
@@ -30538,7 +30538,7 @@
         <v>0.67</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT148" t="n">
         <v>0.91</v>
@@ -30947,7 +30947,7 @@
         <v>2.18</v>
       </c>
       <c r="AT150" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU150" t="n">
         <v>1.88</v>
@@ -31353,7 +31353,7 @@
         <v>2</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU152" t="n">
         <v>2.15</v>
@@ -33786,10 +33786,10 @@
         <v>1.1</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT164" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU164" t="n">
         <v>1.96</v>
@@ -33992,7 +33992,7 @@
         <v>1.36</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU165" t="n">
         <v>1.49</v>
@@ -34192,7 +34192,7 @@
         <v>0.9</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT166" t="n">
         <v>0.91</v>
@@ -34395,7 +34395,7 @@
         <v>1.3</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT167" t="n">
         <v>1.25</v>
@@ -34804,7 +34804,7 @@
         <v>2.18</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU169" t="n">
         <v>1.89</v>
@@ -36673,16 +36673,625 @@
         <v>5</v>
       </c>
       <c r="BH178" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2708275</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>44954.39583333334</v>
+      </c>
+      <c r="F179" t="n">
+        <v>23</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Mioveni</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>2</v>
+      </c>
+      <c r="K179" t="n">
+        <v>2</v>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="n">
+        <v>2</v>
+      </c>
+      <c r="N179" t="n">
+        <v>3</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['9', '45']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>9</v>
+      </c>
+      <c r="R179" t="n">
+        <v>2</v>
+      </c>
+      <c r="S179" t="n">
+        <v>11</v>
+      </c>
+      <c r="T179" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U179" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V179" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X179" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2708273</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>44954.5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>23</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Chindia Târgovişte</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="n">
+        <v>2</v>
+      </c>
+      <c r="N180" t="n">
+        <v>3</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['70', '85']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>7</v>
+      </c>
+      <c r="R180" t="n">
+        <v>2</v>
+      </c>
+      <c r="S180" t="n">
+        <v>9</v>
+      </c>
+      <c r="T180" t="n">
+        <v>3</v>
+      </c>
+      <c r="U180" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V180" t="n">
+        <v>4</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X180" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI180" t="n">
         <v>5</v>
       </c>
-      <c r="BJ178" t="n">
+      <c r="BJ180" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2708276</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>44954.625</v>
+      </c>
+      <c r="F181" t="n">
+        <v>23</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>2</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>2</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['48', '69']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>9</v>
+      </c>
+      <c r="R181" t="n">
+        <v>1</v>
+      </c>
+      <c r="S181" t="n">
+        <v>10</v>
+      </c>
+      <c r="T181" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2</v>
+      </c>
+      <c r="V181" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X181" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY181" t="n">
         <v>6</v>
       </c>
-      <c r="BK178" t="n">
-        <v>10</v>
+      <c r="AZ181" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT4" t="n">
         <v>0.64</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT7" t="n">
         <v>0.55</v>
@@ -2527,7 +2527,7 @@
         <v>0.64</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.36</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT18" t="n">
         <v>0.55</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT24" t="n">
         <v>0.91</v>
@@ -5572,7 +5572,7 @@
         <v>1.45</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU25" t="n">
         <v>1.65</v>
@@ -7196,7 +7196,7 @@
         <v>1.27</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU33" t="n">
         <v>1.22</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT34" t="n">
         <v>0.91</v>
@@ -8211,7 +8211,7 @@
         <v>2.18</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU38" t="n">
         <v>1.89</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT39" t="n">
         <v>1.17</v>
@@ -10847,7 +10847,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT51" t="n">
         <v>1.17</v>
@@ -11053,7 +11053,7 @@
         <v>2.18</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU52" t="n">
         <v>1.88</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT53" t="n">
         <v>1.42</v>
@@ -11459,7 +11459,7 @@
         <v>2.17</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU54" t="n">
         <v>1.81</v>
@@ -14098,7 +14098,7 @@
         <v>1.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU67" t="n">
         <v>1.21</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT68" t="n">
         <v>1.42</v>
@@ -14504,7 +14504,7 @@
         <v>2.17</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU69" t="n">
         <v>1.96</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT77" t="n">
         <v>1</v>
@@ -16534,7 +16534,7 @@
         <v>1.5</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU79" t="n">
         <v>1.25</v>
@@ -16940,7 +16940,7 @@
         <v>1.27</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU81" t="n">
         <v>1.91</v>
@@ -17749,7 +17749,7 @@
         <v>1.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT85" t="n">
         <v>2.09</v>
@@ -18967,7 +18967,7 @@
         <v>0.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT91" t="n">
         <v>0.82</v>
@@ -19779,7 +19779,7 @@
         <v>1</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT95" t="n">
         <v>1.36</v>
@@ -20188,7 +20188,7 @@
         <v>2.45</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU97" t="n">
         <v>1.64</v>
@@ -20391,7 +20391,7 @@
         <v>1.27</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU98" t="n">
         <v>1.99</v>
@@ -21200,7 +21200,7 @@
         <v>0.83</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT102" t="n">
         <v>1</v>
@@ -22418,7 +22418,7 @@
         <v>0.71</v>
       </c>
       <c r="AS108" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT108" t="n">
         <v>0.64</v>
@@ -22827,7 +22827,7 @@
         <v>2.45</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU110" t="n">
         <v>1.85</v>
@@ -23436,7 +23436,7 @@
         <v>0.64</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU113" t="n">
         <v>1.35</v>
@@ -24451,7 +24451,7 @@
         <v>1</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU118" t="n">
         <v>1.71</v>
@@ -24654,7 +24654,7 @@
         <v>1.27</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU119" t="n">
         <v>1.68</v>
@@ -26478,7 +26478,7 @@
         <v>1.5</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT128" t="n">
         <v>1.64</v>
@@ -27290,7 +27290,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT132" t="n">
         <v>1.25</v>
@@ -27902,7 +27902,7 @@
         <v>1</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU135" t="n">
         <v>1.63</v>
@@ -30744,7 +30744,7 @@
         <v>2.36</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU149" t="n">
         <v>1.88</v>
@@ -31147,7 +31147,7 @@
         <v>1.33</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT151" t="n">
         <v>1.25</v>
@@ -31350,7 +31350,7 @@
         <v>0.44</v>
       </c>
       <c r="AS152" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT152" t="n">
         <v>0.67</v>
@@ -31759,7 +31759,7 @@
         <v>1.45</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU154" t="n">
         <v>1.39</v>
@@ -33177,7 +33177,7 @@
         <v>1.89</v>
       </c>
       <c r="AS161" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT161" t="n">
         <v>2.09</v>
@@ -33383,7 +33383,7 @@
         <v>1.36</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU162" t="n">
         <v>1.23</v>
@@ -33989,7 +33989,7 @@
         <v>0.4</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT165" t="n">
         <v>0.67</v>
@@ -34598,10 +34598,10 @@
         <v>1</v>
       </c>
       <c r="AS168" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU168" t="n">
         <v>2.05</v>
@@ -37291,6 +37291,412 @@
         <v>12</v>
       </c>
       <c r="BK181" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2708274</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>44955.35416666666</v>
+      </c>
+      <c r="F182" t="n">
+        <v>23</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Argeș</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>2</v>
+      </c>
+      <c r="N182" t="n">
+        <v>2</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['43', '55']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>10</v>
+      </c>
+      <c r="R182" t="n">
+        <v>3</v>
+      </c>
+      <c r="S182" t="n">
+        <v>13</v>
+      </c>
+      <c r="T182" t="n">
+        <v>3</v>
+      </c>
+      <c r="U182" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V182" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X182" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2708278</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>44955.58333333334</v>
+      </c>
+      <c r="F183" t="n">
+        <v>23</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>SSC Farul</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>2</v>
+      </c>
+      <c r="M183" t="n">
+        <v>3</v>
+      </c>
+      <c r="N183" t="n">
+        <v>5</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['47', '59']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>['56', '90+5', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>4</v>
+      </c>
+      <c r="R183" t="n">
+        <v>5</v>
+      </c>
+      <c r="S183" t="n">
+        <v>9</v>
+      </c>
+      <c r="T183" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V183" t="n">
+        <v>4</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X183" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK183" t="n">
         <v>5</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -37562,10 +37562,10 @@
         <v>4</v>
       </c>
       <c r="R183" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S183" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T183" t="n">
         <v>2.65</v>
@@ -37685,19 +37685,19 @@
         <v>4</v>
       </c>
       <c r="BG183" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH183" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI183" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ183" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK183" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK183"/>
+  <dimension ref="A1:BK184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT11" t="n">
         <v>1.08</v>
@@ -3136,7 +3136,7 @@
         <v>1.27</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT20" t="n">
         <v>0.64</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU30" t="n">
         <v>1.32</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT40" t="n">
         <v>1.64</v>
@@ -10035,7 +10035,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT47" t="n">
         <v>0.55</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT66" t="n">
         <v>1.25</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT78" t="n">
         <v>0.91</v>
@@ -17752,7 +17752,7 @@
         <v>1.25</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU85" t="n">
         <v>1.67</v>
@@ -19576,7 +19576,7 @@
         <v>0.67</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT94" t="n">
         <v>0.67</v>
@@ -21000,7 +21000,7 @@
         <v>1.08</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU101" t="n">
         <v>1.61</v>
@@ -23027,7 +23027,7 @@
         <v>0.71</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT111" t="n">
         <v>1.17</v>
@@ -23842,7 +23842,7 @@
         <v>1.42</v>
       </c>
       <c r="AT115" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU115" t="n">
         <v>1.62</v>
@@ -24854,7 +24854,7 @@
         <v>1.29</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT120" t="n">
         <v>1.09</v>
@@ -25466,7 +25466,7 @@
         <v>2.45</v>
       </c>
       <c r="AT123" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU123" t="n">
         <v>2.03</v>
@@ -28511,7 +28511,7 @@
         <v>0.64</v>
       </c>
       <c r="AT138" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU138" t="n">
         <v>1.31</v>
@@ -29526,7 +29526,7 @@
         <v>1.45</v>
       </c>
       <c r="AT143" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU143" t="n">
         <v>1.42</v>
@@ -30335,7 +30335,7 @@
         <v>1.56</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT147" t="n">
         <v>1.42</v>
@@ -32165,7 +32165,7 @@
         <v>1.27</v>
       </c>
       <c r="AT156" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU156" t="n">
         <v>1.68</v>
@@ -33180,7 +33180,7 @@
         <v>1.83</v>
       </c>
       <c r="AT161" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU161" t="n">
         <v>2.11</v>
@@ -33380,7 +33380,7 @@
         <v>1.8</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT162" t="n">
         <v>1.83</v>
@@ -36428,7 +36428,7 @@
         <v>2.36</v>
       </c>
       <c r="AT177" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU177" t="n">
         <v>2.01</v>
@@ -37698,6 +37698,209 @@
       </c>
       <c r="BK183" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2708280</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>44956.625</v>
+      </c>
+      <c r="F184" t="n">
+        <v>23</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Voluntari</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>5</v>
+      </c>
+      <c r="R184" t="n">
+        <v>5</v>
+      </c>
+      <c r="S184" t="n">
+        <v>10</v>
+      </c>
+      <c r="T184" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2</v>
+      </c>
+      <c r="V184" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X184" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK184"/>
+  <dimension ref="A1:BK187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT2" t="n">
         <v>0.67</v>
@@ -1309,7 +1309,7 @@
         <v>1.25</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.83</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.27</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT13" t="n">
         <v>2.17</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT16" t="n">
         <v>1.42</v>
@@ -4151,7 +4151,7 @@
         <v>1.25</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU18" t="n">
         <v>1.63</v>
@@ -4557,7 +4557,7 @@
         <v>1.25</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU20" t="n">
         <v>1.27</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT25" t="n">
         <v>1.08</v>
@@ -6181,7 +6181,7 @@
         <v>2.45</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU28" t="n">
         <v>1.44</v>
@@ -6384,7 +6384,7 @@
         <v>1.27</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU29" t="n">
         <v>2.09</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT30" t="n">
         <v>2.17</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT31" t="n">
         <v>1.36</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT32" t="n">
         <v>1</v>
@@ -7602,7 +7602,7 @@
         <v>1.08</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.29</v>
@@ -9023,7 +9023,7 @@
         <v>0.64</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU42" t="n">
         <v>1.05</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT43" t="n">
         <v>1.09</v>
@@ -9429,7 +9429,7 @@
         <v>2.45</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU44" t="n">
         <v>1.52</v>
@@ -10038,7 +10038,7 @@
         <v>1.25</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU47" t="n">
         <v>1.24</v>
@@ -11662,7 +11662,7 @@
         <v>0.64</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU55" t="n">
         <v>1.1</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT56" t="n">
         <v>1.64</v>
@@ -12068,7 +12068,7 @@
         <v>2.45</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU57" t="n">
         <v>1.42</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT58" t="n">
         <v>1.09</v>
@@ -12880,7 +12880,7 @@
         <v>1.27</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU61" t="n">
         <v>1.21</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT62" t="n">
         <v>1.36</v>
@@ -14707,7 +14707,7 @@
         <v>1.27</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU70" t="n">
         <v>1.69</v>
@@ -14907,7 +14907,7 @@
         <v>1.2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT71" t="n">
         <v>1.64</v>
@@ -15110,7 +15110,7 @@
         <v>2.25</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT72" t="n">
         <v>1.09</v>
@@ -15313,7 +15313,7 @@
         <v>1.8</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT73" t="n">
         <v>1.25</v>
@@ -15519,7 +15519,7 @@
         <v>2.36</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU74" t="n">
         <v>1.99</v>
@@ -15925,7 +15925,7 @@
         <v>0.64</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU76" t="n">
         <v>1.22</v>
@@ -18561,7 +18561,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT89" t="n">
         <v>1.64</v>
@@ -18767,7 +18767,7 @@
         <v>2.36</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU90" t="n">
         <v>1.95</v>
@@ -18970,7 +18970,7 @@
         <v>1.83</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU91" t="n">
         <v>2.09</v>
@@ -19173,7 +19173,7 @@
         <v>1.27</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.64</v>
@@ -19373,7 +19373,7 @@
         <v>1.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT93" t="n">
         <v>1.25</v>
@@ -20794,7 +20794,7 @@
         <v>0.33</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT100" t="n">
         <v>1.17</v>
@@ -21403,7 +21403,7 @@
         <v>1.29</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT103" t="n">
         <v>1.25</v>
@@ -21812,7 +21812,7 @@
         <v>2.36</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU105" t="n">
         <v>1.82</v>
@@ -22215,7 +22215,7 @@
         <v>0.57</v>
       </c>
       <c r="AS107" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT107" t="n">
         <v>0.67</v>
@@ -22421,7 +22421,7 @@
         <v>1.83</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU108" t="n">
         <v>2.28</v>
@@ -23230,7 +23230,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT112" t="n">
         <v>1.42</v>
@@ -24045,7 +24045,7 @@
         <v>1.5</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU116" t="n">
         <v>1.29</v>
@@ -24448,7 +24448,7 @@
         <v>1.13</v>
       </c>
       <c r="AS118" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT118" t="n">
         <v>1.08</v>
@@ -24651,7 +24651,7 @@
         <v>2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT119" t="n">
         <v>1.83</v>
@@ -25263,7 +25263,7 @@
         <v>1.08</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU122" t="n">
         <v>1.52</v>
@@ -26684,7 +26684,7 @@
         <v>1.5</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU129" t="n">
         <v>1.31</v>
@@ -26887,7 +26887,7 @@
         <v>2.17</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU130" t="n">
         <v>1.99</v>
@@ -27087,7 +27087,7 @@
         <v>1</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT131" t="n">
         <v>1.17</v>
@@ -27899,7 +27899,7 @@
         <v>2.13</v>
       </c>
       <c r="AS135" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT135" t="n">
         <v>1.83</v>
@@ -28711,7 +28711,7 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT139" t="n">
         <v>1.73</v>
@@ -28917,7 +28917,7 @@
         <v>1.42</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU140" t="n">
         <v>1.69</v>
@@ -29320,7 +29320,7 @@
         <v>1.38</v>
       </c>
       <c r="AS142" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT142" t="n">
         <v>1.36</v>
@@ -29523,7 +29523,7 @@
         <v>1.86</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT143" t="n">
         <v>2.17</v>
@@ -30135,7 +30135,7 @@
         <v>1.5</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU146" t="n">
         <v>1.32</v>
@@ -31756,7 +31756,7 @@
         <v>2</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT154" t="n">
         <v>1.83</v>
@@ -31962,7 +31962,7 @@
         <v>1.42</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU155" t="n">
         <v>1.74</v>
@@ -32365,7 +32365,7 @@
         <v>1.44</v>
       </c>
       <c r="AS157" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT157" t="n">
         <v>1.73</v>
@@ -32568,10 +32568,10 @@
         <v>0.89</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU158" t="n">
         <v>1.72</v>
@@ -33586,7 +33586,7 @@
         <v>1.27</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU163" t="n">
         <v>1.87</v>
@@ -35816,10 +35816,10 @@
         <v>0.6</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU174" t="n">
         <v>1.72</v>
@@ -36019,7 +36019,7 @@
         <v>1.6</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT175" t="n">
         <v>1.73</v>
@@ -36222,10 +36222,10 @@
         <v>0.8</v>
       </c>
       <c r="AS176" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU176" t="n">
         <v>1.59</v>
@@ -37901,6 +37901,615 @@
       </c>
       <c r="BK184" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2708282</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>44960.5</v>
+      </c>
+      <c r="F185" t="n">
+        <v>24</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Chindia Târgovişte</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="n">
+        <v>2</v>
+      </c>
+      <c r="L185" t="n">
+        <v>2</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="n">
+        <v>3</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['9', '81']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>2</v>
+      </c>
+      <c r="R185" t="n">
+        <v>1</v>
+      </c>
+      <c r="S185" t="n">
+        <v>3</v>
+      </c>
+      <c r="T185" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U185" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V185" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X185" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2708286</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>44960.625</v>
+      </c>
+      <c r="F186" t="n">
+        <v>24</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>U Craiova 1948</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>3</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>3</v>
+      </c>
+      <c r="L186" t="n">
+        <v>5</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>5</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['12', '25', '36', '81', '90']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>4</v>
+      </c>
+      <c r="R186" t="n">
+        <v>5</v>
+      </c>
+      <c r="S186" t="n">
+        <v>9</v>
+      </c>
+      <c r="T186" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U186" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V186" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X186" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2708283</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>44961.39583333334</v>
+      </c>
+      <c r="F187" t="n">
+        <v>24</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Argeș</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="n">
+        <v>2</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="n">
+        <v>2</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>3</v>
+      </c>
+      <c r="R187" t="n">
+        <v>4</v>
+      </c>
+      <c r="S187" t="n">
+        <v>7</v>
+      </c>
+      <c r="T187" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U187" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V187" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X187" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK187"/>
+  <dimension ref="A1:BK190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2.17</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT5" t="n">
         <v>1.25</v>
@@ -2324,7 +2324,7 @@
         <v>1.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT10" t="n">
         <v>1.83</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT21" t="n">
         <v>0.67</v>
@@ -4963,7 +4963,7 @@
         <v>1.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU22" t="n">
         <v>1.32</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU27" t="n">
         <v>0.99</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT28" t="n">
         <v>0.83</v>
@@ -6993,7 +6993,7 @@
         <v>1.42</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU32" t="n">
         <v>1.5</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT38" t="n">
         <v>1.08</v>
@@ -8617,7 +8617,7 @@
         <v>1.25</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU40" t="n">
         <v>1.45</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT42" t="n">
         <v>0.83</v>
@@ -9426,7 +9426,7 @@
         <v>0.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT44" t="n">
         <v>0.58</v>
@@ -9632,7 +9632,7 @@
         <v>1.42</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU45" t="n">
         <v>1.57</v>
@@ -9835,7 +9835,7 @@
         <v>2.36</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU46" t="n">
         <v>2.02</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT52" t="n">
         <v>1.83</v>
@@ -11659,7 +11659,7 @@
         <v>0.25</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT55" t="n">
         <v>0.58</v>
@@ -11865,7 +11865,7 @@
         <v>1.42</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU56" t="n">
         <v>1.87</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT57" t="n">
         <v>0.5</v>
@@ -12471,10 +12471,10 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT59" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU59" t="n">
         <v>1.85</v>
@@ -12677,7 +12677,7 @@
         <v>2.36</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU60" t="n">
         <v>2.09</v>
@@ -14910,7 +14910,7 @@
         <v>1.17</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU71" t="n">
         <v>1.9</v>
@@ -15719,7 +15719,7 @@
         <v>1.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT75" t="n">
         <v>1.36</v>
@@ -15922,7 +15922,7 @@
         <v>0.4</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT76" t="n">
         <v>0.5</v>
@@ -16128,7 +16128,7 @@
         <v>1.83</v>
       </c>
       <c r="AT77" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU77" t="n">
         <v>2.06</v>
@@ -17140,7 +17140,7 @@
         <v>0.8</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT82" t="n">
         <v>0.67</v>
@@ -17549,7 +17549,7 @@
         <v>2.17</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU84" t="n">
         <v>1.98</v>
@@ -17955,7 +17955,7 @@
         <v>2.17</v>
       </c>
       <c r="AT86" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU86" t="n">
         <v>1.98</v>
@@ -18155,7 +18155,7 @@
         <v>0.83</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT87" t="n">
         <v>0.91</v>
@@ -18358,7 +18358,7 @@
         <v>1.8</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT88" t="n">
         <v>1.09</v>
@@ -18564,7 +18564,7 @@
         <v>1.42</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU89" t="n">
         <v>1.42</v>
@@ -20185,7 +20185,7 @@
         <v>1.17</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT97" t="n">
         <v>1.08</v>
@@ -20594,7 +20594,7 @@
         <v>1.5</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU99" t="n">
         <v>1.3</v>
@@ -21203,7 +21203,7 @@
         <v>1.25</v>
       </c>
       <c r="AT102" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU102" t="n">
         <v>1.57</v>
@@ -22621,10 +22621,10 @@
         <v>1.71</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU109" t="n">
         <v>1.85</v>
@@ -22824,7 +22824,7 @@
         <v>2.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT110" t="n">
         <v>1.83</v>
@@ -23433,7 +23433,7 @@
         <v>1.14</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT113" t="n">
         <v>1.08</v>
@@ -24248,7 +24248,7 @@
         <v>1.27</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU117" t="n">
         <v>2.02</v>
@@ -25463,7 +25463,7 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT123" t="n">
         <v>2.17</v>
@@ -25666,7 +25666,7 @@
         <v>1.43</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT124" t="n">
         <v>1.42</v>
@@ -25872,7 +25872,7 @@
         <v>1.42</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU125" t="n">
         <v>1.66</v>
@@ -26075,7 +26075,7 @@
         <v>1.27</v>
       </c>
       <c r="AT126" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU126" t="n">
         <v>1.65</v>
@@ -26481,7 +26481,7 @@
         <v>1.25</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU128" t="n">
         <v>1.52</v>
@@ -27493,7 +27493,7 @@
         <v>0.75</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT133" t="n">
         <v>0.91</v>
@@ -28102,7 +28102,7 @@
         <v>1.43</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT136" t="n">
         <v>1.36</v>
@@ -28308,7 +28308,7 @@
         <v>1.08</v>
       </c>
       <c r="AT137" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU137" t="n">
         <v>1.66</v>
@@ -28508,7 +28508,7 @@
         <v>1.67</v>
       </c>
       <c r="AS138" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT138" t="n">
         <v>2.17</v>
@@ -28714,7 +28714,7 @@
         <v>1.42</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU139" t="n">
         <v>1.72</v>
@@ -29729,7 +29729,7 @@
         <v>1.27</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU144" t="n">
         <v>1.7</v>
@@ -29932,7 +29932,7 @@
         <v>1.08</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU145" t="n">
         <v>1.75</v>
@@ -30944,7 +30944,7 @@
         <v>1.22</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT150" t="n">
         <v>1.17</v>
@@ -31556,7 +31556,7 @@
         <v>1.27</v>
       </c>
       <c r="AT153" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU153" t="n">
         <v>1.92</v>
@@ -32368,7 +32368,7 @@
         <v>1.17</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU157" t="n">
         <v>1.61</v>
@@ -32771,7 +32771,7 @@
         <v>1.33</v>
       </c>
       <c r="AS159" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT159" t="n">
         <v>1.36</v>
@@ -32974,7 +32974,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT160" t="n">
         <v>1.09</v>
@@ -34801,7 +34801,7 @@
         <v>1.4</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT169" t="n">
         <v>1.42</v>
@@ -35007,7 +35007,7 @@
         <v>1.42</v>
       </c>
       <c r="AT170" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU170" t="n">
         <v>1.79</v>
@@ -35207,10 +35207,10 @@
         <v>1.8</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU171" t="n">
         <v>1.96</v>
@@ -35410,7 +35410,7 @@
         <v>1.2</v>
       </c>
       <c r="AS172" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT172" t="n">
         <v>1.09</v>
@@ -36022,7 +36022,7 @@
         <v>1.42</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU175" t="n">
         <v>1.37</v>
@@ -38510,6 +38510,615 @@
       </c>
       <c r="BK187" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2708288</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>44961.625</v>
+      </c>
+      <c r="F188" t="n">
+        <v>24</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Voluntari</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>2</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>2</v>
+      </c>
+      <c r="L188" t="n">
+        <v>4</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="n">
+        <v>5</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['19', '43', '55', '82']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>7</v>
+      </c>
+      <c r="R188" t="n">
+        <v>2</v>
+      </c>
+      <c r="S188" t="n">
+        <v>9</v>
+      </c>
+      <c r="T188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U188" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V188" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X188" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2708284</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>44962.4375</v>
+      </c>
+      <c r="F189" t="n">
+        <v>24</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Mioveni</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Sepsi</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>2</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>3</v>
+      </c>
+      <c r="R189" t="n">
+        <v>2</v>
+      </c>
+      <c r="S189" t="n">
+        <v>5</v>
+      </c>
+      <c r="T189" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2</v>
+      </c>
+      <c r="V189" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X189" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2708287</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>44962.66666666666</v>
+      </c>
+      <c r="F190" t="n">
+        <v>24</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>2</v>
+      </c>
+      <c r="R190" t="n">
+        <v>6</v>
+      </c>
+      <c r="S190" t="n">
+        <v>8</v>
+      </c>
+      <c r="T190" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U190" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V190" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X190" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK190"/>
+  <dimension ref="A1:BK192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT6" t="n">
         <v>0.91</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT8" t="n">
         <v>1.17</v>
@@ -3339,7 +3339,7 @@
         <v>1.42</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.08</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT19" t="n">
         <v>1.17</v>
@@ -5775,7 +5775,7 @@
         <v>1.42</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>1.8</v>
@@ -6790,7 +6790,7 @@
         <v>1.42</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU31" t="n">
         <v>1.66</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT33" t="n">
         <v>1.83</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT41" t="n">
         <v>1.42</v>
@@ -9226,7 +9226,7 @@
         <v>1.42</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU43" t="n">
         <v>1.7</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT46" t="n">
         <v>0.92</v>
@@ -12271,7 +12271,7 @@
         <v>1.17</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU58" t="n">
         <v>1.66</v>
@@ -12674,7 +12674,7 @@
         <v>0.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT60" t="n">
         <v>1.83</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT61" t="n">
         <v>0.83</v>
@@ -13083,7 +13083,7 @@
         <v>1.42</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU62" t="n">
         <v>1.44</v>
@@ -14704,7 +14704,7 @@
         <v>0.4</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT70" t="n">
         <v>0.58</v>
@@ -15113,7 +15113,7 @@
         <v>1.42</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU72" t="n">
         <v>1.34</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT74" t="n">
         <v>0.83</v>
@@ -15722,7 +15722,7 @@
         <v>2</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU75" t="n">
         <v>1.88</v>
@@ -18361,7 +18361,7 @@
         <v>2</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU88" t="n">
         <v>1.83</v>
@@ -18764,7 +18764,7 @@
         <v>0.83</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT90" t="n">
         <v>0.58</v>
@@ -19170,7 +19170,7 @@
         <v>0.83</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT92" t="n">
         <v>0.5</v>
@@ -19782,7 +19782,7 @@
         <v>1.25</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU95" t="n">
         <v>1.61</v>
@@ -21606,7 +21606,7 @@
         <v>0.86</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT104" t="n">
         <v>0.91</v>
@@ -21809,7 +21809,7 @@
         <v>0.86</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT105" t="n">
         <v>0.5</v>
@@ -22015,7 +22015,7 @@
         <v>2.17</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU106" t="n">
         <v>2.04</v>
@@ -23639,7 +23639,7 @@
         <v>1.08</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU114" t="n">
         <v>1.58</v>
@@ -24857,7 +24857,7 @@
         <v>1.25</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU120" t="n">
         <v>1.1</v>
@@ -25060,7 +25060,7 @@
         <v>1.27</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU121" t="n">
         <v>1.9</v>
@@ -26072,7 +26072,7 @@
         <v>0.86</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT126" t="n">
         <v>0.92</v>
@@ -26275,7 +26275,7 @@
         <v>0.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT127" t="n">
         <v>0.67</v>
@@ -27699,7 +27699,7 @@
         <v>1.27</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU134" t="n">
         <v>1.9</v>
@@ -28105,7 +28105,7 @@
         <v>2.5</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU136" t="n">
         <v>2</v>
@@ -29117,7 +29117,7 @@
         <v>1.63</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT141" t="n">
         <v>1.42</v>
@@ -29323,7 +29323,7 @@
         <v>1.17</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU142" t="n">
         <v>1.67</v>
@@ -29726,7 +29726,7 @@
         <v>1.25</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT144" t="n">
         <v>1.83</v>
@@ -30741,7 +30741,7 @@
         <v>1.11</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT149" t="n">
         <v>1.08</v>
@@ -32162,7 +32162,7 @@
         <v>2</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT156" t="n">
         <v>2.17</v>
@@ -32774,7 +32774,7 @@
         <v>0.67</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU159" t="n">
         <v>1.31</v>
@@ -32977,7 +32977,7 @@
         <v>2.5</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU160" t="n">
         <v>1.96</v>
@@ -35413,7 +35413,7 @@
         <v>0.67</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU172" t="n">
         <v>1.28</v>
@@ -35613,10 +35613,10 @@
         <v>1.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU173" t="n">
         <v>1.6</v>
@@ -36425,7 +36425,7 @@
         <v>2</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT177" t="n">
         <v>2.17</v>
@@ -39119,6 +39119,412 @@
       </c>
       <c r="BK190" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2708281</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>44963.5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>24</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>3</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>3</v>
+      </c>
+      <c r="L191" t="n">
+        <v>5</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>5</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['1', '4', '25', '69', '90+9']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>1</v>
+      </c>
+      <c r="R191" t="n">
+        <v>7</v>
+      </c>
+      <c r="S191" t="n">
+        <v>8</v>
+      </c>
+      <c r="T191" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U191" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V191" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X191" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2708285</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>44963.625</v>
+      </c>
+      <c r="F192" t="n">
+        <v>24</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>SSC Farul</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>2</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>2</v>
+      </c>
+      <c r="L192" t="n">
+        <v>2</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="n">
+        <v>3</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['6', '34']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>6</v>
+      </c>
+      <c r="R192" t="n">
+        <v>3</v>
+      </c>
+      <c r="S192" t="n">
+        <v>9</v>
+      </c>
+      <c r="T192" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="V192" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X192" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -631,6 +631,9 @@
     <t>['6', '34']</t>
   </si>
   <si>
+    <t>['41', '71']</t>
+  </si>
+  <si>
     <t>['73', '87']</t>
   </si>
   <si>
@@ -848,6 +851,12 @@
   </si>
   <si>
     <t>['88']</t>
+  </si>
+  <si>
+    <t>['3', '28']</t>
+  </si>
+  <si>
+    <t>['1', '57']</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK192"/>
+  <dimension ref="A1:BK194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1543,7 +1552,7 @@
         <v>1.42</v>
       </c>
       <c r="AT2">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1644,7 +1653,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2307,7 +2316,7 @@
         <v>2.42</v>
       </c>
       <c r="AT6">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2408,7 +2417,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2599,7 +2608,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2790,7 +2799,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3554,7 +3563,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3745,7 +3754,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3832,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT14">
         <v>1.25</v>
@@ -4023,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT15">
         <v>1.83</v>
@@ -4127,7 +4136,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4509,7 +4518,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -5082,7 +5091,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5172,7 +5181,7 @@
         <v>2</v>
       </c>
       <c r="AT21">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU21">
         <v>1.66</v>
@@ -5273,7 +5282,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5655,7 +5664,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5745,7 +5754,7 @@
         <v>1.83</v>
       </c>
       <c r="AT24">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU24">
         <v>1.56</v>
@@ -5846,7 +5855,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6124,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -6228,7 +6237,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6419,7 +6428,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6506,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT28">
         <v>0.83</v>
@@ -6801,7 +6810,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6992,7 +7001,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -7183,7 +7192,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7565,7 +7574,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7655,7 +7664,7 @@
         <v>1.25</v>
       </c>
       <c r="AT34">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU34">
         <v>1.66</v>
@@ -8228,7 +8237,7 @@
         <v>2.17</v>
       </c>
       <c r="AT37">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU37">
         <v>1.67</v>
@@ -8329,7 +8338,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8520,7 +8529,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q39">
         <v>12</v>
@@ -9284,7 +9293,7 @@
         <v>88</v>
       </c>
       <c r="P43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q43">
         <v>12</v>
@@ -9562,7 +9571,7 @@
         <v>0.33</v>
       </c>
       <c r="AS44">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT44">
         <v>0.58</v>
@@ -9753,7 +9762,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT45">
         <v>1.58</v>
@@ -9857,7 +9866,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10329,7 +10338,7 @@
         <v>1.08</v>
       </c>
       <c r="AT48">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU48">
         <v>1.45</v>
@@ -10520,7 +10529,7 @@
         <v>1.5</v>
       </c>
       <c r="AT49">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU49">
         <v>1.18</v>
@@ -10621,7 +10630,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11003,7 +11012,7 @@
         <v>114</v>
       </c>
       <c r="P52" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11194,7 +11203,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11576,7 +11585,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12045,7 +12054,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT57">
         <v>0.5</v>
@@ -12149,7 +12158,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -13194,7 +13203,7 @@
         <v>1.27</v>
       </c>
       <c r="AT63">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU63">
         <v>2.04</v>
@@ -13295,7 +13304,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13382,10 +13391,10 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT64">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU64">
         <v>1.69</v>
@@ -14059,7 +14068,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14250,7 +14259,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14441,7 +14450,7 @@
         <v>100</v>
       </c>
       <c r="P70" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14632,7 +14641,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15778,7 +15787,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16059,7 +16068,7 @@
         <v>1.25</v>
       </c>
       <c r="AT78">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU78">
         <v>1.08</v>
@@ -16160,7 +16169,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16351,7 +16360,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16820,10 +16829,10 @@
         <v>0.8</v>
       </c>
       <c r="AS82">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT82">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU82">
         <v>1.4</v>
@@ -17011,7 +17020,7 @@
         <v>0.4</v>
       </c>
       <c r="AS83">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT83">
         <v>1.17</v>
@@ -17115,7 +17124,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17688,7 +17697,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17778,7 +17787,7 @@
         <v>0.67</v>
       </c>
       <c r="AT87">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU87">
         <v>1.34</v>
@@ -18070,7 +18079,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18452,7 +18461,7 @@
         <v>144</v>
       </c>
       <c r="P91" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18643,7 +18652,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -19115,7 +19124,7 @@
         <v>1.25</v>
       </c>
       <c r="AT94">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU94">
         <v>1.06</v>
@@ -19494,7 +19503,7 @@
         <v>1.8</v>
       </c>
       <c r="AS96">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT96">
         <v>1.42</v>
@@ -19598,7 +19607,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19685,7 +19694,7 @@
         <v>1.17</v>
       </c>
       <c r="AS97">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT97">
         <v>1.08</v>
@@ -19789,7 +19798,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19980,7 +19989,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20171,7 +20180,7 @@
         <v>88</v>
       </c>
       <c r="P100" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20362,7 +20371,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q101">
         <v>12</v>
@@ -20744,7 +20753,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -21025,7 +21034,7 @@
         <v>1.42</v>
       </c>
       <c r="AT104">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU104">
         <v>1.54</v>
@@ -21317,7 +21326,7 @@
         <v>152</v>
       </c>
       <c r="P106" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21598,7 +21607,7 @@
         <v>1.17</v>
       </c>
       <c r="AT107">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU107">
         <v>1.67</v>
@@ -22081,7 +22090,7 @@
         <v>100</v>
       </c>
       <c r="P110" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22168,7 +22177,7 @@
         <v>2.17</v>
       </c>
       <c r="AS110">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT110">
         <v>1.83</v>
@@ -22272,7 +22281,7 @@
         <v>88</v>
       </c>
       <c r="P111" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22845,7 +22854,7 @@
         <v>157</v>
       </c>
       <c r="P114" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23036,7 +23045,7 @@
         <v>116</v>
       </c>
       <c r="P115" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23123,7 +23132,7 @@
         <v>1.75</v>
       </c>
       <c r="AS115">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT115">
         <v>2.17</v>
@@ -23609,7 +23618,7 @@
         <v>159</v>
       </c>
       <c r="P118" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23800,7 +23809,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24182,7 +24191,7 @@
         <v>88</v>
       </c>
       <c r="P121" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24564,7 +24573,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24651,7 +24660,7 @@
         <v>2</v>
       </c>
       <c r="AS123">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT123">
         <v>2.17</v>
@@ -24755,7 +24764,7 @@
         <v>88</v>
       </c>
       <c r="P124" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -25033,7 +25042,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT125">
         <v>1.83</v>
@@ -25137,7 +25146,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25418,7 +25427,7 @@
         <v>2.42</v>
       </c>
       <c r="AT127">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU127">
         <v>1.84</v>
@@ -25519,7 +25528,7 @@
         <v>88</v>
       </c>
       <c r="P128" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25710,7 +25719,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -26283,7 +26292,7 @@
         <v>166</v>
       </c>
       <c r="P132" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26564,7 +26573,7 @@
         <v>2</v>
       </c>
       <c r="AT133">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU133">
         <v>1.87</v>
@@ -26856,7 +26865,7 @@
         <v>141</v>
       </c>
       <c r="P135" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27047,7 +27056,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27134,7 +27143,7 @@
         <v>1.43</v>
       </c>
       <c r="AS136">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT136">
         <v>1.25</v>
@@ -27238,7 +27247,7 @@
         <v>157</v>
       </c>
       <c r="P137" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27620,7 +27629,7 @@
         <v>88</v>
       </c>
       <c r="P139" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27811,7 +27820,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -27898,7 +27907,7 @@
         <v>0.88</v>
       </c>
       <c r="AS140">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT140">
         <v>0.83</v>
@@ -28384,7 +28393,7 @@
         <v>172</v>
       </c>
       <c r="P143" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28575,7 +28584,7 @@
         <v>173</v>
       </c>
       <c r="P144" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28766,7 +28775,7 @@
         <v>174</v>
       </c>
       <c r="P145" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -29339,7 +29348,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -29429,7 +29438,7 @@
         <v>2.17</v>
       </c>
       <c r="AT148">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU148">
         <v>2</v>
@@ -29912,7 +29921,7 @@
         <v>165</v>
       </c>
       <c r="P151" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30103,7 +30112,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q152">
         <v>7</v>
@@ -30193,7 +30202,7 @@
         <v>1.83</v>
       </c>
       <c r="AT152">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU152">
         <v>2.15</v>
@@ -30294,7 +30303,7 @@
         <v>180</v>
       </c>
       <c r="P153" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30763,7 +30772,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS155">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT155">
         <v>0.58</v>
@@ -31058,7 +31067,7 @@
         <v>88</v>
       </c>
       <c r="P157" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31440,7 +31449,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -31718,7 +31727,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT160">
         <v>1</v>
@@ -31822,7 +31831,7 @@
         <v>88</v>
       </c>
       <c r="P161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q161">
         <v>6</v>
@@ -32013,7 +32022,7 @@
         <v>124</v>
       </c>
       <c r="P162" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32204,7 +32213,7 @@
         <v>183</v>
       </c>
       <c r="P163" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -32586,7 +32595,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32676,7 +32685,7 @@
         <v>1.25</v>
       </c>
       <c r="AT165">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU165">
         <v>1.49</v>
@@ -32867,7 +32876,7 @@
         <v>1.5</v>
       </c>
       <c r="AT166">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU166">
         <v>1.34</v>
@@ -32968,7 +32977,7 @@
         <v>187</v>
       </c>
       <c r="P167" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33628,7 +33637,7 @@
         <v>1.1</v>
       </c>
       <c r="AS170">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT170">
         <v>0.92</v>
@@ -33819,7 +33828,7 @@
         <v>1.8</v>
       </c>
       <c r="AS171">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT171">
         <v>1.58</v>
@@ -34496,7 +34505,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -34878,7 +34887,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35156,7 +35165,7 @@
         <v>1.27</v>
       </c>
       <c r="AS178">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT178">
         <v>1.25</v>
@@ -35350,7 +35359,7 @@
         <v>1.08</v>
       </c>
       <c r="AT179">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU179">
         <v>1.66</v>
@@ -35451,7 +35460,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -35833,7 +35842,7 @@
         <v>88</v>
       </c>
       <c r="P182" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -36024,7 +36033,7 @@
         <v>197</v>
       </c>
       <c r="P183" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -36215,7 +36224,7 @@
         <v>88</v>
       </c>
       <c r="P184" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36406,7 +36415,7 @@
         <v>198</v>
       </c>
       <c r="P185" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -37066,7 +37075,7 @@
         <v>1</v>
       </c>
       <c r="AS188">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT188">
         <v>0.92</v>
@@ -37361,7 +37370,7 @@
         <v>88</v>
       </c>
       <c r="P190" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -37885,6 +37894,388 @@
       </c>
       <c r="BK192">
         <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:63">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>2708293</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="D193" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="2">
+        <v>44967.5</v>
+      </c>
+      <c r="F193">
+        <v>25</v>
+      </c>
+      <c r="G193" t="s">
+        <v>77</v>
+      </c>
+      <c r="H193" t="s">
+        <v>73</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>2</v>
+      </c>
+      <c r="K193">
+        <v>3</v>
+      </c>
+      <c r="L193">
+        <v>2</v>
+      </c>
+      <c r="M193">
+        <v>2</v>
+      </c>
+      <c r="N193">
+        <v>4</v>
+      </c>
+      <c r="O193" t="s">
+        <v>205</v>
+      </c>
+      <c r="P193" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q193">
+        <v>9</v>
+      </c>
+      <c r="R193">
+        <v>1</v>
+      </c>
+      <c r="S193">
+        <v>10</v>
+      </c>
+      <c r="T193">
+        <v>2.7</v>
+      </c>
+      <c r="U193">
+        <v>1.9</v>
+      </c>
+      <c r="V193">
+        <v>4.5</v>
+      </c>
+      <c r="W193">
+        <v>1.56</v>
+      </c>
+      <c r="X193">
+        <v>2.31</v>
+      </c>
+      <c r="Y193">
+        <v>3.64</v>
+      </c>
+      <c r="Z193">
+        <v>1.26</v>
+      </c>
+      <c r="AA193">
+        <v>10.5</v>
+      </c>
+      <c r="AB193">
+        <v>1.03</v>
+      </c>
+      <c r="AC193">
+        <v>1.99</v>
+      </c>
+      <c r="AD193">
+        <v>3.05</v>
+      </c>
+      <c r="AE193">
+        <v>3.45</v>
+      </c>
+      <c r="AF193">
+        <v>1.08</v>
+      </c>
+      <c r="AG193">
+        <v>6.35</v>
+      </c>
+      <c r="AH193">
+        <v>1.44</v>
+      </c>
+      <c r="AI193">
+        <v>2.37</v>
+      </c>
+      <c r="AJ193">
+        <v>2.45</v>
+      </c>
+      <c r="AK193">
+        <v>1.52</v>
+      </c>
+      <c r="AL193">
+        <v>2.2</v>
+      </c>
+      <c r="AM193">
+        <v>1.63</v>
+      </c>
+      <c r="AN193">
+        <v>1.18</v>
+      </c>
+      <c r="AO193">
+        <v>1.28</v>
+      </c>
+      <c r="AP193">
+        <v>1.72</v>
+      </c>
+      <c r="AQ193">
+        <v>1.42</v>
+      </c>
+      <c r="AR193">
+        <v>0.67</v>
+      </c>
+      <c r="AS193">
+        <v>1.38</v>
+      </c>
+      <c r="AT193">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU193">
+        <v>1.85</v>
+      </c>
+      <c r="AV193">
+        <v>1.25</v>
+      </c>
+      <c r="AW193">
+        <v>3.1</v>
+      </c>
+      <c r="AX193">
+        <v>1.69</v>
+      </c>
+      <c r="AY193">
+        <v>7.5</v>
+      </c>
+      <c r="AZ193">
+        <v>2.66</v>
+      </c>
+      <c r="BA193">
+        <v>1.48</v>
+      </c>
+      <c r="BB193">
+        <v>1.98</v>
+      </c>
+      <c r="BC193">
+        <v>2.46</v>
+      </c>
+      <c r="BD193">
+        <v>3.42</v>
+      </c>
+      <c r="BE193">
+        <v>5.1</v>
+      </c>
+      <c r="BF193">
+        <v>10</v>
+      </c>
+      <c r="BG193">
+        <v>4</v>
+      </c>
+      <c r="BH193">
+        <v>11</v>
+      </c>
+      <c r="BI193">
+        <v>3</v>
+      </c>
+      <c r="BJ193">
+        <v>21</v>
+      </c>
+      <c r="BK193">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:63">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>2708295</v>
+      </c>
+      <c r="C194" t="s">
+        <v>63</v>
+      </c>
+      <c r="D194" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" s="2">
+        <v>44967.625</v>
+      </c>
+      <c r="F194">
+        <v>25</v>
+      </c>
+      <c r="G194" t="s">
+        <v>78</v>
+      </c>
+      <c r="H194" t="s">
+        <v>76</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>2</v>
+      </c>
+      <c r="N194">
+        <v>3</v>
+      </c>
+      <c r="O194" t="s">
+        <v>153</v>
+      </c>
+      <c r="P194" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q194">
+        <v>5</v>
+      </c>
+      <c r="R194">
+        <v>5</v>
+      </c>
+      <c r="S194">
+        <v>10</v>
+      </c>
+      <c r="T194">
+        <v>2.55</v>
+      </c>
+      <c r="U194">
+        <v>2</v>
+      </c>
+      <c r="V194">
+        <v>4.5</v>
+      </c>
+      <c r="W194">
+        <v>1.5</v>
+      </c>
+      <c r="X194">
+        <v>2.4</v>
+      </c>
+      <c r="Y194">
+        <v>3.22</v>
+      </c>
+      <c r="Z194">
+        <v>1.32</v>
+      </c>
+      <c r="AA194">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB194">
+        <v>1.05</v>
+      </c>
+      <c r="AC194">
+        <v>1.95</v>
+      </c>
+      <c r="AD194">
+        <v>3.05</v>
+      </c>
+      <c r="AE194">
+        <v>4.1</v>
+      </c>
+      <c r="AF194">
+        <v>1.04</v>
+      </c>
+      <c r="AG194">
+        <v>7.4</v>
+      </c>
+      <c r="AH194">
+        <v>1.42</v>
+      </c>
+      <c r="AI194">
+        <v>2.75</v>
+      </c>
+      <c r="AJ194">
+        <v>2.3</v>
+      </c>
+      <c r="AK194">
+        <v>1.53</v>
+      </c>
+      <c r="AL194">
+        <v>2.05</v>
+      </c>
+      <c r="AM194">
+        <v>1.72</v>
+      </c>
+      <c r="AN194">
+        <v>1.17</v>
+      </c>
+      <c r="AO194">
+        <v>1.25</v>
+      </c>
+      <c r="AP194">
+        <v>1.87</v>
+      </c>
+      <c r="AQ194">
+        <v>2.5</v>
+      </c>
+      <c r="AR194">
+        <v>0.91</v>
+      </c>
+      <c r="AS194">
+        <v>2.31</v>
+      </c>
+      <c r="AT194">
+        <v>1.08</v>
+      </c>
+      <c r="AU194">
+        <v>1.95</v>
+      </c>
+      <c r="AV194">
+        <v>1.46</v>
+      </c>
+      <c r="AW194">
+        <v>3.41</v>
+      </c>
+      <c r="AX194">
+        <v>1.59</v>
+      </c>
+      <c r="AY194">
+        <v>8</v>
+      </c>
+      <c r="AZ194">
+        <v>2.9</v>
+      </c>
+      <c r="BA194">
+        <v>1.34</v>
+      </c>
+      <c r="BB194">
+        <v>1.64</v>
+      </c>
+      <c r="BC194">
+        <v>2.09</v>
+      </c>
+      <c r="BD194">
+        <v>2.75</v>
+      </c>
+      <c r="BE194">
+        <v>4.3</v>
+      </c>
+      <c r="BF194">
+        <v>6</v>
+      </c>
+      <c r="BG194">
+        <v>4</v>
+      </c>
+      <c r="BH194">
+        <v>5</v>
+      </c>
+      <c r="BI194">
+        <v>2</v>
+      </c>
+      <c r="BJ194">
+        <v>11</v>
+      </c>
+      <c r="BK194">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -634,6 +634,12 @@
     <t>['41', '71']</t>
   </si>
   <si>
+    <t>['4', '11', '45+2']</t>
+  </si>
+  <si>
+    <t>['67', '86']</t>
+  </si>
+  <si>
     <t>['73', '87']</t>
   </si>
   <si>
@@ -1218,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK194"/>
+  <dimension ref="A1:BK197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1653,7 +1659,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1740,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT3">
         <v>1.58</v>
@@ -1931,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT4">
         <v>0.58</v>
@@ -2417,7 +2423,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2608,7 +2614,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2799,7 +2805,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3080,7 +3086,7 @@
         <v>0.67</v>
       </c>
       <c r="AT10">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3271,7 +3277,7 @@
         <v>1.25</v>
       </c>
       <c r="AT11">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3563,7 +3569,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3653,7 +3659,7 @@
         <v>1.42</v>
       </c>
       <c r="AT13">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3754,7 +3760,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4136,7 +4142,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4414,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT17">
         <v>1</v>
@@ -4518,7 +4524,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -4605,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT18">
         <v>0.5</v>
@@ -5091,7 +5097,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5282,7 +5288,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5560,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT23">
         <v>1.25</v>
@@ -5664,7 +5670,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5855,7 +5861,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5945,7 +5951,7 @@
         <v>1.42</v>
       </c>
       <c r="AT25">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>1.65</v>
@@ -6237,7 +6243,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6428,7 +6434,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6810,7 +6816,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6900,7 +6906,7 @@
         <v>1.17</v>
       </c>
       <c r="AT30">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU30">
         <v>1.32</v>
@@ -7001,7 +7007,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -7192,7 +7198,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7473,7 +7479,7 @@
         <v>1.42</v>
       </c>
       <c r="AT33">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU33">
         <v>1.22</v>
@@ -7574,7 +7580,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7661,7 +7667,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT34">
         <v>1.08</v>
@@ -7852,7 +7858,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT35">
         <v>0.5</v>
@@ -8234,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT37">
         <v>0.6899999999999999</v>
@@ -8338,7 +8344,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8428,7 +8434,7 @@
         <v>2</v>
       </c>
       <c r="AT38">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU38">
         <v>1.89</v>
@@ -8529,7 +8535,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q39">
         <v>12</v>
@@ -9293,7 +9299,7 @@
         <v>88</v>
       </c>
       <c r="P43" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q43">
         <v>12</v>
@@ -9866,7 +9872,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10335,7 +10341,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT48">
         <v>1.08</v>
@@ -10630,7 +10636,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10908,7 +10914,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT51">
         <v>1.17</v>
@@ -11012,7 +11018,7 @@
         <v>114</v>
       </c>
       <c r="P52" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11102,7 +11108,7 @@
         <v>2</v>
       </c>
       <c r="AT52">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU52">
         <v>1.88</v>
@@ -11203,7 +11209,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11481,10 +11487,10 @@
         <v>2.33</v>
       </c>
       <c r="AS54">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT54">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU54">
         <v>1.81</v>
@@ -11585,7 +11591,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12158,7 +12164,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -13304,7 +13310,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13582,7 +13588,7 @@
         <v>0.25</v>
       </c>
       <c r="AS65">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT65">
         <v>1.17</v>
@@ -13967,7 +13973,7 @@
         <v>1.5</v>
       </c>
       <c r="AT67">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU67">
         <v>1.21</v>
@@ -14068,7 +14074,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14155,7 +14161,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT68">
         <v>1.42</v>
@@ -14259,7 +14265,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14346,10 +14352,10 @@
         <v>2.33</v>
       </c>
       <c r="AS69">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT69">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU69">
         <v>1.96</v>
@@ -14450,7 +14456,7 @@
         <v>100</v>
       </c>
       <c r="P70" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14641,7 +14647,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15787,7 +15793,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16169,7 +16175,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16259,7 +16265,7 @@
         <v>1.5</v>
       </c>
       <c r="AT79">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU79">
         <v>1.25</v>
@@ -16360,7 +16366,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16447,7 +16453,7 @@
         <v>1.5</v>
       </c>
       <c r="AS80">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT80">
         <v>1.42</v>
@@ -16641,7 +16647,7 @@
         <v>1.27</v>
       </c>
       <c r="AT81">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU81">
         <v>1.91</v>
@@ -17124,7 +17130,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17211,7 +17217,7 @@
         <v>0.33</v>
       </c>
       <c r="AS84">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT84">
         <v>1.83</v>
@@ -17402,10 +17408,10 @@
         <v>1.5</v>
       </c>
       <c r="AS85">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT85">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU85">
         <v>1.67</v>
@@ -17593,7 +17599,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT86">
         <v>0.92</v>
@@ -17697,7 +17703,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -18079,7 +18085,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18461,7 +18467,7 @@
         <v>144</v>
       </c>
       <c r="P91" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18652,7 +18658,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -19312,7 +19318,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT95">
         <v>1.25</v>
@@ -19607,7 +19613,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19697,7 +19703,7 @@
         <v>2.31</v>
       </c>
       <c r="AT97">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU97">
         <v>1.64</v>
@@ -19798,7 +19804,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19888,7 +19894,7 @@
         <v>1.27</v>
       </c>
       <c r="AT98">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU98">
         <v>1.99</v>
@@ -19989,7 +19995,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20180,7 +20186,7 @@
         <v>88</v>
       </c>
       <c r="P100" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20371,7 +20377,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q101">
         <v>12</v>
@@ -20458,10 +20464,10 @@
         <v>2</v>
       </c>
       <c r="AS101">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT101">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU101">
         <v>1.61</v>
@@ -20649,7 +20655,7 @@
         <v>0.83</v>
       </c>
       <c r="AS102">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT102">
         <v>0.92</v>
@@ -20753,7 +20759,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -21326,7 +21332,7 @@
         <v>152</v>
       </c>
       <c r="P106" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21413,7 +21419,7 @@
         <v>1.5</v>
       </c>
       <c r="AS106">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT106">
         <v>1</v>
@@ -22090,7 +22096,7 @@
         <v>100</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22180,7 +22186,7 @@
         <v>2.31</v>
       </c>
       <c r="AT110">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU110">
         <v>1.85</v>
@@ -22281,7 +22287,7 @@
         <v>88</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22753,7 +22759,7 @@
         <v>0.67</v>
       </c>
       <c r="AT113">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU113">
         <v>1.35</v>
@@ -22854,7 +22860,7 @@
         <v>157</v>
       </c>
       <c r="P114" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22941,7 +22947,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT114">
         <v>1.25</v>
@@ -23045,7 +23051,7 @@
         <v>116</v>
       </c>
       <c r="P115" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23135,7 +23141,7 @@
         <v>1.38</v>
       </c>
       <c r="AT115">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU115">
         <v>1.62</v>
@@ -23618,7 +23624,7 @@
         <v>159</v>
       </c>
       <c r="P118" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23708,7 +23714,7 @@
         <v>1.17</v>
       </c>
       <c r="AT118">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU118">
         <v>1.71</v>
@@ -23809,7 +23815,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -23899,7 +23905,7 @@
         <v>1.42</v>
       </c>
       <c r="AT119">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU119">
         <v>1.68</v>
@@ -24191,7 +24197,7 @@
         <v>88</v>
       </c>
       <c r="P121" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24469,7 +24475,7 @@
         <v>0.57</v>
       </c>
       <c r="AS122">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT122">
         <v>0.83</v>
@@ -24573,7 +24579,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24663,7 +24669,7 @@
         <v>2.31</v>
       </c>
       <c r="AT123">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU123">
         <v>2.03</v>
@@ -24764,7 +24770,7 @@
         <v>88</v>
       </c>
       <c r="P124" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -25146,7 +25152,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25528,7 +25534,7 @@
         <v>88</v>
       </c>
       <c r="P128" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25615,7 +25621,7 @@
         <v>1.5</v>
       </c>
       <c r="AS128">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT128">
         <v>1.58</v>
@@ -25719,7 +25725,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25997,7 +26003,7 @@
         <v>0.75</v>
       </c>
       <c r="AS130">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT130">
         <v>0.5</v>
@@ -26292,7 +26298,7 @@
         <v>166</v>
       </c>
       <c r="P132" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26865,7 +26871,7 @@
         <v>141</v>
       </c>
       <c r="P135" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -26955,7 +26961,7 @@
         <v>1.17</v>
       </c>
       <c r="AT135">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU135">
         <v>1.63</v>
@@ -27056,7 +27062,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27247,7 +27253,7 @@
         <v>157</v>
       </c>
       <c r="P137" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27334,7 +27340,7 @@
         <v>1.13</v>
       </c>
       <c r="AS137">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT137">
         <v>0.92</v>
@@ -27528,7 +27534,7 @@
         <v>0.67</v>
       </c>
       <c r="AT138">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU138">
         <v>1.31</v>
@@ -27629,7 +27635,7 @@
         <v>88</v>
       </c>
       <c r="P139" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27820,7 +27826,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -28393,7 +28399,7 @@
         <v>172</v>
       </c>
       <c r="P143" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28483,7 +28489,7 @@
         <v>1.42</v>
       </c>
       <c r="AT143">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU143">
         <v>1.42</v>
@@ -28584,7 +28590,7 @@
         <v>173</v>
       </c>
       <c r="P144" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28775,7 +28781,7 @@
         <v>174</v>
       </c>
       <c r="P145" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -28862,7 +28868,7 @@
         <v>1.67</v>
       </c>
       <c r="AS145">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT145">
         <v>1.58</v>
@@ -29348,7 +29354,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -29435,7 +29441,7 @@
         <v>0.67</v>
       </c>
       <c r="AS148">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT148">
         <v>1.08</v>
@@ -29629,7 +29635,7 @@
         <v>2.42</v>
       </c>
       <c r="AT149">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU149">
         <v>1.88</v>
@@ -29921,7 +29927,7 @@
         <v>165</v>
       </c>
       <c r="P151" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30008,7 +30014,7 @@
         <v>1.33</v>
       </c>
       <c r="AS151">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT151">
         <v>1.25</v>
@@ -30112,7 +30118,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q152">
         <v>7</v>
@@ -30303,7 +30309,7 @@
         <v>180</v>
       </c>
       <c r="P153" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30584,7 +30590,7 @@
         <v>1.42</v>
       </c>
       <c r="AT154">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU154">
         <v>1.39</v>
@@ -30966,7 +30972,7 @@
         <v>1.42</v>
       </c>
       <c r="AT156">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU156">
         <v>1.68</v>
@@ -31067,7 +31073,7 @@
         <v>88</v>
       </c>
       <c r="P157" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31449,7 +31455,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -31831,7 +31837,7 @@
         <v>88</v>
       </c>
       <c r="P161" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q161">
         <v>6</v>
@@ -31921,7 +31927,7 @@
         <v>1.83</v>
       </c>
       <c r="AT161">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU161">
         <v>2.11</v>
@@ -32022,7 +32028,7 @@
         <v>124</v>
       </c>
       <c r="P162" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32112,7 +32118,7 @@
         <v>1.25</v>
       </c>
       <c r="AT162">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU162">
         <v>1.23</v>
@@ -32213,7 +32219,7 @@
         <v>183</v>
       </c>
       <c r="P163" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -32491,7 +32497,7 @@
         <v>1.1</v>
       </c>
       <c r="AS164">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT164">
         <v>1.17</v>
@@ -32595,7 +32601,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32682,7 +32688,7 @@
         <v>0.4</v>
       </c>
       <c r="AS165">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT165">
         <v>0.6899999999999999</v>
@@ -32977,7 +32983,7 @@
         <v>187</v>
       </c>
       <c r="P167" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33064,7 +33070,7 @@
         <v>1.3</v>
       </c>
       <c r="AS167">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT167">
         <v>1.25</v>
@@ -33258,7 +33264,7 @@
         <v>1.83</v>
       </c>
       <c r="AT168">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU168">
         <v>2.05</v>
@@ -34505,7 +34511,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -34887,7 +34893,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -34977,7 +34983,7 @@
         <v>2.42</v>
       </c>
       <c r="AT177">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU177">
         <v>2.01</v>
@@ -35356,7 +35362,7 @@
         <v>0.45</v>
       </c>
       <c r="AS179">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT179">
         <v>0.6899999999999999</v>
@@ -35460,7 +35466,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -35738,7 +35744,7 @@
         <v>1.55</v>
       </c>
       <c r="AS181">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT181">
         <v>1.42</v>
@@ -35842,7 +35848,7 @@
         <v>88</v>
       </c>
       <c r="P182" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -35929,10 +35935,10 @@
         <v>0.91</v>
       </c>
       <c r="AS182">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT182">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU182">
         <v>1.52</v>
@@ -36033,7 +36039,7 @@
         <v>197</v>
       </c>
       <c r="P183" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -36123,7 +36129,7 @@
         <v>1.83</v>
       </c>
       <c r="AT183">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU183">
         <v>2.06</v>
@@ -36224,7 +36230,7 @@
         <v>88</v>
       </c>
       <c r="P184" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36314,7 +36320,7 @@
         <v>1.25</v>
       </c>
       <c r="AT184">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU184">
         <v>1.34</v>
@@ -36415,7 +36421,7 @@
         <v>198</v>
       </c>
       <c r="P185" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -37370,7 +37376,7 @@
         <v>88</v>
       </c>
       <c r="P190" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -37943,7 +37949,7 @@
         <v>205</v>
       </c>
       <c r="P193" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38134,7 +38140,7 @@
         <v>153</v>
       </c>
       <c r="P194" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q194">
         <v>5</v>
@@ -38276,6 +38282,579 @@
       </c>
       <c r="BK194">
         <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:63">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>2708290</v>
+      </c>
+      <c r="C195" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" s="2">
+        <v>44968.39583333334</v>
+      </c>
+      <c r="F195">
+        <v>25</v>
+      </c>
+      <c r="G195" t="s">
+        <v>80</v>
+      </c>
+      <c r="H195" t="s">
+        <v>71</v>
+      </c>
+      <c r="I195">
+        <v>3</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>4</v>
+      </c>
+      <c r="L195">
+        <v>3</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>4</v>
+      </c>
+      <c r="O195" t="s">
+        <v>206</v>
+      </c>
+      <c r="P195" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q195">
+        <v>2</v>
+      </c>
+      <c r="R195">
+        <v>4</v>
+      </c>
+      <c r="S195">
+        <v>6</v>
+      </c>
+      <c r="T195">
+        <v>3.1</v>
+      </c>
+      <c r="U195">
+        <v>1.95</v>
+      </c>
+      <c r="V195">
+        <v>3.5</v>
+      </c>
+      <c r="W195">
+        <v>1.48</v>
+      </c>
+      <c r="X195">
+        <v>2.5</v>
+      </c>
+      <c r="Y195">
+        <v>3.28</v>
+      </c>
+      <c r="Z195">
+        <v>1.31</v>
+      </c>
+      <c r="AA195">
+        <v>8.9</v>
+      </c>
+      <c r="AB195">
+        <v>1.05</v>
+      </c>
+      <c r="AC195">
+        <v>1.5</v>
+      </c>
+      <c r="AD195">
+        <v>4.33</v>
+      </c>
+      <c r="AE195">
+        <v>4.7</v>
+      </c>
+      <c r="AF195">
+        <v>1.05</v>
+      </c>
+      <c r="AG195">
+        <v>7.4</v>
+      </c>
+      <c r="AH195">
+        <v>1.49</v>
+      </c>
+      <c r="AI195">
+        <v>2.45</v>
+      </c>
+      <c r="AJ195">
+        <v>2.4</v>
+      </c>
+      <c r="AK195">
+        <v>1.57</v>
+      </c>
+      <c r="AL195">
+        <v>1.87</v>
+      </c>
+      <c r="AM195">
+        <v>1.87</v>
+      </c>
+      <c r="AN195">
+        <v>1.33</v>
+      </c>
+      <c r="AO195">
+        <v>1.3</v>
+      </c>
+      <c r="AP195">
+        <v>1.52</v>
+      </c>
+      <c r="AQ195">
+        <v>1.08</v>
+      </c>
+      <c r="AR195">
+        <v>1.08</v>
+      </c>
+      <c r="AS195">
+        <v>1.23</v>
+      </c>
+      <c r="AT195">
+        <v>1</v>
+      </c>
+      <c r="AU195">
+        <v>1.71</v>
+      </c>
+      <c r="AV195">
+        <v>1.22</v>
+      </c>
+      <c r="AW195">
+        <v>2.93</v>
+      </c>
+      <c r="AX195">
+        <v>1.69</v>
+      </c>
+      <c r="AY195">
+        <v>7.5</v>
+      </c>
+      <c r="AZ195">
+        <v>2.64</v>
+      </c>
+      <c r="BA195">
+        <v>1.44</v>
+      </c>
+      <c r="BB195">
+        <v>1.83</v>
+      </c>
+      <c r="BC195">
+        <v>2.36</v>
+      </c>
+      <c r="BD195">
+        <v>3.2</v>
+      </c>
+      <c r="BE195">
+        <v>4.5</v>
+      </c>
+      <c r="BF195">
+        <v>5</v>
+      </c>
+      <c r="BG195">
+        <v>4</v>
+      </c>
+      <c r="BH195">
+        <v>2</v>
+      </c>
+      <c r="BI195">
+        <v>6</v>
+      </c>
+      <c r="BJ195">
+        <v>7</v>
+      </c>
+      <c r="BK195">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>2708294</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>44968.625</v>
+      </c>
+      <c r="F196">
+        <v>25</v>
+      </c>
+      <c r="G196" t="s">
+        <v>66</v>
+      </c>
+      <c r="H196" t="s">
+        <v>68</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>2</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>2</v>
+      </c>
+      <c r="O196" t="s">
+        <v>207</v>
+      </c>
+      <c r="P196" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q196">
+        <v>7</v>
+      </c>
+      <c r="R196">
+        <v>1</v>
+      </c>
+      <c r="S196">
+        <v>8</v>
+      </c>
+      <c r="T196">
+        <v>3.5</v>
+      </c>
+      <c r="U196">
+        <v>1.93</v>
+      </c>
+      <c r="V196">
+        <v>3.45</v>
+      </c>
+      <c r="W196">
+        <v>1.49</v>
+      </c>
+      <c r="X196">
+        <v>2.43</v>
+      </c>
+      <c r="Y196">
+        <v>3.65</v>
+      </c>
+      <c r="Z196">
+        <v>1.24</v>
+      </c>
+      <c r="AA196">
+        <v>11</v>
+      </c>
+      <c r="AB196">
+        <v>1.03</v>
+      </c>
+      <c r="AC196">
+        <v>2.68</v>
+      </c>
+      <c r="AD196">
+        <v>3.1</v>
+      </c>
+      <c r="AE196">
+        <v>2.48</v>
+      </c>
+      <c r="AF196">
+        <v>1.09</v>
+      </c>
+      <c r="AG196">
+        <v>7</v>
+      </c>
+      <c r="AH196">
+        <v>1.48</v>
+      </c>
+      <c r="AI196">
+        <v>2.7</v>
+      </c>
+      <c r="AJ196">
+        <v>2.55</v>
+      </c>
+      <c r="AK196">
+        <v>1.5</v>
+      </c>
+      <c r="AL196">
+        <v>2.07</v>
+      </c>
+      <c r="AM196">
+        <v>1.72</v>
+      </c>
+      <c r="AN196">
+        <v>1.46</v>
+      </c>
+      <c r="AO196">
+        <v>1.38</v>
+      </c>
+      <c r="AP196">
+        <v>1.44</v>
+      </c>
+      <c r="AQ196">
+        <v>2.17</v>
+      </c>
+      <c r="AR196">
+        <v>2.17</v>
+      </c>
+      <c r="AS196">
+        <v>2.23</v>
+      </c>
+      <c r="AT196">
+        <v>2</v>
+      </c>
+      <c r="AU196">
+        <v>1.93</v>
+      </c>
+      <c r="AV196">
+        <v>1.46</v>
+      </c>
+      <c r="AW196">
+        <v>3.39</v>
+      </c>
+      <c r="AX196">
+        <v>1.69</v>
+      </c>
+      <c r="AY196">
+        <v>7.5</v>
+      </c>
+      <c r="AZ196">
+        <v>2.64</v>
+      </c>
+      <c r="BA196">
+        <v>1.5</v>
+      </c>
+      <c r="BB196">
+        <v>1.98</v>
+      </c>
+      <c r="BC196">
+        <v>2.55</v>
+      </c>
+      <c r="BD196">
+        <v>3.48</v>
+      </c>
+      <c r="BE196">
+        <v>5.2</v>
+      </c>
+      <c r="BF196">
+        <v>4</v>
+      </c>
+      <c r="BG196">
+        <v>6</v>
+      </c>
+      <c r="BH196">
+        <v>7</v>
+      </c>
+      <c r="BI196">
+        <v>6</v>
+      </c>
+      <c r="BJ196">
+        <v>11</v>
+      </c>
+      <c r="BK196">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>2708292</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>44969.5</v>
+      </c>
+      <c r="F197">
+        <v>25</v>
+      </c>
+      <c r="G197" t="s">
+        <v>67</v>
+      </c>
+      <c r="H197" t="s">
+        <v>69</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+      <c r="O197" t="s">
+        <v>88</v>
+      </c>
+      <c r="P197" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q197">
+        <v>2</v>
+      </c>
+      <c r="R197">
+        <v>4</v>
+      </c>
+      <c r="S197">
+        <v>6</v>
+      </c>
+      <c r="T197">
+        <v>4.75</v>
+      </c>
+      <c r="U197">
+        <v>1.95</v>
+      </c>
+      <c r="V197">
+        <v>2.5</v>
+      </c>
+      <c r="W197">
+        <v>1.51</v>
+      </c>
+      <c r="X197">
+        <v>2.4</v>
+      </c>
+      <c r="Y197">
+        <v>3.34</v>
+      </c>
+      <c r="Z197">
+        <v>1.3</v>
+      </c>
+      <c r="AA197">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB197">
+        <v>1.04</v>
+      </c>
+      <c r="AC197">
+        <v>4.38</v>
+      </c>
+      <c r="AD197">
+        <v>3.15</v>
+      </c>
+      <c r="AE197">
+        <v>1.82</v>
+      </c>
+      <c r="AF197">
+        <v>1.05</v>
+      </c>
+      <c r="AG197">
+        <v>7</v>
+      </c>
+      <c r="AH197">
+        <v>1.5</v>
+      </c>
+      <c r="AI197">
+        <v>2.45</v>
+      </c>
+      <c r="AJ197">
+        <v>2.36</v>
+      </c>
+      <c r="AK197">
+        <v>1.52</v>
+      </c>
+      <c r="AL197">
+        <v>2.05</v>
+      </c>
+      <c r="AM197">
+        <v>1.72</v>
+      </c>
+      <c r="AN197">
+        <v>1.8</v>
+      </c>
+      <c r="AO197">
+        <v>1.28</v>
+      </c>
+      <c r="AP197">
+        <v>1.18</v>
+      </c>
+      <c r="AQ197">
+        <v>1.25</v>
+      </c>
+      <c r="AR197">
+        <v>1.83</v>
+      </c>
+      <c r="AS197">
+        <v>1.23</v>
+      </c>
+      <c r="AT197">
+        <v>1.77</v>
+      </c>
+      <c r="AU197">
+        <v>1.5</v>
+      </c>
+      <c r="AV197">
+        <v>1.53</v>
+      </c>
+      <c r="AW197">
+        <v>3.03</v>
+      </c>
+      <c r="AX197">
+        <v>2.24</v>
+      </c>
+      <c r="AY197">
+        <v>9.1</v>
+      </c>
+      <c r="AZ197">
+        <v>1.86</v>
+      </c>
+      <c r="BA197">
+        <v>1.46</v>
+      </c>
+      <c r="BB197">
+        <v>1.84</v>
+      </c>
+      <c r="BC197">
+        <v>2.41</v>
+      </c>
+      <c r="BD197">
+        <v>3.28</v>
+      </c>
+      <c r="BE197">
+        <v>4.5</v>
+      </c>
+      <c r="BF197">
+        <v>2</v>
+      </c>
+      <c r="BG197">
+        <v>5</v>
+      </c>
+      <c r="BH197">
+        <v>2</v>
+      </c>
+      <c r="BI197">
+        <v>8</v>
+      </c>
+      <c r="BJ197">
+        <v>4</v>
+      </c>
+      <c r="BK197">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -864,6 +864,9 @@
   <si>
     <t>['1', '57']</t>
   </si>
+  <si>
+    <t>['45', '79']</t>
+  </si>
 </sst>
 </file>
 
@@ -1224,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK197"/>
+  <dimension ref="A1:BK198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3274,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT11">
         <v>1</v>
@@ -4041,7 +4044,7 @@
         <v>2.31</v>
       </c>
       <c r="AT15">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4993,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT20">
         <v>0.58</v>
@@ -6333,7 +6336,7 @@
         <v>0.67</v>
       </c>
       <c r="AT27">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU27">
         <v>0.99</v>
@@ -8813,7 +8816,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT40">
         <v>1.58</v>
@@ -10150,7 +10153,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT47">
         <v>0.5</v>
@@ -12636,7 +12639,7 @@
         <v>2.42</v>
       </c>
       <c r="AT60">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU60">
         <v>2.09</v>
@@ -13779,7 +13782,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT66">
         <v>1.25</v>
@@ -16071,7 +16074,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT78">
         <v>1.08</v>
@@ -17220,7 +17223,7 @@
         <v>2.23</v>
       </c>
       <c r="AT84">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU84">
         <v>1.98</v>
@@ -19127,7 +19130,7 @@
         <v>0.67</v>
       </c>
       <c r="AS94">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT94">
         <v>0.6899999999999999</v>
@@ -20085,7 +20088,7 @@
         <v>1.5</v>
       </c>
       <c r="AT99">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU99">
         <v>1.3</v>
@@ -22374,7 +22377,7 @@
         <v>0.71</v>
       </c>
       <c r="AS111">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT111">
         <v>1.17</v>
@@ -23523,7 +23526,7 @@
         <v>1.27</v>
       </c>
       <c r="AT117">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU117">
         <v>2.02</v>
@@ -24093,7 +24096,7 @@
         <v>1.29</v>
       </c>
       <c r="AS120">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT120">
         <v>1</v>
@@ -25051,7 +25054,7 @@
         <v>1.38</v>
       </c>
       <c r="AT125">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU125">
         <v>1.66</v>
@@ -27725,7 +27728,7 @@
         <v>1.42</v>
       </c>
       <c r="AT139">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU139">
         <v>1.72</v>
@@ -28680,7 +28683,7 @@
         <v>1.42</v>
       </c>
       <c r="AT144">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU144">
         <v>1.7</v>
@@ -29250,7 +29253,7 @@
         <v>1.56</v>
       </c>
       <c r="AS147">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT147">
         <v>1.42</v>
@@ -31163,7 +31166,7 @@
         <v>1.17</v>
       </c>
       <c r="AT157">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU157">
         <v>1.61</v>
@@ -32115,7 +32118,7 @@
         <v>1.8</v>
       </c>
       <c r="AS162">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT162">
         <v>1.77</v>
@@ -34601,7 +34604,7 @@
         <v>1.42</v>
       </c>
       <c r="AT175">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU175">
         <v>1.37</v>
@@ -36317,7 +36320,7 @@
         <v>2.09</v>
       </c>
       <c r="AS184">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT184">
         <v>2</v>
@@ -37466,7 +37469,7 @@
         <v>2</v>
       </c>
       <c r="AT190">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU190">
         <v>1.87</v>
@@ -38855,6 +38858,197 @@
       </c>
       <c r="BK197">
         <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>2708296</v>
+      </c>
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="2">
+        <v>44969.625</v>
+      </c>
+      <c r="F198">
+        <v>25</v>
+      </c>
+      <c r="G198" t="s">
+        <v>74</v>
+      </c>
+      <c r="H198" t="s">
+        <v>70</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>2</v>
+      </c>
+      <c r="N198">
+        <v>3</v>
+      </c>
+      <c r="O198" t="s">
+        <v>171</v>
+      </c>
+      <c r="P198" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q198">
+        <v>4</v>
+      </c>
+      <c r="R198">
+        <v>4</v>
+      </c>
+      <c r="S198">
+        <v>8</v>
+      </c>
+      <c r="T198">
+        <v>4.2</v>
+      </c>
+      <c r="U198">
+        <v>2</v>
+      </c>
+      <c r="V198">
+        <v>2.6</v>
+      </c>
+      <c r="W198">
+        <v>1.46</v>
+      </c>
+      <c r="X198">
+        <v>2.55</v>
+      </c>
+      <c r="Y198">
+        <v>3.16</v>
+      </c>
+      <c r="Z198">
+        <v>1.33</v>
+      </c>
+      <c r="AA198">
+        <v>8.4</v>
+      </c>
+      <c r="AB198">
+        <v>1.05</v>
+      </c>
+      <c r="AC198">
+        <v>3.44</v>
+      </c>
+      <c r="AD198">
+        <v>3.34</v>
+      </c>
+      <c r="AE198">
+        <v>2.15</v>
+      </c>
+      <c r="AF198">
+        <v>1.04</v>
+      </c>
+      <c r="AG198">
+        <v>7.6</v>
+      </c>
+      <c r="AH198">
+        <v>1.36</v>
+      </c>
+      <c r="AI198">
+        <v>2.95</v>
+      </c>
+      <c r="AJ198">
+        <v>2.18</v>
+      </c>
+      <c r="AK198">
+        <v>1.68</v>
+      </c>
+      <c r="AL198">
+        <v>1.9</v>
+      </c>
+      <c r="AM198">
+        <v>1.83</v>
+      </c>
+      <c r="AN198">
+        <v>1.72</v>
+      </c>
+      <c r="AO198">
+        <v>1.25</v>
+      </c>
+      <c r="AP198">
+        <v>1.2</v>
+      </c>
+      <c r="AQ198">
+        <v>1.25</v>
+      </c>
+      <c r="AR198">
+        <v>1.83</v>
+      </c>
+      <c r="AS198">
+        <v>1.15</v>
+      </c>
+      <c r="AT198">
+        <v>1.92</v>
+      </c>
+      <c r="AU198">
+        <v>1.31</v>
+      </c>
+      <c r="AV198">
+        <v>1.71</v>
+      </c>
+      <c r="AW198">
+        <v>3.02</v>
+      </c>
+      <c r="AX198">
+        <v>2.63</v>
+      </c>
+      <c r="AY198">
+        <v>9.4</v>
+      </c>
+      <c r="AZ198">
+        <v>1.67</v>
+      </c>
+      <c r="BA198">
+        <v>1.48</v>
+      </c>
+      <c r="BB198">
+        <v>1.87</v>
+      </c>
+      <c r="BC198">
+        <v>2.46</v>
+      </c>
+      <c r="BD198">
+        <v>3.42</v>
+      </c>
+      <c r="BE198">
+        <v>5</v>
+      </c>
+      <c r="BF198">
+        <v>2</v>
+      </c>
+      <c r="BG198">
+        <v>3</v>
+      </c>
+      <c r="BH198">
+        <v>3</v>
+      </c>
+      <c r="BI198">
+        <v>8</v>
+      </c>
+      <c r="BJ198">
+        <v>5</v>
+      </c>
+      <c r="BK198">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="287">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -640,6 +640,12 @@
     <t>['67', '86']</t>
   </si>
   <si>
+    <t>['45+3', '56']</t>
+  </si>
+  <si>
+    <t>['15', '45']</t>
+  </si>
+  <si>
     <t>['73', '87']</t>
   </si>
   <si>
@@ -866,6 +872,9 @@
   </si>
   <si>
     <t>['45', '79']</t>
+  </si>
+  <si>
+    <t>['20', '44']</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK198"/>
+  <dimension ref="A1:BK200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1662,7 +1671,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2426,7 +2435,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2617,7 +2626,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2707,7 +2716,7 @@
         <v>1.42</v>
       </c>
       <c r="AT8">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2808,7 +2817,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2895,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT9">
         <v>0.92</v>
@@ -3468,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT12">
         <v>0.83</v>
@@ -3572,7 +3581,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3763,7 +3772,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4145,7 +4154,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4235,7 +4244,7 @@
         <v>1.17</v>
       </c>
       <c r="AT16">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4527,7 +4536,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -4808,7 +4817,7 @@
         <v>2.42</v>
       </c>
       <c r="AT19">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU19">
         <v>1.9</v>
@@ -5100,7 +5109,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5291,7 +5300,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5378,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT22">
         <v>1.58</v>
@@ -5673,7 +5682,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5864,7 +5873,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6246,7 +6255,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6437,7 +6446,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6715,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT29">
         <v>0.58</v>
@@ -6819,7 +6828,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -7010,7 +7019,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -7201,7 +7210,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7583,7 +7592,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -8052,7 +8061,7 @@
         <v>1.5</v>
       </c>
       <c r="AS36">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT36">
         <v>1.25</v>
@@ -8347,7 +8356,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8538,7 +8547,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q39">
         <v>12</v>
@@ -8628,7 +8637,7 @@
         <v>1.83</v>
       </c>
       <c r="AT39">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU39">
         <v>1.91</v>
@@ -9010,7 +9019,7 @@
         <v>2.42</v>
       </c>
       <c r="AT41">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU41">
         <v>1.98</v>
@@ -9302,7 +9311,7 @@
         <v>88</v>
       </c>
       <c r="P43" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q43">
         <v>12</v>
@@ -9875,7 +9884,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10535,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT49">
         <v>0.6899999999999999</v>
@@ -10639,7 +10648,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10726,7 +10735,7 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT50">
         <v>1.25</v>
@@ -10920,7 +10929,7 @@
         <v>1.23</v>
       </c>
       <c r="AT51">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU51">
         <v>1.62</v>
@@ -11021,7 +11030,7 @@
         <v>114</v>
       </c>
       <c r="P52" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11212,7 +11221,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11302,7 +11311,7 @@
         <v>1.83</v>
       </c>
       <c r="AT53">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU53">
         <v>2.15</v>
@@ -11594,7 +11603,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12167,7 +12176,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -13209,7 +13218,7 @@
         <v>0.25</v>
       </c>
       <c r="AS63">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT63">
         <v>0.6899999999999999</v>
@@ -13313,7 +13322,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13594,7 +13603,7 @@
         <v>1.23</v>
       </c>
       <c r="AT65">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU65">
         <v>1.5</v>
@@ -13973,7 +13982,7 @@
         <v>1.75</v>
       </c>
       <c r="AS67">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT67">
         <v>1</v>
@@ -14077,7 +14086,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14167,7 +14176,7 @@
         <v>1.23</v>
       </c>
       <c r="AT68">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU68">
         <v>1.68</v>
@@ -14268,7 +14277,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14459,7 +14468,7 @@
         <v>100</v>
       </c>
       <c r="P70" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14650,7 +14659,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15796,7 +15805,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16178,7 +16187,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16265,7 +16274,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT79">
         <v>1.77</v>
@@ -16369,7 +16378,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16459,7 +16468,7 @@
         <v>1.23</v>
       </c>
       <c r="AT80">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU80">
         <v>1.67</v>
@@ -16647,7 +16656,7 @@
         <v>1.4</v>
       </c>
       <c r="AS81">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT81">
         <v>1</v>
@@ -17032,7 +17041,7 @@
         <v>1.38</v>
       </c>
       <c r="AT83">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU83">
         <v>1.76</v>
@@ -17133,7 +17142,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17706,7 +17715,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -18088,7 +18097,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18470,7 +18479,7 @@
         <v>144</v>
       </c>
       <c r="P91" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18661,7 +18670,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -19515,7 +19524,7 @@
         <v>1.38</v>
       </c>
       <c r="AT96">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU96">
         <v>1.72</v>
@@ -19616,7 +19625,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19807,7 +19816,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19894,7 +19903,7 @@
         <v>2</v>
       </c>
       <c r="AS98">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT98">
         <v>1.77</v>
@@ -19998,7 +20007,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20085,7 +20094,7 @@
         <v>0.25</v>
       </c>
       <c r="AS99">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT99">
         <v>1.92</v>
@@ -20189,7 +20198,7 @@
         <v>88</v>
       </c>
       <c r="P100" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20279,7 +20288,7 @@
         <v>1.42</v>
       </c>
       <c r="AT100">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU100">
         <v>1.79</v>
@@ -20380,7 +20389,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q101">
         <v>12</v>
@@ -20762,7 +20771,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -21335,7 +21344,7 @@
         <v>152</v>
       </c>
       <c r="P106" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -22099,7 +22108,7 @@
         <v>100</v>
       </c>
       <c r="P110" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22290,7 +22299,7 @@
         <v>88</v>
       </c>
       <c r="P111" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22380,7 +22389,7 @@
         <v>1.15</v>
       </c>
       <c r="AT111">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU111">
         <v>1.07</v>
@@ -22571,7 +22580,7 @@
         <v>1.42</v>
       </c>
       <c r="AT112">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU112">
         <v>1.68</v>
@@ -22863,7 +22872,7 @@
         <v>157</v>
       </c>
       <c r="P114" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23054,7 +23063,7 @@
         <v>116</v>
       </c>
       <c r="P115" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23332,7 +23341,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT116">
         <v>0.83</v>
@@ -23523,7 +23532,7 @@
         <v>0.8</v>
       </c>
       <c r="AS117">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT117">
         <v>1.92</v>
@@ -23627,7 +23636,7 @@
         <v>159</v>
       </c>
       <c r="P118" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23818,7 +23827,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24200,7 +24209,7 @@
         <v>88</v>
       </c>
       <c r="P121" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24287,7 +24296,7 @@
         <v>1.17</v>
       </c>
       <c r="AS121">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT121">
         <v>1.25</v>
@@ -24582,7 +24591,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24773,7 +24782,7 @@
         <v>88</v>
       </c>
       <c r="P124" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -24863,7 +24872,7 @@
         <v>0.67</v>
       </c>
       <c r="AT124">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU124">
         <v>1.36</v>
@@ -25155,7 +25164,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25537,7 +25546,7 @@
         <v>88</v>
       </c>
       <c r="P128" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25728,7 +25737,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25815,7 +25824,7 @@
         <v>0.63</v>
       </c>
       <c r="AS129">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT129">
         <v>0.58</v>
@@ -26200,7 +26209,7 @@
         <v>1.42</v>
       </c>
       <c r="AT131">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU131">
         <v>1.38</v>
@@ -26301,7 +26310,7 @@
         <v>166</v>
       </c>
       <c r="P132" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26770,7 +26779,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT134">
         <v>1</v>
@@ -26874,7 +26883,7 @@
         <v>141</v>
       </c>
       <c r="P135" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27065,7 +27074,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27256,7 +27265,7 @@
         <v>157</v>
       </c>
       <c r="P137" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27638,7 +27647,7 @@
         <v>88</v>
       </c>
       <c r="P139" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27829,7 +27838,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -28110,7 +28119,7 @@
         <v>1.42</v>
       </c>
       <c r="AT141">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU141">
         <v>1.68</v>
@@ -28402,7 +28411,7 @@
         <v>172</v>
       </c>
       <c r="P143" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28593,7 +28602,7 @@
         <v>173</v>
       </c>
       <c r="P144" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28784,7 +28793,7 @@
         <v>174</v>
       </c>
       <c r="P145" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -29062,7 +29071,7 @@
         <v>0.67</v>
       </c>
       <c r="AS146">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT146">
         <v>0.5</v>
@@ -29256,7 +29265,7 @@
         <v>1.15</v>
       </c>
       <c r="AT147">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU147">
         <v>1.18</v>
@@ -29357,7 +29366,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -29829,7 +29838,7 @@
         <v>2</v>
       </c>
       <c r="AT150">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU150">
         <v>1.88</v>
@@ -29930,7 +29939,7 @@
         <v>165</v>
       </c>
       <c r="P151" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30121,7 +30130,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q152">
         <v>7</v>
@@ -30312,7 +30321,7 @@
         <v>180</v>
       </c>
       <c r="P153" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30399,7 +30408,7 @@
         <v>1.11</v>
       </c>
       <c r="AS153">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT153">
         <v>0.92</v>
@@ -31076,7 +31085,7 @@
         <v>88</v>
       </c>
       <c r="P157" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31458,7 +31467,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -31840,7 +31849,7 @@
         <v>88</v>
       </c>
       <c r="P161" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q161">
         <v>6</v>
@@ -32031,7 +32040,7 @@
         <v>124</v>
       </c>
       <c r="P162" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32222,7 +32231,7 @@
         <v>183</v>
       </c>
       <c r="P163" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -32309,7 +32318,7 @@
         <v>0.6</v>
       </c>
       <c r="AS163">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT163">
         <v>0.5</v>
@@ -32503,7 +32512,7 @@
         <v>2.23</v>
       </c>
       <c r="AT164">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU164">
         <v>1.96</v>
@@ -32604,7 +32613,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32882,7 +32891,7 @@
         <v>0.9</v>
       </c>
       <c r="AS166">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT166">
         <v>1.08</v>
@@ -32986,7 +32995,7 @@
         <v>187</v>
       </c>
       <c r="P167" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33458,7 +33467,7 @@
         <v>2</v>
       </c>
       <c r="AT169">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU169">
         <v>1.89</v>
@@ -34514,7 +34523,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -34896,7 +34905,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35469,7 +35478,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -35556,10 +35565,10 @@
         <v>1</v>
       </c>
       <c r="AS180">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT180">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU180">
         <v>1.29</v>
@@ -35750,7 +35759,7 @@
         <v>2.23</v>
       </c>
       <c r="AT181">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU181">
         <v>1.94</v>
@@ -35851,7 +35860,7 @@
         <v>88</v>
       </c>
       <c r="P182" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -36042,7 +36051,7 @@
         <v>197</v>
       </c>
       <c r="P183" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -36233,7 +36242,7 @@
         <v>88</v>
       </c>
       <c r="P184" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36424,7 +36433,7 @@
         <v>198</v>
       </c>
       <c r="P185" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -37379,7 +37388,7 @@
         <v>88</v>
       </c>
       <c r="P190" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -37952,7 +37961,7 @@
         <v>205</v>
       </c>
       <c r="P193" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38143,7 +38152,7 @@
         <v>153</v>
       </c>
       <c r="P194" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q194">
         <v>5</v>
@@ -38334,7 +38343,7 @@
         <v>206</v>
       </c>
       <c r="P195" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38907,7 +38916,7 @@
         <v>171</v>
       </c>
       <c r="P198" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q198">
         <v>4</v>
@@ -39049,6 +39058,388 @@
       </c>
       <c r="BK198">
         <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>2708291</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>44970.5</v>
+      </c>
+      <c r="F199">
+        <v>25</v>
+      </c>
+      <c r="G199" t="s">
+        <v>75</v>
+      </c>
+      <c r="H199" t="s">
+        <v>79</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>2</v>
+      </c>
+      <c r="K199">
+        <v>3</v>
+      </c>
+      <c r="L199">
+        <v>2</v>
+      </c>
+      <c r="M199">
+        <v>2</v>
+      </c>
+      <c r="N199">
+        <v>4</v>
+      </c>
+      <c r="O199" t="s">
+        <v>208</v>
+      </c>
+      <c r="P199" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q199">
+        <v>6</v>
+      </c>
+      <c r="R199">
+        <v>3</v>
+      </c>
+      <c r="S199">
+        <v>9</v>
+      </c>
+      <c r="T199">
+        <v>2.25</v>
+      </c>
+      <c r="U199">
+        <v>2.05</v>
+      </c>
+      <c r="V199">
+        <v>5.25</v>
+      </c>
+      <c r="W199">
+        <v>1.46</v>
+      </c>
+      <c r="X199">
+        <v>2.5</v>
+      </c>
+      <c r="Y199">
+        <v>3.2</v>
+      </c>
+      <c r="Z199">
+        <v>1.31</v>
+      </c>
+      <c r="AA199">
+        <v>8.75</v>
+      </c>
+      <c r="AB199">
+        <v>1.06</v>
+      </c>
+      <c r="AC199">
+        <v>1.75</v>
+      </c>
+      <c r="AD199">
+        <v>3.5</v>
+      </c>
+      <c r="AE199">
+        <v>4.75</v>
+      </c>
+      <c r="AF199">
+        <v>1.07</v>
+      </c>
+      <c r="AG199">
+        <v>8</v>
+      </c>
+      <c r="AH199">
+        <v>1.5</v>
+      </c>
+      <c r="AI199">
+        <v>2.41</v>
+      </c>
+      <c r="AJ199">
+        <v>2.15</v>
+      </c>
+      <c r="AK199">
+        <v>1.57</v>
+      </c>
+      <c r="AL199">
+        <v>2.15</v>
+      </c>
+      <c r="AM199">
+        <v>1.61</v>
+      </c>
+      <c r="AN199">
+        <v>1.16</v>
+      </c>
+      <c r="AO199">
+        <v>1.26</v>
+      </c>
+      <c r="AP199">
+        <v>2.15</v>
+      </c>
+      <c r="AQ199">
+        <v>1.27</v>
+      </c>
+      <c r="AR199">
+        <v>1.17</v>
+      </c>
+      <c r="AS199">
+        <v>1.25</v>
+      </c>
+      <c r="AT199">
+        <v>1.15</v>
+      </c>
+      <c r="AU199">
+        <v>1.82</v>
+      </c>
+      <c r="AV199">
+        <v>1.47</v>
+      </c>
+      <c r="AW199">
+        <v>3.29</v>
+      </c>
+      <c r="AX199">
+        <v>1.45</v>
+      </c>
+      <c r="AY199">
+        <v>11.5</v>
+      </c>
+      <c r="AZ199">
+        <v>3.22</v>
+      </c>
+      <c r="BA199">
+        <v>1.49</v>
+      </c>
+      <c r="BB199">
+        <v>1.89</v>
+      </c>
+      <c r="BC199">
+        <v>2.49</v>
+      </c>
+      <c r="BD199">
+        <v>3.42</v>
+      </c>
+      <c r="BE199">
+        <v>5.2</v>
+      </c>
+      <c r="BF199">
+        <v>8</v>
+      </c>
+      <c r="BG199">
+        <v>5</v>
+      </c>
+      <c r="BH199">
+        <v>3</v>
+      </c>
+      <c r="BI199">
+        <v>7</v>
+      </c>
+      <c r="BJ199">
+        <v>11</v>
+      </c>
+      <c r="BK199">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:63">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>2708289</v>
+      </c>
+      <c r="C200" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200" s="2">
+        <v>44970.625</v>
+      </c>
+      <c r="F200">
+        <v>25</v>
+      </c>
+      <c r="G200" t="s">
+        <v>72</v>
+      </c>
+      <c r="H200" t="s">
+        <v>65</v>
+      </c>
+      <c r="I200">
+        <v>2</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>2</v>
+      </c>
+      <c r="L200">
+        <v>2</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>2</v>
+      </c>
+      <c r="O200" t="s">
+        <v>209</v>
+      </c>
+      <c r="P200" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q200">
+        <v>5</v>
+      </c>
+      <c r="R200">
+        <v>5</v>
+      </c>
+      <c r="S200">
+        <v>10</v>
+      </c>
+      <c r="T200">
+        <v>3.4</v>
+      </c>
+      <c r="U200">
+        <v>1.91</v>
+      </c>
+      <c r="V200">
+        <v>3.5</v>
+      </c>
+      <c r="W200">
+        <v>1.55</v>
+      </c>
+      <c r="X200">
+        <v>2.3</v>
+      </c>
+      <c r="Y200">
+        <v>3.4</v>
+      </c>
+      <c r="Z200">
+        <v>1.29</v>
+      </c>
+      <c r="AA200">
+        <v>9.5</v>
+      </c>
+      <c r="AB200">
+        <v>1.04</v>
+      </c>
+      <c r="AC200">
+        <v>2.42</v>
+      </c>
+      <c r="AD200">
+        <v>2.97</v>
+      </c>
+      <c r="AE200">
+        <v>3.13</v>
+      </c>
+      <c r="AF200">
+        <v>1.09</v>
+      </c>
+      <c r="AG200">
+        <v>6</v>
+      </c>
+      <c r="AH200">
+        <v>1.5</v>
+      </c>
+      <c r="AI200">
+        <v>2.45</v>
+      </c>
+      <c r="AJ200">
+        <v>2.5</v>
+      </c>
+      <c r="AK200">
+        <v>1.47</v>
+      </c>
+      <c r="AL200">
+        <v>2</v>
+      </c>
+      <c r="AM200">
+        <v>1.73</v>
+      </c>
+      <c r="AN200">
+        <v>1.43</v>
+      </c>
+      <c r="AO200">
+        <v>1.36</v>
+      </c>
+      <c r="AP200">
+        <v>1.44</v>
+      </c>
+      <c r="AQ200">
+        <v>1.5</v>
+      </c>
+      <c r="AR200">
+        <v>1.42</v>
+      </c>
+      <c r="AS200">
+        <v>1.62</v>
+      </c>
+      <c r="AT200">
+        <v>1.31</v>
+      </c>
+      <c r="AU200">
+        <v>1.35</v>
+      </c>
+      <c r="AV200">
+        <v>1.2</v>
+      </c>
+      <c r="AW200">
+        <v>2.55</v>
+      </c>
+      <c r="AX200">
+        <v>2.04</v>
+      </c>
+      <c r="AY200">
+        <v>7.1</v>
+      </c>
+      <c r="AZ200">
+        <v>2.16</v>
+      </c>
+      <c r="BA200">
+        <v>1.48</v>
+      </c>
+      <c r="BB200">
+        <v>1.87</v>
+      </c>
+      <c r="BC200">
+        <v>2.46</v>
+      </c>
+      <c r="BD200">
+        <v>3.34</v>
+      </c>
+      <c r="BE200">
+        <v>5.2</v>
+      </c>
+      <c r="BF200">
+        <v>3</v>
+      </c>
+      <c r="BG200">
+        <v>6</v>
+      </c>
+      <c r="BH200">
+        <v>5</v>
+      </c>
+      <c r="BI200">
+        <v>6</v>
+      </c>
+      <c r="BJ200">
+        <v>8</v>
+      </c>
+      <c r="BK200">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="288">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -605,6 +605,9 @@
   </si>
   <si>
     <t>['48', '69']</t>
+  </si>
+  <si>
+    <t>['-1', '-1', '-1']</t>
   </si>
   <si>
     <t>['47', '59']</t>
@@ -1236,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK200"/>
+  <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1671,7 +1674,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2334,7 +2337,7 @@
         <v>2.42</v>
       </c>
       <c r="AT6">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2435,7 +2438,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2626,7 +2629,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2817,7 +2820,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3477,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT12">
         <v>0.83</v>
@@ -3581,7 +3584,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3772,7 +3775,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4154,7 +4157,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4536,7 +4539,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -5109,7 +5112,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5300,7 +5303,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5682,7 +5685,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5772,7 +5775,7 @@
         <v>1.83</v>
       </c>
       <c r="AT24">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU24">
         <v>1.56</v>
@@ -5873,7 +5876,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6255,7 +6258,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6446,7 +6449,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6724,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT29">
         <v>0.58</v>
@@ -6828,7 +6831,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -7019,7 +7022,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -7210,7 +7213,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7592,7 +7595,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7682,7 +7685,7 @@
         <v>1.23</v>
       </c>
       <c r="AT34">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU34">
         <v>1.66</v>
@@ -8356,7 +8359,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8547,7 +8550,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q39">
         <v>12</v>
@@ -9311,7 +9314,7 @@
         <v>88</v>
       </c>
       <c r="P43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q43">
         <v>12</v>
@@ -9884,7 +9887,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10356,7 +10359,7 @@
         <v>1.23</v>
       </c>
       <c r="AT48">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU48">
         <v>1.45</v>
@@ -10648,7 +10651,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10735,7 +10738,7 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT50">
         <v>1.25</v>
@@ -11030,7 +11033,7 @@
         <v>114</v>
       </c>
       <c r="P52" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11221,7 +11224,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11603,7 +11606,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12176,7 +12179,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -13218,7 +13221,7 @@
         <v>0.25</v>
       </c>
       <c r="AS63">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT63">
         <v>0.6899999999999999</v>
@@ -13322,7 +13325,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13412,7 +13415,7 @@
         <v>1.38</v>
       </c>
       <c r="AT64">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU64">
         <v>1.69</v>
@@ -14086,7 +14089,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14277,7 +14280,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14468,7 +14471,7 @@
         <v>100</v>
       </c>
       <c r="P70" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14659,7 +14662,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15805,7 +15808,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16086,7 +16089,7 @@
         <v>1.15</v>
       </c>
       <c r="AT78">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU78">
         <v>1.08</v>
@@ -16187,7 +16190,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16378,7 +16381,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16656,7 +16659,7 @@
         <v>1.4</v>
       </c>
       <c r="AS81">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT81">
         <v>1</v>
@@ -17142,7 +17145,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17715,7 +17718,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17805,7 +17808,7 @@
         <v>0.67</v>
       </c>
       <c r="AT87">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU87">
         <v>1.34</v>
@@ -18097,7 +18100,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18479,7 +18482,7 @@
         <v>144</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18670,7 +18673,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -19625,7 +19628,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19816,7 +19819,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19903,7 +19906,7 @@
         <v>2</v>
       </c>
       <c r="AS98">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT98">
         <v>1.77</v>
@@ -20007,7 +20010,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20198,7 +20201,7 @@
         <v>88</v>
       </c>
       <c r="P100" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20389,7 +20392,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q101">
         <v>12</v>
@@ -20771,7 +20774,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -21052,7 +21055,7 @@
         <v>1.42</v>
       </c>
       <c r="AT104">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU104">
         <v>1.54</v>
@@ -21344,7 +21347,7 @@
         <v>152</v>
       </c>
       <c r="P106" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -22108,7 +22111,7 @@
         <v>100</v>
       </c>
       <c r="P110" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22299,7 +22302,7 @@
         <v>88</v>
       </c>
       <c r="P111" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22872,7 +22875,7 @@
         <v>157</v>
       </c>
       <c r="P114" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23063,7 +23066,7 @@
         <v>116</v>
       </c>
       <c r="P115" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23532,7 +23535,7 @@
         <v>0.8</v>
       </c>
       <c r="AS117">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT117">
         <v>1.92</v>
@@ -23636,7 +23639,7 @@
         <v>159</v>
       </c>
       <c r="P118" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23827,7 +23830,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24209,7 +24212,7 @@
         <v>88</v>
       </c>
       <c r="P121" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24296,7 +24299,7 @@
         <v>1.17</v>
       </c>
       <c r="AS121">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT121">
         <v>1.25</v>
@@ -24591,7 +24594,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24782,7 +24785,7 @@
         <v>88</v>
       </c>
       <c r="P124" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -25164,7 +25167,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25546,7 +25549,7 @@
         <v>88</v>
       </c>
       <c r="P128" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25737,7 +25740,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -26310,7 +26313,7 @@
         <v>166</v>
       </c>
       <c r="P132" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26591,7 +26594,7 @@
         <v>2</v>
       </c>
       <c r="AT133">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU133">
         <v>1.87</v>
@@ -26779,7 +26782,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT134">
         <v>1</v>
@@ -26883,7 +26886,7 @@
         <v>141</v>
       </c>
       <c r="P135" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27074,7 +27077,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27265,7 +27268,7 @@
         <v>157</v>
       </c>
       <c r="P137" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27647,7 +27650,7 @@
         <v>88</v>
       </c>
       <c r="P139" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27838,7 +27841,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -28411,7 +28414,7 @@
         <v>172</v>
       </c>
       <c r="P143" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28602,7 +28605,7 @@
         <v>173</v>
       </c>
       <c r="P144" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28793,7 +28796,7 @@
         <v>174</v>
       </c>
       <c r="P145" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -29366,7 +29369,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -29456,7 +29459,7 @@
         <v>2.23</v>
       </c>
       <c r="AT148">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU148">
         <v>2</v>
@@ -29939,7 +29942,7 @@
         <v>165</v>
       </c>
       <c r="P151" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30130,7 +30133,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q152">
         <v>7</v>
@@ -30321,7 +30324,7 @@
         <v>180</v>
       </c>
       <c r="P153" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30408,7 +30411,7 @@
         <v>1.11</v>
       </c>
       <c r="AS153">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT153">
         <v>0.92</v>
@@ -31085,7 +31088,7 @@
         <v>88</v>
       </c>
       <c r="P157" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31467,7 +31470,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -31849,7 +31852,7 @@
         <v>88</v>
       </c>
       <c r="P161" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q161">
         <v>6</v>
@@ -32040,7 +32043,7 @@
         <v>124</v>
       </c>
       <c r="P162" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32231,7 +32234,7 @@
         <v>183</v>
       </c>
       <c r="P163" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -32318,7 +32321,7 @@
         <v>0.6</v>
       </c>
       <c r="AS163">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT163">
         <v>0.5</v>
@@ -32613,7 +32616,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32894,7 +32897,7 @@
         <v>1.62</v>
       </c>
       <c r="AT166">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU166">
         <v>1.34</v>
@@ -32995,7 +32998,7 @@
         <v>187</v>
       </c>
       <c r="P167" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33377,7 +33380,7 @@
         <v>88</v>
       </c>
       <c r="P169" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q169">
         <v>2</v>
@@ -34523,7 +34526,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -34905,7 +34908,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35478,7 +35481,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -35860,7 +35863,7 @@
         <v>88</v>
       </c>
       <c r="P182" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -36009,7 +36012,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>2708278</v>
+        <v>2708277</v>
       </c>
       <c r="C183" t="s">
         <v>63</v>
@@ -36018,16 +36021,16 @@
         <v>64</v>
       </c>
       <c r="E183" s="2">
-        <v>44955.58333333334</v>
+        <v>44955.45833333334</v>
       </c>
       <c r="F183">
         <v>23</v>
       </c>
       <c r="G183" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H183" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -36039,37 +36042,37 @@
         <v>0</v>
       </c>
       <c r="L183">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
         <v>3</v>
-      </c>
-      <c r="N183">
-        <v>5</v>
       </c>
       <c r="O183" t="s">
         <v>197</v>
       </c>
       <c r="P183" t="s">
-        <v>281</v>
+        <v>88</v>
       </c>
       <c r="Q183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R183">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S183">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T183">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="U183">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V183">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="W183">
         <v>1.43</v>
@@ -36078,31 +36081,31 @@
         <v>2.65</v>
       </c>
       <c r="Y183">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Z183">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="AA183">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AB183">
+        <v>1.06</v>
+      </c>
+      <c r="AC183">
+        <v>1.77</v>
+      </c>
+      <c r="AD183">
+        <v>3.45</v>
+      </c>
+      <c r="AE183">
+        <v>4.25</v>
+      </c>
+      <c r="AF183">
         <v>1.07</v>
       </c>
-      <c r="AC183">
-        <v>2.03</v>
-      </c>
-      <c r="AD183">
-        <v>3.35</v>
-      </c>
-      <c r="AE183">
-        <v>3.25</v>
-      </c>
-      <c r="AF183">
-        <v>1.05</v>
-      </c>
       <c r="AG183">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH183">
         <v>1.33</v>
@@ -36111,88 +36114,88 @@
         <v>3.1</v>
       </c>
       <c r="AJ183">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="AK183">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="AL183">
+        <v>1.9</v>
+      </c>
+      <c r="AM183">
         <v>1.83</v>
       </c>
-      <c r="AM183">
-        <v>1.9</v>
-      </c>
       <c r="AN183">
+        <v>1.17</v>
+      </c>
+      <c r="AO183">
         <v>1.22</v>
       </c>
-      <c r="AO183">
-        <v>1.25</v>
-      </c>
       <c r="AP183">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AQ183">
-        <v>2</v>
+        <v>1.27</v>
       </c>
       <c r="AR183">
-        <v>1.73</v>
+        <v>0.91</v>
       </c>
       <c r="AS183">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AT183">
-        <v>1.77</v>
+        <v>1</v>
       </c>
       <c r="AU183">
-        <v>2.06</v>
+        <v>1.82</v>
       </c>
       <c r="AV183">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="AW183">
-        <v>3.61</v>
+        <v>3.28</v>
       </c>
       <c r="AX183">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AY183">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="AZ183">
         <v>3.15</v>
       </c>
       <c r="BA183">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="BB183">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="BC183">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="BD183">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="BE183">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="BF183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BG183">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH183">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BI183">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BJ183">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BK183">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:63">
@@ -36200,7 +36203,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>2708280</v>
+        <v>2708278</v>
       </c>
       <c r="C184" t="s">
         <v>63</v>
@@ -36209,16 +36212,16 @@
         <v>64</v>
       </c>
       <c r="E184" s="2">
-        <v>44956.625</v>
+        <v>44955.58333333334</v>
       </c>
       <c r="F184">
         <v>23</v>
       </c>
       <c r="G184" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H184" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -36230,160 +36233,160 @@
         <v>0</v>
       </c>
       <c r="L184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N184">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O184" t="s">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="P184" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="Q184">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R184">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S184">
         <v>10</v>
       </c>
       <c r="T184">
-        <v>4.5</v>
+        <v>2.65</v>
       </c>
       <c r="U184">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V184">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="W184">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="X184">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="Y184">
-        <v>3.32</v>
+        <v>2.9</v>
       </c>
       <c r="Z184">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AA184">
-        <v>9.1</v>
+        <v>7.4</v>
       </c>
       <c r="AB184">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AC184">
-        <v>2.16</v>
+        <v>2.03</v>
       </c>
       <c r="AD184">
-        <v>1.96</v>
+        <v>3.35</v>
       </c>
       <c r="AE184">
-        <v>1.58</v>
+        <v>3.25</v>
       </c>
       <c r="AF184">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AG184">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AH184">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="AI184">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="AJ184">
-        <v>2.41</v>
+        <v>2.2</v>
       </c>
       <c r="AK184">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AL184">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="AM184">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="AN184">
-        <v>1.78</v>
+        <v>1.22</v>
       </c>
       <c r="AO184">
         <v>1.25</v>
       </c>
       <c r="AP184">
-        <v>1.17</v>
+        <v>1.75</v>
       </c>
       <c r="AQ184">
-        <v>1.36</v>
+        <v>2</v>
       </c>
       <c r="AR184">
-        <v>2.09</v>
+        <v>1.73</v>
       </c>
       <c r="AS184">
-        <v>1.15</v>
+        <v>1.83</v>
       </c>
       <c r="AT184">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="AU184">
-        <v>1.34</v>
+        <v>2.06</v>
       </c>
       <c r="AV184">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AW184">
-        <v>2.82</v>
+        <v>3.61</v>
       </c>
       <c r="AX184">
-        <v>2.32</v>
+        <v>1.44</v>
       </c>
       <c r="AY184">
-        <v>6.75</v>
+        <v>5.75</v>
       </c>
       <c r="AZ184">
-        <v>1.92</v>
+        <v>3.15</v>
       </c>
       <c r="BA184">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="BB184">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="BC184">
-        <v>2.45</v>
+        <v>2.18</v>
       </c>
       <c r="BD184">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="BE184">
+        <v>4.2</v>
+      </c>
+      <c r="BF184">
+        <v>4</v>
+      </c>
+      <c r="BG184">
+        <v>4</v>
+      </c>
+      <c r="BH184">
+        <v>7</v>
+      </c>
+      <c r="BI184">
         <v>5</v>
       </c>
-      <c r="BF184">
-        <v>2</v>
-      </c>
-      <c r="BG184">
-        <v>3</v>
-      </c>
-      <c r="BH184">
-        <v>3</v>
-      </c>
-      <c r="BI184">
-        <v>3</v>
-      </c>
       <c r="BJ184">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BK184">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:63">
@@ -36391,7 +36394,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>2708282</v>
+        <v>2708280</v>
       </c>
       <c r="C185" t="s">
         <v>63</v>
@@ -36400,178 +36403,178 @@
         <v>64</v>
       </c>
       <c r="E185" s="2">
-        <v>44960.5</v>
+        <v>44956.625</v>
       </c>
       <c r="F185">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G185" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H185" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M185">
         <v>1</v>
       </c>
       <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185" t="s">
+        <v>88</v>
+      </c>
+      <c r="P185" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q185">
+        <v>5</v>
+      </c>
+      <c r="R185">
+        <v>5</v>
+      </c>
+      <c r="S185">
+        <v>10</v>
+      </c>
+      <c r="T185">
+        <v>4.5</v>
+      </c>
+      <c r="U185">
+        <v>2</v>
+      </c>
+      <c r="V185">
+        <v>2.55</v>
+      </c>
+      <c r="W185">
+        <v>1.5</v>
+      </c>
+      <c r="X185">
+        <v>2.4</v>
+      </c>
+      <c r="Y185">
+        <v>3.32</v>
+      </c>
+      <c r="Z185">
+        <v>1.3</v>
+      </c>
+      <c r="AA185">
+        <v>9.1</v>
+      </c>
+      <c r="AB185">
+        <v>1.04</v>
+      </c>
+      <c r="AC185">
+        <v>2.16</v>
+      </c>
+      <c r="AD185">
+        <v>1.96</v>
+      </c>
+      <c r="AE185">
+        <v>1.58</v>
+      </c>
+      <c r="AF185">
+        <v>1.09</v>
+      </c>
+      <c r="AG185">
+        <v>6.5</v>
+      </c>
+      <c r="AH185">
+        <v>1.49</v>
+      </c>
+      <c r="AI185">
+        <v>2.55</v>
+      </c>
+      <c r="AJ185">
+        <v>2.41</v>
+      </c>
+      <c r="AK185">
+        <v>1.5</v>
+      </c>
+      <c r="AL185">
+        <v>2.05</v>
+      </c>
+      <c r="AM185">
+        <v>1.72</v>
+      </c>
+      <c r="AN185">
+        <v>1.78</v>
+      </c>
+      <c r="AO185">
+        <v>1.25</v>
+      </c>
+      <c r="AP185">
+        <v>1.17</v>
+      </c>
+      <c r="AQ185">
+        <v>1.36</v>
+      </c>
+      <c r="AR185">
+        <v>2.09</v>
+      </c>
+      <c r="AS185">
+        <v>1.15</v>
+      </c>
+      <c r="AT185">
+        <v>2</v>
+      </c>
+      <c r="AU185">
+        <v>1.34</v>
+      </c>
+      <c r="AV185">
+        <v>1.48</v>
+      </c>
+      <c r="AW185">
+        <v>2.82</v>
+      </c>
+      <c r="AX185">
+        <v>2.32</v>
+      </c>
+      <c r="AY185">
+        <v>6.75</v>
+      </c>
+      <c r="AZ185">
+        <v>1.92</v>
+      </c>
+      <c r="BA185">
+        <v>1.47</v>
+      </c>
+      <c r="BB185">
+        <v>1.74</v>
+      </c>
+      <c r="BC185">
+        <v>2.45</v>
+      </c>
+      <c r="BD185">
+        <v>3.4</v>
+      </c>
+      <c r="BE185">
+        <v>5</v>
+      </c>
+      <c r="BF185">
+        <v>2</v>
+      </c>
+      <c r="BG185">
         <v>3</v>
       </c>
-      <c r="O185" t="s">
-        <v>198</v>
-      </c>
-      <c r="P185" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q185">
-        <v>2</v>
-      </c>
-      <c r="R185">
-        <v>1</v>
-      </c>
-      <c r="S185">
+      <c r="BH185">
         <v>3</v>
       </c>
-      <c r="T185">
-        <v>3.25</v>
-      </c>
-      <c r="U185">
-        <v>1.87</v>
-      </c>
-      <c r="V185">
-        <v>3.6</v>
-      </c>
-      <c r="W185">
-        <v>1.58</v>
-      </c>
-      <c r="X185">
-        <v>2.26</v>
-      </c>
-      <c r="Y185">
-        <v>3.72</v>
-      </c>
-      <c r="Z185">
-        <v>1.25</v>
-      </c>
-      <c r="AA185">
-        <v>10.5</v>
-      </c>
-      <c r="AB185">
-        <v>1.03</v>
-      </c>
-      <c r="AC185">
-        <v>2.43</v>
-      </c>
-      <c r="AD185">
-        <v>2.96</v>
-      </c>
-      <c r="AE185">
-        <v>2.86</v>
-      </c>
-      <c r="AF185">
-        <v>1.1</v>
-      </c>
-      <c r="AG185">
-        <v>6</v>
-      </c>
-      <c r="AH185">
-        <v>1.54</v>
-      </c>
-      <c r="AI185">
-        <v>2.43</v>
-      </c>
-      <c r="AJ185">
-        <v>2.66</v>
-      </c>
-      <c r="AK185">
-        <v>1.38</v>
-      </c>
-      <c r="AL185">
-        <v>2.1</v>
-      </c>
-      <c r="AM185">
-        <v>1.68</v>
-      </c>
-      <c r="AN185">
-        <v>1.33</v>
-      </c>
-      <c r="AO185">
-        <v>1.3</v>
-      </c>
-      <c r="AP185">
-        <v>1.44</v>
-      </c>
-      <c r="AQ185">
-        <v>1</v>
-      </c>
-      <c r="AR185">
-        <v>0.64</v>
-      </c>
-      <c r="AS185">
-        <v>1.17</v>
-      </c>
-      <c r="AT185">
-        <v>0.58</v>
-      </c>
-      <c r="AU185">
-        <v>1.65</v>
-      </c>
-      <c r="AV185">
-        <v>1.27</v>
-      </c>
-      <c r="AW185">
-        <v>2.92</v>
-      </c>
-      <c r="AX185">
-        <v>2.05</v>
-      </c>
-      <c r="AY185">
-        <v>7.5</v>
-      </c>
-      <c r="AZ185">
-        <v>2.05</v>
-      </c>
-      <c r="BA185">
-        <v>1.56</v>
-      </c>
-      <c r="BB185">
-        <v>2</v>
-      </c>
-      <c r="BC185">
-        <v>2.41</v>
-      </c>
-      <c r="BD185">
-        <v>3.54</v>
-      </c>
-      <c r="BE185">
-        <v>5.3</v>
-      </c>
-      <c r="BF185">
-        <v>7</v>
-      </c>
-      <c r="BG185">
+      <c r="BI185">
+        <v>3</v>
+      </c>
+      <c r="BJ185">
         <v>5</v>
-      </c>
-      <c r="BH185">
-        <v>6</v>
-      </c>
-      <c r="BI185">
-        <v>1</v>
-      </c>
-      <c r="BJ185">
-        <v>13</v>
       </c>
       <c r="BK185">
         <v>6</v>
@@ -36582,7 +36585,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>2708286</v>
+        <v>2708282</v>
       </c>
       <c r="C186" t="s">
         <v>63</v>
@@ -36591,181 +36594,181 @@
         <v>64</v>
       </c>
       <c r="E186" s="2">
-        <v>44960.625</v>
+        <v>44960.5</v>
       </c>
       <c r="F186">
         <v>24</v>
       </c>
       <c r="G186" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H186" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>2</v>
+      </c>
+      <c r="L186">
+        <v>2</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
         <v>3</v>
-      </c>
-      <c r="J186">
-        <v>0</v>
-      </c>
-      <c r="K186">
-        <v>3</v>
-      </c>
-      <c r="L186">
-        <v>5</v>
-      </c>
-      <c r="M186">
-        <v>0</v>
-      </c>
-      <c r="N186">
-        <v>5</v>
       </c>
       <c r="O186" t="s">
         <v>199</v>
       </c>
       <c r="P186" t="s">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="Q186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R186">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S186">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T186">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="U186">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="V186">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="W186">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="X186">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="Y186">
-        <v>3.48</v>
+        <v>3.72</v>
       </c>
       <c r="Z186">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AA186">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AB186">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AC186">
-        <v>2.01</v>
+        <v>2.43</v>
       </c>
       <c r="AD186">
-        <v>3.27</v>
+        <v>2.96</v>
       </c>
       <c r="AE186">
-        <v>3.77</v>
+        <v>2.86</v>
       </c>
       <c r="AF186">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AG186">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AH186">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AI186">
-        <v>2.42</v>
+        <v>2.43</v>
       </c>
       <c r="AJ186">
-        <v>2.55</v>
+        <v>2.66</v>
       </c>
       <c r="AK186">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="AL186">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AM186">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="AN186">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AO186">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AP186">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AQ186">
+        <v>1</v>
+      </c>
+      <c r="AR186">
+        <v>0.64</v>
+      </c>
+      <c r="AS186">
+        <v>1.17</v>
+      </c>
+      <c r="AT186">
+        <v>0.58</v>
+      </c>
+      <c r="AU186">
+        <v>1.65</v>
+      </c>
+      <c r="AV186">
         <v>1.27</v>
       </c>
-      <c r="AR186">
-        <v>0.55</v>
-      </c>
-      <c r="AS186">
-        <v>1.42</v>
-      </c>
-      <c r="AT186">
-        <v>0.5</v>
-      </c>
-      <c r="AU186">
-        <v>1.69</v>
-      </c>
-      <c r="AV186">
-        <v>1.28</v>
-      </c>
       <c r="AW186">
-        <v>2.97</v>
+        <v>2.92</v>
       </c>
       <c r="AX186">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="AY186">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ186">
-        <v>3.02</v>
+        <v>2.05</v>
       </c>
       <c r="BA186">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="BB186">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="BC186">
-        <v>2.17</v>
+        <v>2.41</v>
       </c>
       <c r="BD186">
-        <v>2.84</v>
+        <v>3.54</v>
       </c>
       <c r="BE186">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="BF186">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BG186">
         <v>5</v>
       </c>
       <c r="BH186">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI186">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="BJ186">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BK186">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:63">
@@ -36773,7 +36776,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>2708283</v>
+        <v>2708286</v>
       </c>
       <c r="C187" t="s">
         <v>63</v>
@@ -36782,181 +36785,181 @@
         <v>64</v>
       </c>
       <c r="E187" s="2">
-        <v>44961.39583333334</v>
+        <v>44960.625</v>
       </c>
       <c r="F187">
         <v>24</v>
       </c>
       <c r="G187" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H187" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L187">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N187">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O187" t="s">
         <v>200</v>
       </c>
       <c r="P187" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q187">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R187">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S187">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T187">
         <v>2.7</v>
       </c>
       <c r="U187">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V187">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="W187">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="X187">
-        <v>2.31</v>
+        <v>2.4</v>
       </c>
       <c r="Y187">
-        <v>3.56</v>
+        <v>3.48</v>
       </c>
       <c r="Z187">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AA187">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AB187">
         <v>1.04</v>
       </c>
       <c r="AC187">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="AD187">
-        <v>3.1</v>
+        <v>3.27</v>
       </c>
       <c r="AE187">
-        <v>3.7</v>
+        <v>3.77</v>
       </c>
       <c r="AF187">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AG187">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AH187">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AI187">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="AJ187">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="AK187">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AL187">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AM187">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AN187">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AO187">
         <v>1.28</v>
       </c>
       <c r="AP187">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="AQ187">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="AR187">
-        <v>0.82</v>
+        <v>0.55</v>
       </c>
       <c r="AS187">
         <v>1.42</v>
       </c>
       <c r="AT187">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AU187">
-        <v>1.35</v>
+        <v>1.69</v>
       </c>
       <c r="AV187">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="AW187">
-        <v>2.36</v>
+        <v>2.97</v>
       </c>
       <c r="AX187">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="AY187">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ187">
-        <v>2.64</v>
+        <v>3.02</v>
       </c>
       <c r="BA187">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="BB187">
-        <v>1.95</v>
+        <v>1.66</v>
       </c>
       <c r="BC187">
-        <v>2.55</v>
+        <v>2.17</v>
       </c>
       <c r="BD187">
-        <v>3.48</v>
+        <v>2.84</v>
       </c>
       <c r="BE187">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="BF187">
+        <v>10</v>
+      </c>
+      <c r="BG187">
         <v>5</v>
       </c>
-      <c r="BG187">
-        <v>3</v>
-      </c>
       <c r="BH187">
+        <v>5</v>
+      </c>
+      <c r="BI187">
         <v>11</v>
       </c>
-      <c r="BI187">
-        <v>8</v>
-      </c>
       <c r="BJ187">
+        <v>15</v>
+      </c>
+      <c r="BK187">
         <v>16</v>
-      </c>
-      <c r="BK187">
-        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:63">
@@ -36964,7 +36967,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>2708288</v>
+        <v>2708283</v>
       </c>
       <c r="C188" t="s">
         <v>63</v>
@@ -36973,181 +36976,181 @@
         <v>64</v>
       </c>
       <c r="E188" s="2">
-        <v>44961.625</v>
+        <v>44961.39583333334</v>
       </c>
       <c r="F188">
         <v>24</v>
       </c>
       <c r="G188" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H188" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K188">
         <v>2</v>
       </c>
       <c r="L188">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M188">
         <v>1</v>
       </c>
       <c r="N188">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O188" t="s">
         <v>201</v>
       </c>
       <c r="P188" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="Q188">
+        <v>3</v>
+      </c>
+      <c r="R188">
+        <v>4</v>
+      </c>
+      <c r="S188">
         <v>7</v>
       </c>
-      <c r="R188">
-        <v>2</v>
-      </c>
-      <c r="S188">
-        <v>9</v>
-      </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="U188">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V188">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="W188">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="X188">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="Y188">
-        <v>3.48</v>
+        <v>3.56</v>
       </c>
       <c r="Z188">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AA188">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB188">
         <v>1.04</v>
       </c>
       <c r="AC188">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="AD188">
         <v>3.1</v>
       </c>
       <c r="AE188">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="AF188">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AG188">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="AH188">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="AI188">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="AJ188">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="AK188">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="AL188">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="AM188">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="AN188">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="AO188">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AP188">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AQ188">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="AR188">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AS188">
-        <v>2.31</v>
+        <v>1.42</v>
       </c>
       <c r="AT188">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="AU188">
-        <v>1.88</v>
+        <v>1.35</v>
       </c>
       <c r="AV188">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="AW188">
-        <v>3.15</v>
+        <v>2.36</v>
       </c>
       <c r="AX188">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="AY188">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ188">
-        <v>3.02</v>
+        <v>2.64</v>
       </c>
       <c r="BA188">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="BB188">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="BC188">
-        <v>2.23</v>
+        <v>2.55</v>
       </c>
       <c r="BD188">
-        <v>2.98</v>
+        <v>3.48</v>
       </c>
       <c r="BE188">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="BF188">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BG188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH188">
         <v>11</v>
       </c>
       <c r="BI188">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ188">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="BK188">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:63">
@@ -37155,7 +37158,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>2708284</v>
+        <v>2708288</v>
       </c>
       <c r="C189" t="s">
         <v>63</v>
@@ -37164,181 +37167,181 @@
         <v>64</v>
       </c>
       <c r="E189" s="2">
-        <v>44962.4375</v>
+        <v>44961.625</v>
       </c>
       <c r="F189">
         <v>24</v>
       </c>
       <c r="G189" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H189" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L189">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M189">
         <v>1</v>
       </c>
       <c r="N189">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O189" t="s">
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="Q189">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R189">
         <v>2</v>
       </c>
       <c r="S189">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T189">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>2.63</v>
+        <v>4.75</v>
       </c>
       <c r="W189">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X189">
         <v>2.4</v>
       </c>
       <c r="Y189">
-        <v>3.34</v>
+        <v>3.48</v>
       </c>
       <c r="Z189">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AA189">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="AB189">
         <v>1.04</v>
       </c>
       <c r="AC189">
-        <v>3.59</v>
+        <v>1.8</v>
       </c>
       <c r="AD189">
-        <v>3.01</v>
+        <v>3.1</v>
       </c>
       <c r="AE189">
-        <v>1.96</v>
+        <v>4.5</v>
       </c>
       <c r="AF189">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AG189">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="AH189">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AI189">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AJ189">
-        <v>2.19</v>
+        <v>2.35</v>
       </c>
       <c r="AK189">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AL189">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AM189">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="AN189">
-        <v>1.68</v>
+        <v>1.16</v>
       </c>
       <c r="AO189">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AP189">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ189">
-        <v>0.64</v>
+        <v>2.45</v>
       </c>
       <c r="AR189">
-        <v>1.64</v>
+        <v>1</v>
       </c>
       <c r="AS189">
-        <v>0.67</v>
+        <v>2.31</v>
       </c>
       <c r="AT189">
-        <v>1.58</v>
+        <v>0.92</v>
       </c>
       <c r="AU189">
-        <v>1.31</v>
+        <v>1.88</v>
       </c>
       <c r="AV189">
-        <v>1.71</v>
+        <v>1.27</v>
       </c>
       <c r="AW189">
-        <v>3.02</v>
+        <v>3.15</v>
       </c>
       <c r="AX189">
-        <v>2.67</v>
+        <v>1.55</v>
       </c>
       <c r="AY189">
         <v>8</v>
       </c>
       <c r="AZ189">
-        <v>1.64</v>
+        <v>3.02</v>
       </c>
       <c r="BA189">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="BB189">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="BC189">
-        <v>2.32</v>
+        <v>2.23</v>
       </c>
       <c r="BD189">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="BE189">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BF189">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BG189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH189">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BI189">
         <v>7</v>
       </c>
       <c r="BJ189">
+        <v>22</v>
+      </c>
+      <c r="BK189">
         <v>9</v>
-      </c>
-      <c r="BK189">
-        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:63">
@@ -37346,7 +37349,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>2708287</v>
+        <v>2708284</v>
       </c>
       <c r="C190" t="s">
         <v>63</v>
@@ -37355,61 +37358,61 @@
         <v>64</v>
       </c>
       <c r="E190" s="2">
-        <v>44962.66666666666</v>
+        <v>44962.4375</v>
       </c>
       <c r="F190">
         <v>24</v>
       </c>
       <c r="G190" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H190" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I190">
         <v>0</v>
       </c>
       <c r="J190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M190">
         <v>1</v>
       </c>
       <c r="N190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O190" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="P190" t="s">
-        <v>282</v>
+        <v>93</v>
       </c>
       <c r="Q190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R190">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S190">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T190">
-        <v>2.95</v>
+        <v>4.5</v>
       </c>
       <c r="U190">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V190">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="W190">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X190">
         <v>2.4</v>
@@ -37427,109 +37430,109 @@
         <v>1.04</v>
       </c>
       <c r="AC190">
-        <v>2.35</v>
+        <v>3.59</v>
       </c>
       <c r="AD190">
-        <v>2.87</v>
+        <v>3.01</v>
       </c>
       <c r="AE190">
-        <v>2.9</v>
+        <v>1.96</v>
       </c>
       <c r="AF190">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AG190">
         <v>6</v>
       </c>
       <c r="AH190">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="AI190">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AJ190">
-        <v>2.4</v>
+        <v>2.19</v>
       </c>
       <c r="AK190">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AL190">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AM190">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AN190">
-        <v>1.25</v>
+        <v>1.68</v>
       </c>
       <c r="AO190">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AP190">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AQ190">
-        <v>2.18</v>
+        <v>0.64</v>
       </c>
       <c r="AR190">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="AS190">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AT190">
-        <v>1.92</v>
+        <v>1.58</v>
       </c>
       <c r="AU190">
-        <v>1.87</v>
+        <v>1.31</v>
       </c>
       <c r="AV190">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="AW190">
-        <v>3.56</v>
+        <v>3.02</v>
       </c>
       <c r="AX190">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="AY190">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ190">
-        <v>2.1</v>
+        <v>1.64</v>
       </c>
       <c r="BA190">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="BB190">
         <v>1.8</v>
       </c>
       <c r="BC190">
-        <v>2.21</v>
+        <v>2.32</v>
       </c>
       <c r="BD190">
-        <v>2.93</v>
+        <v>3.08</v>
       </c>
       <c r="BE190">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="BF190">
         <v>6</v>
       </c>
       <c r="BG190">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BH190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI190">
+        <v>7</v>
+      </c>
+      <c r="BJ190">
         <v>9</v>
       </c>
-      <c r="BJ190">
-        <v>8</v>
-      </c>
       <c r="BK190">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:63">
@@ -37537,7 +37540,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>2708281</v>
+        <v>2708287</v>
       </c>
       <c r="C191" t="s">
         <v>63</v>
@@ -37546,46 +37549,46 @@
         <v>64</v>
       </c>
       <c r="E191" s="2">
-        <v>44963.5</v>
+        <v>44962.66666666666</v>
       </c>
       <c r="F191">
         <v>24</v>
       </c>
       <c r="G191" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H191" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I191">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J191">
         <v>0</v>
       </c>
       <c r="K191">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L191">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N191">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O191" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="P191" t="s">
-        <v>88</v>
+        <v>283</v>
       </c>
       <c r="Q191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R191">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S191">
         <v>8</v>
@@ -37600,16 +37603,16 @@
         <v>3.75</v>
       </c>
       <c r="W191">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X191">
         <v>2.4</v>
       </c>
       <c r="Y191">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="Z191">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AA191">
         <v>9.1</v>
@@ -37618,31 +37621,31 @@
         <v>1.04</v>
       </c>
       <c r="AC191">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AD191">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="AE191">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="AF191">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AG191">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH191">
         <v>1.42</v>
       </c>
       <c r="AI191">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="AJ191">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AK191">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AL191">
         <v>1.95</v>
@@ -37651,76 +37654,76 @@
         <v>1.8</v>
       </c>
       <c r="AN191">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AO191">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AP191">
         <v>1.6</v>
       </c>
       <c r="AQ191">
-        <v>1.27</v>
+        <v>2.18</v>
       </c>
       <c r="AR191">
-        <v>1.09</v>
+        <v>1.73</v>
       </c>
       <c r="AS191">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AT191">
-        <v>1</v>
+        <v>1.92</v>
       </c>
       <c r="AU191">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="AV191">
-        <v>1.18</v>
+        <v>1.69</v>
       </c>
       <c r="AW191">
-        <v>2.71</v>
+        <v>3.56</v>
       </c>
       <c r="AX191">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AY191">
+        <v>7.5</v>
+      </c>
+      <c r="AZ191">
+        <v>2.1</v>
+      </c>
+      <c r="BA191">
+        <v>1.39</v>
+      </c>
+      <c r="BB191">
+        <v>1.8</v>
+      </c>
+      <c r="BC191">
+        <v>2.21</v>
+      </c>
+      <c r="BD191">
+        <v>2.93</v>
+      </c>
+      <c r="BE191">
+        <v>5</v>
+      </c>
+      <c r="BF191">
+        <v>6</v>
+      </c>
+      <c r="BG191">
+        <v>6</v>
+      </c>
+      <c r="BH191">
+        <v>2</v>
+      </c>
+      <c r="BI191">
+        <v>9</v>
+      </c>
+      <c r="BJ191">
         <v>8</v>
       </c>
-      <c r="AZ191">
-        <v>2.63</v>
-      </c>
-      <c r="BA191">
-        <v>1.37</v>
-      </c>
-      <c r="BB191">
-        <v>1.69</v>
-      </c>
-      <c r="BC191">
-        <v>2.16</v>
-      </c>
-      <c r="BD191">
-        <v>2.88</v>
-      </c>
-      <c r="BE191">
-        <v>4.1</v>
-      </c>
-      <c r="BF191">
-        <v>8</v>
-      </c>
-      <c r="BG191">
-        <v>7</v>
-      </c>
-      <c r="BH191">
-        <v>3</v>
-      </c>
-      <c r="BI191">
-        <v>11</v>
-      </c>
-      <c r="BJ191">
-        <v>11</v>
-      </c>
       <c r="BK191">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:63">
@@ -37728,7 +37731,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>2708285</v>
+        <v>2708281</v>
       </c>
       <c r="C192" t="s">
         <v>63</v>
@@ -37737,85 +37740,85 @@
         <v>64</v>
       </c>
       <c r="E192" s="2">
-        <v>44963.625</v>
+        <v>44963.5</v>
       </c>
       <c r="F192">
         <v>24</v>
       </c>
       <c r="G192" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H192" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J192">
         <v>0</v>
       </c>
       <c r="K192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L192">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N192">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O192" t="s">
         <v>204</v>
       </c>
       <c r="P192" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="Q192">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R192">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S192">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T192">
-        <v>3.51</v>
+        <v>2.95</v>
       </c>
       <c r="U192">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="V192">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W192">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X192">
         <v>2.4</v>
       </c>
       <c r="Y192">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="Z192">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AA192">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="AB192">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AC192">
-        <v>2.45</v>
+        <v>2.31</v>
       </c>
       <c r="AD192">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="AE192">
-        <v>2.6</v>
+        <v>2.85</v>
       </c>
       <c r="AF192">
         <v>1.08</v>
@@ -37827,13 +37830,13 @@
         <v>1.42</v>
       </c>
       <c r="AI192">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="AJ192">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AK192">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AL192">
         <v>1.95</v>
@@ -37842,76 +37845,76 @@
         <v>1.8</v>
       </c>
       <c r="AN192">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AO192">
         <v>1.28</v>
       </c>
       <c r="AP192">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AQ192">
-        <v>2.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR192">
-        <v>1.36</v>
+        <v>1.09</v>
       </c>
       <c r="AS192">
-        <v>2.42</v>
+        <v>1.42</v>
       </c>
       <c r="AT192">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU192">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="AV192">
-        <v>1.59</v>
+        <v>1.18</v>
       </c>
       <c r="AW192">
-        <v>3.5</v>
+        <v>2.71</v>
       </c>
       <c r="AX192">
-        <v>2.05</v>
+        <v>1.69</v>
       </c>
       <c r="AY192">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AZ192">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="BA192">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="BB192">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="BC192">
-        <v>2.39</v>
+        <v>2.16</v>
       </c>
       <c r="BD192">
-        <v>3.28</v>
+        <v>2.88</v>
       </c>
       <c r="BE192">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="BF192">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG192">
+        <v>7</v>
+      </c>
+      <c r="BH192">
         <v>3</v>
       </c>
-      <c r="BH192">
-        <v>12</v>
-      </c>
       <c r="BI192">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BJ192">
+        <v>11</v>
+      </c>
+      <c r="BK192">
         <v>18</v>
-      </c>
-      <c r="BK192">
-        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:63">
@@ -37919,7 +37922,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>2708293</v>
+        <v>2708285</v>
       </c>
       <c r="C193" t="s">
         <v>63</v>
@@ -37928,181 +37931,181 @@
         <v>64</v>
       </c>
       <c r="E193" s="2">
-        <v>44967.5</v>
+        <v>44963.625</v>
       </c>
       <c r="F193">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G193" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H193" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K193">
+        <v>2</v>
+      </c>
+      <c r="L193">
+        <v>2</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
         <v>3</v>
-      </c>
-      <c r="L193">
-        <v>2</v>
-      </c>
-      <c r="M193">
-        <v>2</v>
-      </c>
-      <c r="N193">
-        <v>4</v>
       </c>
       <c r="O193" t="s">
         <v>205</v>
       </c>
       <c r="P193" t="s">
-        <v>283</v>
+        <v>150</v>
       </c>
       <c r="Q193">
+        <v>6</v>
+      </c>
+      <c r="R193">
+        <v>3</v>
+      </c>
+      <c r="S193">
         <v>9</v>
       </c>
-      <c r="R193">
-        <v>1</v>
-      </c>
-      <c r="S193">
-        <v>10</v>
-      </c>
       <c r="T193">
-        <v>2.7</v>
+        <v>3.51</v>
       </c>
       <c r="U193">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="V193">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="W193">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="X193">
-        <v>2.31</v>
+        <v>2.4</v>
       </c>
       <c r="Y193">
-        <v>3.64</v>
+        <v>3.28</v>
       </c>
       <c r="Z193">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AA193">
-        <v>10.5</v>
+        <v>8.9</v>
       </c>
       <c r="AB193">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AC193">
-        <v>1.99</v>
+        <v>2.45</v>
       </c>
       <c r="AD193">
         <v>3.05</v>
       </c>
       <c r="AE193">
-        <v>3.45</v>
+        <v>2.6</v>
       </c>
       <c r="AF193">
         <v>1.08</v>
       </c>
       <c r="AG193">
-        <v>6.35</v>
+        <v>6.5</v>
       </c>
       <c r="AH193">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AI193">
-        <v>2.37</v>
+        <v>2.7</v>
       </c>
       <c r="AJ193">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="AK193">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="AL193">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AM193">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="AN193">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AO193">
         <v>1.28</v>
       </c>
       <c r="AP193">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="AQ193">
-        <v>1.42</v>
+        <v>2.36</v>
       </c>
       <c r="AR193">
-        <v>0.67</v>
+        <v>1.36</v>
       </c>
       <c r="AS193">
-        <v>1.38</v>
+        <v>2.42</v>
       </c>
       <c r="AT193">
-        <v>0.6899999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AU193">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="AV193">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="AW193">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AX193">
-        <v>1.69</v>
+        <v>2.05</v>
       </c>
       <c r="AY193">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="AZ193">
-        <v>2.66</v>
+        <v>2.2</v>
       </c>
       <c r="BA193">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="BB193">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="BC193">
-        <v>2.46</v>
+        <v>2.39</v>
       </c>
       <c r="BD193">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="BE193">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="BF193">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BG193">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH193">
+        <v>12</v>
+      </c>
+      <c r="BI193">
+        <v>8</v>
+      </c>
+      <c r="BJ193">
+        <v>18</v>
+      </c>
+      <c r="BK193">
         <v>11</v>
-      </c>
-      <c r="BI193">
-        <v>3</v>
-      </c>
-      <c r="BJ193">
-        <v>21</v>
-      </c>
-      <c r="BK193">
-        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:63">
@@ -38110,7 +38113,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>2708295</v>
+        <v>2708293</v>
       </c>
       <c r="C194" t="s">
         <v>63</v>
@@ -38119,181 +38122,181 @@
         <v>64</v>
       </c>
       <c r="E194" s="2">
-        <v>44967.625</v>
+        <v>44967.5</v>
       </c>
       <c r="F194">
         <v>25</v>
       </c>
       <c r="G194" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H194" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K194">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M194">
         <v>2</v>
       </c>
       <c r="N194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O194" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="P194" t="s">
         <v>284</v>
       </c>
       <c r="Q194">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R194">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S194">
         <v>10</v>
       </c>
       <c r="T194">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="U194">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V194">
         <v>4.5</v>
       </c>
       <c r="W194">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="X194">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="Y194">
-        <v>3.22</v>
+        <v>3.64</v>
       </c>
       <c r="Z194">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AA194">
-        <v>8.699999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AB194">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AC194">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="AD194">
         <v>3.05</v>
       </c>
       <c r="AE194">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="AF194">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AG194">
-        <v>7.4</v>
+        <v>6.35</v>
       </c>
       <c r="AH194">
+        <v>1.44</v>
+      </c>
+      <c r="AI194">
+        <v>2.37</v>
+      </c>
+      <c r="AJ194">
+        <v>2.45</v>
+      </c>
+      <c r="AK194">
+        <v>1.52</v>
+      </c>
+      <c r="AL194">
+        <v>2.2</v>
+      </c>
+      <c r="AM194">
+        <v>1.63</v>
+      </c>
+      <c r="AN194">
+        <v>1.18</v>
+      </c>
+      <c r="AO194">
+        <v>1.28</v>
+      </c>
+      <c r="AP194">
+        <v>1.72</v>
+      </c>
+      <c r="AQ194">
         <v>1.42</v>
       </c>
-      <c r="AI194">
-        <v>2.75</v>
-      </c>
-      <c r="AJ194">
-        <v>2.3</v>
-      </c>
-      <c r="AK194">
-        <v>1.53</v>
-      </c>
-      <c r="AL194">
-        <v>2.05</v>
-      </c>
-      <c r="AM194">
-        <v>1.72</v>
-      </c>
-      <c r="AN194">
-        <v>1.17</v>
-      </c>
-      <c r="AO194">
+      <c r="AR194">
+        <v>0.67</v>
+      </c>
+      <c r="AS194">
+        <v>1.38</v>
+      </c>
+      <c r="AT194">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU194">
+        <v>1.85</v>
+      </c>
+      <c r="AV194">
         <v>1.25</v>
       </c>
-      <c r="AP194">
-        <v>1.87</v>
-      </c>
-      <c r="AQ194">
-        <v>2.5</v>
-      </c>
-      <c r="AR194">
-        <v>0.91</v>
-      </c>
-      <c r="AS194">
-        <v>2.31</v>
-      </c>
-      <c r="AT194">
-        <v>1.08</v>
-      </c>
-      <c r="AU194">
-        <v>1.95</v>
-      </c>
-      <c r="AV194">
-        <v>1.46</v>
-      </c>
       <c r="AW194">
-        <v>3.41</v>
+        <v>3.1</v>
       </c>
       <c r="AX194">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AY194">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ194">
-        <v>2.9</v>
+        <v>2.66</v>
       </c>
       <c r="BA194">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="BB194">
-        <v>1.64</v>
+        <v>1.98</v>
       </c>
       <c r="BC194">
-        <v>2.09</v>
+        <v>2.46</v>
       </c>
       <c r="BD194">
-        <v>2.75</v>
+        <v>3.42</v>
       </c>
       <c r="BE194">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="BF194">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BG194">
         <v>4</v>
       </c>
       <c r="BH194">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BI194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ194">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="BK194">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195" spans="1:63">
@@ -38301,7 +38304,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>2708290</v>
+        <v>2708295</v>
       </c>
       <c r="C195" t="s">
         <v>63</v>
@@ -38310,181 +38313,181 @@
         <v>64</v>
       </c>
       <c r="E195" s="2">
-        <v>44968.39583333334</v>
+        <v>44967.625</v>
       </c>
       <c r="F195">
         <v>25</v>
       </c>
       <c r="G195" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H195" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>2</v>
+      </c>
+      <c r="N195">
         <v>3</v>
       </c>
-      <c r="J195">
-        <v>1</v>
-      </c>
-      <c r="K195">
-        <v>4</v>
-      </c>
-      <c r="L195">
-        <v>3</v>
-      </c>
-      <c r="M195">
-        <v>1</v>
-      </c>
-      <c r="N195">
-        <v>4</v>
-      </c>
       <c r="O195" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="P195" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="Q195">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R195">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S195">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T195">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="U195">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V195">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="W195">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X195">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y195">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="Z195">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AA195">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AB195">
         <v>1.05</v>
       </c>
       <c r="AC195">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AD195">
-        <v>4.33</v>
+        <v>3.05</v>
       </c>
       <c r="AE195">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="AF195">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG195">
         <v>7.4</v>
       </c>
       <c r="AH195">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="AI195">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="AJ195">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AK195">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AL195">
+        <v>2.05</v>
+      </c>
+      <c r="AM195">
+        <v>1.72</v>
+      </c>
+      <c r="AN195">
+        <v>1.17</v>
+      </c>
+      <c r="AO195">
+        <v>1.25</v>
+      </c>
+      <c r="AP195">
         <v>1.87</v>
       </c>
-      <c r="AM195">
-        <v>1.87</v>
-      </c>
-      <c r="AN195">
-        <v>1.33</v>
-      </c>
-      <c r="AO195">
-        <v>1.3</v>
-      </c>
-      <c r="AP195">
-        <v>1.52</v>
-      </c>
       <c r="AQ195">
-        <v>1.08</v>
+        <v>2.5</v>
       </c>
       <c r="AR195">
-        <v>1.08</v>
+        <v>0.83</v>
       </c>
       <c r="AS195">
-        <v>1.23</v>
+        <v>2.31</v>
       </c>
       <c r="AT195">
         <v>1</v>
       </c>
       <c r="AU195">
-        <v>1.71</v>
+        <v>1.95</v>
       </c>
       <c r="AV195">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="AW195">
-        <v>2.93</v>
+        <v>3.41</v>
       </c>
       <c r="AX195">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AY195">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ195">
-        <v>2.64</v>
+        <v>2.9</v>
       </c>
       <c r="BA195">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="BB195">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="BC195">
-        <v>2.36</v>
+        <v>2.09</v>
       </c>
       <c r="BD195">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="BE195">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="BF195">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG195">
         <v>4</v>
       </c>
       <c r="BH195">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI195">
+        <v>2</v>
+      </c>
+      <c r="BJ195">
+        <v>11</v>
+      </c>
+      <c r="BK195">
         <v>6</v>
-      </c>
-      <c r="BJ195">
-        <v>7</v>
-      </c>
-      <c r="BK195">
-        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:63">
@@ -38492,7 +38495,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>2708294</v>
+        <v>2708290</v>
       </c>
       <c r="C196" t="s">
         <v>63</v>
@@ -38501,139 +38504,139 @@
         <v>64</v>
       </c>
       <c r="E196" s="2">
-        <v>44968.625</v>
+        <v>44968.39583333334</v>
       </c>
       <c r="F196">
         <v>25</v>
       </c>
       <c r="G196" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H196" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K196">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N196">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O196" t="s">
         <v>207</v>
       </c>
       <c r="P196" t="s">
-        <v>88</v>
+        <v>249</v>
       </c>
       <c r="Q196">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R196">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S196">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T196">
+        <v>3.1</v>
+      </c>
+      <c r="U196">
+        <v>1.95</v>
+      </c>
+      <c r="V196">
         <v>3.5</v>
       </c>
-      <c r="U196">
-        <v>1.93</v>
-      </c>
-      <c r="V196">
-        <v>3.45</v>
-      </c>
       <c r="W196">
+        <v>1.48</v>
+      </c>
+      <c r="X196">
+        <v>2.5</v>
+      </c>
+      <c r="Y196">
+        <v>3.28</v>
+      </c>
+      <c r="Z196">
+        <v>1.31</v>
+      </c>
+      <c r="AA196">
+        <v>8.9</v>
+      </c>
+      <c r="AB196">
+        <v>1.05</v>
+      </c>
+      <c r="AC196">
+        <v>1.5</v>
+      </c>
+      <c r="AD196">
+        <v>4.33</v>
+      </c>
+      <c r="AE196">
+        <v>4.7</v>
+      </c>
+      <c r="AF196">
+        <v>1.05</v>
+      </c>
+      <c r="AG196">
+        <v>7.4</v>
+      </c>
+      <c r="AH196">
         <v>1.49</v>
       </c>
-      <c r="X196">
-        <v>2.43</v>
-      </c>
-      <c r="Y196">
-        <v>3.65</v>
-      </c>
-      <c r="Z196">
-        <v>1.24</v>
-      </c>
-      <c r="AA196">
-        <v>11</v>
-      </c>
-      <c r="AB196">
-        <v>1.03</v>
-      </c>
-      <c r="AC196">
-        <v>2.68</v>
-      </c>
-      <c r="AD196">
-        <v>3.1</v>
-      </c>
-      <c r="AE196">
-        <v>2.48</v>
-      </c>
-      <c r="AF196">
-        <v>1.09</v>
-      </c>
-      <c r="AG196">
-        <v>7</v>
-      </c>
-      <c r="AH196">
-        <v>1.48</v>
-      </c>
       <c r="AI196">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AJ196">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="AK196">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AL196">
-        <v>2.07</v>
+        <v>1.87</v>
       </c>
       <c r="AM196">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="AN196">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AO196">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AP196">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="AQ196">
-        <v>2.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR196">
-        <v>2.17</v>
+        <v>1.08</v>
       </c>
       <c r="AS196">
-        <v>2.23</v>
+        <v>1.23</v>
       </c>
       <c r="AT196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU196">
-        <v>1.93</v>
+        <v>1.71</v>
       </c>
       <c r="AV196">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="AW196">
-        <v>3.39</v>
+        <v>2.93</v>
       </c>
       <c r="AX196">
         <v>1.69</v>
@@ -38645,37 +38648,37 @@
         <v>2.64</v>
       </c>
       <c r="BA196">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="BB196">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="BC196">
-        <v>2.55</v>
+        <v>2.36</v>
       </c>
       <c r="BD196">
-        <v>3.48</v>
+        <v>3.2</v>
       </c>
       <c r="BE196">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="BF196">
+        <v>5</v>
+      </c>
+      <c r="BG196">
         <v>4</v>
       </c>
-      <c r="BG196">
-        <v>6</v>
-      </c>
       <c r="BH196">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BI196">
         <v>6</v>
       </c>
       <c r="BJ196">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BK196">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:63">
@@ -38683,7 +38686,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>2708292</v>
+        <v>2708294</v>
       </c>
       <c r="C197" t="s">
         <v>63</v>
@@ -38692,16 +38695,16 @@
         <v>64</v>
       </c>
       <c r="E197" s="2">
-        <v>44969.5</v>
+        <v>44968.625</v>
       </c>
       <c r="F197">
         <v>25</v>
       </c>
       <c r="G197" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H197" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -38713,160 +38716,160 @@
         <v>0</v>
       </c>
       <c r="L197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M197">
         <v>0</v>
       </c>
       <c r="N197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O197" t="s">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="P197" t="s">
         <v>88</v>
       </c>
       <c r="Q197">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R197">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S197">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T197">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="U197">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V197">
-        <v>2.5</v>
+        <v>3.45</v>
       </c>
       <c r="W197">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="X197">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="Y197">
-        <v>3.34</v>
+        <v>3.65</v>
       </c>
       <c r="Z197">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AA197">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AB197">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AC197">
-        <v>4.38</v>
+        <v>2.68</v>
       </c>
       <c r="AD197">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AE197">
-        <v>1.82</v>
+        <v>2.48</v>
       </c>
       <c r="AF197">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AG197">
         <v>7</v>
       </c>
       <c r="AH197">
+        <v>1.48</v>
+      </c>
+      <c r="AI197">
+        <v>2.7</v>
+      </c>
+      <c r="AJ197">
+        <v>2.55</v>
+      </c>
+      <c r="AK197">
         <v>1.5</v>
       </c>
-      <c r="AI197">
-        <v>2.45</v>
-      </c>
-      <c r="AJ197">
-        <v>2.36</v>
-      </c>
-      <c r="AK197">
-        <v>1.52</v>
-      </c>
       <c r="AL197">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="AM197">
         <v>1.72</v>
       </c>
       <c r="AN197">
-        <v>1.8</v>
+        <v>1.46</v>
       </c>
       <c r="AO197">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AP197">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="AQ197">
-        <v>1.25</v>
+        <v>2.17</v>
       </c>
       <c r="AR197">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="AS197">
-        <v>1.23</v>
+        <v>2.23</v>
       </c>
       <c r="AT197">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="AU197">
+        <v>1.93</v>
+      </c>
+      <c r="AV197">
+        <v>1.46</v>
+      </c>
+      <c r="AW197">
+        <v>3.39</v>
+      </c>
+      <c r="AX197">
+        <v>1.69</v>
+      </c>
+      <c r="AY197">
+        <v>7.5</v>
+      </c>
+      <c r="AZ197">
+        <v>2.64</v>
+      </c>
+      <c r="BA197">
         <v>1.5</v>
       </c>
-      <c r="AV197">
-        <v>1.53</v>
-      </c>
-      <c r="AW197">
-        <v>3.03</v>
-      </c>
-      <c r="AX197">
-        <v>2.24</v>
-      </c>
-      <c r="AY197">
-        <v>9.1</v>
-      </c>
-      <c r="AZ197">
-        <v>1.86</v>
-      </c>
-      <c r="BA197">
-        <v>1.46</v>
-      </c>
       <c r="BB197">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="BC197">
-        <v>2.41</v>
+        <v>2.55</v>
       </c>
       <c r="BD197">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="BE197">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="BF197">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH197">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BI197">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ197">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BK197">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198" spans="1:63">
@@ -38874,7 +38877,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>2708296</v>
+        <v>2708292</v>
       </c>
       <c r="C198" t="s">
         <v>63</v>
@@ -38883,118 +38886,118 @@
         <v>64</v>
       </c>
       <c r="E198" s="2">
-        <v>44969.625</v>
+        <v>44969.5</v>
       </c>
       <c r="F198">
         <v>25</v>
       </c>
       <c r="G198" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H198" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I198">
         <v>0</v>
       </c>
       <c r="J198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N198">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O198" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>285</v>
+        <v>88</v>
       </c>
       <c r="Q198">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R198">
         <v>4</v>
       </c>
       <c r="S198">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T198">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="U198">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V198">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="W198">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="X198">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="Y198">
-        <v>3.16</v>
+        <v>3.34</v>
       </c>
       <c r="Z198">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA198">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB198">
+        <v>1.04</v>
+      </c>
+      <c r="AC198">
+        <v>4.38</v>
+      </c>
+      <c r="AD198">
+        <v>3.15</v>
+      </c>
+      <c r="AE198">
+        <v>1.82</v>
+      </c>
+      <c r="AF198">
         <v>1.05</v>
       </c>
-      <c r="AC198">
-        <v>3.44</v>
-      </c>
-      <c r="AD198">
-        <v>3.34</v>
-      </c>
-      <c r="AE198">
-        <v>2.15</v>
-      </c>
-      <c r="AF198">
-        <v>1.04</v>
-      </c>
       <c r="AG198">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AH198">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AI198">
-        <v>2.95</v>
+        <v>2.45</v>
       </c>
       <c r="AJ198">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="AK198">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="AL198">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="AM198">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AN198">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="AO198">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AP198">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ198">
         <v>1.25</v>
@@ -39003,61 +39006,61 @@
         <v>1.83</v>
       </c>
       <c r="AS198">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="AT198">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU198">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AV198">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="AW198">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="AX198">
-        <v>2.63</v>
+        <v>2.24</v>
       </c>
       <c r="AY198">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="AZ198">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="BA198">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="BB198">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="BC198">
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="BD198">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="BE198">
+        <v>4.5</v>
+      </c>
+      <c r="BF198">
+        <v>2</v>
+      </c>
+      <c r="BG198">
         <v>5</v>
       </c>
-      <c r="BF198">
-        <v>2</v>
-      </c>
-      <c r="BG198">
-        <v>3</v>
-      </c>
       <c r="BH198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI198">
         <v>8</v>
       </c>
       <c r="BJ198">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BK198">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:63">
@@ -39065,7 +39068,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>2708291</v>
+        <v>2708296</v>
       </c>
       <c r="C199" t="s">
         <v>63</v>
@@ -39074,181 +39077,181 @@
         <v>64</v>
       </c>
       <c r="E199" s="2">
-        <v>44970.5</v>
+        <v>44969.625</v>
       </c>
       <c r="F199">
         <v>25</v>
       </c>
       <c r="G199" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H199" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199">
+        <v>2</v>
+      </c>
+      <c r="N199">
         <v>3</v>
       </c>
-      <c r="L199">
-        <v>2</v>
-      </c>
-      <c r="M199">
-        <v>2</v>
-      </c>
-      <c r="N199">
-        <v>4</v>
-      </c>
       <c r="O199" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="P199" t="s">
         <v>286</v>
       </c>
       <c r="Q199">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R199">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S199">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="U199">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V199">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="W199">
         <v>1.46</v>
       </c>
       <c r="X199">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Y199">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="Z199">
+        <v>1.33</v>
+      </c>
+      <c r="AA199">
+        <v>8.4</v>
+      </c>
+      <c r="AB199">
+        <v>1.05</v>
+      </c>
+      <c r="AC199">
+        <v>3.44</v>
+      </c>
+      <c r="AD199">
+        <v>3.34</v>
+      </c>
+      <c r="AE199">
+        <v>2.15</v>
+      </c>
+      <c r="AF199">
+        <v>1.04</v>
+      </c>
+      <c r="AG199">
+        <v>7.6</v>
+      </c>
+      <c r="AH199">
+        <v>1.36</v>
+      </c>
+      <c r="AI199">
+        <v>2.95</v>
+      </c>
+      <c r="AJ199">
+        <v>2.18</v>
+      </c>
+      <c r="AK199">
+        <v>1.68</v>
+      </c>
+      <c r="AL199">
+        <v>1.9</v>
+      </c>
+      <c r="AM199">
+        <v>1.83</v>
+      </c>
+      <c r="AN199">
+        <v>1.72</v>
+      </c>
+      <c r="AO199">
+        <v>1.25</v>
+      </c>
+      <c r="AP199">
+        <v>1.2</v>
+      </c>
+      <c r="AQ199">
+        <v>1.25</v>
+      </c>
+      <c r="AR199">
+        <v>1.83</v>
+      </c>
+      <c r="AS199">
+        <v>1.15</v>
+      </c>
+      <c r="AT199">
+        <v>1.92</v>
+      </c>
+      <c r="AU199">
         <v>1.31</v>
       </c>
-      <c r="AA199">
-        <v>8.75</v>
-      </c>
-      <c r="AB199">
-        <v>1.06</v>
-      </c>
-      <c r="AC199">
-        <v>1.75</v>
-      </c>
-      <c r="AD199">
-        <v>3.5</v>
-      </c>
-      <c r="AE199">
-        <v>4.75</v>
-      </c>
-      <c r="AF199">
-        <v>1.07</v>
-      </c>
-      <c r="AG199">
-        <v>8</v>
-      </c>
-      <c r="AH199">
-        <v>1.5</v>
-      </c>
-      <c r="AI199">
-        <v>2.41</v>
-      </c>
-      <c r="AJ199">
-        <v>2.15</v>
-      </c>
-      <c r="AK199">
-        <v>1.57</v>
-      </c>
-      <c r="AL199">
-        <v>2.15</v>
-      </c>
-      <c r="AM199">
-        <v>1.61</v>
-      </c>
-      <c r="AN199">
-        <v>1.16</v>
-      </c>
-      <c r="AO199">
-        <v>1.26</v>
-      </c>
-      <c r="AP199">
-        <v>2.15</v>
-      </c>
-      <c r="AQ199">
-        <v>1.27</v>
-      </c>
-      <c r="AR199">
-        <v>1.17</v>
-      </c>
-      <c r="AS199">
-        <v>1.25</v>
-      </c>
-      <c r="AT199">
-        <v>1.15</v>
-      </c>
-      <c r="AU199">
-        <v>1.82</v>
-      </c>
       <c r="AV199">
-        <v>1.47</v>
+        <v>1.71</v>
       </c>
       <c r="AW199">
-        <v>3.29</v>
+        <v>3.02</v>
       </c>
       <c r="AX199">
-        <v>1.45</v>
+        <v>2.63</v>
       </c>
       <c r="AY199">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AZ199">
-        <v>3.22</v>
+        <v>1.67</v>
       </c>
       <c r="BA199">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="BB199">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="BC199">
-        <v>2.49</v>
+        <v>2.46</v>
       </c>
       <c r="BD199">
         <v>3.42</v>
       </c>
       <c r="BE199">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="BF199">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BG199">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH199">
         <v>3</v>
       </c>
       <c r="BI199">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ199">
+        <v>5</v>
+      </c>
+      <c r="BK199">
         <v>11</v>
-      </c>
-      <c r="BK199">
-        <v>12</v>
       </c>
     </row>
     <row r="200" spans="1:63">
@@ -39256,7 +39259,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>2708289</v>
+        <v>2708291</v>
       </c>
       <c r="C200" t="s">
         <v>63</v>
@@ -39265,180 +39268,371 @@
         <v>64</v>
       </c>
       <c r="E200" s="2">
-        <v>44970.625</v>
+        <v>44970.5</v>
       </c>
       <c r="F200">
         <v>25</v>
       </c>
       <c r="G200" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H200" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L200">
         <v>2</v>
       </c>
       <c r="M200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N200">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O200" t="s">
         <v>209</v>
       </c>
       <c r="P200" t="s">
-        <v>88</v>
+        <v>287</v>
       </c>
       <c r="Q200">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R200">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S200">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T200">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="V200">
+        <v>5.25</v>
+      </c>
+      <c r="W200">
+        <v>1.46</v>
+      </c>
+      <c r="X200">
+        <v>2.5</v>
+      </c>
+      <c r="Y200">
+        <v>3.2</v>
+      </c>
+      <c r="Z200">
+        <v>1.31</v>
+      </c>
+      <c r="AA200">
+        <v>8.75</v>
+      </c>
+      <c r="AB200">
+        <v>1.06</v>
+      </c>
+      <c r="AC200">
+        <v>1.75</v>
+      </c>
+      <c r="AD200">
         <v>3.5</v>
       </c>
-      <c r="W200">
-        <v>1.55</v>
-      </c>
-      <c r="X200">
-        <v>2.3</v>
-      </c>
-      <c r="Y200">
-        <v>3.4</v>
-      </c>
-      <c r="Z200">
-        <v>1.29</v>
-      </c>
-      <c r="AA200">
-        <v>9.5</v>
-      </c>
-      <c r="AB200">
-        <v>1.04</v>
-      </c>
-      <c r="AC200">
-        <v>2.42</v>
-      </c>
-      <c r="AD200">
-        <v>2.97</v>
-      </c>
       <c r="AE200">
-        <v>3.13</v>
+        <v>4.75</v>
       </c>
       <c r="AF200">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AG200">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH200">
         <v>1.5</v>
       </c>
       <c r="AI200">
-        <v>2.45</v>
+        <v>2.41</v>
       </c>
       <c r="AJ200">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="AK200">
+        <v>1.57</v>
+      </c>
+      <c r="AL200">
+        <v>2.15</v>
+      </c>
+      <c r="AM200">
+        <v>1.61</v>
+      </c>
+      <c r="AN200">
+        <v>1.16</v>
+      </c>
+      <c r="AO200">
+        <v>1.26</v>
+      </c>
+      <c r="AP200">
+        <v>2.15</v>
+      </c>
+      <c r="AQ200">
+        <v>1.42</v>
+      </c>
+      <c r="AR200">
+        <v>1.17</v>
+      </c>
+      <c r="AS200">
+        <v>1.38</v>
+      </c>
+      <c r="AT200">
+        <v>1.15</v>
+      </c>
+      <c r="AU200">
+        <v>1.82</v>
+      </c>
+      <c r="AV200">
         <v>1.47</v>
       </c>
-      <c r="AL200">
-        <v>2</v>
-      </c>
-      <c r="AM200">
-        <v>1.73</v>
-      </c>
-      <c r="AN200">
-        <v>1.43</v>
-      </c>
-      <c r="AO200">
-        <v>1.36</v>
-      </c>
-      <c r="AP200">
-        <v>1.44</v>
-      </c>
-      <c r="AQ200">
-        <v>1.5</v>
-      </c>
-      <c r="AR200">
-        <v>1.42</v>
-      </c>
-      <c r="AS200">
-        <v>1.62</v>
-      </c>
-      <c r="AT200">
-        <v>1.31</v>
-      </c>
-      <c r="AU200">
-        <v>1.35</v>
-      </c>
-      <c r="AV200">
-        <v>1.2</v>
-      </c>
       <c r="AW200">
-        <v>2.55</v>
+        <v>3.29</v>
       </c>
       <c r="AX200">
-        <v>2.04</v>
+        <v>1.45</v>
       </c>
       <c r="AY200">
-        <v>7.1</v>
+        <v>11.5</v>
       </c>
       <c r="AZ200">
-        <v>2.16</v>
+        <v>3.22</v>
       </c>
       <c r="BA200">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="BB200">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="BC200">
-        <v>2.46</v>
+        <v>2.49</v>
       </c>
       <c r="BD200">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="BE200">
         <v>5.2</v>
       </c>
       <c r="BF200">
+        <v>8</v>
+      </c>
+      <c r="BG200">
+        <v>5</v>
+      </c>
+      <c r="BH200">
         <v>3</v>
       </c>
-      <c r="BG200">
+      <c r="BI200">
+        <v>7</v>
+      </c>
+      <c r="BJ200">
+        <v>11</v>
+      </c>
+      <c r="BK200">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:63">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>2708289</v>
+      </c>
+      <c r="C201" t="s">
+        <v>63</v>
+      </c>
+      <c r="D201" t="s">
+        <v>64</v>
+      </c>
+      <c r="E201" s="2">
+        <v>44970.625</v>
+      </c>
+      <c r="F201">
+        <v>25</v>
+      </c>
+      <c r="G201" t="s">
+        <v>72</v>
+      </c>
+      <c r="H201" t="s">
+        <v>65</v>
+      </c>
+      <c r="I201">
+        <v>2</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>2</v>
+      </c>
+      <c r="L201">
+        <v>2</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>2</v>
+      </c>
+      <c r="O201" t="s">
+        <v>210</v>
+      </c>
+      <c r="P201" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q201">
+        <v>5</v>
+      </c>
+      <c r="R201">
+        <v>5</v>
+      </c>
+      <c r="S201">
+        <v>10</v>
+      </c>
+      <c r="T201">
+        <v>3.4</v>
+      </c>
+      <c r="U201">
+        <v>1.91</v>
+      </c>
+      <c r="V201">
+        <v>3.5</v>
+      </c>
+      <c r="W201">
+        <v>1.55</v>
+      </c>
+      <c r="X201">
+        <v>2.3</v>
+      </c>
+      <c r="Y201">
+        <v>3.4</v>
+      </c>
+      <c r="Z201">
+        <v>1.29</v>
+      </c>
+      <c r="AA201">
+        <v>9.5</v>
+      </c>
+      <c r="AB201">
+        <v>1.04</v>
+      </c>
+      <c r="AC201">
+        <v>2.42</v>
+      </c>
+      <c r="AD201">
+        <v>2.97</v>
+      </c>
+      <c r="AE201">
+        <v>3.13</v>
+      </c>
+      <c r="AF201">
+        <v>1.09</v>
+      </c>
+      <c r="AG201">
         <v>6</v>
       </c>
-      <c r="BH200">
+      <c r="AH201">
+        <v>1.5</v>
+      </c>
+      <c r="AI201">
+        <v>2.45</v>
+      </c>
+      <c r="AJ201">
+        <v>2.5</v>
+      </c>
+      <c r="AK201">
+        <v>1.47</v>
+      </c>
+      <c r="AL201">
+        <v>2</v>
+      </c>
+      <c r="AM201">
+        <v>1.73</v>
+      </c>
+      <c r="AN201">
+        <v>1.43</v>
+      </c>
+      <c r="AO201">
+        <v>1.36</v>
+      </c>
+      <c r="AP201">
+        <v>1.44</v>
+      </c>
+      <c r="AQ201">
+        <v>1.5</v>
+      </c>
+      <c r="AR201">
+        <v>1.42</v>
+      </c>
+      <c r="AS201">
+        <v>1.62</v>
+      </c>
+      <c r="AT201">
+        <v>1.31</v>
+      </c>
+      <c r="AU201">
+        <v>1.35</v>
+      </c>
+      <c r="AV201">
+        <v>1.2</v>
+      </c>
+      <c r="AW201">
+        <v>2.55</v>
+      </c>
+      <c r="AX201">
+        <v>2.04</v>
+      </c>
+      <c r="AY201">
+        <v>7.1</v>
+      </c>
+      <c r="AZ201">
+        <v>2.16</v>
+      </c>
+      <c r="BA201">
+        <v>1.48</v>
+      </c>
+      <c r="BB201">
+        <v>1.87</v>
+      </c>
+      <c r="BC201">
+        <v>2.46</v>
+      </c>
+      <c r="BD201">
+        <v>3.34</v>
+      </c>
+      <c r="BE201">
+        <v>5.2</v>
+      </c>
+      <c r="BF201">
+        <v>3</v>
+      </c>
+      <c r="BG201">
+        <v>6</v>
+      </c>
+      <c r="BH201">
         <v>5</v>
       </c>
-      <c r="BI200">
+      <c r="BI201">
         <v>6</v>
       </c>
-      <c r="BJ200">
+      <c r="BJ201">
         <v>8</v>
       </c>
-      <c r="BK200">
+      <c r="BK201">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -649,6 +649,9 @@
     <t>['15', '45']</t>
   </si>
   <si>
+    <t>['64', '90+5']</t>
+  </si>
+  <si>
     <t>['73', '87']</t>
   </si>
   <si>
@@ -878,6 +881,9 @@
   </si>
   <si>
     <t>['20', '44']</t>
+  </si>
+  <si>
+    <t>['44', '51']</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK201"/>
+  <dimension ref="A1:BK203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1674,7 +1680,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2146,7 +2152,7 @@
         <v>2</v>
       </c>
       <c r="AT5">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2438,7 +2444,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2528,7 +2534,7 @@
         <v>1.83</v>
       </c>
       <c r="AT7">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2629,7 +2635,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2820,7 +2826,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3098,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT10">
         <v>1.77</v>
@@ -3584,7 +3590,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3775,7 +3781,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4157,7 +4163,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4244,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT16">
         <v>1.31</v>
@@ -4539,7 +4545,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -4629,7 +4635,7 @@
         <v>1.23</v>
       </c>
       <c r="AT18">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU18">
         <v>1.63</v>
@@ -5112,7 +5118,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5303,7 +5309,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5584,7 +5590,7 @@
         <v>2.23</v>
       </c>
       <c r="AT23">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU23">
         <v>1.65</v>
@@ -5685,7 +5691,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5876,7 +5882,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6258,7 +6264,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6345,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT27">
         <v>1.92</v>
@@ -6449,7 +6455,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6831,7 +6837,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6918,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT30">
         <v>2</v>
@@ -7022,7 +7028,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -7213,7 +7219,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7595,7 +7601,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7876,7 +7882,7 @@
         <v>1.23</v>
       </c>
       <c r="AT35">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU35">
         <v>1.29</v>
@@ -8067,7 +8073,7 @@
         <v>1.62</v>
       </c>
       <c r="AT36">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU36">
         <v>1.22</v>
@@ -8359,7 +8365,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8550,7 +8556,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q39">
         <v>12</v>
@@ -9210,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT42">
         <v>0.83</v>
@@ -9314,7 +9320,7 @@
         <v>88</v>
       </c>
       <c r="P43" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q43">
         <v>12</v>
@@ -9887,7 +9893,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10168,7 +10174,7 @@
         <v>1.15</v>
       </c>
       <c r="AT47">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU47">
         <v>1.24</v>
@@ -10651,7 +10657,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10741,7 +10747,7 @@
         <v>1.38</v>
       </c>
       <c r="AT50">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU50">
         <v>1.75</v>
@@ -11033,7 +11039,7 @@
         <v>114</v>
       </c>
       <c r="P52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11224,7 +11230,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11606,7 +11612,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11693,7 +11699,7 @@
         <v>0.25</v>
       </c>
       <c r="AS55">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT55">
         <v>0.58</v>
@@ -12078,7 +12084,7 @@
         <v>2.31</v>
       </c>
       <c r="AT57">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU57">
         <v>1.42</v>
@@ -12179,7 +12185,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12266,7 +12272,7 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT58">
         <v>1</v>
@@ -13325,7 +13331,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13797,7 +13803,7 @@
         <v>1.15</v>
       </c>
       <c r="AT66">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU66">
         <v>1.11</v>
@@ -14089,7 +14095,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14280,7 +14286,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14471,7 +14477,7 @@
         <v>100</v>
       </c>
       <c r="P70" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14662,7 +14668,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14749,7 +14755,7 @@
         <v>1.2</v>
       </c>
       <c r="AS71">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT71">
         <v>1.58</v>
@@ -15134,7 +15140,7 @@
         <v>1.42</v>
       </c>
       <c r="AT73">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU73">
         <v>1.75</v>
@@ -15704,10 +15710,10 @@
         <v>0.4</v>
       </c>
       <c r="AS76">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT76">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU76">
         <v>1.22</v>
@@ -15808,7 +15814,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16190,7 +16196,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16381,7 +16387,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17145,7 +17151,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17718,7 +17724,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17805,7 +17811,7 @@
         <v>0.83</v>
       </c>
       <c r="AS87">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT87">
         <v>1</v>
@@ -18100,7 +18106,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18482,7 +18488,7 @@
         <v>144</v>
       </c>
       <c r="P91" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18673,7 +18679,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18763,7 +18769,7 @@
         <v>1.42</v>
       </c>
       <c r="AT92">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU92">
         <v>1.64</v>
@@ -18951,10 +18957,10 @@
         <v>1.5</v>
       </c>
       <c r="AS93">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT93">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU93">
         <v>1.71</v>
@@ -19628,7 +19634,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19819,7 +19825,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20010,7 +20016,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20201,7 +20207,7 @@
         <v>88</v>
       </c>
       <c r="P100" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20392,7 +20398,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q101">
         <v>12</v>
@@ -20774,7 +20780,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20864,7 +20870,7 @@
         <v>1.42</v>
       </c>
       <c r="AT103">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU103">
         <v>1.38</v>
@@ -21246,7 +21252,7 @@
         <v>2.42</v>
       </c>
       <c r="AT105">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU105">
         <v>1.82</v>
@@ -21347,7 +21353,7 @@
         <v>152</v>
       </c>
       <c r="P106" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21625,7 +21631,7 @@
         <v>0.57</v>
       </c>
       <c r="AS107">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT107">
         <v>0.6899999999999999</v>
@@ -22111,7 +22117,7 @@
         <v>100</v>
       </c>
       <c r="P110" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22302,7 +22308,7 @@
         <v>88</v>
       </c>
       <c r="P111" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22771,7 +22777,7 @@
         <v>1.14</v>
       </c>
       <c r="AS113">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT113">
         <v>1</v>
@@ -22875,7 +22881,7 @@
         <v>157</v>
       </c>
       <c r="P114" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23066,7 +23072,7 @@
         <v>116</v>
       </c>
       <c r="P115" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23639,7 +23645,7 @@
         <v>159</v>
       </c>
       <c r="P118" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23726,7 +23732,7 @@
         <v>1.13</v>
       </c>
       <c r="AS118">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT118">
         <v>1</v>
@@ -23830,7 +23836,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24212,7 +24218,7 @@
         <v>88</v>
       </c>
       <c r="P121" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24594,7 +24600,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24785,7 +24791,7 @@
         <v>88</v>
       </c>
       <c r="P124" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -24872,7 +24878,7 @@
         <v>1.43</v>
       </c>
       <c r="AS124">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT124">
         <v>1.31</v>
@@ -25167,7 +25173,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25549,7 +25555,7 @@
         <v>88</v>
       </c>
       <c r="P128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25740,7 +25746,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -26021,7 +26027,7 @@
         <v>2.23</v>
       </c>
       <c r="AT130">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU130">
         <v>1.99</v>
@@ -26313,7 +26319,7 @@
         <v>166</v>
       </c>
       <c r="P132" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26403,7 +26409,7 @@
         <v>1.83</v>
       </c>
       <c r="AT132">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU132">
         <v>2.22</v>
@@ -26886,7 +26892,7 @@
         <v>141</v>
       </c>
       <c r="P135" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -26973,7 +26979,7 @@
         <v>2.13</v>
       </c>
       <c r="AS135">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT135">
         <v>1.77</v>
@@ -27077,7 +27083,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27268,7 +27274,7 @@
         <v>157</v>
       </c>
       <c r="P137" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27546,7 +27552,7 @@
         <v>1.67</v>
       </c>
       <c r="AS138">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT138">
         <v>2</v>
@@ -27650,7 +27656,7 @@
         <v>88</v>
       </c>
       <c r="P139" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27841,7 +27847,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -28310,7 +28316,7 @@
         <v>1.38</v>
       </c>
       <c r="AS142">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT142">
         <v>1.25</v>
@@ -28414,7 +28420,7 @@
         <v>172</v>
       </c>
       <c r="P143" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28605,7 +28611,7 @@
         <v>173</v>
       </c>
       <c r="P144" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28796,7 +28802,7 @@
         <v>174</v>
       </c>
       <c r="P145" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -29077,7 +29083,7 @@
         <v>1.62</v>
       </c>
       <c r="AT146">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU146">
         <v>1.32</v>
@@ -29369,7 +29375,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -29942,7 +29948,7 @@
         <v>165</v>
       </c>
       <c r="P151" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30032,7 +30038,7 @@
         <v>1.23</v>
       </c>
       <c r="AT151">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU151">
         <v>1.43</v>
@@ -30133,7 +30139,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q152">
         <v>7</v>
@@ -30324,7 +30330,7 @@
         <v>180</v>
       </c>
       <c r="P153" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -31088,7 +31094,7 @@
         <v>88</v>
       </c>
       <c r="P157" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31175,7 +31181,7 @@
         <v>1.44</v>
       </c>
       <c r="AS157">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT157">
         <v>1.92</v>
@@ -31470,7 +31476,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -31557,7 +31563,7 @@
         <v>1.33</v>
       </c>
       <c r="AS159">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT159">
         <v>1.25</v>
@@ -31852,7 +31858,7 @@
         <v>88</v>
       </c>
       <c r="P161" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q161">
         <v>6</v>
@@ -32043,7 +32049,7 @@
         <v>124</v>
       </c>
       <c r="P162" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32234,7 +32240,7 @@
         <v>183</v>
       </c>
       <c r="P163" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -32324,7 +32330,7 @@
         <v>1.38</v>
       </c>
       <c r="AT163">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU163">
         <v>1.87</v>
@@ -32616,7 +32622,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32998,7 +33004,7 @@
         <v>187</v>
       </c>
       <c r="P167" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33088,7 +33094,7 @@
         <v>1.23</v>
       </c>
       <c r="AT167">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU167">
         <v>1.68</v>
@@ -34040,7 +34046,7 @@
         <v>1.2</v>
       </c>
       <c r="AS172">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT172">
         <v>1</v>
@@ -34526,7 +34532,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -34804,7 +34810,7 @@
         <v>0.8</v>
       </c>
       <c r="AS176">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT176">
         <v>0.83</v>
@@ -34908,7 +34914,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35189,7 +35195,7 @@
         <v>1.38</v>
       </c>
       <c r="AT178">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU178">
         <v>1.89</v>
@@ -35481,7 +35487,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -35863,7 +35869,7 @@
         <v>88</v>
       </c>
       <c r="P182" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -36245,7 +36251,7 @@
         <v>198</v>
       </c>
       <c r="P184" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -36436,7 +36442,7 @@
         <v>88</v>
       </c>
       <c r="P185" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q185">
         <v>5</v>
@@ -36627,7 +36633,7 @@
         <v>199</v>
       </c>
       <c r="P186" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -36714,7 +36720,7 @@
         <v>0.64</v>
       </c>
       <c r="AS186">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT186">
         <v>0.58</v>
@@ -36908,7 +36914,7 @@
         <v>1.42</v>
       </c>
       <c r="AT187">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU187">
         <v>1.69</v>
@@ -37478,7 +37484,7 @@
         <v>1.64</v>
       </c>
       <c r="AS190">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT190">
         <v>1.58</v>
@@ -37582,7 +37588,7 @@
         <v>88</v>
       </c>
       <c r="P191" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q191">
         <v>2</v>
@@ -38155,7 +38161,7 @@
         <v>206</v>
       </c>
       <c r="P194" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q194">
         <v>9</v>
@@ -38346,7 +38352,7 @@
         <v>153</v>
       </c>
       <c r="P195" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q195">
         <v>5</v>
@@ -38537,7 +38543,7 @@
         <v>207</v>
       </c>
       <c r="P196" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -39110,7 +39116,7 @@
         <v>171</v>
       </c>
       <c r="P199" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -39301,7 +39307,7 @@
         <v>209</v>
       </c>
       <c r="P200" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q200">
         <v>6</v>
@@ -39634,6 +39640,388 @@
       </c>
       <c r="BK201">
         <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:63">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>2708300</v>
+      </c>
+      <c r="C202" t="s">
+        <v>63</v>
+      </c>
+      <c r="D202" t="s">
+        <v>64</v>
+      </c>
+      <c r="E202" s="2">
+        <v>44974.5</v>
+      </c>
+      <c r="F202">
+        <v>26</v>
+      </c>
+      <c r="G202" t="s">
+        <v>79</v>
+      </c>
+      <c r="H202" t="s">
+        <v>77</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>2</v>
+      </c>
+      <c r="M202">
+        <v>2</v>
+      </c>
+      <c r="N202">
+        <v>4</v>
+      </c>
+      <c r="O202" t="s">
+        <v>211</v>
+      </c>
+      <c r="P202" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q202">
+        <v>6</v>
+      </c>
+      <c r="R202">
+        <v>5</v>
+      </c>
+      <c r="S202">
+        <v>11</v>
+      </c>
+      <c r="T202">
+        <v>3.2</v>
+      </c>
+      <c r="U202">
+        <v>1.85</v>
+      </c>
+      <c r="V202">
+        <v>3.75</v>
+      </c>
+      <c r="W202">
+        <v>1.61</v>
+      </c>
+      <c r="X202">
+        <v>2.21</v>
+      </c>
+      <c r="Y202">
+        <v>4.1</v>
+      </c>
+      <c r="Z202">
+        <v>1.2</v>
+      </c>
+      <c r="AA202">
+        <v>13</v>
+      </c>
+      <c r="AB202">
+        <v>1.02</v>
+      </c>
+      <c r="AC202">
+        <v>2.38</v>
+      </c>
+      <c r="AD202">
+        <v>2.86</v>
+      </c>
+      <c r="AE202">
+        <v>2.86</v>
+      </c>
+      <c r="AF202">
+        <v>1.11</v>
+      </c>
+      <c r="AG202">
+        <v>6</v>
+      </c>
+      <c r="AH202">
+        <v>1.57</v>
+      </c>
+      <c r="AI202">
+        <v>2.2</v>
+      </c>
+      <c r="AJ202">
+        <v>2.85</v>
+      </c>
+      <c r="AK202">
+        <v>1.37</v>
+      </c>
+      <c r="AL202">
+        <v>2.25</v>
+      </c>
+      <c r="AM202">
+        <v>1.6</v>
+      </c>
+      <c r="AN202">
+        <v>1.3</v>
+      </c>
+      <c r="AO202">
+        <v>1.3</v>
+      </c>
+      <c r="AP202">
+        <v>1.45</v>
+      </c>
+      <c r="AQ202">
+        <v>1.17</v>
+      </c>
+      <c r="AR202">
+        <v>0.5</v>
+      </c>
+      <c r="AS202">
+        <v>1.15</v>
+      </c>
+      <c r="AT202">
+        <v>0.54</v>
+      </c>
+      <c r="AU202">
+        <v>1.68</v>
+      </c>
+      <c r="AV202">
+        <v>1.32</v>
+      </c>
+      <c r="AW202">
+        <v>3</v>
+      </c>
+      <c r="AX202">
+        <v>1.82</v>
+      </c>
+      <c r="AY202">
+        <v>7.5</v>
+      </c>
+      <c r="AZ202">
+        <v>2.4</v>
+      </c>
+      <c r="BA202">
+        <v>1.59</v>
+      </c>
+      <c r="BB202">
+        <v>1.97</v>
+      </c>
+      <c r="BC202">
+        <v>2.47</v>
+      </c>
+      <c r="BD202">
+        <v>3.64</v>
+      </c>
+      <c r="BE202">
+        <v>5.4</v>
+      </c>
+      <c r="BF202">
+        <v>5</v>
+      </c>
+      <c r="BG202">
+        <v>4</v>
+      </c>
+      <c r="BH202">
+        <v>5</v>
+      </c>
+      <c r="BI202">
+        <v>2</v>
+      </c>
+      <c r="BJ202">
+        <v>10</v>
+      </c>
+      <c r="BK202">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:63">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>2708302</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="2">
+        <v>44974.625</v>
+      </c>
+      <c r="F203">
+        <v>26</v>
+      </c>
+      <c r="G203" t="s">
+        <v>73</v>
+      </c>
+      <c r="H203" t="s">
+        <v>78</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>0</v>
+      </c>
+      <c r="O203" t="s">
+        <v>88</v>
+      </c>
+      <c r="P203" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q203">
+        <v>1</v>
+      </c>
+      <c r="R203">
+        <v>6</v>
+      </c>
+      <c r="S203">
+        <v>7</v>
+      </c>
+      <c r="T203">
+        <v>4.78</v>
+      </c>
+      <c r="U203">
+        <v>1.93</v>
+      </c>
+      <c r="V203">
+        <v>2.87</v>
+      </c>
+      <c r="W203">
+        <v>1.53</v>
+      </c>
+      <c r="X203">
+        <v>2.38</v>
+      </c>
+      <c r="Y203">
+        <v>3.5</v>
+      </c>
+      <c r="Z203">
+        <v>1.25</v>
+      </c>
+      <c r="AA203">
+        <v>9.5</v>
+      </c>
+      <c r="AB203">
+        <v>1.04</v>
+      </c>
+      <c r="AC203">
+        <v>3.8</v>
+      </c>
+      <c r="AD203">
+        <v>3.18</v>
+      </c>
+      <c r="AE203">
+        <v>2.1</v>
+      </c>
+      <c r="AF203">
+        <v>1.08</v>
+      </c>
+      <c r="AG203">
+        <v>6.5</v>
+      </c>
+      <c r="AH203">
+        <v>1.5</v>
+      </c>
+      <c r="AI203">
+        <v>2.4</v>
+      </c>
+      <c r="AJ203">
+        <v>2.44</v>
+      </c>
+      <c r="AK203">
+        <v>1.45</v>
+      </c>
+      <c r="AL203">
+        <v>2.15</v>
+      </c>
+      <c r="AM203">
+        <v>1.65</v>
+      </c>
+      <c r="AN203">
+        <v>1.66</v>
+      </c>
+      <c r="AO203">
+        <v>1.3</v>
+      </c>
+      <c r="AP203">
+        <v>1.2</v>
+      </c>
+      <c r="AQ203">
+        <v>0.67</v>
+      </c>
+      <c r="AR203">
+        <v>1.25</v>
+      </c>
+      <c r="AS203">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT203">
+        <v>1.23</v>
+      </c>
+      <c r="AU203">
+        <v>1.32</v>
+      </c>
+      <c r="AV203">
+        <v>1.36</v>
+      </c>
+      <c r="AW203">
+        <v>2.68</v>
+      </c>
+      <c r="AX203">
+        <v>2.78</v>
+      </c>
+      <c r="AY203">
+        <v>7.5</v>
+      </c>
+      <c r="AZ203">
+        <v>1.64</v>
+      </c>
+      <c r="BA203">
+        <v>1.41</v>
+      </c>
+      <c r="BB203">
+        <v>1.85</v>
+      </c>
+      <c r="BC203">
+        <v>2.2</v>
+      </c>
+      <c r="BD203">
+        <v>3.08</v>
+      </c>
+      <c r="BE203">
+        <v>4.4</v>
+      </c>
+      <c r="BF203">
+        <v>0</v>
+      </c>
+      <c r="BG203">
+        <v>3</v>
+      </c>
+      <c r="BH203">
+        <v>3</v>
+      </c>
+      <c r="BI203">
+        <v>5</v>
+      </c>
+      <c r="BJ203">
+        <v>3</v>
+      </c>
+      <c r="BK203">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="294">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -652,6 +652,18 @@
     <t>['64', '90+5']</t>
   </si>
   <si>
+    <t>['28', '58']</t>
+  </si>
+  <si>
+    <t>['2', '25', '90+4']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['54', '61']</t>
+  </si>
+  <si>
     <t>['73', '87']</t>
   </si>
   <si>
@@ -1245,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK203"/>
+  <dimension ref="A1:BK209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1576,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT2">
         <v>0.6899999999999999</v>
@@ -1680,7 +1692,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1770,7 +1782,7 @@
         <v>2.23</v>
       </c>
       <c r="AT3">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1961,7 +1973,7 @@
         <v>1.23</v>
       </c>
       <c r="AT4">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2149,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT5">
         <v>1.23</v>
@@ -2340,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT6">
         <v>1</v>
@@ -2444,7 +2456,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2531,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT7">
         <v>0.54</v>
@@ -2635,7 +2647,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2722,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT8">
         <v>1.15</v>
@@ -2826,7 +2838,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2916,7 +2928,7 @@
         <v>1.62</v>
       </c>
       <c r="AT9">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3489,7 +3501,7 @@
         <v>1.38</v>
       </c>
       <c r="AT12">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3590,7 +3602,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3677,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT13">
         <v>2</v>
@@ -3781,7 +3793,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3871,7 +3883,7 @@
         <v>1.38</v>
       </c>
       <c r="AT14">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4163,7 +4175,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4444,7 +4456,7 @@
         <v>1.23</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4545,7 +4557,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -4823,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT19">
         <v>1.15</v>
@@ -5017,7 +5029,7 @@
         <v>1.15</v>
       </c>
       <c r="AT20">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU20">
         <v>1.27</v>
@@ -5118,7 +5130,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5205,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT21">
         <v>0.6899999999999999</v>
@@ -5309,7 +5321,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5399,7 +5411,7 @@
         <v>1.62</v>
       </c>
       <c r="AT22">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU22">
         <v>1.32</v>
@@ -5691,7 +5703,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5778,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT24">
         <v>1</v>
@@ -5882,7 +5894,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5969,7 +5981,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -6163,7 +6175,7 @@
         <v>1.38</v>
       </c>
       <c r="AT26">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU26">
         <v>1.8</v>
@@ -6264,7 +6276,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6455,7 +6467,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6545,7 +6557,7 @@
         <v>2.31</v>
       </c>
       <c r="AT28">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU28">
         <v>1.44</v>
@@ -6736,7 +6748,7 @@
         <v>1.38</v>
       </c>
       <c r="AT29">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU29">
         <v>2.09</v>
@@ -6837,7 +6849,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -7028,7 +7040,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -7115,10 +7127,10 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT31">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU31">
         <v>1.66</v>
@@ -7219,7 +7231,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7306,10 +7318,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT32">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU32">
         <v>1.5</v>
@@ -7497,7 +7509,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT33">
         <v>1.77</v>
@@ -7601,7 +7613,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -8365,7 +8377,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8452,7 +8464,7 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT38">
         <v>1</v>
@@ -8556,7 +8568,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q39">
         <v>12</v>
@@ -8643,7 +8655,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT39">
         <v>1.15</v>
@@ -8837,7 +8849,7 @@
         <v>1.15</v>
       </c>
       <c r="AT40">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU40">
         <v>1.45</v>
@@ -9025,7 +9037,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT41">
         <v>1.31</v>
@@ -9219,7 +9231,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT42">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU42">
         <v>1.05</v>
@@ -9320,7 +9332,7 @@
         <v>88</v>
       </c>
       <c r="P43" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q43">
         <v>12</v>
@@ -9407,10 +9419,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT43">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU43">
         <v>1.7</v>
@@ -9601,7 +9613,7 @@
         <v>2.31</v>
       </c>
       <c r="AT44">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU44">
         <v>1.52</v>
@@ -9792,7 +9804,7 @@
         <v>1.38</v>
       </c>
       <c r="AT45">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU45">
         <v>1.57</v>
@@ -9893,7 +9905,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9980,10 +9992,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT46">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU46">
         <v>2.02</v>
@@ -10657,7 +10669,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11039,7 +11051,7 @@
         <v>114</v>
       </c>
       <c r="P52" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11126,7 +11138,7 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT52">
         <v>1.77</v>
@@ -11230,7 +11242,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11317,7 +11329,7 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT53">
         <v>1.31</v>
@@ -11612,7 +11624,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11702,7 +11714,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT55">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU55">
         <v>1.1</v>
@@ -11890,10 +11902,10 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT56">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU56">
         <v>1.87</v>
@@ -12185,7 +12197,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12275,7 +12287,7 @@
         <v>1.15</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU58">
         <v>1.66</v>
@@ -12463,10 +12475,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT59">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU59">
         <v>1.85</v>
@@ -12654,7 +12666,7 @@
         <v>0.5</v>
       </c>
       <c r="AS60">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT60">
         <v>1.92</v>
@@ -12845,10 +12857,10 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT61">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU61">
         <v>1.21</v>
@@ -13036,10 +13048,10 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT62">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU62">
         <v>1.44</v>
@@ -13331,7 +13343,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14095,7 +14107,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14286,7 +14298,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14477,7 +14489,7 @@
         <v>100</v>
       </c>
       <c r="P70" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14564,10 +14576,10 @@
         <v>0.4</v>
       </c>
       <c r="AS70">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT70">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU70">
         <v>1.69</v>
@@ -14668,7 +14680,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14758,7 +14770,7 @@
         <v>1.15</v>
       </c>
       <c r="AT71">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU71">
         <v>1.9</v>
@@ -14946,10 +14958,10 @@
         <v>2.25</v>
       </c>
       <c r="AS72">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU72">
         <v>1.34</v>
@@ -15137,7 +15149,7 @@
         <v>1.8</v>
       </c>
       <c r="AS73">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT73">
         <v>1.23</v>
@@ -15328,10 +15340,10 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT74">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU74">
         <v>1.99</v>
@@ -15519,10 +15531,10 @@
         <v>1.33</v>
       </c>
       <c r="AS75">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT75">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU75">
         <v>1.88</v>
@@ -15814,7 +15826,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15901,10 +15913,10 @@
         <v>0.75</v>
       </c>
       <c r="AS77">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT77">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU77">
         <v>2.06</v>
@@ -16196,7 +16208,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16387,7 +16399,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17151,7 +17163,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17623,7 +17635,7 @@
         <v>2.23</v>
       </c>
       <c r="AT86">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU86">
         <v>1.98</v>
@@ -17724,7 +17736,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -18002,10 +18014,10 @@
         <v>1.8</v>
       </c>
       <c r="AS88">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT88">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU88">
         <v>1.83</v>
@@ -18106,7 +18118,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18193,10 +18205,10 @@
         <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT89">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU89">
         <v>1.42</v>
@@ -18384,10 +18396,10 @@
         <v>0.83</v>
       </c>
       <c r="AS90">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT90">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU90">
         <v>1.95</v>
@@ -18488,7 +18500,7 @@
         <v>144</v>
       </c>
       <c r="P91" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18575,10 +18587,10 @@
         <v>0.8</v>
       </c>
       <c r="AS91">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT91">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU91">
         <v>2.09</v>
@@ -18679,7 +18691,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18766,7 +18778,7 @@
         <v>0.83</v>
       </c>
       <c r="AS92">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT92">
         <v>0.54</v>
@@ -19342,7 +19354,7 @@
         <v>1.23</v>
       </c>
       <c r="AT95">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU95">
         <v>1.61</v>
@@ -19634,7 +19646,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19825,7 +19837,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20016,7 +20028,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20207,7 +20219,7 @@
         <v>88</v>
       </c>
       <c r="P100" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20294,7 +20306,7 @@
         <v>0.33</v>
       </c>
       <c r="AS100">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT100">
         <v>1.15</v>
@@ -20398,7 +20410,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q101">
         <v>12</v>
@@ -20679,7 +20691,7 @@
         <v>1.23</v>
       </c>
       <c r="AT102">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU102">
         <v>1.57</v>
@@ -20780,7 +20792,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20867,7 +20879,7 @@
         <v>1.29</v>
       </c>
       <c r="AS103">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT103">
         <v>1.23</v>
@@ -21058,7 +21070,7 @@
         <v>0.86</v>
       </c>
       <c r="AS104">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT104">
         <v>1</v>
@@ -21249,7 +21261,7 @@
         <v>0.86</v>
       </c>
       <c r="AS105">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT105">
         <v>0.54</v>
@@ -21353,7 +21365,7 @@
         <v>152</v>
       </c>
       <c r="P106" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21443,7 +21455,7 @@
         <v>2.23</v>
       </c>
       <c r="AT106">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU106">
         <v>2.04</v>
@@ -21822,10 +21834,10 @@
         <v>0.71</v>
       </c>
       <c r="AS108">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT108">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU108">
         <v>2.28</v>
@@ -22013,10 +22025,10 @@
         <v>1.71</v>
       </c>
       <c r="AS109">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT109">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU109">
         <v>1.85</v>
@@ -22117,7 +22129,7 @@
         <v>100</v>
       </c>
       <c r="P110" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22308,7 +22320,7 @@
         <v>88</v>
       </c>
       <c r="P111" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22586,7 +22598,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT112">
         <v>1.31</v>
@@ -22881,7 +22893,7 @@
         <v>157</v>
       </c>
       <c r="P114" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22971,7 +22983,7 @@
         <v>1.23</v>
       </c>
       <c r="AT114">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU114">
         <v>1.58</v>
@@ -23072,7 +23084,7 @@
         <v>116</v>
       </c>
       <c r="P115" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23353,7 +23365,7 @@
         <v>1.62</v>
       </c>
       <c r="AT116">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU116">
         <v>1.29</v>
@@ -23645,7 +23657,7 @@
         <v>159</v>
       </c>
       <c r="P118" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23836,7 +23848,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -23923,7 +23935,7 @@
         <v>2</v>
       </c>
       <c r="AS119">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT119">
         <v>1.77</v>
@@ -24117,7 +24129,7 @@
         <v>1.15</v>
       </c>
       <c r="AT120">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU120">
         <v>1.1</v>
@@ -24218,7 +24230,7 @@
         <v>88</v>
       </c>
       <c r="P121" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24308,7 +24320,7 @@
         <v>1.38</v>
       </c>
       <c r="AT121">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU121">
         <v>1.9</v>
@@ -24499,7 +24511,7 @@
         <v>1.23</v>
       </c>
       <c r="AT122">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU122">
         <v>1.52</v>
@@ -24600,7 +24612,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24791,7 +24803,7 @@
         <v>88</v>
       </c>
       <c r="P124" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -25173,7 +25185,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25260,10 +25272,10 @@
         <v>0.86</v>
       </c>
       <c r="AS126">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT126">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU126">
         <v>1.65</v>
@@ -25451,7 +25463,7 @@
         <v>0.5</v>
       </c>
       <c r="AS127">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT127">
         <v>0.6899999999999999</v>
@@ -25555,7 +25567,7 @@
         <v>88</v>
       </c>
       <c r="P128" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25645,7 +25657,7 @@
         <v>1.23</v>
       </c>
       <c r="AT128">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU128">
         <v>1.52</v>
@@ -25746,7 +25758,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25836,7 +25848,7 @@
         <v>1.62</v>
       </c>
       <c r="AT129">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU129">
         <v>1.31</v>
@@ -26215,7 +26227,7 @@
         <v>1</v>
       </c>
       <c r="AS131">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT131">
         <v>1.15</v>
@@ -26319,7 +26331,7 @@
         <v>166</v>
       </c>
       <c r="P132" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26406,7 +26418,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT132">
         <v>1.23</v>
@@ -26597,7 +26609,7 @@
         <v>0.75</v>
       </c>
       <c r="AS133">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT133">
         <v>1</v>
@@ -26791,7 +26803,7 @@
         <v>1.38</v>
       </c>
       <c r="AT134">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU134">
         <v>1.9</v>
@@ -26892,7 +26904,7 @@
         <v>141</v>
       </c>
       <c r="P135" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27083,7 +27095,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27173,7 +27185,7 @@
         <v>2.31</v>
       </c>
       <c r="AT136">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU136">
         <v>2</v>
@@ -27274,7 +27286,7 @@
         <v>157</v>
       </c>
       <c r="P137" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27364,7 +27376,7 @@
         <v>1.23</v>
       </c>
       <c r="AT137">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU137">
         <v>1.66</v>
@@ -27656,7 +27668,7 @@
         <v>88</v>
       </c>
       <c r="P139" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27743,7 +27755,7 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT139">
         <v>1.92</v>
@@ -27847,7 +27859,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -27937,7 +27949,7 @@
         <v>1.38</v>
       </c>
       <c r="AT140">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU140">
         <v>1.69</v>
@@ -28125,7 +28137,7 @@
         <v>1.63</v>
       </c>
       <c r="AS141">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT141">
         <v>1.31</v>
@@ -28319,7 +28331,7 @@
         <v>1.15</v>
       </c>
       <c r="AT142">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU142">
         <v>1.67</v>
@@ -28420,7 +28432,7 @@
         <v>172</v>
       </c>
       <c r="P143" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28507,7 +28519,7 @@
         <v>1.86</v>
       </c>
       <c r="AS143">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT143">
         <v>2</v>
@@ -28611,7 +28623,7 @@
         <v>173</v>
       </c>
       <c r="P144" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28698,7 +28710,7 @@
         <v>1.25</v>
       </c>
       <c r="AS144">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT144">
         <v>1.92</v>
@@ -28802,7 +28814,7 @@
         <v>174</v>
       </c>
       <c r="P145" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -28892,7 +28904,7 @@
         <v>1.23</v>
       </c>
       <c r="AT145">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU145">
         <v>1.75</v>
@@ -29375,7 +29387,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -29653,7 +29665,7 @@
         <v>1.11</v>
       </c>
       <c r="AS149">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT149">
         <v>1</v>
@@ -29844,7 +29856,7 @@
         <v>1.22</v>
       </c>
       <c r="AS150">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT150">
         <v>1.15</v>
@@ -29948,7 +29960,7 @@
         <v>165</v>
       </c>
       <c r="P151" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30139,7 +30151,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q152">
         <v>7</v>
@@ -30226,7 +30238,7 @@
         <v>0.44</v>
       </c>
       <c r="AS152">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT152">
         <v>0.6899999999999999</v>
@@ -30330,7 +30342,7 @@
         <v>180</v>
       </c>
       <c r="P153" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30420,7 +30432,7 @@
         <v>1.38</v>
       </c>
       <c r="AT153">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU153">
         <v>1.92</v>
@@ -30608,7 +30620,7 @@
         <v>2</v>
       </c>
       <c r="AS154">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT154">
         <v>1.77</v>
@@ -30802,7 +30814,7 @@
         <v>1.38</v>
       </c>
       <c r="AT155">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU155">
         <v>1.74</v>
@@ -30990,7 +31002,7 @@
         <v>2</v>
       </c>
       <c r="AS156">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT156">
         <v>2</v>
@@ -31094,7 +31106,7 @@
         <v>88</v>
       </c>
       <c r="P157" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31372,10 +31384,10 @@
         <v>0.89</v>
       </c>
       <c r="AS158">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT158">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU158">
         <v>1.72</v>
@@ -31476,7 +31488,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -31566,7 +31578,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT159">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU159">
         <v>1.31</v>
@@ -31757,7 +31769,7 @@
         <v>2.31</v>
       </c>
       <c r="AT160">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU160">
         <v>1.96</v>
@@ -31858,7 +31870,7 @@
         <v>88</v>
       </c>
       <c r="P161" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q161">
         <v>6</v>
@@ -31945,7 +31957,7 @@
         <v>1.89</v>
       </c>
       <c r="AS161">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT161">
         <v>2</v>
@@ -32049,7 +32061,7 @@
         <v>124</v>
       </c>
       <c r="P162" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32240,7 +32252,7 @@
         <v>183</v>
       </c>
       <c r="P163" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -32622,7 +32634,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33004,7 +33016,7 @@
         <v>187</v>
       </c>
       <c r="P167" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33282,7 +33294,7 @@
         <v>1</v>
       </c>
       <c r="AS168">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT168">
         <v>1</v>
@@ -33473,7 +33485,7 @@
         <v>1.4</v>
       </c>
       <c r="AS169">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT169">
         <v>1.31</v>
@@ -33667,7 +33679,7 @@
         <v>1.38</v>
       </c>
       <c r="AT170">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU170">
         <v>1.79</v>
@@ -33858,7 +33870,7 @@
         <v>2.31</v>
       </c>
       <c r="AT171">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU171">
         <v>1.96</v>
@@ -34049,7 +34061,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT172">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU172">
         <v>1.28</v>
@@ -34237,10 +34249,10 @@
         <v>1.5</v>
       </c>
       <c r="AS173">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT173">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU173">
         <v>1.6</v>
@@ -34428,10 +34440,10 @@
         <v>0.6</v>
       </c>
       <c r="AS174">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT174">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU174">
         <v>1.72</v>
@@ -34532,7 +34544,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -34619,7 +34631,7 @@
         <v>1.6</v>
       </c>
       <c r="AS175">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT175">
         <v>1.92</v>
@@ -34813,7 +34825,7 @@
         <v>1.15</v>
       </c>
       <c r="AT176">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU176">
         <v>1.59</v>
@@ -34914,7 +34926,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35001,7 +35013,7 @@
         <v>2</v>
       </c>
       <c r="AS177">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT177">
         <v>2</v>
@@ -35487,7 +35499,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -35869,7 +35881,7 @@
         <v>88</v>
       </c>
       <c r="P182" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -36251,7 +36263,7 @@
         <v>198</v>
       </c>
       <c r="P184" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -36338,7 +36350,7 @@
         <v>1.73</v>
       </c>
       <c r="AS184">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT184">
         <v>1.77</v>
@@ -36442,7 +36454,7 @@
         <v>88</v>
       </c>
       <c r="P185" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q185">
         <v>5</v>
@@ -36633,7 +36645,7 @@
         <v>199</v>
       </c>
       <c r="P186" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -36723,7 +36735,7 @@
         <v>1.15</v>
       </c>
       <c r="AT186">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU186">
         <v>1.65</v>
@@ -36911,7 +36923,7 @@
         <v>0.55</v>
       </c>
       <c r="AS187">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT187">
         <v>0.54</v>
@@ -37102,10 +37114,10 @@
         <v>0.82</v>
       </c>
       <c r="AS188">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT188">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU188">
         <v>1.35</v>
@@ -37296,7 +37308,7 @@
         <v>2.31</v>
       </c>
       <c r="AT189">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU189">
         <v>1.88</v>
@@ -37487,7 +37499,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT190">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU190">
         <v>1.31</v>
@@ -37588,7 +37600,7 @@
         <v>88</v>
       </c>
       <c r="P191" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q191">
         <v>2</v>
@@ -37675,7 +37687,7 @@
         <v>1.73</v>
       </c>
       <c r="AS191">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT191">
         <v>1.92</v>
@@ -37866,10 +37878,10 @@
         <v>1.09</v>
       </c>
       <c r="AS192">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT192">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU192">
         <v>1.53</v>
@@ -38057,10 +38069,10 @@
         <v>1.36</v>
       </c>
       <c r="AS193">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT193">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU193">
         <v>1.91</v>
@@ -38161,7 +38173,7 @@
         <v>206</v>
       </c>
       <c r="P194" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q194">
         <v>9</v>
@@ -38352,7 +38364,7 @@
         <v>153</v>
       </c>
       <c r="P195" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q195">
         <v>5</v>
@@ -38543,7 +38555,7 @@
         <v>207</v>
       </c>
       <c r="P196" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -39116,7 +39128,7 @@
         <v>171</v>
       </c>
       <c r="P199" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -39307,7 +39319,7 @@
         <v>209</v>
       </c>
       <c r="P200" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q200">
         <v>6</v>
@@ -39689,7 +39701,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q202">
         <v>6</v>
@@ -40022,6 +40034,1152 @@
       </c>
       <c r="BK203">
         <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:63">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>2708298</v>
+      </c>
+      <c r="C204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="2">
+        <v>44975.39583333334</v>
+      </c>
+      <c r="F204">
+        <v>26</v>
+      </c>
+      <c r="G204" t="s">
+        <v>65</v>
+      </c>
+      <c r="H204" t="s">
+        <v>80</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>0</v>
+      </c>
+      <c r="O204" t="s">
+        <v>88</v>
+      </c>
+      <c r="P204" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q204">
+        <v>2</v>
+      </c>
+      <c r="R204">
+        <v>4</v>
+      </c>
+      <c r="S204">
+        <v>6</v>
+      </c>
+      <c r="T204">
+        <v>2.85</v>
+      </c>
+      <c r="U204">
+        <v>1.95</v>
+      </c>
+      <c r="V204">
+        <v>4</v>
+      </c>
+      <c r="W204">
+        <v>1.53</v>
+      </c>
+      <c r="X204">
+        <v>2.37</v>
+      </c>
+      <c r="Y204">
+        <v>3.8</v>
+      </c>
+      <c r="Z204">
+        <v>1.22</v>
+      </c>
+      <c r="AA204">
+        <v>12</v>
+      </c>
+      <c r="AB204">
+        <v>1.03</v>
+      </c>
+      <c r="AC204">
+        <v>2.1</v>
+      </c>
+      <c r="AD204">
+        <v>3.1</v>
+      </c>
+      <c r="AE204">
+        <v>3.7</v>
+      </c>
+      <c r="AF204">
+        <v>1.09</v>
+      </c>
+      <c r="AG204">
+        <v>6.5</v>
+      </c>
+      <c r="AH204">
+        <v>1.52</v>
+      </c>
+      <c r="AI204">
+        <v>2.48</v>
+      </c>
+      <c r="AJ204">
+        <v>2.39</v>
+      </c>
+      <c r="AK204">
+        <v>1.51</v>
+      </c>
+      <c r="AL204">
+        <v>2</v>
+      </c>
+      <c r="AM204">
+        <v>1.75</v>
+      </c>
+      <c r="AN204">
+        <v>1.25</v>
+      </c>
+      <c r="AO204">
+        <v>1.28</v>
+      </c>
+      <c r="AP204">
+        <v>1.65</v>
+      </c>
+      <c r="AQ204">
+        <v>1.42</v>
+      </c>
+      <c r="AR204">
+        <v>0.58</v>
+      </c>
+      <c r="AS204">
+        <v>1.38</v>
+      </c>
+      <c r="AT204">
+        <v>0.62</v>
+      </c>
+      <c r="AU204">
+        <v>1.39</v>
+      </c>
+      <c r="AV204">
+        <v>1.29</v>
+      </c>
+      <c r="AW204">
+        <v>2.68</v>
+      </c>
+      <c r="AX204">
+        <v>1.91</v>
+      </c>
+      <c r="AY204">
+        <v>7</v>
+      </c>
+      <c r="AZ204">
+        <v>2.2</v>
+      </c>
+      <c r="BA204">
+        <v>1.61</v>
+      </c>
+      <c r="BB204">
+        <v>2.01</v>
+      </c>
+      <c r="BC204">
+        <v>2.53</v>
+      </c>
+      <c r="BD204">
+        <v>3.74</v>
+      </c>
+      <c r="BE204">
+        <v>5.7</v>
+      </c>
+      <c r="BF204">
+        <v>3</v>
+      </c>
+      <c r="BG204">
+        <v>5</v>
+      </c>
+      <c r="BH204">
+        <v>3</v>
+      </c>
+      <c r="BI204">
+        <v>5</v>
+      </c>
+      <c r="BJ204">
+        <v>6</v>
+      </c>
+      <c r="BK204">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:63">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>2708297</v>
+      </c>
+      <c r="C205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="2">
+        <v>44975.625</v>
+      </c>
+      <c r="F205">
+        <v>26</v>
+      </c>
+      <c r="G205" t="s">
+        <v>69</v>
+      </c>
+      <c r="H205" t="s">
+        <v>72</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>2</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="O205" t="s">
+        <v>212</v>
+      </c>
+      <c r="P205" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q205">
+        <v>4</v>
+      </c>
+      <c r="R205">
+        <v>3</v>
+      </c>
+      <c r="S205">
+        <v>7</v>
+      </c>
+      <c r="T205">
+        <v>2.2</v>
+      </c>
+      <c r="U205">
+        <v>2.05</v>
+      </c>
+      <c r="V205">
+        <v>5.5</v>
+      </c>
+      <c r="W205">
+        <v>1.48</v>
+      </c>
+      <c r="X205">
+        <v>2.5</v>
+      </c>
+      <c r="Y205">
+        <v>3.35</v>
+      </c>
+      <c r="Z205">
+        <v>1.28</v>
+      </c>
+      <c r="AA205">
+        <v>9.5</v>
+      </c>
+      <c r="AB205">
+        <v>1.05</v>
+      </c>
+      <c r="AC205">
+        <v>1.66</v>
+      </c>
+      <c r="AD205">
+        <v>3.64</v>
+      </c>
+      <c r="AE205">
+        <v>5.65</v>
+      </c>
+      <c r="AF205">
+        <v>1.08</v>
+      </c>
+      <c r="AG205">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH205">
+        <v>1.42</v>
+      </c>
+      <c r="AI205">
+        <v>2.75</v>
+      </c>
+      <c r="AJ205">
+        <v>2.28</v>
+      </c>
+      <c r="AK205">
+        <v>1.61</v>
+      </c>
+      <c r="AL205">
+        <v>2.2</v>
+      </c>
+      <c r="AM205">
+        <v>1.62</v>
+      </c>
+      <c r="AN205">
+        <v>1.1</v>
+      </c>
+      <c r="AO205">
+        <v>1.2</v>
+      </c>
+      <c r="AP205">
+        <v>2.2</v>
+      </c>
+      <c r="AQ205">
+        <v>2.42</v>
+      </c>
+      <c r="AR205">
+        <v>1</v>
+      </c>
+      <c r="AS205">
+        <v>2.46</v>
+      </c>
+      <c r="AT205">
+        <v>0.92</v>
+      </c>
+      <c r="AU205">
+        <v>1.93</v>
+      </c>
+      <c r="AV205">
+        <v>1.27</v>
+      </c>
+      <c r="AW205">
+        <v>3.2</v>
+      </c>
+      <c r="AX205">
+        <v>1.37</v>
+      </c>
+      <c r="AY205">
+        <v>8.5</v>
+      </c>
+      <c r="AZ205">
+        <v>3.84</v>
+      </c>
+      <c r="BA205">
+        <v>1.4</v>
+      </c>
+      <c r="BB205">
+        <v>1.85</v>
+      </c>
+      <c r="BC205">
+        <v>2.06</v>
+      </c>
+      <c r="BD205">
+        <v>2.93</v>
+      </c>
+      <c r="BE205">
+        <v>4.8</v>
+      </c>
+      <c r="BF205">
+        <v>7</v>
+      </c>
+      <c r="BG205">
+        <v>4</v>
+      </c>
+      <c r="BH205">
+        <v>7</v>
+      </c>
+      <c r="BI205">
+        <v>4</v>
+      </c>
+      <c r="BJ205">
+        <v>14</v>
+      </c>
+      <c r="BK205">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:63">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>2708301</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="2">
+        <v>44976.5</v>
+      </c>
+      <c r="F206">
+        <v>26</v>
+      </c>
+      <c r="G206" t="s">
+        <v>68</v>
+      </c>
+      <c r="H206" t="s">
+        <v>67</v>
+      </c>
+      <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>2</v>
+      </c>
+      <c r="L206">
+        <v>3</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+      <c r="N206">
+        <v>4</v>
+      </c>
+      <c r="O206" t="s">
+        <v>213</v>
+      </c>
+      <c r="P206" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q206">
+        <v>6</v>
+      </c>
+      <c r="R206">
+        <v>3</v>
+      </c>
+      <c r="S206">
+        <v>9</v>
+      </c>
+      <c r="T206">
+        <v>1.99</v>
+      </c>
+      <c r="U206">
+        <v>2.14</v>
+      </c>
+      <c r="V206">
+        <v>8.6</v>
+      </c>
+      <c r="W206">
+        <v>1.49</v>
+      </c>
+      <c r="X206">
+        <v>2.52</v>
+      </c>
+      <c r="Y206">
+        <v>3.34</v>
+      </c>
+      <c r="Z206">
+        <v>1.3</v>
+      </c>
+      <c r="AA206">
+        <v>9</v>
+      </c>
+      <c r="AB206">
+        <v>1.05</v>
+      </c>
+      <c r="AC206">
+        <v>1.35</v>
+      </c>
+      <c r="AD206">
+        <v>4.54</v>
+      </c>
+      <c r="AE206">
+        <v>11</v>
+      </c>
+      <c r="AF206">
+        <v>1.1</v>
+      </c>
+      <c r="AG206">
+        <v>6</v>
+      </c>
+      <c r="AH206">
+        <v>1.4</v>
+      </c>
+      <c r="AI206">
+        <v>2.8</v>
+      </c>
+      <c r="AJ206">
+        <v>2.25</v>
+      </c>
+      <c r="AK206">
+        <v>1.53</v>
+      </c>
+      <c r="AL206">
+        <v>2.7</v>
+      </c>
+      <c r="AM206">
+        <v>1.42</v>
+      </c>
+      <c r="AN206">
+        <v>1.01</v>
+      </c>
+      <c r="AO206">
+        <v>1.16</v>
+      </c>
+      <c r="AP206">
+        <v>2.8</v>
+      </c>
+      <c r="AQ206">
+        <v>2</v>
+      </c>
+      <c r="AR206">
+        <v>0.83</v>
+      </c>
+      <c r="AS206">
+        <v>2.08</v>
+      </c>
+      <c r="AT206">
+        <v>0.77</v>
+      </c>
+      <c r="AU206">
+        <v>1.83</v>
+      </c>
+      <c r="AV206">
+        <v>1.03</v>
+      </c>
+      <c r="AW206">
+        <v>2.86</v>
+      </c>
+      <c r="AX206">
+        <v>4.08</v>
+      </c>
+      <c r="AY206">
+        <v>9</v>
+      </c>
+      <c r="AZ206">
+        <v>1.34</v>
+      </c>
+      <c r="BA206">
+        <v>1.5</v>
+      </c>
+      <c r="BB206">
+        <v>1.9</v>
+      </c>
+      <c r="BC206">
+        <v>2.25</v>
+      </c>
+      <c r="BD206">
+        <v>3.2</v>
+      </c>
+      <c r="BE206">
+        <v>5.2</v>
+      </c>
+      <c r="BF206">
+        <v>7</v>
+      </c>
+      <c r="BG206">
+        <v>2</v>
+      </c>
+      <c r="BH206">
+        <v>8</v>
+      </c>
+      <c r="BI206">
+        <v>2</v>
+      </c>
+      <c r="BJ206">
+        <v>15</v>
+      </c>
+      <c r="BK206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>2708303</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2">
+        <v>44976.625</v>
+      </c>
+      <c r="F207">
+        <v>26</v>
+      </c>
+      <c r="G207" t="s">
+        <v>70</v>
+      </c>
+      <c r="H207" t="s">
+        <v>66</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>2</v>
+      </c>
+      <c r="O207" t="s">
+        <v>214</v>
+      </c>
+      <c r="P207" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q207">
+        <v>8</v>
+      </c>
+      <c r="R207">
+        <v>7</v>
+      </c>
+      <c r="S207">
+        <v>15</v>
+      </c>
+      <c r="T207">
+        <v>2.75</v>
+      </c>
+      <c r="U207">
+        <v>2.02</v>
+      </c>
+      <c r="V207">
+        <v>4.3</v>
+      </c>
+      <c r="W207">
+        <v>1.42</v>
+      </c>
+      <c r="X207">
+        <v>2.65</v>
+      </c>
+      <c r="Y207">
+        <v>3.2</v>
+      </c>
+      <c r="Z207">
+        <v>1.3</v>
+      </c>
+      <c r="AA207">
+        <v>9</v>
+      </c>
+      <c r="AB207">
+        <v>1.05</v>
+      </c>
+      <c r="AC207">
+        <v>1.93</v>
+      </c>
+      <c r="AD207">
+        <v>3.05</v>
+      </c>
+      <c r="AE207">
+        <v>3.65</v>
+      </c>
+      <c r="AF207">
+        <v>1.06</v>
+      </c>
+      <c r="AG207">
+        <v>8.5</v>
+      </c>
+      <c r="AH207">
+        <v>1.36</v>
+      </c>
+      <c r="AI207">
+        <v>3.05</v>
+      </c>
+      <c r="AJ207">
+        <v>2.15</v>
+      </c>
+      <c r="AK207">
+        <v>1.57</v>
+      </c>
+      <c r="AL207">
+        <v>1.91</v>
+      </c>
+      <c r="AM207">
+        <v>1.85</v>
+      </c>
+      <c r="AN207">
+        <v>1.26</v>
+      </c>
+      <c r="AO207">
+        <v>1.35</v>
+      </c>
+      <c r="AP207">
+        <v>1.75</v>
+      </c>
+      <c r="AQ207">
+        <v>1.83</v>
+      </c>
+      <c r="AR207">
+        <v>1.25</v>
+      </c>
+      <c r="AS207">
+        <v>1.77</v>
+      </c>
+      <c r="AT207">
+        <v>1.23</v>
+      </c>
+      <c r="AU207">
+        <v>2</v>
+      </c>
+      <c r="AV207">
+        <v>1.57</v>
+      </c>
+      <c r="AW207">
+        <v>3.57</v>
+      </c>
+      <c r="AX207">
+        <v>1.85</v>
+      </c>
+      <c r="AY207">
+        <v>7.5</v>
+      </c>
+      <c r="AZ207">
+        <v>2.33</v>
+      </c>
+      <c r="BA207">
+        <v>1.4</v>
+      </c>
+      <c r="BB207">
+        <v>1.8</v>
+      </c>
+      <c r="BC207">
+        <v>2.14</v>
+      </c>
+      <c r="BD207">
+        <v>2.98</v>
+      </c>
+      <c r="BE207">
+        <v>4.4</v>
+      </c>
+      <c r="BF207">
+        <v>5</v>
+      </c>
+      <c r="BG207">
+        <v>2</v>
+      </c>
+      <c r="BH207">
+        <v>6</v>
+      </c>
+      <c r="BI207">
+        <v>4</v>
+      </c>
+      <c r="BJ207">
+        <v>11</v>
+      </c>
+      <c r="BK207">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>2708299</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2">
+        <v>44977.5</v>
+      </c>
+      <c r="F208">
+        <v>26</v>
+      </c>
+      <c r="G208" t="s">
+        <v>71</v>
+      </c>
+      <c r="H208" t="s">
+        <v>75</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <v>2</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208">
+        <v>2</v>
+      </c>
+      <c r="O208" t="s">
+        <v>132</v>
+      </c>
+      <c r="P208" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q208">
+        <v>3</v>
+      </c>
+      <c r="R208">
+        <v>3</v>
+      </c>
+      <c r="S208">
+        <v>6</v>
+      </c>
+      <c r="T208">
+        <v>4</v>
+      </c>
+      <c r="U208">
+        <v>2</v>
+      </c>
+      <c r="V208">
+        <v>2.7</v>
+      </c>
+      <c r="W208">
+        <v>1.48</v>
+      </c>
+      <c r="X208">
+        <v>2.5</v>
+      </c>
+      <c r="Y208">
+        <v>3.3</v>
+      </c>
+      <c r="Z208">
+        <v>1.29</v>
+      </c>
+      <c r="AA208">
+        <v>9.5</v>
+      </c>
+      <c r="AB208">
+        <v>1.05</v>
+      </c>
+      <c r="AC208">
+        <v>3.2</v>
+      </c>
+      <c r="AD208">
+        <v>3.05</v>
+      </c>
+      <c r="AE208">
+        <v>2.33</v>
+      </c>
+      <c r="AF208">
+        <v>1.08</v>
+      </c>
+      <c r="AG208">
+        <v>8.75</v>
+      </c>
+      <c r="AH208">
+        <v>1.4</v>
+      </c>
+      <c r="AI208">
+        <v>2.8</v>
+      </c>
+      <c r="AJ208">
+        <v>2.33</v>
+      </c>
+      <c r="AK208">
+        <v>1.57</v>
+      </c>
+      <c r="AL208">
+        <v>1.95</v>
+      </c>
+      <c r="AM208">
+        <v>1.8</v>
+      </c>
+      <c r="AN208">
+        <v>1.63</v>
+      </c>
+      <c r="AO208">
+        <v>1.28</v>
+      </c>
+      <c r="AP208">
+        <v>1.22</v>
+      </c>
+      <c r="AQ208">
+        <v>1.42</v>
+      </c>
+      <c r="AR208">
+        <v>1.58</v>
+      </c>
+      <c r="AS208">
+        <v>1.38</v>
+      </c>
+      <c r="AT208">
+        <v>1.54</v>
+      </c>
+      <c r="AU208">
+        <v>1.54</v>
+      </c>
+      <c r="AV208">
+        <v>1.66</v>
+      </c>
+      <c r="AW208">
+        <v>3.2</v>
+      </c>
+      <c r="AX208">
+        <v>2.6</v>
+      </c>
+      <c r="AY208">
+        <v>7.5</v>
+      </c>
+      <c r="AZ208">
+        <v>1.67</v>
+      </c>
+      <c r="BA208">
+        <v>1.36</v>
+      </c>
+      <c r="BB208">
+        <v>1.61</v>
+      </c>
+      <c r="BC208">
+        <v>1.97</v>
+      </c>
+      <c r="BD208">
+        <v>2.5</v>
+      </c>
+      <c r="BE208">
+        <v>3.3</v>
+      </c>
+      <c r="BF208">
+        <v>7</v>
+      </c>
+      <c r="BG208">
+        <v>3</v>
+      </c>
+      <c r="BH208">
+        <v>7</v>
+      </c>
+      <c r="BI208">
+        <v>5</v>
+      </c>
+      <c r="BJ208">
+        <v>14</v>
+      </c>
+      <c r="BK208">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>2708304</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2">
+        <v>44977.625</v>
+      </c>
+      <c r="F209">
+        <v>26</v>
+      </c>
+      <c r="G209" t="s">
+        <v>76</v>
+      </c>
+      <c r="H209" t="s">
+        <v>74</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>2</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209">
+        <v>3</v>
+      </c>
+      <c r="O209" t="s">
+        <v>215</v>
+      </c>
+      <c r="P209" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q209">
+        <v>9</v>
+      </c>
+      <c r="R209">
+        <v>4</v>
+      </c>
+      <c r="S209">
+        <v>13</v>
+      </c>
+      <c r="T209">
+        <v>2.7</v>
+      </c>
+      <c r="U209">
+        <v>1.9</v>
+      </c>
+      <c r="V209">
+        <v>4.5</v>
+      </c>
+      <c r="W209">
+        <v>1.56</v>
+      </c>
+      <c r="X209">
+        <v>2.31</v>
+      </c>
+      <c r="Y209">
+        <v>3.75</v>
+      </c>
+      <c r="Z209">
+        <v>1.23</v>
+      </c>
+      <c r="AA209">
+        <v>11.5</v>
+      </c>
+      <c r="AB209">
+        <v>1.03</v>
+      </c>
+      <c r="AC209">
+        <v>2.25</v>
+      </c>
+      <c r="AD209">
+        <v>3</v>
+      </c>
+      <c r="AE209">
+        <v>3.45</v>
+      </c>
+      <c r="AF209">
+        <v>1.09</v>
+      </c>
+      <c r="AG209">
+        <v>6.5</v>
+      </c>
+      <c r="AH209">
+        <v>1.49</v>
+      </c>
+      <c r="AI209">
+        <v>2.55</v>
+      </c>
+      <c r="AJ209">
+        <v>2.55</v>
+      </c>
+      <c r="AK209">
+        <v>1.49</v>
+      </c>
+      <c r="AL209">
+        <v>2.15</v>
+      </c>
+      <c r="AM209">
+        <v>1.65</v>
+      </c>
+      <c r="AN209">
+        <v>1.2</v>
+      </c>
+      <c r="AO209">
+        <v>1.28</v>
+      </c>
+      <c r="AP209">
+        <v>1.75</v>
+      </c>
+      <c r="AQ209">
+        <v>1.42</v>
+      </c>
+      <c r="AR209">
+        <v>0.92</v>
+      </c>
+      <c r="AS209">
+        <v>1.54</v>
+      </c>
+      <c r="AT209">
+        <v>0.85</v>
+      </c>
+      <c r="AU209">
+        <v>1.73</v>
+      </c>
+      <c r="AV209">
+        <v>1.26</v>
+      </c>
+      <c r="AW209">
+        <v>2.99</v>
+      </c>
+      <c r="AX209">
+        <v>1.75</v>
+      </c>
+      <c r="AY209">
+        <v>7.5</v>
+      </c>
+      <c r="AZ209">
+        <v>2.45</v>
+      </c>
+      <c r="BA209">
+        <v>1.39</v>
+      </c>
+      <c r="BB209">
+        <v>1.72</v>
+      </c>
+      <c r="BC209">
+        <v>2.21</v>
+      </c>
+      <c r="BD209">
+        <v>2.93</v>
+      </c>
+      <c r="BE209">
+        <v>4.4</v>
+      </c>
+      <c r="BF209">
+        <v>6</v>
+      </c>
+      <c r="BG209">
+        <v>2</v>
+      </c>
+      <c r="BH209">
+        <v>2</v>
+      </c>
+      <c r="BI209">
+        <v>4</v>
+      </c>
+      <c r="BJ209">
+        <v>8</v>
+      </c>
+      <c r="BK209">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="296">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -664,6 +664,9 @@
     <t>['54', '61']</t>
   </si>
   <si>
+    <t>['12', '90']</t>
+  </si>
+  <si>
     <t>['73', '87']</t>
   </si>
   <si>
@@ -896,6 +899,9 @@
   </si>
   <si>
     <t>['44', '51']</t>
+  </si>
+  <si>
+    <t>['66']</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK209"/>
+  <dimension ref="A1:BK211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1591,7 +1597,7 @@
         <v>1.38</v>
       </c>
       <c r="AT2">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1692,7 +1698,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2456,7 +2462,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2647,7 +2653,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2838,7 +2844,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3119,7 +3125,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT10">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3602,7 +3608,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3689,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT13">
         <v>2</v>
@@ -3793,7 +3799,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4175,7 +4181,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4453,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT17">
         <v>0.92</v>
@@ -4557,7 +4563,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -5130,7 +5136,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5220,7 +5226,7 @@
         <v>2.08</v>
       </c>
       <c r="AT21">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU21">
         <v>1.66</v>
@@ -5321,7 +5327,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5703,7 +5709,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5894,7 +5900,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6276,7 +6282,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6467,7 +6473,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6849,7 +6855,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -7040,7 +7046,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -7127,7 +7133,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT31">
         <v>1.23</v>
@@ -7231,7 +7237,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7512,7 +7518,7 @@
         <v>1.38</v>
       </c>
       <c r="AT33">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU33">
         <v>1.22</v>
@@ -7613,7 +7619,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7891,7 +7897,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT35">
         <v>0.54</v>
@@ -8276,7 +8282,7 @@
         <v>2.23</v>
       </c>
       <c r="AT37">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU37">
         <v>1.67</v>
@@ -8377,7 +8383,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8568,7 +8574,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q39">
         <v>12</v>
@@ -9332,7 +9338,7 @@
         <v>88</v>
       </c>
       <c r="P43" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q43">
         <v>12</v>
@@ -9419,7 +9425,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT43">
         <v>0.92</v>
@@ -9905,7 +9911,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10374,7 +10380,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT48">
         <v>1</v>
@@ -10568,7 +10574,7 @@
         <v>1.62</v>
       </c>
       <c r="AT49">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU49">
         <v>1.18</v>
@@ -10669,7 +10675,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11051,7 +11057,7 @@
         <v>114</v>
       </c>
       <c r="P52" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11141,7 +11147,7 @@
         <v>2.08</v>
       </c>
       <c r="AT52">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU52">
         <v>1.88</v>
@@ -11242,7 +11248,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11624,7 +11630,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11902,7 +11908,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT56">
         <v>1.54</v>
@@ -12197,7 +12203,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -13242,7 +13248,7 @@
         <v>1.38</v>
       </c>
       <c r="AT63">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU63">
         <v>2.04</v>
@@ -13343,7 +13349,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13621,7 +13627,7 @@
         <v>0.25</v>
       </c>
       <c r="AS65">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT65">
         <v>1.15</v>
@@ -14107,7 +14113,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14298,7 +14304,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14388,7 +14394,7 @@
         <v>2.23</v>
       </c>
       <c r="AT69">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU69">
         <v>1.96</v>
@@ -14489,7 +14495,7 @@
         <v>100</v>
       </c>
       <c r="P70" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14680,7 +14686,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15149,7 +15155,7 @@
         <v>1.8</v>
       </c>
       <c r="AS73">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT73">
         <v>1.23</v>
@@ -15826,7 +15832,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16208,7 +16214,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16298,7 +16304,7 @@
         <v>1.62</v>
       </c>
       <c r="AT79">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU79">
         <v>1.25</v>
@@ -16399,7 +16405,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16486,7 +16492,7 @@
         <v>1.5</v>
       </c>
       <c r="AS80">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT80">
         <v>1.31</v>
@@ -16871,7 +16877,7 @@
         <v>2.31</v>
       </c>
       <c r="AT82">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU82">
         <v>1.4</v>
@@ -17163,7 +17169,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17736,7 +17742,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -18118,7 +18124,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18500,7 +18506,7 @@
         <v>144</v>
       </c>
       <c r="P91" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18691,7 +18697,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -19163,7 +19169,7 @@
         <v>1.15</v>
       </c>
       <c r="AT94">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU94">
         <v>1.06</v>
@@ -19646,7 +19652,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19837,7 +19843,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19927,7 +19933,7 @@
         <v>1.38</v>
       </c>
       <c r="AT98">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU98">
         <v>1.99</v>
@@ -20028,7 +20034,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20219,7 +20225,7 @@
         <v>88</v>
       </c>
       <c r="P100" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20306,7 +20312,7 @@
         <v>0.33</v>
       </c>
       <c r="AS100">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT100">
         <v>1.15</v>
@@ -20410,7 +20416,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q101">
         <v>12</v>
@@ -20497,7 +20503,7 @@
         <v>2</v>
       </c>
       <c r="AS101">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT101">
         <v>2</v>
@@ -20792,7 +20798,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -21365,7 +21371,7 @@
         <v>152</v>
       </c>
       <c r="P106" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21646,7 +21652,7 @@
         <v>1.15</v>
       </c>
       <c r="AT107">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU107">
         <v>1.67</v>
@@ -22129,7 +22135,7 @@
         <v>100</v>
       </c>
       <c r="P110" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22219,7 +22225,7 @@
         <v>2.31</v>
       </c>
       <c r="AT110">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU110">
         <v>1.85</v>
@@ -22320,7 +22326,7 @@
         <v>88</v>
       </c>
       <c r="P111" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22598,7 +22604,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT112">
         <v>1.31</v>
@@ -22893,7 +22899,7 @@
         <v>157</v>
       </c>
       <c r="P114" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22980,7 +22986,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT114">
         <v>1.23</v>
@@ -23084,7 +23090,7 @@
         <v>116</v>
       </c>
       <c r="P115" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23657,7 +23663,7 @@
         <v>159</v>
       </c>
       <c r="P118" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23848,7 +23854,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -23935,10 +23941,10 @@
         <v>2</v>
       </c>
       <c r="AS119">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT119">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU119">
         <v>1.68</v>
@@ -24230,7 +24236,7 @@
         <v>88</v>
       </c>
       <c r="P121" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24508,7 +24514,7 @@
         <v>0.57</v>
       </c>
       <c r="AS122">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT122">
         <v>0.77</v>
@@ -24612,7 +24618,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24803,7 +24809,7 @@
         <v>88</v>
       </c>
       <c r="P124" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -25185,7 +25191,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25466,7 +25472,7 @@
         <v>2.46</v>
       </c>
       <c r="AT127">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU127">
         <v>1.84</v>
@@ -25567,7 +25573,7 @@
         <v>88</v>
       </c>
       <c r="P128" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25758,7 +25764,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -26331,7 +26337,7 @@
         <v>166</v>
       </c>
       <c r="P132" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26904,7 +26910,7 @@
         <v>141</v>
       </c>
       <c r="P135" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -26994,7 +27000,7 @@
         <v>1.15</v>
       </c>
       <c r="AT135">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU135">
         <v>1.63</v>
@@ -27095,7 +27101,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27286,7 +27292,7 @@
         <v>157</v>
       </c>
       <c r="P137" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27373,7 +27379,7 @@
         <v>1.13</v>
       </c>
       <c r="AS137">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT137">
         <v>0.85</v>
@@ -27668,7 +27674,7 @@
         <v>88</v>
       </c>
       <c r="P139" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27755,7 +27761,7 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT139">
         <v>1.92</v>
@@ -27859,7 +27865,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -28432,7 +28438,7 @@
         <v>172</v>
       </c>
       <c r="P143" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28623,7 +28629,7 @@
         <v>173</v>
       </c>
       <c r="P144" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28814,7 +28820,7 @@
         <v>174</v>
       </c>
       <c r="P145" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -28901,7 +28907,7 @@
         <v>1.67</v>
       </c>
       <c r="AS145">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT145">
         <v>1.54</v>
@@ -29387,7 +29393,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -29960,7 +29966,7 @@
         <v>165</v>
       </c>
       <c r="P151" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30151,7 +30157,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q152">
         <v>7</v>
@@ -30241,7 +30247,7 @@
         <v>1.77</v>
       </c>
       <c r="AT152">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU152">
         <v>2.15</v>
@@ -30342,7 +30348,7 @@
         <v>180</v>
       </c>
       <c r="P153" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30623,7 +30629,7 @@
         <v>1.38</v>
       </c>
       <c r="AT154">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU154">
         <v>1.39</v>
@@ -31106,7 +31112,7 @@
         <v>88</v>
       </c>
       <c r="P157" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31384,7 +31390,7 @@
         <v>0.89</v>
       </c>
       <c r="AS158">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT158">
         <v>0.77</v>
@@ -31488,7 +31494,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -31870,7 +31876,7 @@
         <v>88</v>
       </c>
       <c r="P161" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q161">
         <v>6</v>
@@ -32061,7 +32067,7 @@
         <v>124</v>
       </c>
       <c r="P162" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32151,7 +32157,7 @@
         <v>1.15</v>
       </c>
       <c r="AT162">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU162">
         <v>1.23</v>
@@ -32252,7 +32258,7 @@
         <v>183</v>
       </c>
       <c r="P163" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -32634,7 +32640,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32724,7 +32730,7 @@
         <v>1.23</v>
       </c>
       <c r="AT165">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU165">
         <v>1.49</v>
@@ -33016,7 +33022,7 @@
         <v>187</v>
       </c>
       <c r="P167" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33103,7 +33109,7 @@
         <v>1.3</v>
       </c>
       <c r="AS167">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT167">
         <v>1.23</v>
@@ -34440,7 +34446,7 @@
         <v>0.6</v>
       </c>
       <c r="AS174">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT174">
         <v>0.62</v>
@@ -34544,7 +34550,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -34926,7 +34932,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35395,10 +35401,10 @@
         <v>0.45</v>
       </c>
       <c r="AS179">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT179">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU179">
         <v>1.66</v>
@@ -35499,7 +35505,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -35881,7 +35887,7 @@
         <v>88</v>
       </c>
       <c r="P182" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -36263,7 +36269,7 @@
         <v>198</v>
       </c>
       <c r="P184" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -36353,7 +36359,7 @@
         <v>1.77</v>
       </c>
       <c r="AT184">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU184">
         <v>2.06</v>
@@ -36454,7 +36460,7 @@
         <v>88</v>
       </c>
       <c r="P185" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q185">
         <v>5</v>
@@ -36645,7 +36651,7 @@
         <v>199</v>
       </c>
       <c r="P186" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -36923,7 +36929,7 @@
         <v>0.55</v>
       </c>
       <c r="AS187">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT187">
         <v>0.54</v>
@@ -37600,7 +37606,7 @@
         <v>88</v>
       </c>
       <c r="P191" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q191">
         <v>2</v>
@@ -38173,7 +38179,7 @@
         <v>206</v>
       </c>
       <c r="P194" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q194">
         <v>9</v>
@@ -38263,7 +38269,7 @@
         <v>1.38</v>
       </c>
       <c r="AT194">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU194">
         <v>1.85</v>
@@ -38364,7 +38370,7 @@
         <v>153</v>
       </c>
       <c r="P195" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q195">
         <v>5</v>
@@ -38555,7 +38561,7 @@
         <v>207</v>
       </c>
       <c r="P196" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -38642,7 +38648,7 @@
         <v>1.08</v>
       </c>
       <c r="AS196">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT196">
         <v>1</v>
@@ -39027,7 +39033,7 @@
         <v>1.23</v>
       </c>
       <c r="AT198">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU198">
         <v>1.5</v>
@@ -39128,7 +39134,7 @@
         <v>171</v>
       </c>
       <c r="P199" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -39319,7 +39325,7 @@
         <v>209</v>
       </c>
       <c r="P200" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q200">
         <v>6</v>
@@ -39701,7 +39707,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q202">
         <v>6</v>
@@ -41038,7 +41044,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q209">
         <v>9</v>
@@ -41125,7 +41131,7 @@
         <v>0.92</v>
       </c>
       <c r="AS209">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT209">
         <v>0.85</v>
@@ -41179,6 +41185,388 @@
         <v>8</v>
       </c>
       <c r="BK209">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:63">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>2708311</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="2">
+        <v>44981.54166666666</v>
+      </c>
+      <c r="F210">
+        <v>27</v>
+      </c>
+      <c r="G210" t="s">
+        <v>76</v>
+      </c>
+      <c r="H210" t="s">
+        <v>73</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>2</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+      <c r="N210">
+        <v>3</v>
+      </c>
+      <c r="O210" t="s">
+        <v>216</v>
+      </c>
+      <c r="P210" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q210">
+        <v>6</v>
+      </c>
+      <c r="R210">
+        <v>4</v>
+      </c>
+      <c r="S210">
+        <v>10</v>
+      </c>
+      <c r="T210">
+        <v>2.7</v>
+      </c>
+      <c r="U210">
+        <v>1.9</v>
+      </c>
+      <c r="V210">
+        <v>4.5</v>
+      </c>
+      <c r="W210">
+        <v>1.56</v>
+      </c>
+      <c r="X210">
+        <v>2.31</v>
+      </c>
+      <c r="Y210">
+        <v>3.56</v>
+      </c>
+      <c r="Z210">
+        <v>1.27</v>
+      </c>
+      <c r="AA210">
+        <v>9.9</v>
+      </c>
+      <c r="AB210">
+        <v>1.03</v>
+      </c>
+      <c r="AC210">
+        <v>1.91</v>
+      </c>
+      <c r="AD210">
+        <v>3.2</v>
+      </c>
+      <c r="AE210">
+        <v>3.75</v>
+      </c>
+      <c r="AF210">
+        <v>1.09</v>
+      </c>
+      <c r="AG210">
+        <v>6.5</v>
+      </c>
+      <c r="AH210">
+        <v>1.49</v>
+      </c>
+      <c r="AI210">
+        <v>2.44</v>
+      </c>
+      <c r="AJ210">
+        <v>2.45</v>
+      </c>
+      <c r="AK210">
+        <v>1.52</v>
+      </c>
+      <c r="AL210">
+        <v>2.2</v>
+      </c>
+      <c r="AM210">
+        <v>1.63</v>
+      </c>
+      <c r="AN210">
+        <v>1.18</v>
+      </c>
+      <c r="AO210">
+        <v>1.28</v>
+      </c>
+      <c r="AP210">
+        <v>1.72</v>
+      </c>
+      <c r="AQ210">
+        <v>1.54</v>
+      </c>
+      <c r="AR210">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS210">
+        <v>1.64</v>
+      </c>
+      <c r="AT210">
+        <v>0.64</v>
+      </c>
+      <c r="AU210">
+        <v>1.72</v>
+      </c>
+      <c r="AV210">
+        <v>1.23</v>
+      </c>
+      <c r="AW210">
+        <v>2.95</v>
+      </c>
+      <c r="AX210">
+        <v>1.51</v>
+      </c>
+      <c r="AY210">
+        <v>8</v>
+      </c>
+      <c r="AZ210">
+        <v>3.24</v>
+      </c>
+      <c r="BA210">
+        <v>1.45</v>
+      </c>
+      <c r="BB210">
+        <v>1.8</v>
+      </c>
+      <c r="BC210">
+        <v>2.34</v>
+      </c>
+      <c r="BD210">
+        <v>3.18</v>
+      </c>
+      <c r="BE210">
+        <v>4.8</v>
+      </c>
+      <c r="BF210">
+        <v>6</v>
+      </c>
+      <c r="BG210">
+        <v>5</v>
+      </c>
+      <c r="BH210">
+        <v>8</v>
+      </c>
+      <c r="BI210">
+        <v>3</v>
+      </c>
+      <c r="BJ210">
+        <v>14</v>
+      </c>
+      <c r="BK210">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:63">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>2708306</v>
+      </c>
+      <c r="C211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="2">
+        <v>44981.64583333334</v>
+      </c>
+      <c r="F211">
+        <v>27</v>
+      </c>
+      <c r="G211" t="s">
+        <v>80</v>
+      </c>
+      <c r="H211" t="s">
+        <v>69</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>1</v>
+      </c>
+      <c r="O211" t="s">
+        <v>88</v>
+      </c>
+      <c r="P211" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q211">
+        <v>6</v>
+      </c>
+      <c r="R211">
+        <v>3</v>
+      </c>
+      <c r="S211">
+        <v>9</v>
+      </c>
+      <c r="T211">
+        <v>4.2</v>
+      </c>
+      <c r="U211">
+        <v>1.9</v>
+      </c>
+      <c r="V211">
+        <v>2.8</v>
+      </c>
+      <c r="W211">
+        <v>1.56</v>
+      </c>
+      <c r="X211">
+        <v>2.31</v>
+      </c>
+      <c r="Y211">
+        <v>3.65</v>
+      </c>
+      <c r="Z211">
+        <v>1.24</v>
+      </c>
+      <c r="AA211">
+        <v>11</v>
+      </c>
+      <c r="AB211">
+        <v>1.04</v>
+      </c>
+      <c r="AC211">
+        <v>3.15</v>
+      </c>
+      <c r="AD211">
+        <v>3.1</v>
+      </c>
+      <c r="AE211">
+        <v>2.16</v>
+      </c>
+      <c r="AF211">
+        <v>1.1</v>
+      </c>
+      <c r="AG211">
+        <v>6.5</v>
+      </c>
+      <c r="AH211">
+        <v>1.45</v>
+      </c>
+      <c r="AI211">
+        <v>2.65</v>
+      </c>
+      <c r="AJ211">
+        <v>2.45</v>
+      </c>
+      <c r="AK211">
+        <v>1.55</v>
+      </c>
+      <c r="AL211">
+        <v>2</v>
+      </c>
+      <c r="AM211">
+        <v>1.75</v>
+      </c>
+      <c r="AN211">
+        <v>1.6</v>
+      </c>
+      <c r="AO211">
+        <v>1.3</v>
+      </c>
+      <c r="AP211">
+        <v>1.22</v>
+      </c>
+      <c r="AQ211">
+        <v>1.23</v>
+      </c>
+      <c r="AR211">
+        <v>1.77</v>
+      </c>
+      <c r="AS211">
+        <v>1.14</v>
+      </c>
+      <c r="AT211">
+        <v>1.86</v>
+      </c>
+      <c r="AU211">
+        <v>1.69</v>
+      </c>
+      <c r="AV211">
+        <v>1.54</v>
+      </c>
+      <c r="AW211">
+        <v>3.23</v>
+      </c>
+      <c r="AX211">
+        <v>2.25</v>
+      </c>
+      <c r="AY211">
+        <v>7.5</v>
+      </c>
+      <c r="AZ211">
+        <v>1.91</v>
+      </c>
+      <c r="BA211">
+        <v>1.51</v>
+      </c>
+      <c r="BB211">
+        <v>1.98</v>
+      </c>
+      <c r="BC211">
+        <v>2.58</v>
+      </c>
+      <c r="BD211">
+        <v>3.56</v>
+      </c>
+      <c r="BE211">
+        <v>5.3</v>
+      </c>
+      <c r="BF211">
+        <v>3</v>
+      </c>
+      <c r="BG211">
+        <v>3</v>
+      </c>
+      <c r="BH211">
+        <v>8</v>
+      </c>
+      <c r="BI211">
+        <v>3</v>
+      </c>
+      <c r="BJ211">
+        <v>11</v>
+      </c>
+      <c r="BK211">
         <v>6</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="300">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -667,6 +667,15 @@
     <t>['12', '90']</t>
   </si>
   <si>
+    <t>['27', '88']</t>
+  </si>
+  <si>
+    <t>['28', '84']</t>
+  </si>
+  <si>
+    <t>['66', '68']</t>
+  </si>
+  <si>
     <t>['73', '87']</t>
   </si>
   <si>
@@ -902,6 +911,9 @@
   </si>
   <si>
     <t>['66']</t>
+  </si>
+  <si>
+    <t>['77']</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK211"/>
+  <dimension ref="A1:BK214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1698,7 +1710,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2462,7 +2474,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2653,7 +2665,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2743,7 +2755,7 @@
         <v>1.38</v>
       </c>
       <c r="AT8">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2844,7 +2856,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3316,7 +3328,7 @@
         <v>1.15</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3504,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT12">
         <v>0.77</v>
@@ -3608,7 +3620,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3799,7 +3811,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3886,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT14">
         <v>1.23</v>
@@ -4077,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT15">
         <v>1.92</v>
@@ -4181,7 +4193,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4271,7 +4283,7 @@
         <v>1.15</v>
       </c>
       <c r="AT16">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4563,7 +4575,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -4844,7 +4856,7 @@
         <v>2.46</v>
       </c>
       <c r="AT19">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU19">
         <v>1.9</v>
@@ -5136,7 +5148,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5327,7 +5339,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5709,7 +5721,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5900,7 +5912,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5990,7 +6002,7 @@
         <v>1.38</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU25">
         <v>1.65</v>
@@ -6178,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT26">
         <v>0.92</v>
@@ -6282,7 +6294,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6473,7 +6485,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6560,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT28">
         <v>0.77</v>
@@ -6751,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT29">
         <v>0.62</v>
@@ -6855,7 +6867,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -7046,7 +7058,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -7237,7 +7249,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7619,7 +7631,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -8383,7 +8395,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8473,7 +8485,7 @@
         <v>2.08</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU38">
         <v>1.89</v>
@@ -8574,7 +8586,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q39">
         <v>12</v>
@@ -8664,7 +8676,7 @@
         <v>1.77</v>
       </c>
       <c r="AT39">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU39">
         <v>1.91</v>
@@ -9046,7 +9058,7 @@
         <v>2.46</v>
       </c>
       <c r="AT41">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU41">
         <v>1.98</v>
@@ -9338,7 +9350,7 @@
         <v>88</v>
       </c>
       <c r="P43" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q43">
         <v>12</v>
@@ -9616,7 +9628,7 @@
         <v>0.33</v>
       </c>
       <c r="AS44">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT44">
         <v>0.62</v>
@@ -9807,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT45">
         <v>1.54</v>
@@ -9911,7 +9923,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10675,7 +10687,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10762,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT50">
         <v>1.23</v>
@@ -10956,7 +10968,7 @@
         <v>1.23</v>
       </c>
       <c r="AT51">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU51">
         <v>1.62</v>
@@ -11057,7 +11069,7 @@
         <v>114</v>
       </c>
       <c r="P52" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11248,7 +11260,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11338,7 +11350,7 @@
         <v>1.77</v>
       </c>
       <c r="AT53">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU53">
         <v>2.15</v>
@@ -11529,7 +11541,7 @@
         <v>2.23</v>
       </c>
       <c r="AT54">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU54">
         <v>1.81</v>
@@ -11630,7 +11642,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12099,7 +12111,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT57">
         <v>0.54</v>
@@ -12203,7 +12215,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -13245,7 +13257,7 @@
         <v>0.25</v>
       </c>
       <c r="AS63">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT63">
         <v>0.64</v>
@@ -13349,7 +13361,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13436,7 +13448,7 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT64">
         <v>1</v>
@@ -13630,7 +13642,7 @@
         <v>1.14</v>
       </c>
       <c r="AT65">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU65">
         <v>1.5</v>
@@ -14012,7 +14024,7 @@
         <v>1.62</v>
       </c>
       <c r="AT67">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU67">
         <v>1.21</v>
@@ -14113,7 +14125,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14203,7 +14215,7 @@
         <v>1.23</v>
       </c>
       <c r="AT68">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU68">
         <v>1.68</v>
@@ -14304,7 +14316,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14495,7 +14507,7 @@
         <v>100</v>
       </c>
       <c r="P70" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14686,7 +14698,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15832,7 +15844,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16214,7 +16226,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16405,7 +16417,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16495,7 +16507,7 @@
         <v>1.14</v>
       </c>
       <c r="AT80">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU80">
         <v>1.67</v>
@@ -16683,10 +16695,10 @@
         <v>1.4</v>
       </c>
       <c r="AS81">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT81">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU81">
         <v>1.91</v>
@@ -16874,7 +16886,7 @@
         <v>0.8</v>
       </c>
       <c r="AS82">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT82">
         <v>0.64</v>
@@ -17065,10 +17077,10 @@
         <v>0.4</v>
       </c>
       <c r="AS83">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT83">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU83">
         <v>1.76</v>
@@ -17169,7 +17181,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17742,7 +17754,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -18124,7 +18136,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18506,7 +18518,7 @@
         <v>144</v>
       </c>
       <c r="P91" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18697,7 +18709,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -19548,10 +19560,10 @@
         <v>1.8</v>
       </c>
       <c r="AS96">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT96">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU96">
         <v>1.72</v>
@@ -19652,7 +19664,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19739,10 +19751,10 @@
         <v>1.17</v>
       </c>
       <c r="AS97">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT97">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU97">
         <v>1.64</v>
@@ -19843,7 +19855,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19930,7 +19942,7 @@
         <v>2</v>
       </c>
       <c r="AS98">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT98">
         <v>1.86</v>
@@ -20034,7 +20046,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20225,7 +20237,7 @@
         <v>88</v>
       </c>
       <c r="P100" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20315,7 +20327,7 @@
         <v>1.64</v>
       </c>
       <c r="AT100">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU100">
         <v>1.79</v>
@@ -20416,7 +20428,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q101">
         <v>12</v>
@@ -20798,7 +20810,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -21371,7 +21383,7 @@
         <v>152</v>
       </c>
       <c r="P106" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -22135,7 +22147,7 @@
         <v>100</v>
       </c>
       <c r="P110" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22222,7 +22234,7 @@
         <v>2.17</v>
       </c>
       <c r="AS110">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT110">
         <v>1.86</v>
@@ -22326,7 +22338,7 @@
         <v>88</v>
       </c>
       <c r="P111" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22416,7 +22428,7 @@
         <v>1.15</v>
       </c>
       <c r="AT111">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU111">
         <v>1.07</v>
@@ -22607,7 +22619,7 @@
         <v>1.64</v>
       </c>
       <c r="AT112">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU112">
         <v>1.68</v>
@@ -22798,7 +22810,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT113">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU113">
         <v>1.35</v>
@@ -22899,7 +22911,7 @@
         <v>157</v>
       </c>
       <c r="P114" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23090,7 +23102,7 @@
         <v>116</v>
       </c>
       <c r="P115" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23177,7 +23189,7 @@
         <v>1.75</v>
       </c>
       <c r="AS115">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT115">
         <v>2</v>
@@ -23559,7 +23571,7 @@
         <v>0.8</v>
       </c>
       <c r="AS117">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT117">
         <v>1.92</v>
@@ -23663,7 +23675,7 @@
         <v>159</v>
       </c>
       <c r="P118" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23753,7 +23765,7 @@
         <v>1.15</v>
       </c>
       <c r="AT118">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU118">
         <v>1.71</v>
@@ -23854,7 +23866,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24236,7 +24248,7 @@
         <v>88</v>
       </c>
       <c r="P121" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24323,7 +24335,7 @@
         <v>1.17</v>
       </c>
       <c r="AS121">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT121">
         <v>1.23</v>
@@ -24618,7 +24630,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24705,7 +24717,7 @@
         <v>2</v>
       </c>
       <c r="AS123">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT123">
         <v>2</v>
@@ -24809,7 +24821,7 @@
         <v>88</v>
       </c>
       <c r="P124" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -24899,7 +24911,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT124">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU124">
         <v>1.36</v>
@@ -25087,7 +25099,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT125">
         <v>1.92</v>
@@ -25191,7 +25203,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25573,7 +25585,7 @@
         <v>88</v>
       </c>
       <c r="P128" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25764,7 +25776,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -26236,7 +26248,7 @@
         <v>1.38</v>
       </c>
       <c r="AT131">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU131">
         <v>1.38</v>
@@ -26337,7 +26349,7 @@
         <v>166</v>
       </c>
       <c r="P132" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26806,7 +26818,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT134">
         <v>0.92</v>
@@ -26910,7 +26922,7 @@
         <v>141</v>
       </c>
       <c r="P135" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27101,7 +27113,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27188,7 +27200,7 @@
         <v>1.43</v>
       </c>
       <c r="AS136">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT136">
         <v>1.23</v>
@@ -27292,7 +27304,7 @@
         <v>157</v>
       </c>
       <c r="P137" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27674,7 +27686,7 @@
         <v>88</v>
       </c>
       <c r="P139" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27865,7 +27877,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -27952,7 +27964,7 @@
         <v>0.88</v>
       </c>
       <c r="AS140">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT140">
         <v>0.77</v>
@@ -28146,7 +28158,7 @@
         <v>1.38</v>
       </c>
       <c r="AT141">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU141">
         <v>1.68</v>
@@ -28438,7 +28450,7 @@
         <v>172</v>
       </c>
       <c r="P143" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28629,7 +28641,7 @@
         <v>173</v>
       </c>
       <c r="P144" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28820,7 +28832,7 @@
         <v>174</v>
       </c>
       <c r="P145" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -29292,7 +29304,7 @@
         <v>1.15</v>
       </c>
       <c r="AT147">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU147">
         <v>1.18</v>
@@ -29393,7 +29405,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -29674,7 +29686,7 @@
         <v>2.46</v>
       </c>
       <c r="AT149">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU149">
         <v>1.88</v>
@@ -29865,7 +29877,7 @@
         <v>2.08</v>
       </c>
       <c r="AT150">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU150">
         <v>1.88</v>
@@ -29966,7 +29978,7 @@
         <v>165</v>
       </c>
       <c r="P151" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30157,7 +30169,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q152">
         <v>7</v>
@@ -30348,7 +30360,7 @@
         <v>180</v>
       </c>
       <c r="P153" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30435,7 +30447,7 @@
         <v>1.11</v>
       </c>
       <c r="AS153">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT153">
         <v>0.85</v>
@@ -30817,7 +30829,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS155">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT155">
         <v>0.62</v>
@@ -31112,7 +31124,7 @@
         <v>88</v>
       </c>
       <c r="P157" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31494,7 +31506,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -31772,7 +31784,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT160">
         <v>0.92</v>
@@ -31876,7 +31888,7 @@
         <v>88</v>
       </c>
       <c r="P161" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q161">
         <v>6</v>
@@ -32067,7 +32079,7 @@
         <v>124</v>
       </c>
       <c r="P162" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32258,7 +32270,7 @@
         <v>183</v>
       </c>
       <c r="P163" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -32345,7 +32357,7 @@
         <v>0.6</v>
       </c>
       <c r="AS163">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT163">
         <v>0.54</v>
@@ -32539,7 +32551,7 @@
         <v>2.23</v>
       </c>
       <c r="AT164">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU164">
         <v>1.96</v>
@@ -32640,7 +32652,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33022,7 +33034,7 @@
         <v>187</v>
       </c>
       <c r="P167" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33303,7 +33315,7 @@
         <v>1.77</v>
       </c>
       <c r="AT168">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU168">
         <v>2.05</v>
@@ -33494,7 +33506,7 @@
         <v>2.08</v>
       </c>
       <c r="AT169">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU169">
         <v>1.89</v>
@@ -33682,7 +33694,7 @@
         <v>1.1</v>
       </c>
       <c r="AS170">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT170">
         <v>0.85</v>
@@ -33873,7 +33885,7 @@
         <v>1.8</v>
       </c>
       <c r="AS171">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT171">
         <v>1.54</v>
@@ -34550,7 +34562,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -34932,7 +34944,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35210,7 +35222,7 @@
         <v>1.27</v>
       </c>
       <c r="AS178">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT178">
         <v>1.23</v>
@@ -35505,7 +35517,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -35595,7 +35607,7 @@
         <v>1.62</v>
       </c>
       <c r="AT180">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU180">
         <v>1.29</v>
@@ -35786,7 +35798,7 @@
         <v>2.23</v>
       </c>
       <c r="AT181">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU181">
         <v>1.94</v>
@@ -35887,7 +35899,7 @@
         <v>88</v>
       </c>
       <c r="P182" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -35977,7 +35989,7 @@
         <v>1.23</v>
       </c>
       <c r="AT182">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU182">
         <v>1.52</v>
@@ -36165,7 +36177,7 @@
         <v>0.91</v>
       </c>
       <c r="AS183">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT183">
         <v>1</v>
@@ -36269,7 +36281,7 @@
         <v>198</v>
       </c>
       <c r="P184" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -36460,7 +36472,7 @@
         <v>88</v>
       </c>
       <c r="P185" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q185">
         <v>5</v>
@@ -36651,7 +36663,7 @@
         <v>199</v>
       </c>
       <c r="P186" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -37311,7 +37323,7 @@
         <v>1</v>
       </c>
       <c r="AS189">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT189">
         <v>0.85</v>
@@ -37606,7 +37618,7 @@
         <v>88</v>
       </c>
       <c r="P191" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q191">
         <v>2</v>
@@ -38179,7 +38191,7 @@
         <v>206</v>
       </c>
       <c r="P194" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q194">
         <v>9</v>
@@ -38266,7 +38278,7 @@
         <v>0.67</v>
       </c>
       <c r="AS194">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT194">
         <v>0.64</v>
@@ -38370,7 +38382,7 @@
         <v>153</v>
       </c>
       <c r="P195" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q195">
         <v>5</v>
@@ -38457,7 +38469,7 @@
         <v>0.83</v>
       </c>
       <c r="AS195">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT195">
         <v>1</v>
@@ -38561,7 +38573,7 @@
         <v>207</v>
       </c>
       <c r="P196" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -38651,7 +38663,7 @@
         <v>1.14</v>
       </c>
       <c r="AT196">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU196">
         <v>1.71</v>
@@ -39134,7 +39146,7 @@
         <v>171</v>
       </c>
       <c r="P199" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -39325,7 +39337,7 @@
         <v>209</v>
       </c>
       <c r="P200" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q200">
         <v>6</v>
@@ -39412,10 +39424,10 @@
         <v>1.17</v>
       </c>
       <c r="AS200">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT200">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU200">
         <v>1.82</v>
@@ -39606,7 +39618,7 @@
         <v>1.62</v>
       </c>
       <c r="AT201">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU201">
         <v>1.35</v>
@@ -39707,7 +39719,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q202">
         <v>6</v>
@@ -41044,7 +41056,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q209">
         <v>9</v>
@@ -41235,7 +41247,7 @@
         <v>216</v>
       </c>
       <c r="P210" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q210">
         <v>6</v>
@@ -41567,6 +41579,579 @@
         <v>11</v>
       </c>
       <c r="BK211">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>2708307</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>44982.39583333334</v>
+      </c>
+      <c r="F212">
+        <v>27</v>
+      </c>
+      <c r="G212" t="s">
+        <v>75</v>
+      </c>
+      <c r="H212" t="s">
+        <v>65</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="L212">
+        <v>2</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>3</v>
+      </c>
+      <c r="O212" t="s">
+        <v>217</v>
+      </c>
+      <c r="P212" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q212">
+        <v>4</v>
+      </c>
+      <c r="R212">
+        <v>5</v>
+      </c>
+      <c r="S212">
+        <v>9</v>
+      </c>
+      <c r="T212">
+        <v>2.4</v>
+      </c>
+      <c r="U212">
+        <v>2</v>
+      </c>
+      <c r="V212">
+        <v>5</v>
+      </c>
+      <c r="W212">
+        <v>1.48</v>
+      </c>
+      <c r="X212">
+        <v>2.5</v>
+      </c>
+      <c r="Y212">
+        <v>3.2</v>
+      </c>
+      <c r="Z212">
+        <v>1.3</v>
+      </c>
+      <c r="AA212">
+        <v>9</v>
+      </c>
+      <c r="AB212">
+        <v>1.05</v>
+      </c>
+      <c r="AC212">
+        <v>1.65</v>
+      </c>
+      <c r="AD212">
+        <v>3.5</v>
+      </c>
+      <c r="AE212">
+        <v>5.5</v>
+      </c>
+      <c r="AF212">
+        <v>1.08</v>
+      </c>
+      <c r="AG212">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH212">
+        <v>1.38</v>
+      </c>
+      <c r="AI212">
+        <v>2.9</v>
+      </c>
+      <c r="AJ212">
+        <v>2.2</v>
+      </c>
+      <c r="AK212">
+        <v>1.67</v>
+      </c>
+      <c r="AL212">
+        <v>2.05</v>
+      </c>
+      <c r="AM212">
+        <v>1.72</v>
+      </c>
+      <c r="AN212">
+        <v>1.12</v>
+      </c>
+      <c r="AO212">
+        <v>1.25</v>
+      </c>
+      <c r="AP212">
+        <v>2</v>
+      </c>
+      <c r="AQ212">
+        <v>1.38</v>
+      </c>
+      <c r="AR212">
+        <v>1.31</v>
+      </c>
+      <c r="AS212">
+        <v>1.5</v>
+      </c>
+      <c r="AT212">
+        <v>1.21</v>
+      </c>
+      <c r="AU212">
+        <v>1.83</v>
+      </c>
+      <c r="AV212">
+        <v>1.25</v>
+      </c>
+      <c r="AW212">
+        <v>3.08</v>
+      </c>
+      <c r="AX212">
+        <v>1.36</v>
+      </c>
+      <c r="AY212">
+        <v>7.5</v>
+      </c>
+      <c r="AZ212">
+        <v>4.2</v>
+      </c>
+      <c r="BA212">
+        <v>1.56</v>
+      </c>
+      <c r="BB212">
+        <v>2.01</v>
+      </c>
+      <c r="BC212">
+        <v>2.65</v>
+      </c>
+      <c r="BD212">
+        <v>3.64</v>
+      </c>
+      <c r="BE212">
+        <v>5.6</v>
+      </c>
+      <c r="BF212">
+        <v>6</v>
+      </c>
+      <c r="BG212">
+        <v>3</v>
+      </c>
+      <c r="BH212">
+        <v>5</v>
+      </c>
+      <c r="BI212">
+        <v>4</v>
+      </c>
+      <c r="BJ212">
+        <v>11</v>
+      </c>
+      <c r="BK212">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>2708308</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F213">
+        <v>27</v>
+      </c>
+      <c r="G213" t="s">
+        <v>77</v>
+      </c>
+      <c r="H213" t="s">
+        <v>71</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>2</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>2</v>
+      </c>
+      <c r="O213" t="s">
+        <v>218</v>
+      </c>
+      <c r="P213" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q213">
+        <v>2</v>
+      </c>
+      <c r="R213">
+        <v>5</v>
+      </c>
+      <c r="S213">
+        <v>7</v>
+      </c>
+      <c r="T213">
+        <v>2.8</v>
+      </c>
+      <c r="U213">
+        <v>1.9</v>
+      </c>
+      <c r="V213">
+        <v>4.2</v>
+      </c>
+      <c r="W213">
+        <v>1.54</v>
+      </c>
+      <c r="X213">
+        <v>2.36</v>
+      </c>
+      <c r="Y213">
+        <v>3.65</v>
+      </c>
+      <c r="Z213">
+        <v>1.24</v>
+      </c>
+      <c r="AA213">
+        <v>11</v>
+      </c>
+      <c r="AB213">
+        <v>1.04</v>
+      </c>
+      <c r="AC213">
+        <v>2.18</v>
+      </c>
+      <c r="AD213">
+        <v>2.96</v>
+      </c>
+      <c r="AE213">
+        <v>3.64</v>
+      </c>
+      <c r="AF213">
+        <v>1.06</v>
+      </c>
+      <c r="AG213">
+        <v>6.75</v>
+      </c>
+      <c r="AH213">
+        <v>1.45</v>
+      </c>
+      <c r="AI213">
+        <v>2.6</v>
+      </c>
+      <c r="AJ213">
+        <v>2.45</v>
+      </c>
+      <c r="AK213">
+        <v>1.52</v>
+      </c>
+      <c r="AL213">
+        <v>2.05</v>
+      </c>
+      <c r="AM213">
+        <v>1.72</v>
+      </c>
+      <c r="AN213">
+        <v>1.22</v>
+      </c>
+      <c r="AO213">
+        <v>1.28</v>
+      </c>
+      <c r="AP213">
+        <v>1.7</v>
+      </c>
+      <c r="AQ213">
+        <v>1.38</v>
+      </c>
+      <c r="AR213">
+        <v>1</v>
+      </c>
+      <c r="AS213">
+        <v>1.5</v>
+      </c>
+      <c r="AT213">
+        <v>0.93</v>
+      </c>
+      <c r="AU213">
+        <v>1.91</v>
+      </c>
+      <c r="AV213">
+        <v>1.23</v>
+      </c>
+      <c r="AW213">
+        <v>3.14</v>
+      </c>
+      <c r="AX213">
+        <v>1.63</v>
+      </c>
+      <c r="AY213">
+        <v>7</v>
+      </c>
+      <c r="AZ213">
+        <v>2.88</v>
+      </c>
+      <c r="BA213">
+        <v>1.48</v>
+      </c>
+      <c r="BB213">
+        <v>1.9</v>
+      </c>
+      <c r="BC213">
+        <v>2.46</v>
+      </c>
+      <c r="BD213">
+        <v>3.42</v>
+      </c>
+      <c r="BE213">
+        <v>5.1</v>
+      </c>
+      <c r="BF213">
+        <v>4</v>
+      </c>
+      <c r="BG213">
+        <v>5</v>
+      </c>
+      <c r="BH213">
+        <v>3</v>
+      </c>
+      <c r="BI213">
+        <v>6</v>
+      </c>
+      <c r="BJ213">
+        <v>7</v>
+      </c>
+      <c r="BK213">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>2708309</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>44982.625</v>
+      </c>
+      <c r="F214">
+        <v>27</v>
+      </c>
+      <c r="G214" t="s">
+        <v>78</v>
+      </c>
+      <c r="H214" t="s">
+        <v>79</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>2</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>2</v>
+      </c>
+      <c r="O214" t="s">
+        <v>219</v>
+      </c>
+      <c r="P214" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q214">
+        <v>6</v>
+      </c>
+      <c r="R214">
+        <v>3</v>
+      </c>
+      <c r="S214">
+        <v>9</v>
+      </c>
+      <c r="T214">
+        <v>2.45</v>
+      </c>
+      <c r="U214">
+        <v>2.05</v>
+      </c>
+      <c r="V214">
+        <v>4.5</v>
+      </c>
+      <c r="W214">
+        <v>1.45</v>
+      </c>
+      <c r="X214">
+        <v>2.6</v>
+      </c>
+      <c r="Y214">
+        <v>3.35</v>
+      </c>
+      <c r="Z214">
+        <v>1.28</v>
+      </c>
+      <c r="AA214">
+        <v>9.5</v>
+      </c>
+      <c r="AB214">
+        <v>1.05</v>
+      </c>
+      <c r="AC214">
+        <v>1.75</v>
+      </c>
+      <c r="AD214">
+        <v>3.4</v>
+      </c>
+      <c r="AE214">
+        <v>4.75</v>
+      </c>
+      <c r="AF214">
+        <v>1.06</v>
+      </c>
+      <c r="AG214">
+        <v>10</v>
+      </c>
+      <c r="AH214">
+        <v>1.36</v>
+      </c>
+      <c r="AI214">
+        <v>3</v>
+      </c>
+      <c r="AJ214">
+        <v>2.3</v>
+      </c>
+      <c r="AK214">
+        <v>1.6</v>
+      </c>
+      <c r="AL214">
+        <v>1.95</v>
+      </c>
+      <c r="AM214">
+        <v>1.8</v>
+      </c>
+      <c r="AN214">
+        <v>1.17</v>
+      </c>
+      <c r="AO214">
+        <v>1.25</v>
+      </c>
+      <c r="AP214">
+        <v>1.9</v>
+      </c>
+      <c r="AQ214">
+        <v>2.31</v>
+      </c>
+      <c r="AR214">
+        <v>1.15</v>
+      </c>
+      <c r="AS214">
+        <v>2.36</v>
+      </c>
+      <c r="AT214">
+        <v>1.07</v>
+      </c>
+      <c r="AU214">
+        <v>1.95</v>
+      </c>
+      <c r="AV214">
+        <v>1.47</v>
+      </c>
+      <c r="AW214">
+        <v>3.42</v>
+      </c>
+      <c r="AX214">
+        <v>1.42</v>
+      </c>
+      <c r="AY214">
+        <v>7.5</v>
+      </c>
+      <c r="AZ214">
+        <v>3.7</v>
+      </c>
+      <c r="BA214">
+        <v>1.45</v>
+      </c>
+      <c r="BB214">
+        <v>1.8</v>
+      </c>
+      <c r="BC214">
+        <v>2.34</v>
+      </c>
+      <c r="BD214">
+        <v>3.18</v>
+      </c>
+      <c r="BE214">
+        <v>4.8</v>
+      </c>
+      <c r="BF214">
+        <v>7</v>
+      </c>
+      <c r="BG214">
+        <v>2</v>
+      </c>
+      <c r="BH214">
+        <v>8</v>
+      </c>
+      <c r="BI214">
+        <v>4</v>
+      </c>
+      <c r="BJ214">
+        <v>15</v>
+      </c>
+      <c r="BK214">
         <v>6</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="301">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -915,6 +915,9 @@
   <si>
     <t>['77']</t>
   </si>
+  <si>
+    <t>['48', '54']</t>
+  </si>
 </sst>
 </file>
 
@@ -1275,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK214"/>
+  <dimension ref="A1:BK216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1988,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT4">
         <v>0.62</v>
@@ -3325,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT11">
         <v>0.93</v>
@@ -3901,7 +3904,7 @@
         <v>1.5</v>
       </c>
       <c r="AT14">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4092,7 +4095,7 @@
         <v>2.36</v>
       </c>
       <c r="AT15">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4662,7 +4665,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT18">
         <v>0.54</v>
@@ -5044,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT20">
         <v>0.62</v>
@@ -6384,7 +6387,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT27">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU27">
         <v>0.99</v>
@@ -7148,7 +7151,7 @@
         <v>1.64</v>
       </c>
       <c r="AT31">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU31">
         <v>1.66</v>
@@ -7718,7 +7721,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT34">
         <v>1</v>
@@ -8864,7 +8867,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT40">
         <v>1.54</v>
@@ -10201,7 +10204,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT47">
         <v>0.54</v>
@@ -10965,7 +10968,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT51">
         <v>1.07</v>
@@ -12687,7 +12690,7 @@
         <v>2.46</v>
       </c>
       <c r="AT60">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU60">
         <v>2.09</v>
@@ -13069,7 +13072,7 @@
         <v>1.38</v>
       </c>
       <c r="AT62">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU62">
         <v>1.44</v>
@@ -13830,7 +13833,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT66">
         <v>1.23</v>
@@ -14212,7 +14215,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT68">
         <v>1.21</v>
@@ -15552,7 +15555,7 @@
         <v>2.08</v>
       </c>
       <c r="AT75">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU75">
         <v>1.88</v>
@@ -16122,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT78">
         <v>1</v>
@@ -17271,7 +17274,7 @@
         <v>2.23</v>
       </c>
       <c r="AT84">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU84">
         <v>1.98</v>
@@ -17459,7 +17462,7 @@
         <v>1.5</v>
       </c>
       <c r="AS85">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT85">
         <v>2</v>
@@ -19178,7 +19181,7 @@
         <v>0.67</v>
       </c>
       <c r="AS94">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT94">
         <v>0.64</v>
@@ -19369,10 +19372,10 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT95">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU95">
         <v>1.61</v>
@@ -20136,7 +20139,7 @@
         <v>1.62</v>
       </c>
       <c r="AT99">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU99">
         <v>1.3</v>
@@ -20706,7 +20709,7 @@
         <v>0.83</v>
       </c>
       <c r="AS102">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT102">
         <v>0.85</v>
@@ -22425,7 +22428,7 @@
         <v>0.71</v>
       </c>
       <c r="AS111">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT111">
         <v>1.07</v>
@@ -23001,7 +23004,7 @@
         <v>1.14</v>
       </c>
       <c r="AT114">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU114">
         <v>1.58</v>
@@ -23574,7 +23577,7 @@
         <v>1.5</v>
       </c>
       <c r="AT117">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU117">
         <v>2.02</v>
@@ -24144,7 +24147,7 @@
         <v>1.29</v>
       </c>
       <c r="AS120">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT120">
         <v>0.92</v>
@@ -24338,7 +24341,7 @@
         <v>1.5</v>
       </c>
       <c r="AT121">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU121">
         <v>1.9</v>
@@ -25102,7 +25105,7 @@
         <v>1.5</v>
       </c>
       <c r="AT125">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU125">
         <v>1.66</v>
@@ -25672,7 +25675,7 @@
         <v>1.5</v>
       </c>
       <c r="AS128">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT128">
         <v>1.54</v>
@@ -27203,7 +27206,7 @@
         <v>2.36</v>
       </c>
       <c r="AT136">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU136">
         <v>2</v>
@@ -27776,7 +27779,7 @@
         <v>1.64</v>
       </c>
       <c r="AT139">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU139">
         <v>1.72</v>
@@ -28349,7 +28352,7 @@
         <v>1.15</v>
       </c>
       <c r="AT142">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU142">
         <v>1.67</v>
@@ -28731,7 +28734,7 @@
         <v>1.38</v>
       </c>
       <c r="AT144">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU144">
         <v>1.7</v>
@@ -29301,7 +29304,7 @@
         <v>1.56</v>
       </c>
       <c r="AS147">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT147">
         <v>1.21</v>
@@ -30065,7 +30068,7 @@
         <v>1.33</v>
       </c>
       <c r="AS151">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT151">
         <v>1.23</v>
@@ -31214,7 +31217,7 @@
         <v>1.15</v>
       </c>
       <c r="AT157">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU157">
         <v>1.61</v>
@@ -31596,7 +31599,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT159">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU159">
         <v>1.31</v>
@@ -32166,7 +32169,7 @@
         <v>1.8</v>
       </c>
       <c r="AS162">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT162">
         <v>1.86</v>
@@ -32739,7 +32742,7 @@
         <v>0.4</v>
       </c>
       <c r="AS165">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT165">
         <v>0.64</v>
@@ -34270,7 +34273,7 @@
         <v>1.38</v>
       </c>
       <c r="AT173">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU173">
         <v>1.6</v>
@@ -34652,7 +34655,7 @@
         <v>1.38</v>
       </c>
       <c r="AT175">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU175">
         <v>1.37</v>
@@ -35986,7 +35989,7 @@
         <v>0.91</v>
       </c>
       <c r="AS182">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT182">
         <v>0.93</v>
@@ -36559,7 +36562,7 @@
         <v>2.09</v>
       </c>
       <c r="AS185">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT185">
         <v>2</v>
@@ -37708,7 +37711,7 @@
         <v>2.08</v>
       </c>
       <c r="AT191">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU191">
         <v>1.87</v>
@@ -38090,7 +38093,7 @@
         <v>2.46</v>
       </c>
       <c r="AT193">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU193">
         <v>1.91</v>
@@ -39042,7 +39045,7 @@
         <v>1.83</v>
       </c>
       <c r="AS198">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT198">
         <v>1.86</v>
@@ -39233,10 +39236,10 @@
         <v>1.83</v>
       </c>
       <c r="AS199">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT199">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU199">
         <v>1.31</v>
@@ -40764,7 +40767,7 @@
         <v>1.77</v>
       </c>
       <c r="AT207">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU207">
         <v>2</v>
@@ -42153,6 +42156,388 @@
       </c>
       <c r="BK214">
         <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>2708312</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>44983.53125</v>
+      </c>
+      <c r="F215">
+        <v>27</v>
+      </c>
+      <c r="G215" t="s">
+        <v>74</v>
+      </c>
+      <c r="H215" t="s">
+        <v>66</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>1</v>
+      </c>
+      <c r="O215" t="s">
+        <v>122</v>
+      </c>
+      <c r="P215" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q215">
+        <v>2</v>
+      </c>
+      <c r="R215">
+        <v>4</v>
+      </c>
+      <c r="S215">
+        <v>6</v>
+      </c>
+      <c r="T215">
+        <v>4</v>
+      </c>
+      <c r="U215">
+        <v>1.95</v>
+      </c>
+      <c r="V215">
+        <v>2.8</v>
+      </c>
+      <c r="W215">
+        <v>1.51</v>
+      </c>
+      <c r="X215">
+        <v>2.4</v>
+      </c>
+      <c r="Y215">
+        <v>3.75</v>
+      </c>
+      <c r="Z215">
+        <v>1.23</v>
+      </c>
+      <c r="AA215">
+        <v>11.5</v>
+      </c>
+      <c r="AB215">
+        <v>1.03</v>
+      </c>
+      <c r="AC215">
+        <v>3.5</v>
+      </c>
+      <c r="AD215">
+        <v>3</v>
+      </c>
+      <c r="AE215">
+        <v>2.2</v>
+      </c>
+      <c r="AF215">
+        <v>1.11</v>
+      </c>
+      <c r="AG215">
+        <v>6</v>
+      </c>
+      <c r="AH215">
+        <v>1.54</v>
+      </c>
+      <c r="AI215">
+        <v>2.43</v>
+      </c>
+      <c r="AJ215">
+        <v>2.55</v>
+      </c>
+      <c r="AK215">
+        <v>1.5</v>
+      </c>
+      <c r="AL215">
+        <v>2.05</v>
+      </c>
+      <c r="AM215">
+        <v>1.72</v>
+      </c>
+      <c r="AN215">
+        <v>1.6</v>
+      </c>
+      <c r="AO215">
+        <v>1.28</v>
+      </c>
+      <c r="AP215">
+        <v>1.25</v>
+      </c>
+      <c r="AQ215">
+        <v>1.15</v>
+      </c>
+      <c r="AR215">
+        <v>1.23</v>
+      </c>
+      <c r="AS215">
+        <v>1.29</v>
+      </c>
+      <c r="AT215">
+        <v>1.14</v>
+      </c>
+      <c r="AU215">
+        <v>1.27</v>
+      </c>
+      <c r="AV215">
+        <v>1.53</v>
+      </c>
+      <c r="AW215">
+        <v>2.8</v>
+      </c>
+      <c r="AX215">
+        <v>2.7</v>
+      </c>
+      <c r="AY215">
+        <v>7</v>
+      </c>
+      <c r="AZ215">
+        <v>1.7</v>
+      </c>
+      <c r="BA215">
+        <v>1.51</v>
+      </c>
+      <c r="BB215">
+        <v>2</v>
+      </c>
+      <c r="BC215">
+        <v>2.57</v>
+      </c>
+      <c r="BD215">
+        <v>3.48</v>
+      </c>
+      <c r="BE215">
+        <v>5.3</v>
+      </c>
+      <c r="BF215">
+        <v>2</v>
+      </c>
+      <c r="BG215">
+        <v>4</v>
+      </c>
+      <c r="BH215">
+        <v>4</v>
+      </c>
+      <c r="BI215">
+        <v>6</v>
+      </c>
+      <c r="BJ215">
+        <v>6</v>
+      </c>
+      <c r="BK215">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>2708310</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>44983.64583333334</v>
+      </c>
+      <c r="F216">
+        <v>27</v>
+      </c>
+      <c r="G216" t="s">
+        <v>67</v>
+      </c>
+      <c r="H216" t="s">
+        <v>70</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216">
+        <v>3</v>
+      </c>
+      <c r="O216" t="s">
+        <v>98</v>
+      </c>
+      <c r="P216" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q216">
+        <v>3</v>
+      </c>
+      <c r="R216">
+        <v>5</v>
+      </c>
+      <c r="S216">
+        <v>8</v>
+      </c>
+      <c r="T216">
+        <v>5.8</v>
+      </c>
+      <c r="U216">
+        <v>2.16</v>
+      </c>
+      <c r="V216">
+        <v>2.16</v>
+      </c>
+      <c r="W216">
+        <v>1.37</v>
+      </c>
+      <c r="X216">
+        <v>2.85</v>
+      </c>
+      <c r="Y216">
+        <v>2.95</v>
+      </c>
+      <c r="Z216">
+        <v>1.34</v>
+      </c>
+      <c r="AA216">
+        <v>8</v>
+      </c>
+      <c r="AB216">
+        <v>1.07</v>
+      </c>
+      <c r="AC216">
+        <v>4.2</v>
+      </c>
+      <c r="AD216">
+        <v>3.5</v>
+      </c>
+      <c r="AE216">
+        <v>1.75</v>
+      </c>
+      <c r="AF216">
+        <v>1.04</v>
+      </c>
+      <c r="AG216">
+        <v>9.5</v>
+      </c>
+      <c r="AH216">
+        <v>1.33</v>
+      </c>
+      <c r="AI216">
+        <v>3.1</v>
+      </c>
+      <c r="AJ216">
+        <v>2.05</v>
+      </c>
+      <c r="AK216">
+        <v>1.61</v>
+      </c>
+      <c r="AL216">
+        <v>1.98</v>
+      </c>
+      <c r="AM216">
+        <v>1.78</v>
+      </c>
+      <c r="AN216">
+        <v>2.33</v>
+      </c>
+      <c r="AO216">
+        <v>1.27</v>
+      </c>
+      <c r="AP216">
+        <v>1.12</v>
+      </c>
+      <c r="AQ216">
+        <v>1.23</v>
+      </c>
+      <c r="AR216">
+        <v>1.92</v>
+      </c>
+      <c r="AS216">
+        <v>1.14</v>
+      </c>
+      <c r="AT216">
+        <v>2</v>
+      </c>
+      <c r="AU216">
+        <v>1.44</v>
+      </c>
+      <c r="AV216">
+        <v>1.69</v>
+      </c>
+      <c r="AW216">
+        <v>3.13</v>
+      </c>
+      <c r="AX216">
+        <v>4.2</v>
+      </c>
+      <c r="AY216">
+        <v>8</v>
+      </c>
+      <c r="AZ216">
+        <v>1.35</v>
+      </c>
+      <c r="BA216">
+        <v>1.48</v>
+      </c>
+      <c r="BB216">
+        <v>1.87</v>
+      </c>
+      <c r="BC216">
+        <v>2.46</v>
+      </c>
+      <c r="BD216">
+        <v>3.42</v>
+      </c>
+      <c r="BE216">
+        <v>5.1</v>
+      </c>
+      <c r="BF216">
+        <v>2</v>
+      </c>
+      <c r="BG216">
+        <v>7</v>
+      </c>
+      <c r="BH216">
+        <v>10</v>
+      </c>
+      <c r="BI216">
+        <v>9</v>
+      </c>
+      <c r="BJ216">
+        <v>12</v>
+      </c>
+      <c r="BK216">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="306">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -682,6 +682,9 @@
     <t>['22', '45+3']</t>
   </si>
   <si>
+    <t>['74']</t>
+  </si>
+  <si>
     <t>['73', '87']</t>
   </si>
   <si>
@@ -791,9 +794,6 @@
   </si>
   <si>
     <t>['5', '79']</t>
-  </si>
-  <si>
-    <t>['74']</t>
   </si>
   <si>
     <t>['38']</t>
@@ -929,6 +929,9 @@
   </si>
   <si>
     <t>['29', '64', '77']</t>
+  </si>
+  <si>
+    <t>['42', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK221"/>
+  <dimension ref="A1:BK223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1725,7 +1728,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1812,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT3">
         <v>1.43</v>
@@ -2197,7 +2200,7 @@
         <v>2.08</v>
       </c>
       <c r="AT5">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2489,7 +2492,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2680,7 +2683,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2767,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT8">
         <v>1.07</v>
@@ -2871,7 +2874,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3534,7 +3537,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3635,7 +3638,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3826,7 +3829,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4208,7 +4211,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4590,7 +4593,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -5163,7 +5166,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5354,7 +5357,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5632,10 +5635,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT23">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU23">
         <v>1.65</v>
@@ -5736,7 +5739,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5927,7 +5930,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6309,7 +6312,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6500,7 +6503,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6590,7 +6593,7 @@
         <v>2.36</v>
       </c>
       <c r="AT28">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU28">
         <v>1.44</v>
@@ -6882,7 +6885,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -7073,7 +7076,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -7264,7 +7267,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7542,7 +7545,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT33">
         <v>1.86</v>
@@ -7646,7 +7649,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -8118,7 +8121,7 @@
         <v>1.5</v>
       </c>
       <c r="AT36">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU36">
         <v>1.22</v>
@@ -8306,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT37">
         <v>0.64</v>
@@ -8410,7 +8413,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8601,7 +8604,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q39">
         <v>12</v>
@@ -9264,7 +9267,7 @@
         <v>0.64</v>
       </c>
       <c r="AT42">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU42">
         <v>1.05</v>
@@ -9365,7 +9368,7 @@
         <v>88</v>
       </c>
       <c r="P43" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q43">
         <v>12</v>
@@ -9938,7 +9941,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10702,7 +10705,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10792,7 +10795,7 @@
         <v>1.5</v>
       </c>
       <c r="AT50">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU50">
         <v>1.75</v>
@@ -11084,7 +11087,7 @@
         <v>114</v>
       </c>
       <c r="P52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11275,7 +11278,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11553,7 +11556,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT54">
         <v>0.93</v>
@@ -11657,7 +11660,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12230,7 +12233,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12890,10 +12893,10 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT61">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU61">
         <v>1.21</v>
@@ -13376,7 +13379,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13848,7 +13851,7 @@
         <v>1.29</v>
       </c>
       <c r="AT66">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU66">
         <v>1.11</v>
@@ -14140,7 +14143,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14331,7 +14334,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14418,7 +14421,7 @@
         <v>2.33</v>
       </c>
       <c r="AS69">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT69">
         <v>1.86</v>
@@ -14522,7 +14525,7 @@
         <v>100</v>
       </c>
       <c r="P70" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14609,7 +14612,7 @@
         <v>0.4</v>
       </c>
       <c r="AS70">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT70">
         <v>0.62</v>
@@ -14713,7 +14716,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15185,7 +15188,7 @@
         <v>1.64</v>
       </c>
       <c r="AT73">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU73">
         <v>1.75</v>
@@ -15376,7 +15379,7 @@
         <v>2.5</v>
       </c>
       <c r="AT74">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU74">
         <v>1.99</v>
@@ -15859,7 +15862,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16241,7 +16244,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16432,7 +16435,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17196,7 +17199,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17283,7 +17286,7 @@
         <v>0.33</v>
       </c>
       <c r="AS84">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT84">
         <v>2</v>
@@ -17665,7 +17668,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -17769,7 +17772,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -18151,7 +18154,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18533,7 +18536,7 @@
         <v>144</v>
       </c>
       <c r="P91" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18623,7 +18626,7 @@
         <v>1.77</v>
       </c>
       <c r="AT91">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU91">
         <v>2.09</v>
@@ -18724,7 +18727,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18811,7 +18814,7 @@
         <v>0.83</v>
       </c>
       <c r="AS92">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT92">
         <v>0.71</v>
@@ -19005,7 +19008,7 @@
         <v>1.14</v>
       </c>
       <c r="AT93">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU93">
         <v>1.71</v>
@@ -20252,7 +20255,7 @@
         <v>88</v>
       </c>
       <c r="P100" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20915,7 +20918,7 @@
         <v>1.29</v>
       </c>
       <c r="AT103">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU103">
         <v>1.38</v>
@@ -21103,7 +21106,7 @@
         <v>0.86</v>
       </c>
       <c r="AS104">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT104">
         <v>1</v>
@@ -21398,7 +21401,7 @@
         <v>152</v>
       </c>
       <c r="P106" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21485,7 +21488,7 @@
         <v>1.5</v>
       </c>
       <c r="AS106">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT106">
         <v>0.92</v>
@@ -23398,7 +23401,7 @@
         <v>1.5</v>
       </c>
       <c r="AT116">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU116">
         <v>1.29</v>
@@ -24263,7 +24266,7 @@
         <v>88</v>
       </c>
       <c r="P121" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24544,7 +24547,7 @@
         <v>1.14</v>
       </c>
       <c r="AT122">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU122">
         <v>1.52</v>
@@ -25305,7 +25308,7 @@
         <v>0.86</v>
       </c>
       <c r="AS126">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT126">
         <v>1</v>
@@ -26069,7 +26072,7 @@
         <v>0.75</v>
       </c>
       <c r="AS130">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT130">
         <v>0.71</v>
@@ -26454,7 +26457,7 @@
         <v>1.77</v>
       </c>
       <c r="AT132">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU132">
         <v>2.22</v>
@@ -27319,7 +27322,7 @@
         <v>157</v>
       </c>
       <c r="P137" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27982,7 +27985,7 @@
         <v>1.5</v>
       </c>
       <c r="AT140">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU140">
         <v>1.69</v>
@@ -28170,7 +28173,7 @@
         <v>1.63</v>
       </c>
       <c r="AS141">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT141">
         <v>1.21</v>
@@ -28743,7 +28746,7 @@
         <v>1.25</v>
       </c>
       <c r="AS144">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT144">
         <v>2</v>
@@ -29507,7 +29510,7 @@
         <v>0.67</v>
       </c>
       <c r="AS148">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT148">
         <v>1</v>
@@ -29993,7 +29996,7 @@
         <v>165</v>
       </c>
       <c r="P151" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30083,7 +30086,7 @@
         <v>1.14</v>
       </c>
       <c r="AT151">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU151">
         <v>1.43</v>
@@ -30184,7 +30187,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="Q152">
         <v>7</v>
@@ -31035,7 +31038,7 @@
         <v>2</v>
       </c>
       <c r="AS156">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT156">
         <v>2.07</v>
@@ -31420,7 +31423,7 @@
         <v>1.64</v>
       </c>
       <c r="AT158">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU158">
         <v>1.72</v>
@@ -32563,7 +32566,7 @@
         <v>1.1</v>
       </c>
       <c r="AS164">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT164">
         <v>1.07</v>
@@ -33049,7 +33052,7 @@
         <v>187</v>
       </c>
       <c r="P167" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33139,7 +33142,7 @@
         <v>1.14</v>
       </c>
       <c r="AT167">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU167">
         <v>1.68</v>
@@ -34282,7 +34285,7 @@
         <v>1.5</v>
       </c>
       <c r="AS173">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT173">
         <v>1.14</v>
@@ -34858,7 +34861,7 @@
         <v>1.14</v>
       </c>
       <c r="AT176">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU176">
         <v>1.59</v>
@@ -35240,7 +35243,7 @@
         <v>1.5</v>
       </c>
       <c r="AT178">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU178">
         <v>1.89</v>
@@ -35810,7 +35813,7 @@
         <v>1.55</v>
       </c>
       <c r="AS181">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT181">
         <v>1.21</v>
@@ -36678,7 +36681,7 @@
         <v>199</v>
       </c>
       <c r="P186" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -37150,7 +37153,7 @@
         <v>1.29</v>
       </c>
       <c r="AT188">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU188">
         <v>1.35</v>
@@ -37911,7 +37914,7 @@
         <v>1.09</v>
       </c>
       <c r="AS192">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT192">
         <v>0.92</v>
@@ -38866,7 +38869,7 @@
         <v>2.17</v>
       </c>
       <c r="AS197">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT197">
         <v>2.07</v>
@@ -40015,7 +40018,7 @@
         <v>0.64</v>
       </c>
       <c r="AT203">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU203">
         <v>1.32</v>
@@ -40588,7 +40591,7 @@
         <v>2.08</v>
       </c>
       <c r="AT206">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU206">
         <v>1.83</v>
@@ -40967,7 +40970,7 @@
         <v>1.58</v>
       </c>
       <c r="AS208">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT208">
         <v>1.43</v>
@@ -41071,7 +41074,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q209">
         <v>9</v>
@@ -43505,6 +43508,388 @@
       </c>
       <c r="BK221">
         <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:63">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>2708319</v>
+      </c>
+      <c r="C222" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="2">
+        <v>44986.54166666666</v>
+      </c>
+      <c r="F222">
+        <v>28</v>
+      </c>
+      <c r="G222" t="s">
+        <v>66</v>
+      </c>
+      <c r="H222" t="s">
+        <v>67</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>1</v>
+      </c>
+      <c r="O222" t="s">
+        <v>222</v>
+      </c>
+      <c r="P222" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q222">
+        <v>3</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>3</v>
+      </c>
+      <c r="T222">
+        <v>2.23</v>
+      </c>
+      <c r="U222">
+        <v>2.16</v>
+      </c>
+      <c r="V222">
+        <v>5.4</v>
+      </c>
+      <c r="W222">
+        <v>1.41</v>
+      </c>
+      <c r="X222">
+        <v>2.7</v>
+      </c>
+      <c r="Y222">
+        <v>3.35</v>
+      </c>
+      <c r="Z222">
+        <v>1.28</v>
+      </c>
+      <c r="AA222">
+        <v>9.5</v>
+      </c>
+      <c r="AB222">
+        <v>1.05</v>
+      </c>
+      <c r="AC222">
+        <v>1.57</v>
+      </c>
+      <c r="AD222">
+        <v>3.75</v>
+      </c>
+      <c r="AE222">
+        <v>5.5</v>
+      </c>
+      <c r="AF222">
+        <v>1.06</v>
+      </c>
+      <c r="AG222">
+        <v>8.5</v>
+      </c>
+      <c r="AH222">
+        <v>1.41</v>
+      </c>
+      <c r="AI222">
+        <v>2.95</v>
+      </c>
+      <c r="AJ222">
+        <v>2.25</v>
+      </c>
+      <c r="AK222">
+        <v>1.6</v>
+      </c>
+      <c r="AL222">
+        <v>2.3</v>
+      </c>
+      <c r="AM222">
+        <v>1.58</v>
+      </c>
+      <c r="AN222">
+        <v>1.17</v>
+      </c>
+      <c r="AO222">
+        <v>1.25</v>
+      </c>
+      <c r="AP222">
+        <v>2.15</v>
+      </c>
+      <c r="AQ222">
+        <v>2.23</v>
+      </c>
+      <c r="AR222">
+        <v>0.77</v>
+      </c>
+      <c r="AS222">
+        <v>2.29</v>
+      </c>
+      <c r="AT222">
+        <v>0.71</v>
+      </c>
+      <c r="AU222">
+        <v>1.89</v>
+      </c>
+      <c r="AV222">
+        <v>1.01</v>
+      </c>
+      <c r="AW222">
+        <v>2.9</v>
+      </c>
+      <c r="AX222">
+        <v>1.3</v>
+      </c>
+      <c r="AY222">
+        <v>8</v>
+      </c>
+      <c r="AZ222">
+        <v>4.5</v>
+      </c>
+      <c r="BA222">
+        <v>1.5</v>
+      </c>
+      <c r="BB222">
+        <v>2</v>
+      </c>
+      <c r="BC222">
+        <v>2.55</v>
+      </c>
+      <c r="BD222">
+        <v>3.55</v>
+      </c>
+      <c r="BE222">
+        <v>5.2</v>
+      </c>
+      <c r="BF222">
+        <v>5</v>
+      </c>
+      <c r="BG222">
+        <v>3</v>
+      </c>
+      <c r="BH222">
+        <v>8</v>
+      </c>
+      <c r="BI222">
+        <v>1</v>
+      </c>
+      <c r="BJ222">
+        <v>13</v>
+      </c>
+      <c r="BK222">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:63">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>2708317</v>
+      </c>
+      <c r="C223" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" s="2">
+        <v>44986.64583333334</v>
+      </c>
+      <c r="F223">
+        <v>28</v>
+      </c>
+      <c r="G223" t="s">
+        <v>71</v>
+      </c>
+      <c r="H223" t="s">
+        <v>78</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+      <c r="M223">
+        <v>2</v>
+      </c>
+      <c r="N223">
+        <v>3</v>
+      </c>
+      <c r="O223" t="s">
+        <v>171</v>
+      </c>
+      <c r="P223" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q223">
+        <v>7</v>
+      </c>
+      <c r="R223">
+        <v>5</v>
+      </c>
+      <c r="S223">
+        <v>12</v>
+      </c>
+      <c r="T223">
+        <v>3.95</v>
+      </c>
+      <c r="U223">
+        <v>2</v>
+      </c>
+      <c r="V223">
+        <v>2.95</v>
+      </c>
+      <c r="W223">
+        <v>1.44</v>
+      </c>
+      <c r="X223">
+        <v>2.6</v>
+      </c>
+      <c r="Y223">
+        <v>3.35</v>
+      </c>
+      <c r="Z223">
+        <v>1.27</v>
+      </c>
+      <c r="AA223">
+        <v>10</v>
+      </c>
+      <c r="AB223">
+        <v>1.05</v>
+      </c>
+      <c r="AC223">
+        <v>3.2</v>
+      </c>
+      <c r="AD223">
+        <v>3.1</v>
+      </c>
+      <c r="AE223">
+        <v>2.25</v>
+      </c>
+      <c r="AF223">
+        <v>1.09</v>
+      </c>
+      <c r="AG223">
+        <v>8.5</v>
+      </c>
+      <c r="AH223">
+        <v>1.4</v>
+      </c>
+      <c r="AI223">
+        <v>2.85</v>
+      </c>
+      <c r="AJ223">
+        <v>2.25</v>
+      </c>
+      <c r="AK223">
+        <v>1.6</v>
+      </c>
+      <c r="AL223">
+        <v>1.95</v>
+      </c>
+      <c r="AM223">
+        <v>1.81</v>
+      </c>
+      <c r="AN223">
+        <v>1.58</v>
+      </c>
+      <c r="AO223">
+        <v>1.35</v>
+      </c>
+      <c r="AP223">
+        <v>1.35</v>
+      </c>
+      <c r="AQ223">
+        <v>1.38</v>
+      </c>
+      <c r="AR223">
+        <v>1.23</v>
+      </c>
+      <c r="AS223">
+        <v>1.29</v>
+      </c>
+      <c r="AT223">
+        <v>1.36</v>
+      </c>
+      <c r="AU223">
+        <v>1.58</v>
+      </c>
+      <c r="AV223">
+        <v>1.35</v>
+      </c>
+      <c r="AW223">
+        <v>2.93</v>
+      </c>
+      <c r="AX223">
+        <v>2.43</v>
+      </c>
+      <c r="AY223">
+        <v>7</v>
+      </c>
+      <c r="AZ223">
+        <v>1.83</v>
+      </c>
+      <c r="BA223">
+        <v>1.41</v>
+      </c>
+      <c r="BB223">
+        <v>1.75</v>
+      </c>
+      <c r="BC223">
+        <v>2.28</v>
+      </c>
+      <c r="BD223">
+        <v>3.15</v>
+      </c>
+      <c r="BE223">
+        <v>4.5</v>
+      </c>
+      <c r="BF223">
+        <v>5</v>
+      </c>
+      <c r="BG223">
+        <v>2</v>
+      </c>
+      <c r="BH223">
+        <v>2</v>
+      </c>
+      <c r="BI223">
+        <v>3</v>
+      </c>
+      <c r="BJ223">
+        <v>7</v>
+      </c>
+      <c r="BK223">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="309">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -685,6 +685,15 @@
     <t>['74']</t>
   </si>
   <si>
+    <t>['15', '62']</t>
+  </si>
+  <si>
+    <t>['5', '29', '57', '87']</t>
+  </si>
+  <si>
+    <t>['39', '58']</t>
+  </si>
+  <si>
     <t>['73', '87']</t>
   </si>
   <si>
@@ -1293,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK223"/>
+  <dimension ref="A1:BK226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1728,7 +1737,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2009,7 +2018,7 @@
         <v>1.14</v>
       </c>
       <c r="AT4">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2197,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT5">
         <v>1.36</v>
@@ -2492,7 +2501,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2579,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT7">
         <v>0.71</v>
@@ -2683,7 +2692,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2874,7 +2883,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3155,7 +3164,7 @@
         <v>0.64</v>
       </c>
       <c r="AT10">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3638,7 +3647,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3829,7 +3838,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3916,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT14">
         <v>1.14</v>
@@ -4211,7 +4220,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4492,7 +4501,7 @@
         <v>1.14</v>
       </c>
       <c r="AT17">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4593,7 +4602,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -5065,7 +5074,7 @@
         <v>1.29</v>
       </c>
       <c r="AT20">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU20">
         <v>1.27</v>
@@ -5166,7 +5175,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5253,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT21">
         <v>0.64</v>
@@ -5357,7 +5366,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5739,7 +5748,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5826,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT24">
         <v>1</v>
@@ -5930,7 +5939,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6208,10 +6217,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT26">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU26">
         <v>1.8</v>
@@ -6312,7 +6321,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6503,7 +6512,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6784,7 +6793,7 @@
         <v>1.5</v>
       </c>
       <c r="AT29">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU29">
         <v>2.09</v>
@@ -6885,7 +6894,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -7076,7 +7085,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -7267,7 +7276,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7548,7 +7557,7 @@
         <v>1.29</v>
       </c>
       <c r="AT33">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU33">
         <v>1.22</v>
@@ -7649,7 +7658,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -8413,7 +8422,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8500,7 +8509,7 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT38">
         <v>0.93</v>
@@ -8604,7 +8613,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q39">
         <v>12</v>
@@ -8691,7 +8700,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT39">
         <v>1.07</v>
@@ -9368,7 +9377,7 @@
         <v>88</v>
       </c>
       <c r="P43" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q43">
         <v>12</v>
@@ -9458,7 +9467,7 @@
         <v>1.64</v>
       </c>
       <c r="AT43">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU43">
         <v>1.7</v>
@@ -9649,7 +9658,7 @@
         <v>2.36</v>
       </c>
       <c r="AT44">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU44">
         <v>1.52</v>
@@ -9837,7 +9846,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT45">
         <v>1.43</v>
@@ -9941,7 +9950,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10705,7 +10714,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11087,7 +11096,7 @@
         <v>114</v>
       </c>
       <c r="P52" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11174,10 +11183,10 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT52">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU52">
         <v>1.88</v>
@@ -11278,7 +11287,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11365,7 +11374,7 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT53">
         <v>1.21</v>
@@ -11660,7 +11669,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11750,7 +11759,7 @@
         <v>0.64</v>
       </c>
       <c r="AT55">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU55">
         <v>1.1</v>
@@ -12233,7 +12242,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12323,7 +12332,7 @@
         <v>1.14</v>
       </c>
       <c r="AT58">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU58">
         <v>1.66</v>
@@ -12511,7 +12520,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT59">
         <v>1</v>
@@ -13379,7 +13388,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13466,7 +13475,7 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT64">
         <v>1</v>
@@ -14143,7 +14152,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14334,7 +14343,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14424,7 +14433,7 @@
         <v>2.29</v>
       </c>
       <c r="AT69">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU69">
         <v>1.96</v>
@@ -14525,7 +14534,7 @@
         <v>100</v>
       </c>
       <c r="P70" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14615,7 +14624,7 @@
         <v>1.29</v>
       </c>
       <c r="AT70">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU70">
         <v>1.69</v>
@@ -14716,7 +14725,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14997,7 +15006,7 @@
         <v>1.29</v>
       </c>
       <c r="AT72">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU72">
         <v>1.34</v>
@@ -15567,7 +15576,7 @@
         <v>1.33</v>
       </c>
       <c r="AS75">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT75">
         <v>1.14</v>
@@ -15862,7 +15871,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15949,7 +15958,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT77">
         <v>1</v>
@@ -16244,7 +16253,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16334,7 +16343,7 @@
         <v>1.5</v>
       </c>
       <c r="AT79">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU79">
         <v>1.25</v>
@@ -16435,7 +16444,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17095,7 +17104,7 @@
         <v>0.4</v>
       </c>
       <c r="AS83">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT83">
         <v>1.07</v>
@@ -17199,7 +17208,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17772,7 +17781,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -18050,10 +18059,10 @@
         <v>1.8</v>
       </c>
       <c r="AS88">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT88">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU88">
         <v>1.83</v>
@@ -18154,7 +18163,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18435,7 +18444,7 @@
         <v>2.5</v>
       </c>
       <c r="AT90">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU90">
         <v>1.95</v>
@@ -18536,7 +18545,7 @@
         <v>144</v>
       </c>
       <c r="P91" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18623,7 +18632,7 @@
         <v>0.8</v>
       </c>
       <c r="AS91">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT91">
         <v>0.71</v>
@@ -19578,7 +19587,7 @@
         <v>1.8</v>
       </c>
       <c r="AS96">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT96">
         <v>1.21</v>
@@ -19682,7 +19691,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19873,7 +19882,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19963,7 +19972,7 @@
         <v>1.5</v>
       </c>
       <c r="AT98">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU98">
         <v>1.99</v>
@@ -20064,7 +20073,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20255,7 +20264,7 @@
         <v>88</v>
       </c>
       <c r="P100" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20446,7 +20455,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q101">
         <v>12</v>
@@ -20828,7 +20837,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -21401,7 +21410,7 @@
         <v>152</v>
       </c>
       <c r="P106" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21491,7 +21500,7 @@
         <v>2.29</v>
       </c>
       <c r="AT106">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU106">
         <v>2.04</v>
@@ -21870,10 +21879,10 @@
         <v>0.71</v>
       </c>
       <c r="AS108">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT108">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU108">
         <v>2.28</v>
@@ -22061,7 +22070,7 @@
         <v>1.71</v>
       </c>
       <c r="AS109">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT109">
         <v>1.43</v>
@@ -22165,7 +22174,7 @@
         <v>100</v>
       </c>
       <c r="P110" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22255,7 +22264,7 @@
         <v>2.36</v>
       </c>
       <c r="AT110">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU110">
         <v>1.85</v>
@@ -22356,7 +22365,7 @@
         <v>88</v>
       </c>
       <c r="P111" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22929,7 +22938,7 @@
         <v>157</v>
       </c>
       <c r="P114" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23120,7 +23129,7 @@
         <v>116</v>
       </c>
       <c r="P115" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23207,7 +23216,7 @@
         <v>1.75</v>
       </c>
       <c r="AS115">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT115">
         <v>2.07</v>
@@ -23693,7 +23702,7 @@
         <v>159</v>
       </c>
       <c r="P118" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23884,7 +23893,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -23974,7 +23983,7 @@
         <v>1.64</v>
       </c>
       <c r="AT119">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU119">
         <v>1.68</v>
@@ -24165,7 +24174,7 @@
         <v>1.29</v>
       </c>
       <c r="AT120">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU120">
         <v>1.1</v>
@@ -24266,7 +24275,7 @@
         <v>88</v>
       </c>
       <c r="P121" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24648,7 +24657,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24839,7 +24848,7 @@
         <v>88</v>
       </c>
       <c r="P124" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -25117,7 +25126,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT125">
         <v>2</v>
@@ -25221,7 +25230,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25603,7 +25612,7 @@
         <v>88</v>
       </c>
       <c r="P128" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25794,7 +25803,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25884,7 +25893,7 @@
         <v>1.5</v>
       </c>
       <c r="AT129">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU129">
         <v>1.31</v>
@@ -26367,7 +26376,7 @@
         <v>166</v>
       </c>
       <c r="P132" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26454,7 +26463,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT132">
         <v>1.36</v>
@@ -26645,7 +26654,7 @@
         <v>0.75</v>
       </c>
       <c r="AS133">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT133">
         <v>1</v>
@@ -26839,7 +26848,7 @@
         <v>1.5</v>
       </c>
       <c r="AT134">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU134">
         <v>1.9</v>
@@ -26940,7 +26949,7 @@
         <v>141</v>
       </c>
       <c r="P135" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27030,7 +27039,7 @@
         <v>1.14</v>
       </c>
       <c r="AT135">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU135">
         <v>1.63</v>
@@ -27131,7 +27140,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27322,7 +27331,7 @@
         <v>157</v>
       </c>
       <c r="P137" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27704,7 +27713,7 @@
         <v>88</v>
       </c>
       <c r="P139" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27895,7 +27904,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -27982,7 +27991,7 @@
         <v>0.88</v>
       </c>
       <c r="AS140">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT140">
         <v>0.71</v>
@@ -28468,7 +28477,7 @@
         <v>172</v>
       </c>
       <c r="P143" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28659,7 +28668,7 @@
         <v>173</v>
       </c>
       <c r="P144" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28850,7 +28859,7 @@
         <v>174</v>
       </c>
       <c r="P145" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -29423,7 +29432,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -29892,7 +29901,7 @@
         <v>1.22</v>
       </c>
       <c r="AS150">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT150">
         <v>1.07</v>
@@ -29996,7 +30005,7 @@
         <v>165</v>
       </c>
       <c r="P151" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30274,7 +30283,7 @@
         <v>0.44</v>
       </c>
       <c r="AS152">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT152">
         <v>0.64</v>
@@ -30378,7 +30387,7 @@
         <v>180</v>
       </c>
       <c r="P153" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30659,7 +30668,7 @@
         <v>1.29</v>
       </c>
       <c r="AT154">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU154">
         <v>1.39</v>
@@ -30847,10 +30856,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS155">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT155">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU155">
         <v>1.74</v>
@@ -31142,7 +31151,7 @@
         <v>88</v>
       </c>
       <c r="P157" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31524,7 +31533,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -31805,7 +31814,7 @@
         <v>2.36</v>
       </c>
       <c r="AT160">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU160">
         <v>1.96</v>
@@ -31906,7 +31915,7 @@
         <v>88</v>
       </c>
       <c r="P161" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q161">
         <v>6</v>
@@ -31993,7 +32002,7 @@
         <v>1.89</v>
       </c>
       <c r="AS161">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT161">
         <v>2.07</v>
@@ -32097,7 +32106,7 @@
         <v>124</v>
       </c>
       <c r="P162" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32187,7 +32196,7 @@
         <v>1.29</v>
       </c>
       <c r="AT162">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU162">
         <v>1.23</v>
@@ -32288,7 +32297,7 @@
         <v>183</v>
       </c>
       <c r="P163" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -32670,7 +32679,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33052,7 +33061,7 @@
         <v>187</v>
       </c>
       <c r="P167" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33330,7 +33339,7 @@
         <v>1</v>
       </c>
       <c r="AS168">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT168">
         <v>0.93</v>
@@ -33521,7 +33530,7 @@
         <v>1.4</v>
       </c>
       <c r="AS169">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT169">
         <v>1.21</v>
@@ -33712,7 +33721,7 @@
         <v>1.1</v>
       </c>
       <c r="AS170">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT170">
         <v>1</v>
@@ -34097,7 +34106,7 @@
         <v>0.64</v>
       </c>
       <c r="AT172">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU172">
         <v>1.28</v>
@@ -34479,7 +34488,7 @@
         <v>1.64</v>
       </c>
       <c r="AT174">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU174">
         <v>1.72</v>
@@ -34580,7 +34589,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -34962,7 +34971,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35240,7 +35249,7 @@
         <v>1.27</v>
       </c>
       <c r="AS178">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT178">
         <v>1.36</v>
@@ -35535,7 +35544,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -35917,7 +35926,7 @@
         <v>88</v>
       </c>
       <c r="P182" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -36299,7 +36308,7 @@
         <v>198</v>
       </c>
       <c r="P184" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -36386,10 +36395,10 @@
         <v>1.73</v>
       </c>
       <c r="AS184">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT184">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU184">
         <v>2.06</v>
@@ -36490,7 +36499,7 @@
         <v>88</v>
       </c>
       <c r="P185" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q185">
         <v>5</v>
@@ -36681,7 +36690,7 @@
         <v>199</v>
       </c>
       <c r="P186" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -36771,7 +36780,7 @@
         <v>1.14</v>
       </c>
       <c r="AT186">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU186">
         <v>1.65</v>
@@ -37636,7 +37645,7 @@
         <v>88</v>
       </c>
       <c r="P191" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q191">
         <v>2</v>
@@ -37723,7 +37732,7 @@
         <v>1.73</v>
       </c>
       <c r="AS191">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT191">
         <v>2</v>
@@ -37917,7 +37926,7 @@
         <v>1.29</v>
       </c>
       <c r="AT192">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU192">
         <v>1.53</v>
@@ -38209,7 +38218,7 @@
         <v>206</v>
       </c>
       <c r="P194" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q194">
         <v>9</v>
@@ -38296,7 +38305,7 @@
         <v>0.67</v>
       </c>
       <c r="AS194">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT194">
         <v>0.64</v>
@@ -38400,7 +38409,7 @@
         <v>153</v>
       </c>
       <c r="P195" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q195">
         <v>5</v>
@@ -38591,7 +38600,7 @@
         <v>207</v>
       </c>
       <c r="P196" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -39063,7 +39072,7 @@
         <v>1.14</v>
       </c>
       <c r="AT198">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU198">
         <v>1.5</v>
@@ -39164,7 +39173,7 @@
         <v>171</v>
       </c>
       <c r="P199" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -39355,7 +39364,7 @@
         <v>209</v>
       </c>
       <c r="P200" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q200">
         <v>6</v>
@@ -39737,7 +39746,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q202">
         <v>6</v>
@@ -40209,7 +40218,7 @@
         <v>1.29</v>
       </c>
       <c r="AT204">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU204">
         <v>1.39</v>
@@ -40400,7 +40409,7 @@
         <v>2.5</v>
       </c>
       <c r="AT205">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU205">
         <v>1.93</v>
@@ -40588,7 +40597,7 @@
         <v>0.83</v>
       </c>
       <c r="AS206">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT206">
         <v>0.71</v>
@@ -40779,7 +40788,7 @@
         <v>1.25</v>
       </c>
       <c r="AS207">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT207">
         <v>1.14</v>
@@ -41074,7 +41083,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q209">
         <v>9</v>
@@ -41265,7 +41274,7 @@
         <v>216</v>
       </c>
       <c r="P210" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q210">
         <v>6</v>
@@ -41546,7 +41555,7 @@
         <v>1.14</v>
       </c>
       <c r="AT211">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU211">
         <v>1.69</v>
@@ -41647,7 +41656,7 @@
         <v>217</v>
       </c>
       <c r="P212" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -41925,7 +41934,7 @@
         <v>1</v>
       </c>
       <c r="AS213">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT213">
         <v>0.93</v>
@@ -42411,7 +42420,7 @@
         <v>98</v>
       </c>
       <c r="P216" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q216">
         <v>3</v>
@@ -42602,7 +42611,7 @@
         <v>220</v>
       </c>
       <c r="P217" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -43366,7 +43375,7 @@
         <v>88</v>
       </c>
       <c r="P221" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q221">
         <v>4</v>
@@ -43748,7 +43757,7 @@
         <v>171</v>
       </c>
       <c r="P223" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q223">
         <v>7</v>
@@ -43890,6 +43899,579 @@
       </c>
       <c r="BK223">
         <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:63">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>2708314</v>
+      </c>
+      <c r="C224" t="s">
+        <v>63</v>
+      </c>
+      <c r="D224" t="s">
+        <v>64</v>
+      </c>
+      <c r="E224" s="2">
+        <v>44987.5</v>
+      </c>
+      <c r="F224">
+        <v>28</v>
+      </c>
+      <c r="G224" t="s">
+        <v>68</v>
+      </c>
+      <c r="H224" t="s">
+        <v>80</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <v>2</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
+      </c>
+      <c r="N224">
+        <v>3</v>
+      </c>
+      <c r="O224" t="s">
+        <v>223</v>
+      </c>
+      <c r="P224" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q224">
+        <v>3</v>
+      </c>
+      <c r="R224">
+        <v>10</v>
+      </c>
+      <c r="S224">
+        <v>13</v>
+      </c>
+      <c r="T224">
+        <v>2.05</v>
+      </c>
+      <c r="U224">
+        <v>2.1</v>
+      </c>
+      <c r="V224">
+        <v>7.5</v>
+      </c>
+      <c r="W224">
+        <v>1.48</v>
+      </c>
+      <c r="X224">
+        <v>2.48</v>
+      </c>
+      <c r="Y224">
+        <v>3.7</v>
+      </c>
+      <c r="Z224">
+        <v>1.24</v>
+      </c>
+      <c r="AA224">
+        <v>11</v>
+      </c>
+      <c r="AB224">
+        <v>1.03</v>
+      </c>
+      <c r="AC224">
+        <v>1.47</v>
+      </c>
+      <c r="AD224">
+        <v>3.7</v>
+      </c>
+      <c r="AE224">
+        <v>7.5</v>
+      </c>
+      <c r="AF224">
+        <v>1.1</v>
+      </c>
+      <c r="AG224">
+        <v>8</v>
+      </c>
+      <c r="AH224">
+        <v>1.52</v>
+      </c>
+      <c r="AI224">
+        <v>2.49</v>
+      </c>
+      <c r="AJ224">
+        <v>2.25</v>
+      </c>
+      <c r="AK224">
+        <v>1.57</v>
+      </c>
+      <c r="AL224">
+        <v>2.9</v>
+      </c>
+      <c r="AM224">
+        <v>1.38</v>
+      </c>
+      <c r="AN224">
+        <v>1.1</v>
+      </c>
+      <c r="AO224">
+        <v>1.24</v>
+      </c>
+      <c r="AP224">
+        <v>2.65</v>
+      </c>
+      <c r="AQ224">
+        <v>2.08</v>
+      </c>
+      <c r="AR224">
+        <v>0.62</v>
+      </c>
+      <c r="AS224">
+        <v>2.14</v>
+      </c>
+      <c r="AT224">
+        <v>0.57</v>
+      </c>
+      <c r="AU224">
+        <v>1.85</v>
+      </c>
+      <c r="AV224">
+        <v>1.31</v>
+      </c>
+      <c r="AW224">
+        <v>3.16</v>
+      </c>
+      <c r="AX224">
+        <v>1.34</v>
+      </c>
+      <c r="AY224">
+        <v>8</v>
+      </c>
+      <c r="AZ224">
+        <v>4.2</v>
+      </c>
+      <c r="BA224">
+        <v>1.44</v>
+      </c>
+      <c r="BB224">
+        <v>1.95</v>
+      </c>
+      <c r="BC224">
+        <v>2.38</v>
+      </c>
+      <c r="BD224">
+        <v>3.3</v>
+      </c>
+      <c r="BE224">
+        <v>4.75</v>
+      </c>
+      <c r="BF224">
+        <v>8</v>
+      </c>
+      <c r="BG224">
+        <v>2</v>
+      </c>
+      <c r="BH224">
+        <v>6</v>
+      </c>
+      <c r="BI224">
+        <v>7</v>
+      </c>
+      <c r="BJ224">
+        <v>14</v>
+      </c>
+      <c r="BK224">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:63">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>2708313</v>
+      </c>
+      <c r="C225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="2">
+        <v>44987.625</v>
+      </c>
+      <c r="F225">
+        <v>28</v>
+      </c>
+      <c r="G225" t="s">
+        <v>70</v>
+      </c>
+      <c r="H225" t="s">
+        <v>72</v>
+      </c>
+      <c r="I225">
+        <v>2</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225">
+        <v>3</v>
+      </c>
+      <c r="L225">
+        <v>4</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+      <c r="N225">
+        <v>5</v>
+      </c>
+      <c r="O225" t="s">
+        <v>224</v>
+      </c>
+      <c r="P225" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q225">
+        <v>12</v>
+      </c>
+      <c r="R225">
+        <v>2</v>
+      </c>
+      <c r="S225">
+        <v>14</v>
+      </c>
+      <c r="T225">
+        <v>2.08</v>
+      </c>
+      <c r="U225">
+        <v>2.16</v>
+      </c>
+      <c r="V225">
+        <v>6.5</v>
+      </c>
+      <c r="W225">
+        <v>1.4</v>
+      </c>
+      <c r="X225">
+        <v>2.7</v>
+      </c>
+      <c r="Y225">
+        <v>3.15</v>
+      </c>
+      <c r="Z225">
+        <v>1.3</v>
+      </c>
+      <c r="AA225">
+        <v>9</v>
+      </c>
+      <c r="AB225">
+        <v>1.06</v>
+      </c>
+      <c r="AC225">
+        <v>1.4</v>
+      </c>
+      <c r="AD225">
+        <v>3.7</v>
+      </c>
+      <c r="AE225">
+        <v>8</v>
+      </c>
+      <c r="AF225">
+        <v>1.05</v>
+      </c>
+      <c r="AG225">
+        <v>9</v>
+      </c>
+      <c r="AH225">
+        <v>1.37</v>
+      </c>
+      <c r="AI225">
+        <v>3.15</v>
+      </c>
+      <c r="AJ225">
+        <v>2.3</v>
+      </c>
+      <c r="AK225">
+        <v>1.53</v>
+      </c>
+      <c r="AL225">
+        <v>2.25</v>
+      </c>
+      <c r="AM225">
+        <v>1.61</v>
+      </c>
+      <c r="AN225">
+        <v>1.12</v>
+      </c>
+      <c r="AO225">
+        <v>1.22</v>
+      </c>
+      <c r="AP225">
+        <v>2.6</v>
+      </c>
+      <c r="AQ225">
+        <v>1.77</v>
+      </c>
+      <c r="AR225">
+        <v>0.92</v>
+      </c>
+      <c r="AS225">
+        <v>1.86</v>
+      </c>
+      <c r="AT225">
+        <v>0.86</v>
+      </c>
+      <c r="AU225">
+        <v>1.97</v>
+      </c>
+      <c r="AV225">
+        <v>1.26</v>
+      </c>
+      <c r="AW225">
+        <v>3.23</v>
+      </c>
+      <c r="AX225">
+        <v>1.3</v>
+      </c>
+      <c r="AY225">
+        <v>8.5</v>
+      </c>
+      <c r="AZ225">
+        <v>4.6</v>
+      </c>
+      <c r="BA225">
+        <v>1.37</v>
+      </c>
+      <c r="BB225">
+        <v>1.67</v>
+      </c>
+      <c r="BC225">
+        <v>2.16</v>
+      </c>
+      <c r="BD225">
+        <v>2.95</v>
+      </c>
+      <c r="BE225">
+        <v>4.2</v>
+      </c>
+      <c r="BF225">
+        <v>9</v>
+      </c>
+      <c r="BG225">
+        <v>5</v>
+      </c>
+      <c r="BH225">
+        <v>6</v>
+      </c>
+      <c r="BI225">
+        <v>6</v>
+      </c>
+      <c r="BJ225">
+        <v>15</v>
+      </c>
+      <c r="BK225">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:63">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>2708324</v>
+      </c>
+      <c r="C226" t="s">
+        <v>63</v>
+      </c>
+      <c r="D226" t="s">
+        <v>64</v>
+      </c>
+      <c r="E226" s="2">
+        <v>44988.625</v>
+      </c>
+      <c r="F226">
+        <v>29</v>
+      </c>
+      <c r="G226" t="s">
+        <v>77</v>
+      </c>
+      <c r="H226" t="s">
+        <v>69</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+      <c r="L226">
+        <v>2</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>2</v>
+      </c>
+      <c r="O226" t="s">
+        <v>225</v>
+      </c>
+      <c r="P226" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q226">
+        <v>6</v>
+      </c>
+      <c r="R226">
+        <v>1</v>
+      </c>
+      <c r="S226">
+        <v>7</v>
+      </c>
+      <c r="T226">
+        <v>4.18</v>
+      </c>
+      <c r="U226">
+        <v>1.93</v>
+      </c>
+      <c r="V226">
+        <v>3.06</v>
+      </c>
+      <c r="W226">
+        <v>1.54</v>
+      </c>
+      <c r="X226">
+        <v>2.39</v>
+      </c>
+      <c r="Y226">
+        <v>3.56</v>
+      </c>
+      <c r="Z226">
+        <v>1.27</v>
+      </c>
+      <c r="AA226">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB226">
+        <v>1.04</v>
+      </c>
+      <c r="AC226">
+        <v>2.96</v>
+      </c>
+      <c r="AD226">
+        <v>3.1</v>
+      </c>
+      <c r="AE226">
+        <v>2.27</v>
+      </c>
+      <c r="AF226">
+        <v>1.1</v>
+      </c>
+      <c r="AG226">
+        <v>7.3</v>
+      </c>
+      <c r="AH226">
+        <v>1.49</v>
+      </c>
+      <c r="AI226">
+        <v>2.55</v>
+      </c>
+      <c r="AJ226">
+        <v>2.45</v>
+      </c>
+      <c r="AK226">
+        <v>1.52</v>
+      </c>
+      <c r="AL226">
+        <v>2.15</v>
+      </c>
+      <c r="AM226">
+        <v>1.65</v>
+      </c>
+      <c r="AN226">
+        <v>1.6</v>
+      </c>
+      <c r="AO226">
+        <v>1.36</v>
+      </c>
+      <c r="AP226">
+        <v>1.34</v>
+      </c>
+      <c r="AQ226">
+        <v>1.5</v>
+      </c>
+      <c r="AR226">
+        <v>1.86</v>
+      </c>
+      <c r="AS226">
+        <v>1.6</v>
+      </c>
+      <c r="AT226">
+        <v>1.73</v>
+      </c>
+      <c r="AU226">
+        <v>1.86</v>
+      </c>
+      <c r="AV226">
+        <v>1.51</v>
+      </c>
+      <c r="AW226">
+        <v>3.37</v>
+      </c>
+      <c r="AX226">
+        <v>2.35</v>
+      </c>
+      <c r="AY226">
+        <v>7.2</v>
+      </c>
+      <c r="AZ226">
+        <v>1.89</v>
+      </c>
+      <c r="BA226">
+        <v>1.48</v>
+      </c>
+      <c r="BB226">
+        <v>1.87</v>
+      </c>
+      <c r="BC226">
+        <v>2.46</v>
+      </c>
+      <c r="BD226">
+        <v>3.42</v>
+      </c>
+      <c r="BE226">
+        <v>4.8</v>
+      </c>
+      <c r="BF226">
+        <v>9</v>
+      </c>
+      <c r="BG226">
+        <v>2</v>
+      </c>
+      <c r="BH226">
+        <v>14</v>
+      </c>
+      <c r="BI226">
+        <v>6</v>
+      </c>
+      <c r="BJ226">
+        <v>23</v>
+      </c>
+      <c r="BK226">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="311">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -694,6 +694,12 @@
     <t>['39', '58']</t>
   </si>
   <si>
+    <t>['34', '90+1']</t>
+  </si>
+  <si>
+    <t>['14', '64', '78']</t>
+  </si>
+  <si>
     <t>['73', '87']</t>
   </si>
   <si>
@@ -1302,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK226"/>
+  <dimension ref="A1:BK231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1737,7 +1743,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2501,7 +2507,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2692,7 +2698,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2782,7 +2788,7 @@
         <v>1.29</v>
       </c>
       <c r="AT8">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2883,7 +2889,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2970,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT9">
         <v>1</v>
@@ -3161,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT10">
         <v>1.73</v>
@@ -3355,7 +3361,7 @@
         <v>1.29</v>
       </c>
       <c r="AT11">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3647,7 +3653,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3734,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT13">
         <v>2.07</v>
@@ -3838,7 +3844,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3928,7 +3934,7 @@
         <v>1.6</v>
       </c>
       <c r="AT14">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4116,10 +4122,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT15">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4220,7 +4226,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4310,7 +4316,7 @@
         <v>1.14</v>
       </c>
       <c r="AT16">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4498,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT17">
         <v>0.86</v>
@@ -4602,7 +4608,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -4883,7 +4889,7 @@
         <v>2.5</v>
       </c>
       <c r="AT19">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <v>1.9</v>
@@ -5175,7 +5181,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5366,7 +5372,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5453,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT22">
         <v>1.43</v>
@@ -5748,7 +5754,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5939,7 +5945,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6029,7 +6035,7 @@
         <v>1.29</v>
       </c>
       <c r="AT25">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU25">
         <v>1.65</v>
@@ -6321,7 +6327,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6408,10 +6414,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT27">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU27">
         <v>0.99</v>
@@ -6512,7 +6518,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6599,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT28">
         <v>0.71</v>
@@ -6894,7 +6900,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -7085,7 +7091,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -7172,10 +7178,10 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT31">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU31">
         <v>1.66</v>
@@ -7276,7 +7282,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7658,7 +7664,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7936,7 +7942,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT35">
         <v>0.71</v>
@@ -8127,7 +8133,7 @@
         <v>1.5</v>
       </c>
       <c r="AS36">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT36">
         <v>1.36</v>
@@ -8422,7 +8428,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8512,7 +8518,7 @@
         <v>2.14</v>
       </c>
       <c r="AT38">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU38">
         <v>1.89</v>
@@ -8613,7 +8619,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q39">
         <v>12</v>
@@ -8703,7 +8709,7 @@
         <v>1.86</v>
       </c>
       <c r="AT39">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU39">
         <v>1.91</v>
@@ -9085,7 +9091,7 @@
         <v>2.5</v>
       </c>
       <c r="AT41">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU41">
         <v>1.98</v>
@@ -9273,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT42">
         <v>0.71</v>
@@ -9377,7 +9383,7 @@
         <v>88</v>
       </c>
       <c r="P43" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q43">
         <v>12</v>
@@ -9464,7 +9470,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT43">
         <v>0.86</v>
@@ -9655,7 +9661,7 @@
         <v>0.33</v>
       </c>
       <c r="AS44">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT44">
         <v>0.57</v>
@@ -9950,7 +9956,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10419,7 +10425,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT48">
         <v>1</v>
@@ -10610,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT49">
         <v>0.64</v>
@@ -10714,7 +10720,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10995,7 +11001,7 @@
         <v>1.14</v>
       </c>
       <c r="AT51">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU51">
         <v>1.62</v>
@@ -11096,7 +11102,7 @@
         <v>114</v>
       </c>
       <c r="P52" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11287,7 +11293,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11377,7 +11383,7 @@
         <v>1.86</v>
       </c>
       <c r="AT53">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU53">
         <v>2.15</v>
@@ -11568,7 +11574,7 @@
         <v>2.29</v>
       </c>
       <c r="AT54">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU54">
         <v>1.81</v>
@@ -11669,7 +11675,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11756,7 +11762,7 @@
         <v>0.25</v>
       </c>
       <c r="AS55">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT55">
         <v>0.57</v>
@@ -11947,7 +11953,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT56">
         <v>1.43</v>
@@ -12138,7 +12144,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT57">
         <v>0.71</v>
@@ -12242,7 +12248,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12714,7 +12720,7 @@
         <v>2.5</v>
       </c>
       <c r="AT60">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU60">
         <v>2.09</v>
@@ -13096,7 +13102,7 @@
         <v>1.29</v>
       </c>
       <c r="AT62">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU62">
         <v>1.44</v>
@@ -13388,7 +13394,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13666,10 +13672,10 @@
         <v>0.25</v>
       </c>
       <c r="AS65">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT65">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU65">
         <v>1.5</v>
@@ -14048,10 +14054,10 @@
         <v>1.75</v>
       </c>
       <c r="AS67">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT67">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU67">
         <v>1.21</v>
@@ -14152,7 +14158,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14242,7 +14248,7 @@
         <v>1.14</v>
       </c>
       <c r="AT68">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU68">
         <v>1.68</v>
@@ -14343,7 +14349,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14534,7 +14540,7 @@
         <v>100</v>
       </c>
       <c r="P70" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14725,7 +14731,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15194,7 +15200,7 @@
         <v>1.8</v>
       </c>
       <c r="AS73">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT73">
         <v>1.36</v>
@@ -15579,7 +15585,7 @@
         <v>2.14</v>
       </c>
       <c r="AT75">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU75">
         <v>1.88</v>
@@ -15767,7 +15773,7 @@
         <v>0.4</v>
       </c>
       <c r="AS76">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT76">
         <v>0.71</v>
@@ -15871,7 +15877,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16253,7 +16259,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16340,7 +16346,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT79">
         <v>1.73</v>
@@ -16444,7 +16450,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16531,10 +16537,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT80">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU80">
         <v>1.67</v>
@@ -16725,7 +16731,7 @@
         <v>1.5</v>
       </c>
       <c r="AT81">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU81">
         <v>1.91</v>
@@ -16913,7 +16919,7 @@
         <v>0.8</v>
       </c>
       <c r="AS82">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT82">
         <v>0.64</v>
@@ -17107,7 +17113,7 @@
         <v>1.6</v>
       </c>
       <c r="AT83">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU83">
         <v>1.76</v>
@@ -17208,7 +17214,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17298,7 +17304,7 @@
         <v>2.29</v>
       </c>
       <c r="AT84">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU84">
         <v>1.98</v>
@@ -17781,7 +17787,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17868,7 +17874,7 @@
         <v>0.83</v>
       </c>
       <c r="AS87">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT87">
         <v>1</v>
@@ -18163,7 +18169,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18545,7 +18551,7 @@
         <v>144</v>
       </c>
       <c r="P91" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -19399,7 +19405,7 @@
         <v>1.14</v>
       </c>
       <c r="AT95">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU95">
         <v>1.61</v>
@@ -19590,7 +19596,7 @@
         <v>1.6</v>
       </c>
       <c r="AT96">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU96">
         <v>1.72</v>
@@ -19691,7 +19697,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19778,10 +19784,10 @@
         <v>1.17</v>
       </c>
       <c r="AS97">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT97">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU97">
         <v>1.64</v>
@@ -19882,7 +19888,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20073,7 +20079,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20160,10 +20166,10 @@
         <v>0.25</v>
       </c>
       <c r="AS99">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT99">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU99">
         <v>1.3</v>
@@ -20264,7 +20270,7 @@
         <v>88</v>
       </c>
       <c r="P100" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20351,10 +20357,10 @@
         <v>0.33</v>
       </c>
       <c r="AS100">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT100">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU100">
         <v>1.79</v>
@@ -20455,7 +20461,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q101">
         <v>12</v>
@@ -20542,7 +20548,7 @@
         <v>2</v>
       </c>
       <c r="AS101">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT101">
         <v>2.07</v>
@@ -20837,7 +20843,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -21410,7 +21416,7 @@
         <v>152</v>
       </c>
       <c r="P106" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -22174,7 +22180,7 @@
         <v>100</v>
       </c>
       <c r="P110" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22261,7 +22267,7 @@
         <v>2.17</v>
       </c>
       <c r="AS110">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT110">
         <v>1.73</v>
@@ -22365,7 +22371,7 @@
         <v>88</v>
       </c>
       <c r="P111" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22455,7 +22461,7 @@
         <v>1.29</v>
       </c>
       <c r="AT111">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU111">
         <v>1.07</v>
@@ -22643,10 +22649,10 @@
         <v>1.5</v>
       </c>
       <c r="AS112">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT112">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU112">
         <v>1.68</v>
@@ -22834,10 +22840,10 @@
         <v>1.14</v>
       </c>
       <c r="AS113">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT113">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU113">
         <v>1.35</v>
@@ -22938,7 +22944,7 @@
         <v>157</v>
       </c>
       <c r="P114" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23025,10 +23031,10 @@
         <v>0.8</v>
       </c>
       <c r="AS114">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT114">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU114">
         <v>1.58</v>
@@ -23129,7 +23135,7 @@
         <v>116</v>
       </c>
       <c r="P115" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23407,7 +23413,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT116">
         <v>0.71</v>
@@ -23601,7 +23607,7 @@
         <v>1.5</v>
       </c>
       <c r="AT117">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU117">
         <v>2.02</v>
@@ -23702,7 +23708,7 @@
         <v>159</v>
       </c>
       <c r="P118" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23792,7 +23798,7 @@
         <v>1.14</v>
       </c>
       <c r="AT118">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU118">
         <v>1.71</v>
@@ -23893,7 +23899,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -23980,7 +23986,7 @@
         <v>2</v>
       </c>
       <c r="AS119">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT119">
         <v>1.73</v>
@@ -24275,7 +24281,7 @@
         <v>88</v>
       </c>
       <c r="P121" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24365,7 +24371,7 @@
         <v>1.5</v>
       </c>
       <c r="AT121">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU121">
         <v>1.9</v>
@@ -24553,7 +24559,7 @@
         <v>0.57</v>
       </c>
       <c r="AS122">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT122">
         <v>0.71</v>
@@ -24657,7 +24663,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24744,7 +24750,7 @@
         <v>2</v>
       </c>
       <c r="AS123">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT123">
         <v>2.07</v>
@@ -24848,7 +24854,7 @@
         <v>88</v>
       </c>
       <c r="P124" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -24935,10 +24941,10 @@
         <v>1.43</v>
       </c>
       <c r="AS124">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT124">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU124">
         <v>1.36</v>
@@ -25129,7 +25135,7 @@
         <v>1.6</v>
       </c>
       <c r="AT125">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU125">
         <v>1.66</v>
@@ -25230,7 +25236,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25612,7 +25618,7 @@
         <v>88</v>
       </c>
       <c r="P128" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25803,7 +25809,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25890,7 +25896,7 @@
         <v>0.63</v>
       </c>
       <c r="AS129">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT129">
         <v>0.57</v>
@@ -26275,7 +26281,7 @@
         <v>1.29</v>
       </c>
       <c r="AT131">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU131">
         <v>1.38</v>
@@ -26376,7 +26382,7 @@
         <v>166</v>
       </c>
       <c r="P132" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26949,7 +26955,7 @@
         <v>141</v>
       </c>
       <c r="P135" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27140,7 +27146,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27227,10 +27233,10 @@
         <v>1.43</v>
       </c>
       <c r="AS136">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT136">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU136">
         <v>2</v>
@@ -27331,7 +27337,7 @@
         <v>157</v>
       </c>
       <c r="P137" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27418,7 +27424,7 @@
         <v>1.13</v>
       </c>
       <c r="AS137">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT137">
         <v>1</v>
@@ -27609,7 +27615,7 @@
         <v>1.67</v>
       </c>
       <c r="AS138">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT138">
         <v>2.07</v>
@@ -27713,7 +27719,7 @@
         <v>88</v>
       </c>
       <c r="P139" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27800,10 +27806,10 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT139">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU139">
         <v>1.72</v>
@@ -27904,7 +27910,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -28185,7 +28191,7 @@
         <v>1.29</v>
       </c>
       <c r="AT141">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU141">
         <v>1.68</v>
@@ -28376,7 +28382,7 @@
         <v>1.14</v>
       </c>
       <c r="AT142">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU142">
         <v>1.67</v>
@@ -28477,7 +28483,7 @@
         <v>172</v>
       </c>
       <c r="P143" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28668,7 +28674,7 @@
         <v>173</v>
       </c>
       <c r="P144" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28758,7 +28764,7 @@
         <v>1.29</v>
       </c>
       <c r="AT144">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU144">
         <v>1.7</v>
@@ -28859,7 +28865,7 @@
         <v>174</v>
       </c>
       <c r="P145" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -28946,7 +28952,7 @@
         <v>1.67</v>
       </c>
       <c r="AS145">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT145">
         <v>1.43</v>
@@ -29137,7 +29143,7 @@
         <v>0.67</v>
       </c>
       <c r="AS146">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT146">
         <v>0.71</v>
@@ -29331,7 +29337,7 @@
         <v>1.29</v>
       </c>
       <c r="AT147">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU147">
         <v>1.18</v>
@@ -29432,7 +29438,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -29713,7 +29719,7 @@
         <v>2.5</v>
       </c>
       <c r="AT149">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU149">
         <v>1.88</v>
@@ -29904,7 +29910,7 @@
         <v>2.14</v>
       </c>
       <c r="AT150">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU150">
         <v>1.88</v>
@@ -30005,7 +30011,7 @@
         <v>165</v>
       </c>
       <c r="P151" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30387,7 +30393,7 @@
         <v>180</v>
       </c>
       <c r="P153" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -31151,7 +31157,7 @@
         <v>88</v>
       </c>
       <c r="P157" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31241,7 +31247,7 @@
         <v>1.14</v>
       </c>
       <c r="AT157">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU157">
         <v>1.61</v>
@@ -31429,7 +31435,7 @@
         <v>0.89</v>
       </c>
       <c r="AS158">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT158">
         <v>0.71</v>
@@ -31533,7 +31539,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -31620,10 +31626,10 @@
         <v>1.33</v>
       </c>
       <c r="AS159">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT159">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU159">
         <v>1.31</v>
@@ -31811,7 +31817,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT160">
         <v>0.86</v>
@@ -31915,7 +31921,7 @@
         <v>88</v>
       </c>
       <c r="P161" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q161">
         <v>6</v>
@@ -32106,7 +32112,7 @@
         <v>124</v>
       </c>
       <c r="P162" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32297,7 +32303,7 @@
         <v>183</v>
       </c>
       <c r="P163" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -32578,7 +32584,7 @@
         <v>2.29</v>
       </c>
       <c r="AT164">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU164">
         <v>1.96</v>
@@ -32679,7 +32685,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32957,7 +32963,7 @@
         <v>0.9</v>
       </c>
       <c r="AS166">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT166">
         <v>1</v>
@@ -33061,7 +33067,7 @@
         <v>187</v>
       </c>
       <c r="P167" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33148,7 +33154,7 @@
         <v>1.3</v>
       </c>
       <c r="AS167">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT167">
         <v>1.36</v>
@@ -33342,7 +33348,7 @@
         <v>1.86</v>
       </c>
       <c r="AT168">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU168">
         <v>2.05</v>
@@ -33533,7 +33539,7 @@
         <v>2.14</v>
       </c>
       <c r="AT169">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU169">
         <v>1.89</v>
@@ -33912,7 +33918,7 @@
         <v>1.8</v>
       </c>
       <c r="AS171">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT171">
         <v>1.43</v>
@@ -34103,7 +34109,7 @@
         <v>1.2</v>
       </c>
       <c r="AS172">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT172">
         <v>0.86</v>
@@ -34297,7 +34303,7 @@
         <v>1.29</v>
       </c>
       <c r="AT173">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU173">
         <v>1.6</v>
@@ -34485,7 +34491,7 @@
         <v>0.6</v>
       </c>
       <c r="AS174">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT174">
         <v>0.57</v>
@@ -34589,7 +34595,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -34679,7 +34685,7 @@
         <v>1.29</v>
       </c>
       <c r="AT175">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU175">
         <v>1.37</v>
@@ -34971,7 +34977,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35440,7 +35446,7 @@
         <v>0.45</v>
       </c>
       <c r="AS179">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT179">
         <v>0.64</v>
@@ -35544,7 +35550,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -35631,10 +35637,10 @@
         <v>1</v>
       </c>
       <c r="AS180">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT180">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU180">
         <v>1.29</v>
@@ -35825,7 +35831,7 @@
         <v>2.29</v>
       </c>
       <c r="AT181">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU181">
         <v>1.94</v>
@@ -35926,7 +35932,7 @@
         <v>88</v>
       </c>
       <c r="P182" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -36016,7 +36022,7 @@
         <v>1.14</v>
       </c>
       <c r="AT182">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU182">
         <v>1.52</v>
@@ -36308,7 +36314,7 @@
         <v>198</v>
       </c>
       <c r="P184" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -36499,7 +36505,7 @@
         <v>88</v>
       </c>
       <c r="P185" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q185">
         <v>5</v>
@@ -36690,7 +36696,7 @@
         <v>199</v>
       </c>
       <c r="P186" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -36968,7 +36974,7 @@
         <v>0.55</v>
       </c>
       <c r="AS187">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT187">
         <v>0.71</v>
@@ -37350,7 +37356,7 @@
         <v>1</v>
       </c>
       <c r="AS189">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT189">
         <v>1</v>
@@ -37541,7 +37547,7 @@
         <v>1.64</v>
       </c>
       <c r="AS190">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT190">
         <v>1.43</v>
@@ -37645,7 +37651,7 @@
         <v>88</v>
       </c>
       <c r="P191" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q191">
         <v>2</v>
@@ -37735,7 +37741,7 @@
         <v>2.14</v>
       </c>
       <c r="AT191">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU191">
         <v>1.87</v>
@@ -38117,7 +38123,7 @@
         <v>2.5</v>
       </c>
       <c r="AT193">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU193">
         <v>1.91</v>
@@ -38218,7 +38224,7 @@
         <v>206</v>
       </c>
       <c r="P194" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q194">
         <v>9</v>
@@ -38409,7 +38415,7 @@
         <v>153</v>
       </c>
       <c r="P195" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q195">
         <v>5</v>
@@ -38496,7 +38502,7 @@
         <v>0.83</v>
       </c>
       <c r="AS195">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT195">
         <v>1</v>
@@ -38600,7 +38606,7 @@
         <v>207</v>
       </c>
       <c r="P196" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -38687,10 +38693,10 @@
         <v>1.08</v>
       </c>
       <c r="AS196">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT196">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU196">
         <v>1.71</v>
@@ -39173,7 +39179,7 @@
         <v>171</v>
       </c>
       <c r="P199" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -39263,7 +39269,7 @@
         <v>1.29</v>
       </c>
       <c r="AT199">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU199">
         <v>1.31</v>
@@ -39364,7 +39370,7 @@
         <v>209</v>
       </c>
       <c r="P200" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q200">
         <v>6</v>
@@ -39454,7 +39460,7 @@
         <v>1.5</v>
       </c>
       <c r="AT200">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU200">
         <v>1.82</v>
@@ -39642,10 +39648,10 @@
         <v>1.42</v>
       </c>
       <c r="AS201">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT201">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU201">
         <v>1.35</v>
@@ -39746,7 +39752,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q202">
         <v>6</v>
@@ -40024,7 +40030,7 @@
         <v>1.25</v>
       </c>
       <c r="AS203">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT203">
         <v>1.36</v>
@@ -40791,7 +40797,7 @@
         <v>1.86</v>
       </c>
       <c r="AT207">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU207">
         <v>2</v>
@@ -41083,7 +41089,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q209">
         <v>9</v>
@@ -41170,7 +41176,7 @@
         <v>0.92</v>
       </c>
       <c r="AS209">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT209">
         <v>1</v>
@@ -41274,7 +41280,7 @@
         <v>216</v>
       </c>
       <c r="P210" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q210">
         <v>6</v>
@@ -41361,7 +41367,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS210">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT210">
         <v>0.64</v>
@@ -41552,7 +41558,7 @@
         <v>1.77</v>
       </c>
       <c r="AS211">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT211">
         <v>1.73</v>
@@ -41656,7 +41662,7 @@
         <v>217</v>
       </c>
       <c r="P212" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -41746,7 +41752,7 @@
         <v>1.5</v>
       </c>
       <c r="AT212">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU212">
         <v>1.83</v>
@@ -41937,7 +41943,7 @@
         <v>1.6</v>
       </c>
       <c r="AT213">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU213">
         <v>1.91</v>
@@ -42125,10 +42131,10 @@
         <v>1.15</v>
       </c>
       <c r="AS214">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AT214">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU214">
         <v>1.95</v>
@@ -42319,7 +42325,7 @@
         <v>1.29</v>
       </c>
       <c r="AT215">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU215">
         <v>1.27</v>
@@ -42420,7 +42426,7 @@
         <v>98</v>
       </c>
       <c r="P216" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q216">
         <v>3</v>
@@ -42510,7 +42516,7 @@
         <v>1.14</v>
       </c>
       <c r="AT216">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU216">
         <v>1.44</v>
@@ -42611,7 +42617,7 @@
         <v>220</v>
       </c>
       <c r="P217" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -42698,7 +42704,7 @@
         <v>2</v>
       </c>
       <c r="AS217">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT217">
         <v>2.07</v>
@@ -43375,7 +43381,7 @@
         <v>88</v>
       </c>
       <c r="P221" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q221">
         <v>4</v>
@@ -43462,7 +43468,7 @@
         <v>0.85</v>
       </c>
       <c r="AS221">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT221">
         <v>1</v>
@@ -43757,7 +43763,7 @@
         <v>171</v>
       </c>
       <c r="P223" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q223">
         <v>7</v>
@@ -44472,6 +44478,961 @@
       </c>
       <c r="BK226">
         <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:63">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>2708326</v>
+      </c>
+      <c r="C227" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F227">
+        <v>29</v>
+      </c>
+      <c r="G227" t="s">
+        <v>76</v>
+      </c>
+      <c r="H227" t="s">
+        <v>71</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>1</v>
+      </c>
+      <c r="O227" t="s">
+        <v>132</v>
+      </c>
+      <c r="P227" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q227">
+        <v>7</v>
+      </c>
+      <c r="R227">
+        <v>6</v>
+      </c>
+      <c r="S227">
+        <v>13</v>
+      </c>
+      <c r="T227">
+        <v>2.8</v>
+      </c>
+      <c r="U227">
+        <v>1.9</v>
+      </c>
+      <c r="V227">
+        <v>4.4</v>
+      </c>
+      <c r="W227">
+        <v>1.55</v>
+      </c>
+      <c r="X227">
+        <v>2.3</v>
+      </c>
+      <c r="Y227">
+        <v>3.5</v>
+      </c>
+      <c r="Z227">
+        <v>1.27</v>
+      </c>
+      <c r="AA227">
+        <v>8.25</v>
+      </c>
+      <c r="AB227">
+        <v>1.04</v>
+      </c>
+      <c r="AC227">
+        <v>2</v>
+      </c>
+      <c r="AD227">
+        <v>3.15</v>
+      </c>
+      <c r="AE227">
+        <v>3.6</v>
+      </c>
+      <c r="AF227">
+        <v>1.1</v>
+      </c>
+      <c r="AG227">
+        <v>7.4</v>
+      </c>
+      <c r="AH227">
+        <v>1.49</v>
+      </c>
+      <c r="AI227">
+        <v>2.58</v>
+      </c>
+      <c r="AJ227">
+        <v>2.3</v>
+      </c>
+      <c r="AK227">
+        <v>1.5</v>
+      </c>
+      <c r="AL227">
+        <v>2.1</v>
+      </c>
+      <c r="AM227">
+        <v>1.65</v>
+      </c>
+      <c r="AN227">
+        <v>1.28</v>
+      </c>
+      <c r="AO227">
+        <v>1.35</v>
+      </c>
+      <c r="AP227">
+        <v>1.68</v>
+      </c>
+      <c r="AQ227">
+        <v>1.64</v>
+      </c>
+      <c r="AR227">
+        <v>0.93</v>
+      </c>
+      <c r="AS227">
+        <v>1.73</v>
+      </c>
+      <c r="AT227">
+        <v>0.87</v>
+      </c>
+      <c r="AU227">
+        <v>1.72</v>
+      </c>
+      <c r="AV227">
+        <v>1.25</v>
+      </c>
+      <c r="AW227">
+        <v>2.97</v>
+      </c>
+      <c r="AX227">
+        <v>1.58</v>
+      </c>
+      <c r="AY227">
+        <v>7.7</v>
+      </c>
+      <c r="AZ227">
+        <v>3.02</v>
+      </c>
+      <c r="BA227">
+        <v>1.37</v>
+      </c>
+      <c r="BB227">
+        <v>1.69</v>
+      </c>
+      <c r="BC227">
+        <v>2.17</v>
+      </c>
+      <c r="BD227">
+        <v>2.88</v>
+      </c>
+      <c r="BE227">
+        <v>4.3</v>
+      </c>
+      <c r="BF227">
+        <v>5</v>
+      </c>
+      <c r="BG227">
+        <v>5</v>
+      </c>
+      <c r="BH227">
+        <v>9</v>
+      </c>
+      <c r="BI227">
+        <v>9</v>
+      </c>
+      <c r="BJ227">
+        <v>14</v>
+      </c>
+      <c r="BK227">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:63">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>2708325</v>
+      </c>
+      <c r="C228" t="s">
+        <v>63</v>
+      </c>
+      <c r="D228" t="s">
+        <v>64</v>
+      </c>
+      <c r="E228" s="2">
+        <v>44989.625</v>
+      </c>
+      <c r="F228">
+        <v>29</v>
+      </c>
+      <c r="G228" t="s">
+        <v>78</v>
+      </c>
+      <c r="H228" t="s">
+        <v>65</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
+      </c>
+      <c r="N228">
+        <v>1</v>
+      </c>
+      <c r="O228" t="s">
+        <v>88</v>
+      </c>
+      <c r="P228" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q228">
+        <v>5</v>
+      </c>
+      <c r="R228">
+        <v>1</v>
+      </c>
+      <c r="S228">
+        <v>6</v>
+      </c>
+      <c r="T228">
+        <v>2.55</v>
+      </c>
+      <c r="U228">
+        <v>1.98</v>
+      </c>
+      <c r="V228">
+        <v>5</v>
+      </c>
+      <c r="W228">
+        <v>1.47</v>
+      </c>
+      <c r="X228">
+        <v>2.48</v>
+      </c>
+      <c r="Y228">
+        <v>3.55</v>
+      </c>
+      <c r="Z228">
+        <v>1.25</v>
+      </c>
+      <c r="AA228">
+        <v>10.5</v>
+      </c>
+      <c r="AB228">
+        <v>1.04</v>
+      </c>
+      <c r="AC228">
+        <v>1.83</v>
+      </c>
+      <c r="AD228">
+        <v>3.2</v>
+      </c>
+      <c r="AE228">
+        <v>4.2</v>
+      </c>
+      <c r="AF228">
+        <v>1.1</v>
+      </c>
+      <c r="AG228">
+        <v>7.65</v>
+      </c>
+      <c r="AH228">
+        <v>1.5</v>
+      </c>
+      <c r="AI228">
+        <v>2.3</v>
+      </c>
+      <c r="AJ228">
+        <v>2.38</v>
+      </c>
+      <c r="AK228">
+        <v>1.52</v>
+      </c>
+      <c r="AL228">
+        <v>2.17</v>
+      </c>
+      <c r="AM228">
+        <v>1.65</v>
+      </c>
+      <c r="AN228">
+        <v>1.2</v>
+      </c>
+      <c r="AO228">
+        <v>1.33</v>
+      </c>
+      <c r="AP228">
+        <v>1.92</v>
+      </c>
+      <c r="AQ228">
+        <v>2.36</v>
+      </c>
+      <c r="AR228">
+        <v>1.21</v>
+      </c>
+      <c r="AS228">
+        <v>2.2</v>
+      </c>
+      <c r="AT228">
+        <v>1.33</v>
+      </c>
+      <c r="AU228">
+        <v>1.97</v>
+      </c>
+      <c r="AV228">
+        <v>1.23</v>
+      </c>
+      <c r="AW228">
+        <v>3.2</v>
+      </c>
+      <c r="AX228">
+        <v>1.42</v>
+      </c>
+      <c r="AY228">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ228">
+        <v>3.74</v>
+      </c>
+      <c r="BA228">
+        <v>1.48</v>
+      </c>
+      <c r="BB228">
+        <v>1.87</v>
+      </c>
+      <c r="BC228">
+        <v>2.46</v>
+      </c>
+      <c r="BD228">
+        <v>3.42</v>
+      </c>
+      <c r="BE228">
+        <v>4.4</v>
+      </c>
+      <c r="BF228">
+        <v>7</v>
+      </c>
+      <c r="BG228">
+        <v>3</v>
+      </c>
+      <c r="BH228">
+        <v>6</v>
+      </c>
+      <c r="BI228">
+        <v>5</v>
+      </c>
+      <c r="BJ228">
+        <v>13</v>
+      </c>
+      <c r="BK228">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:63">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>2708327</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" t="s">
+        <v>64</v>
+      </c>
+      <c r="E229" s="2">
+        <v>44990.33333333334</v>
+      </c>
+      <c r="F229">
+        <v>29</v>
+      </c>
+      <c r="G229" t="s">
+        <v>73</v>
+      </c>
+      <c r="H229" t="s">
+        <v>79</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229">
+        <v>2</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229" t="s">
+        <v>226</v>
+      </c>
+      <c r="P229" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q229">
+        <v>2</v>
+      </c>
+      <c r="R229">
+        <v>1</v>
+      </c>
+      <c r="S229">
+        <v>3</v>
+      </c>
+      <c r="T229">
+        <v>3.4</v>
+      </c>
+      <c r="U229">
+        <v>1.82</v>
+      </c>
+      <c r="V229">
+        <v>3.7</v>
+      </c>
+      <c r="W229">
+        <v>1.6</v>
+      </c>
+      <c r="X229">
+        <v>2.2</v>
+      </c>
+      <c r="Y229">
+        <v>3.75</v>
+      </c>
+      <c r="Z229">
+        <v>1.23</v>
+      </c>
+      <c r="AA229">
+        <v>8.75</v>
+      </c>
+      <c r="AB229">
+        <v>1.03</v>
+      </c>
+      <c r="AC229">
+        <v>2.48</v>
+      </c>
+      <c r="AD229">
+        <v>2.86</v>
+      </c>
+      <c r="AE229">
+        <v>2.72</v>
+      </c>
+      <c r="AF229">
+        <v>1.12</v>
+      </c>
+      <c r="AG229">
+        <v>6.65</v>
+      </c>
+      <c r="AH229">
+        <v>1.54</v>
+      </c>
+      <c r="AI229">
+        <v>2.43</v>
+      </c>
+      <c r="AJ229">
+        <v>2.48</v>
+      </c>
+      <c r="AK229">
+        <v>1.44</v>
+      </c>
+      <c r="AL229">
+        <v>2.2</v>
+      </c>
+      <c r="AM229">
+        <v>1.62</v>
+      </c>
+      <c r="AN229">
+        <v>1.4</v>
+      </c>
+      <c r="AO229">
+        <v>1.38</v>
+      </c>
+      <c r="AP229">
+        <v>1.48</v>
+      </c>
+      <c r="AQ229">
+        <v>0.64</v>
+      </c>
+      <c r="AR229">
+        <v>1.07</v>
+      </c>
+      <c r="AS229">
+        <v>0.8</v>
+      </c>
+      <c r="AT229">
+        <v>1</v>
+      </c>
+      <c r="AU229">
+        <v>1.29</v>
+      </c>
+      <c r="AV229">
+        <v>1.43</v>
+      </c>
+      <c r="AW229">
+        <v>2.72</v>
+      </c>
+      <c r="AX229">
+        <v>2</v>
+      </c>
+      <c r="AY229">
+        <v>7.1</v>
+      </c>
+      <c r="AZ229">
+        <v>2.21</v>
+      </c>
+      <c r="BA229">
+        <v>1.51</v>
+      </c>
+      <c r="BB229">
+        <v>1.92</v>
+      </c>
+      <c r="BC229">
+        <v>2.57</v>
+      </c>
+      <c r="BD229">
+        <v>3.56</v>
+      </c>
+      <c r="BE229">
+        <v>5.4</v>
+      </c>
+      <c r="BF229">
+        <v>3</v>
+      </c>
+      <c r="BG229">
+        <v>5</v>
+      </c>
+      <c r="BH229">
+        <v>2</v>
+      </c>
+      <c r="BI229">
+        <v>7</v>
+      </c>
+      <c r="BJ229">
+        <v>5</v>
+      </c>
+      <c r="BK229">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:63">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>2708321</v>
+      </c>
+      <c r="C230" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" t="s">
+        <v>64</v>
+      </c>
+      <c r="E230" s="2">
+        <v>44990.4375</v>
+      </c>
+      <c r="F230">
+        <v>29</v>
+      </c>
+      <c r="G230" t="s">
+        <v>72</v>
+      </c>
+      <c r="H230" t="s">
+        <v>66</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>1</v>
+      </c>
+      <c r="N230">
+        <v>1</v>
+      </c>
+      <c r="O230" t="s">
+        <v>88</v>
+      </c>
+      <c r="P230" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q230">
+        <v>2</v>
+      </c>
+      <c r="R230">
+        <v>6</v>
+      </c>
+      <c r="S230">
+        <v>8</v>
+      </c>
+      <c r="T230">
+        <v>4.1</v>
+      </c>
+      <c r="U230">
+        <v>1.88</v>
+      </c>
+      <c r="V230">
+        <v>3.05</v>
+      </c>
+      <c r="W230">
+        <v>1.58</v>
+      </c>
+      <c r="X230">
+        <v>2.25</v>
+      </c>
+      <c r="Y230">
+        <v>3.6</v>
+      </c>
+      <c r="Z230">
+        <v>1.25</v>
+      </c>
+      <c r="AA230">
+        <v>8.5</v>
+      </c>
+      <c r="AB230">
+        <v>1.04</v>
+      </c>
+      <c r="AC230">
+        <v>3.21</v>
+      </c>
+      <c r="AD230">
+        <v>2.95</v>
+      </c>
+      <c r="AE230">
+        <v>2.13</v>
+      </c>
+      <c r="AF230">
+        <v>1.1</v>
+      </c>
+      <c r="AG230">
+        <v>7.3</v>
+      </c>
+      <c r="AH230">
+        <v>1.52</v>
+      </c>
+      <c r="AI230">
+        <v>2.48</v>
+      </c>
+      <c r="AJ230">
+        <v>2.5</v>
+      </c>
+      <c r="AK230">
+        <v>1.43</v>
+      </c>
+      <c r="AL230">
+        <v>2.15</v>
+      </c>
+      <c r="AM230">
+        <v>1.62</v>
+      </c>
+      <c r="AN230">
+        <v>1.6</v>
+      </c>
+      <c r="AO230">
+        <v>1.35</v>
+      </c>
+      <c r="AP230">
+        <v>1.3</v>
+      </c>
+      <c r="AQ230">
+        <v>1.5</v>
+      </c>
+      <c r="AR230">
+        <v>1.14</v>
+      </c>
+      <c r="AS230">
+        <v>1.4</v>
+      </c>
+      <c r="AT230">
+        <v>1.27</v>
+      </c>
+      <c r="AU230">
+        <v>1.34</v>
+      </c>
+      <c r="AV230">
+        <v>1.54</v>
+      </c>
+      <c r="AW230">
+        <v>2.88</v>
+      </c>
+      <c r="AX230">
+        <v>2.66</v>
+      </c>
+      <c r="AY230">
+        <v>7.5</v>
+      </c>
+      <c r="AZ230">
+        <v>1.71</v>
+      </c>
+      <c r="BA230">
+        <v>1.39</v>
+      </c>
+      <c r="BB230">
+        <v>1.73</v>
+      </c>
+      <c r="BC230">
+        <v>2.23</v>
+      </c>
+      <c r="BD230">
+        <v>2.98</v>
+      </c>
+      <c r="BE230">
+        <v>4.75</v>
+      </c>
+      <c r="BF230">
+        <v>6</v>
+      </c>
+      <c r="BG230">
+        <v>3</v>
+      </c>
+      <c r="BH230">
+        <v>7</v>
+      </c>
+      <c r="BI230">
+        <v>3</v>
+      </c>
+      <c r="BJ230">
+        <v>13</v>
+      </c>
+      <c r="BK230">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:63">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>2708322</v>
+      </c>
+      <c r="C231" t="s">
+        <v>63</v>
+      </c>
+      <c r="D231" t="s">
+        <v>64</v>
+      </c>
+      <c r="E231" s="2">
+        <v>44990.66666666666</v>
+      </c>
+      <c r="F231">
+        <v>29</v>
+      </c>
+      <c r="G231" t="s">
+        <v>80</v>
+      </c>
+      <c r="H231" t="s">
+        <v>70</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <v>2</v>
+      </c>
+      <c r="L231">
+        <v>3</v>
+      </c>
+      <c r="M231">
+        <v>1</v>
+      </c>
+      <c r="N231">
+        <v>4</v>
+      </c>
+      <c r="O231" t="s">
+        <v>227</v>
+      </c>
+      <c r="P231" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q231">
+        <v>1</v>
+      </c>
+      <c r="R231">
+        <v>5</v>
+      </c>
+      <c r="S231">
+        <v>6</v>
+      </c>
+      <c r="T231">
+        <v>4.2</v>
+      </c>
+      <c r="U231">
+        <v>1.98</v>
+      </c>
+      <c r="V231">
+        <v>2.85</v>
+      </c>
+      <c r="W231">
+        <v>1.51</v>
+      </c>
+      <c r="X231">
+        <v>2.4</v>
+      </c>
+      <c r="Y231">
+        <v>3.55</v>
+      </c>
+      <c r="Z231">
+        <v>1.25</v>
+      </c>
+      <c r="AA231">
+        <v>10.5</v>
+      </c>
+      <c r="AB231">
+        <v>1.04</v>
+      </c>
+      <c r="AC231">
+        <v>3.5</v>
+      </c>
+      <c r="AD231">
+        <v>3.2</v>
+      </c>
+      <c r="AE231">
+        <v>2.1</v>
+      </c>
+      <c r="AF231">
+        <v>1.09</v>
+      </c>
+      <c r="AG231">
+        <v>8</v>
+      </c>
+      <c r="AH231">
+        <v>1.48</v>
+      </c>
+      <c r="AI231">
+        <v>2.5</v>
+      </c>
+      <c r="AJ231">
+        <v>2.43</v>
+      </c>
+      <c r="AK231">
+        <v>1.54</v>
+      </c>
+      <c r="AL231">
+        <v>2.05</v>
+      </c>
+      <c r="AM231">
+        <v>1.7</v>
+      </c>
+      <c r="AN231">
+        <v>1.71</v>
+      </c>
+      <c r="AO231">
+        <v>1.33</v>
+      </c>
+      <c r="AP231">
+        <v>1.3</v>
+      </c>
+      <c r="AQ231">
+        <v>1.14</v>
+      </c>
+      <c r="AR231">
+        <v>2</v>
+      </c>
+      <c r="AS231">
+        <v>1.27</v>
+      </c>
+      <c r="AT231">
+        <v>1.87</v>
+      </c>
+      <c r="AU231">
+        <v>1.68</v>
+      </c>
+      <c r="AV231">
+        <v>1.72</v>
+      </c>
+      <c r="AW231">
+        <v>3.4</v>
+      </c>
+      <c r="AX231">
+        <v>2.35</v>
+      </c>
+      <c r="AY231">
+        <v>7.2</v>
+      </c>
+      <c r="AZ231">
+        <v>1.89</v>
+      </c>
+      <c r="BA231">
+        <v>1.48</v>
+      </c>
+      <c r="BB231">
+        <v>1.87</v>
+      </c>
+      <c r="BC231">
+        <v>2.46</v>
+      </c>
+      <c r="BD231">
+        <v>3.42</v>
+      </c>
+      <c r="BE231">
+        <v>4.75</v>
+      </c>
+      <c r="BF231">
+        <v>7</v>
+      </c>
+      <c r="BG231">
+        <v>4</v>
+      </c>
+      <c r="BH231">
+        <v>5</v>
+      </c>
+      <c r="BI231">
+        <v>7</v>
+      </c>
+      <c r="BJ231">
+        <v>12</v>
+      </c>
+      <c r="BK231">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="313">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -700,6 +700,9 @@
     <t>['14', '64', '78']</t>
   </si>
   <si>
+    <t>['10', '73']</t>
+  </si>
+  <si>
     <t>['73', '87']</t>
   </si>
   <si>
@@ -947,6 +950,9 @@
   </si>
   <si>
     <t>['42', '90+4']</t>
+  </si>
+  <si>
+    <t>['31', '36']</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK231"/>
+  <dimension ref="A1:BK233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1743,7 +1749,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2507,7 +2513,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2698,7 +2704,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2889,7 +2895,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3358,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT11">
         <v>0.87</v>
@@ -3549,10 +3555,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT12">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3653,7 +3659,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3743,7 +3749,7 @@
         <v>1.73</v>
       </c>
       <c r="AT13">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3844,7 +3850,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4226,7 +4232,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4608,7 +4614,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -5077,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT20">
         <v>0.57</v>
@@ -5181,7 +5187,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5372,7 +5378,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5754,7 +5760,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5945,7 +5951,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6327,7 +6333,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6518,7 +6524,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6608,7 +6614,7 @@
         <v>2.2</v>
       </c>
       <c r="AT28">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU28">
         <v>1.44</v>
@@ -6796,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT29">
         <v>0.57</v>
@@ -6900,7 +6906,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6990,7 +6996,7 @@
         <v>1.14</v>
       </c>
       <c r="AT30">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU30">
         <v>1.32</v>
@@ -7091,7 +7097,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -7282,7 +7288,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7664,7 +7670,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -8428,7 +8434,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8619,7 +8625,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q39">
         <v>12</v>
@@ -8897,7 +8903,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT40">
         <v>1.43</v>
@@ -9282,7 +9288,7 @@
         <v>0.8</v>
       </c>
       <c r="AT42">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU42">
         <v>1.05</v>
@@ -9383,7 +9389,7 @@
         <v>88</v>
       </c>
       <c r="P43" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q43">
         <v>12</v>
@@ -9956,7 +9962,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10234,7 +10240,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT47">
         <v>0.71</v>
@@ -10720,7 +10726,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10807,7 +10813,7 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT50">
         <v>1.36</v>
@@ -11102,7 +11108,7 @@
         <v>114</v>
       </c>
       <c r="P52" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11293,7 +11299,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11675,7 +11681,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12248,7 +12254,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12911,7 +12917,7 @@
         <v>1.29</v>
       </c>
       <c r="AT61">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU61">
         <v>1.21</v>
@@ -13290,7 +13296,7 @@
         <v>0.25</v>
       </c>
       <c r="AS63">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT63">
         <v>0.64</v>
@@ -13394,7 +13400,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13863,7 +13869,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT66">
         <v>1.36</v>
@@ -14158,7 +14164,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14349,7 +14355,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14540,7 +14546,7 @@
         <v>100</v>
       </c>
       <c r="P70" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14731,7 +14737,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15394,7 +15400,7 @@
         <v>2.5</v>
       </c>
       <c r="AT74">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU74">
         <v>1.99</v>
@@ -15877,7 +15883,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16155,7 +16161,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT78">
         <v>1</v>
@@ -16259,7 +16265,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16450,7 +16456,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16728,7 +16734,7 @@
         <v>1.4</v>
       </c>
       <c r="AS81">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT81">
         <v>0.87</v>
@@ -17214,7 +17220,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17495,7 +17501,7 @@
         <v>1.14</v>
       </c>
       <c r="AT85">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU85">
         <v>1.67</v>
@@ -17787,7 +17793,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -18169,7 +18175,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18551,7 +18557,7 @@
         <v>144</v>
       </c>
       <c r="P91" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18641,7 +18647,7 @@
         <v>1.86</v>
       </c>
       <c r="AT91">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU91">
         <v>2.09</v>
@@ -19211,7 +19217,7 @@
         <v>0.67</v>
       </c>
       <c r="AS94">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT94">
         <v>0.64</v>
@@ -19697,7 +19703,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19888,7 +19894,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19975,7 +19981,7 @@
         <v>2</v>
       </c>
       <c r="AS98">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT98">
         <v>1.73</v>
@@ -20079,7 +20085,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20270,7 +20276,7 @@
         <v>88</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20461,7 +20467,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q101">
         <v>12</v>
@@ -20551,7 +20557,7 @@
         <v>1.27</v>
       </c>
       <c r="AT101">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU101">
         <v>1.61</v>
@@ -20843,7 +20849,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -21416,7 +21422,7 @@
         <v>152</v>
       </c>
       <c r="P106" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -22180,7 +22186,7 @@
         <v>100</v>
       </c>
       <c r="P110" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22371,7 +22377,7 @@
         <v>88</v>
       </c>
       <c r="P111" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22458,7 +22464,7 @@
         <v>0.71</v>
       </c>
       <c r="AS111">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT111">
         <v>1</v>
@@ -22944,7 +22950,7 @@
         <v>157</v>
       </c>
       <c r="P114" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23135,7 +23141,7 @@
         <v>116</v>
       </c>
       <c r="P115" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23225,7 +23231,7 @@
         <v>1.6</v>
       </c>
       <c r="AT115">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU115">
         <v>1.62</v>
@@ -23416,7 +23422,7 @@
         <v>1.4</v>
       </c>
       <c r="AT116">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU116">
         <v>1.29</v>
@@ -23604,7 +23610,7 @@
         <v>0.8</v>
       </c>
       <c r="AS117">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT117">
         <v>1.87</v>
@@ -23708,7 +23714,7 @@
         <v>159</v>
       </c>
       <c r="P118" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23899,7 +23905,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24177,7 +24183,7 @@
         <v>1.29</v>
       </c>
       <c r="AS120">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT120">
         <v>0.86</v>
@@ -24281,7 +24287,7 @@
         <v>88</v>
       </c>
       <c r="P121" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24368,7 +24374,7 @@
         <v>1.17</v>
       </c>
       <c r="AS121">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT121">
         <v>1.27</v>
@@ -24562,7 +24568,7 @@
         <v>1.27</v>
       </c>
       <c r="AT122">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU122">
         <v>1.52</v>
@@ -24663,7 +24669,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24753,7 +24759,7 @@
         <v>2.2</v>
       </c>
       <c r="AT123">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU123">
         <v>2.03</v>
@@ -24854,7 +24860,7 @@
         <v>88</v>
       </c>
       <c r="P124" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -25236,7 +25242,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25618,7 +25624,7 @@
         <v>88</v>
       </c>
       <c r="P128" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25809,7 +25815,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -26382,7 +26388,7 @@
         <v>166</v>
       </c>
       <c r="P132" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26851,7 +26857,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT134">
         <v>0.86</v>
@@ -26955,7 +26961,7 @@
         <v>141</v>
       </c>
       <c r="P135" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27146,7 +27152,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27337,7 +27343,7 @@
         <v>157</v>
       </c>
       <c r="P137" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27618,7 +27624,7 @@
         <v>0.8</v>
       </c>
       <c r="AT138">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU138">
         <v>1.31</v>
@@ -27719,7 +27725,7 @@
         <v>88</v>
       </c>
       <c r="P139" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27910,7 +27916,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -28000,7 +28006,7 @@
         <v>1.6</v>
       </c>
       <c r="AT140">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU140">
         <v>1.69</v>
@@ -28483,7 +28489,7 @@
         <v>172</v>
       </c>
       <c r="P143" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28573,7 +28579,7 @@
         <v>1.29</v>
       </c>
       <c r="AT143">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU143">
         <v>1.42</v>
@@ -28674,7 +28680,7 @@
         <v>173</v>
       </c>
       <c r="P144" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28865,7 +28871,7 @@
         <v>174</v>
       </c>
       <c r="P145" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -29334,7 +29340,7 @@
         <v>1.56</v>
       </c>
       <c r="AS147">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT147">
         <v>1.33</v>
@@ -29438,7 +29444,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -30011,7 +30017,7 @@
         <v>165</v>
       </c>
       <c r="P151" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30393,7 +30399,7 @@
         <v>180</v>
       </c>
       <c r="P153" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30480,7 +30486,7 @@
         <v>1.11</v>
       </c>
       <c r="AS153">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT153">
         <v>1</v>
@@ -31056,7 +31062,7 @@
         <v>1.29</v>
       </c>
       <c r="AT156">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU156">
         <v>1.68</v>
@@ -31157,7 +31163,7 @@
         <v>88</v>
       </c>
       <c r="P157" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31438,7 +31444,7 @@
         <v>1.73</v>
       </c>
       <c r="AT158">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU158">
         <v>1.72</v>
@@ -31539,7 +31545,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -31921,7 +31927,7 @@
         <v>88</v>
       </c>
       <c r="P161" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q161">
         <v>6</v>
@@ -32011,7 +32017,7 @@
         <v>1.86</v>
       </c>
       <c r="AT161">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU161">
         <v>2.11</v>
@@ -32112,7 +32118,7 @@
         <v>124</v>
       </c>
       <c r="P162" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32199,7 +32205,7 @@
         <v>1.8</v>
       </c>
       <c r="AS162">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT162">
         <v>1.73</v>
@@ -32303,7 +32309,7 @@
         <v>183</v>
       </c>
       <c r="P163" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -32390,7 +32396,7 @@
         <v>0.6</v>
       </c>
       <c r="AS163">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT163">
         <v>0.71</v>
@@ -32685,7 +32691,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33067,7 +33073,7 @@
         <v>187</v>
       </c>
       <c r="P167" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -34595,7 +34601,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -34876,7 +34882,7 @@
         <v>1.14</v>
       </c>
       <c r="AT176">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU176">
         <v>1.59</v>
@@ -34977,7 +34983,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35067,7 +35073,7 @@
         <v>2.5</v>
       </c>
       <c r="AT177">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU177">
         <v>2.01</v>
@@ -35550,7 +35556,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -35932,7 +35938,7 @@
         <v>88</v>
       </c>
       <c r="P182" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -36210,7 +36216,7 @@
         <v>0.91</v>
       </c>
       <c r="AS183">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT183">
         <v>1</v>
@@ -36314,7 +36320,7 @@
         <v>198</v>
       </c>
       <c r="P184" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -36505,7 +36511,7 @@
         <v>88</v>
       </c>
       <c r="P185" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q185">
         <v>5</v>
@@ -36592,10 +36598,10 @@
         <v>2.09</v>
       </c>
       <c r="AS185">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT185">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU185">
         <v>1.34</v>
@@ -36696,7 +36702,7 @@
         <v>199</v>
       </c>
       <c r="P186" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -37168,7 +37174,7 @@
         <v>1.29</v>
       </c>
       <c r="AT188">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU188">
         <v>1.35</v>
@@ -37651,7 +37657,7 @@
         <v>88</v>
       </c>
       <c r="P191" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q191">
         <v>2</v>
@@ -38224,7 +38230,7 @@
         <v>206</v>
       </c>
       <c r="P194" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q194">
         <v>9</v>
@@ -38415,7 +38421,7 @@
         <v>153</v>
       </c>
       <c r="P195" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q195">
         <v>5</v>
@@ -38606,7 +38612,7 @@
         <v>207</v>
       </c>
       <c r="P196" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -38887,7 +38893,7 @@
         <v>2.29</v>
       </c>
       <c r="AT197">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU197">
         <v>1.93</v>
@@ -39179,7 +39185,7 @@
         <v>171</v>
       </c>
       <c r="P199" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -39266,7 +39272,7 @@
         <v>1.83</v>
       </c>
       <c r="AS199">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT199">
         <v>1.87</v>
@@ -39370,7 +39376,7 @@
         <v>209</v>
       </c>
       <c r="P200" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q200">
         <v>6</v>
@@ -39457,7 +39463,7 @@
         <v>1.17</v>
       </c>
       <c r="AS200">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT200">
         <v>1</v>
@@ -39752,7 +39758,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q202">
         <v>6</v>
@@ -40606,7 +40612,7 @@
         <v>2.14</v>
       </c>
       <c r="AT206">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU206">
         <v>1.83</v>
@@ -41089,7 +41095,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q209">
         <v>9</v>
@@ -41280,7 +41286,7 @@
         <v>216</v>
       </c>
       <c r="P210" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q210">
         <v>6</v>
@@ -41662,7 +41668,7 @@
         <v>217</v>
       </c>
       <c r="P212" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -41749,7 +41755,7 @@
         <v>1.31</v>
       </c>
       <c r="AS212">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT212">
         <v>1.33</v>
@@ -42322,7 +42328,7 @@
         <v>1.23</v>
       </c>
       <c r="AS215">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT215">
         <v>1.27</v>
@@ -42426,7 +42432,7 @@
         <v>98</v>
       </c>
       <c r="P216" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q216">
         <v>3</v>
@@ -42617,7 +42623,7 @@
         <v>220</v>
       </c>
       <c r="P217" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -42707,7 +42713,7 @@
         <v>1.4</v>
       </c>
       <c r="AT217">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AU217">
         <v>1.34</v>
@@ -43381,7 +43387,7 @@
         <v>88</v>
       </c>
       <c r="P221" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q221">
         <v>4</v>
@@ -43662,7 +43668,7 @@
         <v>2.29</v>
       </c>
       <c r="AT222">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU222">
         <v>1.89</v>
@@ -43763,7 +43769,7 @@
         <v>171</v>
       </c>
       <c r="P223" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q223">
         <v>7</v>
@@ -44718,7 +44724,7 @@
         <v>88</v>
       </c>
       <c r="P228" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q228">
         <v>5</v>
@@ -45291,7 +45297,7 @@
         <v>227</v>
       </c>
       <c r="P231" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q231">
         <v>1</v>
@@ -45433,6 +45439,388 @@
       </c>
       <c r="BK231">
         <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:63">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>2708328</v>
+      </c>
+      <c r="C232" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" t="s">
+        <v>64</v>
+      </c>
+      <c r="E232" s="2">
+        <v>44991.54166666666</v>
+      </c>
+      <c r="F232">
+        <v>29</v>
+      </c>
+      <c r="G232" t="s">
+        <v>74</v>
+      </c>
+      <c r="H232" t="s">
+        <v>67</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232" t="s">
+        <v>88</v>
+      </c>
+      <c r="P232" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q232">
+        <v>4</v>
+      </c>
+      <c r="R232">
+        <v>5</v>
+      </c>
+      <c r="S232">
+        <v>9</v>
+      </c>
+      <c r="T232">
+        <v>3.2</v>
+      </c>
+      <c r="U232">
+        <v>1.93</v>
+      </c>
+      <c r="V232">
+        <v>3.8</v>
+      </c>
+      <c r="W232">
+        <v>1.53</v>
+      </c>
+      <c r="X232">
+        <v>2.37</v>
+      </c>
+      <c r="Y232">
+        <v>3.4</v>
+      </c>
+      <c r="Z232">
+        <v>1.29</v>
+      </c>
+      <c r="AA232">
+        <v>12</v>
+      </c>
+      <c r="AB232">
+        <v>1.03</v>
+      </c>
+      <c r="AC232">
+        <v>2.01</v>
+      </c>
+      <c r="AD232">
+        <v>3.1</v>
+      </c>
+      <c r="AE232">
+        <v>3.55</v>
+      </c>
+      <c r="AF232">
+        <v>1.09</v>
+      </c>
+      <c r="AG232">
+        <v>6</v>
+      </c>
+      <c r="AH232">
+        <v>1.44</v>
+      </c>
+      <c r="AI232">
+        <v>2.4</v>
+      </c>
+      <c r="AJ232">
+        <v>2.38</v>
+      </c>
+      <c r="AK232">
+        <v>1.51</v>
+      </c>
+      <c r="AL232">
+        <v>2.28</v>
+      </c>
+      <c r="AM232">
+        <v>1.6</v>
+      </c>
+      <c r="AN232">
+        <v>1.33</v>
+      </c>
+      <c r="AO232">
+        <v>1.38</v>
+      </c>
+      <c r="AP232">
+        <v>1.62</v>
+      </c>
+      <c r="AQ232">
+        <v>1.29</v>
+      </c>
+      <c r="AR232">
+        <v>0.71</v>
+      </c>
+      <c r="AS232">
+        <v>1.27</v>
+      </c>
+      <c r="AT232">
+        <v>0.73</v>
+      </c>
+      <c r="AU232">
+        <v>1.24</v>
+      </c>
+      <c r="AV232">
+        <v>1</v>
+      </c>
+      <c r="AW232">
+        <v>2.24</v>
+      </c>
+      <c r="AX232">
+        <v>2.04</v>
+      </c>
+      <c r="AY232">
+        <v>7.1</v>
+      </c>
+      <c r="AZ232">
+        <v>2.16</v>
+      </c>
+      <c r="BA232">
+        <v>1.48</v>
+      </c>
+      <c r="BB232">
+        <v>1.87</v>
+      </c>
+      <c r="BC232">
+        <v>2.46</v>
+      </c>
+      <c r="BD232">
+        <v>3.42</v>
+      </c>
+      <c r="BE232">
+        <v>5.2</v>
+      </c>
+      <c r="BF232">
+        <v>4</v>
+      </c>
+      <c r="BG232">
+        <v>3</v>
+      </c>
+      <c r="BH232">
+        <v>11</v>
+      </c>
+      <c r="BI232">
+        <v>7</v>
+      </c>
+      <c r="BJ232">
+        <v>15</v>
+      </c>
+      <c r="BK232">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:63">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>2708323</v>
+      </c>
+      <c r="C233" t="s">
+        <v>63</v>
+      </c>
+      <c r="D233" t="s">
+        <v>64</v>
+      </c>
+      <c r="E233" s="2">
+        <v>44991.64583333334</v>
+      </c>
+      <c r="F233">
+        <v>29</v>
+      </c>
+      <c r="G233" t="s">
+        <v>75</v>
+      </c>
+      <c r="H233" t="s">
+        <v>68</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>2</v>
+      </c>
+      <c r="K233">
+        <v>3</v>
+      </c>
+      <c r="L233">
+        <v>2</v>
+      </c>
+      <c r="M233">
+        <v>2</v>
+      </c>
+      <c r="N233">
+        <v>4</v>
+      </c>
+      <c r="O233" t="s">
+        <v>228</v>
+      </c>
+      <c r="P233" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q233">
+        <v>3</v>
+      </c>
+      <c r="R233">
+        <v>6</v>
+      </c>
+      <c r="S233">
+        <v>9</v>
+      </c>
+      <c r="T233">
+        <v>3.75</v>
+      </c>
+      <c r="U233">
+        <v>1.95</v>
+      </c>
+      <c r="V233">
+        <v>3.1</v>
+      </c>
+      <c r="W233">
+        <v>1.53</v>
+      </c>
+      <c r="X233">
+        <v>2.37</v>
+      </c>
+      <c r="Y233">
+        <v>3.3</v>
+      </c>
+      <c r="Z233">
+        <v>1.29</v>
+      </c>
+      <c r="AA233">
+        <v>11</v>
+      </c>
+      <c r="AB233">
+        <v>1.03</v>
+      </c>
+      <c r="AC233">
+        <v>2.35</v>
+      </c>
+      <c r="AD233">
+        <v>3.2</v>
+      </c>
+      <c r="AE233">
+        <v>2.77</v>
+      </c>
+      <c r="AF233">
+        <v>1.09</v>
+      </c>
+      <c r="AG233">
+        <v>6</v>
+      </c>
+      <c r="AH233">
+        <v>1.48</v>
+      </c>
+      <c r="AI233">
+        <v>2.5</v>
+      </c>
+      <c r="AJ233">
+        <v>2.22</v>
+      </c>
+      <c r="AK233">
+        <v>1.59</v>
+      </c>
+      <c r="AL233">
+        <v>2</v>
+      </c>
+      <c r="AM233">
+        <v>1.73</v>
+      </c>
+      <c r="AN233">
+        <v>1.57</v>
+      </c>
+      <c r="AO233">
+        <v>1.37</v>
+      </c>
+      <c r="AP233">
+        <v>1.36</v>
+      </c>
+      <c r="AQ233">
+        <v>1.5</v>
+      </c>
+      <c r="AR233">
+        <v>2.07</v>
+      </c>
+      <c r="AS233">
+        <v>1.47</v>
+      </c>
+      <c r="AT233">
+        <v>2</v>
+      </c>
+      <c r="AU233">
+        <v>1.82</v>
+      </c>
+      <c r="AV233">
+        <v>1.49</v>
+      </c>
+      <c r="AW233">
+        <v>3.31</v>
+      </c>
+      <c r="AX233">
+        <v>1.89</v>
+      </c>
+      <c r="AY233">
+        <v>7.2</v>
+      </c>
+      <c r="AZ233">
+        <v>2.35</v>
+      </c>
+      <c r="BA233">
+        <v>1.48</v>
+      </c>
+      <c r="BB233">
+        <v>1.87</v>
+      </c>
+      <c r="BC233">
+        <v>2.46</v>
+      </c>
+      <c r="BD233">
+        <v>3.42</v>
+      </c>
+      <c r="BE233">
+        <v>4.75</v>
+      </c>
+      <c r="BF233">
+        <v>5</v>
+      </c>
+      <c r="BG233">
+        <v>3</v>
+      </c>
+      <c r="BH233">
+        <v>4</v>
+      </c>
+      <c r="BI233">
+        <v>6</v>
+      </c>
+      <c r="BJ233">
+        <v>9</v>
+      </c>
+      <c r="BK233">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="315">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -706,6 +706,12 @@
     <t>['52', '65']</t>
   </si>
   <si>
+    <t>['21', '50']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
     <t>['73', '87']</t>
   </si>
   <si>
@@ -893,9 +899,6 @@
   </si>
   <si>
     <t>['41']</t>
-  </si>
-  <si>
-    <t>['69']</t>
   </si>
   <si>
     <t>['3']</t>
@@ -1317,7 +1320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK234"/>
+  <dimension ref="A1:BK238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1648,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT2">
         <v>0.67</v>
@@ -1752,7 +1755,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1842,7 +1845,7 @@
         <v>2.33</v>
       </c>
       <c r="AT3">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2030,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT4">
         <v>0.53</v>
@@ -2224,7 +2227,7 @@
         <v>2.14</v>
       </c>
       <c r="AT5">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2412,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT6">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2516,7 +2519,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2603,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT7">
         <v>0.71</v>
@@ -2707,7 +2710,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2898,7 +2901,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3662,7 +3665,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3853,7 +3856,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4235,7 +4238,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4516,7 +4519,7 @@
         <v>1.27</v>
       </c>
       <c r="AT17">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4617,7 +4620,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -4704,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT18">
         <v>0.71</v>
@@ -4895,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT19">
         <v>1</v>
@@ -5190,7 +5193,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5381,7 +5384,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5471,7 +5474,7 @@
         <v>1.4</v>
       </c>
       <c r="AT22">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU22">
         <v>1.32</v>
@@ -5662,7 +5665,7 @@
         <v>2.33</v>
       </c>
       <c r="AT23">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU23">
         <v>1.65</v>
@@ -5763,7 +5766,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5850,10 +5853,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT24">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU24">
         <v>1.56</v>
@@ -5954,7 +5957,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6041,7 +6044,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT25">
         <v>0.87</v>
@@ -6235,7 +6238,7 @@
         <v>1.6</v>
       </c>
       <c r="AT26">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU26">
         <v>1.8</v>
@@ -6336,7 +6339,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6527,7 +6530,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6909,7 +6912,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -7100,7 +7103,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -7291,7 +7294,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7378,7 +7381,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT32">
         <v>1</v>
@@ -7673,7 +7676,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7760,10 +7763,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT34">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU34">
         <v>1.66</v>
@@ -8145,7 +8148,7 @@
         <v>1.4</v>
       </c>
       <c r="AT36">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU36">
         <v>1.22</v>
@@ -8437,7 +8440,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8628,7 +8631,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q39">
         <v>12</v>
@@ -8715,7 +8718,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -8909,7 +8912,7 @@
         <v>1.27</v>
       </c>
       <c r="AT40">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU40">
         <v>1.45</v>
@@ -9097,7 +9100,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT41">
         <v>1.33</v>
@@ -9392,7 +9395,7 @@
         <v>88</v>
       </c>
       <c r="P43" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q43">
         <v>12</v>
@@ -9482,7 +9485,7 @@
         <v>1.73</v>
       </c>
       <c r="AT43">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU43">
         <v>1.7</v>
@@ -9864,7 +9867,7 @@
         <v>1.6</v>
       </c>
       <c r="AT45">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU45">
         <v>1.57</v>
@@ -9965,7 +9968,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10052,7 +10055,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT46">
         <v>1</v>
@@ -10437,7 +10440,7 @@
         <v>1.27</v>
       </c>
       <c r="AT48">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU48">
         <v>1.45</v>
@@ -10729,7 +10732,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10819,7 +10822,7 @@
         <v>1.36</v>
       </c>
       <c r="AT50">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU50">
         <v>1.75</v>
@@ -11007,7 +11010,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT51">
         <v>1</v>
@@ -11111,7 +11114,7 @@
         <v>114</v>
       </c>
       <c r="P52" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11302,7 +11305,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11389,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT53">
         <v>1.33</v>
@@ -11684,7 +11687,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11965,7 +11968,7 @@
         <v>1.73</v>
       </c>
       <c r="AT56">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU56">
         <v>1.87</v>
@@ -12257,7 +12260,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12347,7 +12350,7 @@
         <v>1.14</v>
       </c>
       <c r="AT58">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU58">
         <v>1.66</v>
@@ -12726,7 +12729,7 @@
         <v>0.5</v>
       </c>
       <c r="AS60">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT60">
         <v>1.87</v>
@@ -13108,7 +13111,7 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT62">
         <v>1.27</v>
@@ -13403,7 +13406,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13493,7 +13496,7 @@
         <v>1.6</v>
       </c>
       <c r="AT64">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU64">
         <v>1.69</v>
@@ -13875,7 +13878,7 @@
         <v>1.27</v>
       </c>
       <c r="AT66">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU66">
         <v>1.11</v>
@@ -14167,7 +14170,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14254,7 +14257,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT68">
         <v>1.33</v>
@@ -14358,7 +14361,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14549,7 +14552,7 @@
         <v>100</v>
       </c>
       <c r="P70" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14740,7 +14743,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14830,7 +14833,7 @@
         <v>1.14</v>
       </c>
       <c r="AT71">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU71">
         <v>1.9</v>
@@ -15018,10 +15021,10 @@
         <v>2.25</v>
       </c>
       <c r="AS72">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT72">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU72">
         <v>1.34</v>
@@ -15212,7 +15215,7 @@
         <v>1.73</v>
       </c>
       <c r="AT73">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU73">
         <v>1.75</v>
@@ -15400,7 +15403,7 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT74">
         <v>0.73</v>
@@ -15886,7 +15889,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15973,7 +15976,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT77">
         <v>1</v>
@@ -16167,7 +16170,7 @@
         <v>1.27</v>
       </c>
       <c r="AT78">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU78">
         <v>1.08</v>
@@ -16268,7 +16271,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16459,7 +16462,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17223,7 +17226,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17501,7 +17504,7 @@
         <v>1.5</v>
       </c>
       <c r="AS85">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT85">
         <v>2</v>
@@ -17796,7 +17799,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17886,7 +17889,7 @@
         <v>0.8</v>
       </c>
       <c r="AT87">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU87">
         <v>1.34</v>
@@ -18077,7 +18080,7 @@
         <v>2.14</v>
       </c>
       <c r="AT88">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU88">
         <v>1.83</v>
@@ -18178,7 +18181,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18265,10 +18268,10 @@
         <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT89">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU89">
         <v>1.42</v>
@@ -18456,7 +18459,7 @@
         <v>0.83</v>
       </c>
       <c r="AS90">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT90">
         <v>0.53</v>
@@ -18560,7 +18563,7 @@
         <v>144</v>
       </c>
       <c r="P91" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18647,7 +18650,7 @@
         <v>0.8</v>
       </c>
       <c r="AS91">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT91">
         <v>0.73</v>
@@ -19032,7 +19035,7 @@
         <v>1.14</v>
       </c>
       <c r="AT93">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU93">
         <v>1.71</v>
@@ -19411,7 +19414,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT95">
         <v>1.27</v>
@@ -19706,7 +19709,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19897,7 +19900,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20088,7 +20091,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20279,7 +20282,7 @@
         <v>88</v>
       </c>
       <c r="P100" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20470,7 +20473,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q101">
         <v>12</v>
@@ -20748,7 +20751,7 @@
         <v>0.83</v>
       </c>
       <c r="AS102">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT102">
         <v>1</v>
@@ -20852,7 +20855,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20939,10 +20942,10 @@
         <v>1.29</v>
       </c>
       <c r="AS103">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT103">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU103">
         <v>1.38</v>
@@ -21133,7 +21136,7 @@
         <v>1.27</v>
       </c>
       <c r="AT104">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU104">
         <v>1.54</v>
@@ -21321,7 +21324,7 @@
         <v>0.86</v>
       </c>
       <c r="AS105">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT105">
         <v>0.71</v>
@@ -21425,7 +21428,7 @@
         <v>152</v>
       </c>
       <c r="P106" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21515,7 +21518,7 @@
         <v>2.33</v>
       </c>
       <c r="AT106">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU106">
         <v>2.04</v>
@@ -21894,7 +21897,7 @@
         <v>0.71</v>
       </c>
       <c r="AS108">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT108">
         <v>0.53</v>
@@ -22088,7 +22091,7 @@
         <v>2.14</v>
       </c>
       <c r="AT109">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU109">
         <v>1.85</v>
@@ -22189,7 +22192,7 @@
         <v>100</v>
       </c>
       <c r="P110" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22380,7 +22383,7 @@
         <v>88</v>
       </c>
       <c r="P111" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22953,7 +22956,7 @@
         <v>157</v>
       </c>
       <c r="P114" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23144,7 +23147,7 @@
         <v>116</v>
       </c>
       <c r="P115" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23717,7 +23720,7 @@
         <v>159</v>
       </c>
       <c r="P118" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23908,7 +23911,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24189,7 +24192,7 @@
         <v>1.27</v>
       </c>
       <c r="AT120">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU120">
         <v>1.1</v>
@@ -24290,7 +24293,7 @@
         <v>88</v>
       </c>
       <c r="P121" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24672,7 +24675,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24863,7 +24866,7 @@
         <v>88</v>
       </c>
       <c r="P124" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -25245,7 +25248,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25523,7 +25526,7 @@
         <v>0.5</v>
       </c>
       <c r="AS127">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT127">
         <v>0.67</v>
@@ -25627,7 +25630,7 @@
         <v>88</v>
       </c>
       <c r="P128" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25714,10 +25717,10 @@
         <v>1.5</v>
       </c>
       <c r="AS128">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT128">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU128">
         <v>1.52</v>
@@ -25818,7 +25821,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -26287,7 +26290,7 @@
         <v>1</v>
       </c>
       <c r="AS131">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT131">
         <v>1</v>
@@ -26391,7 +26394,7 @@
         <v>166</v>
       </c>
       <c r="P132" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26478,10 +26481,10 @@
         <v>1.5</v>
       </c>
       <c r="AS132">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT132">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU132">
         <v>2.22</v>
@@ -26672,7 +26675,7 @@
         <v>2.14</v>
       </c>
       <c r="AT133">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU133">
         <v>1.87</v>
@@ -26863,7 +26866,7 @@
         <v>1.36</v>
       </c>
       <c r="AT134">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU134">
         <v>1.9</v>
@@ -26964,7 +26967,7 @@
         <v>141</v>
       </c>
       <c r="P135" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27155,7 +27158,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27346,7 +27349,7 @@
         <v>157</v>
       </c>
       <c r="P137" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27728,7 +27731,7 @@
         <v>88</v>
       </c>
       <c r="P139" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27919,7 +27922,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -28492,7 +28495,7 @@
         <v>172</v>
       </c>
       <c r="P143" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28579,7 +28582,7 @@
         <v>1.86</v>
       </c>
       <c r="AS143">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT143">
         <v>2</v>
@@ -28683,7 +28686,7 @@
         <v>173</v>
       </c>
       <c r="P144" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28874,7 +28877,7 @@
         <v>174</v>
       </c>
       <c r="P145" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -28964,7 +28967,7 @@
         <v>1.27</v>
       </c>
       <c r="AT145">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU145">
         <v>1.75</v>
@@ -29447,7 +29450,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -29537,7 +29540,7 @@
         <v>2.33</v>
       </c>
       <c r="AT148">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU148">
         <v>2</v>
@@ -29725,7 +29728,7 @@
         <v>1.11</v>
       </c>
       <c r="AS149">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT149">
         <v>0.87</v>
@@ -30020,7 +30023,7 @@
         <v>165</v>
       </c>
       <c r="P151" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30107,10 +30110,10 @@
         <v>1.33</v>
       </c>
       <c r="AS151">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT151">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU151">
         <v>1.43</v>
@@ -30298,7 +30301,7 @@
         <v>0.44</v>
       </c>
       <c r="AS152">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT152">
         <v>0.67</v>
@@ -30402,7 +30405,7 @@
         <v>180</v>
       </c>
       <c r="P153" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30680,7 +30683,7 @@
         <v>2</v>
       </c>
       <c r="AS154">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT154">
         <v>1.73</v>
@@ -31166,7 +31169,7 @@
         <v>88</v>
       </c>
       <c r="P157" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31548,7 +31551,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -31829,7 +31832,7 @@
         <v>2.2</v>
       </c>
       <c r="AT160">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU160">
         <v>1.96</v>
@@ -31930,7 +31933,7 @@
         <v>88</v>
       </c>
       <c r="P161" t="s">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="Q161">
         <v>6</v>
@@ -32017,7 +32020,7 @@
         <v>1.89</v>
       </c>
       <c r="AS161">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT161">
         <v>2</v>
@@ -32121,7 +32124,7 @@
         <v>124</v>
       </c>
       <c r="P162" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32312,7 +32315,7 @@
         <v>183</v>
       </c>
       <c r="P163" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -32694,7 +32697,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32781,7 +32784,7 @@
         <v>0.4</v>
       </c>
       <c r="AS165">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT165">
         <v>0.67</v>
@@ -32975,7 +32978,7 @@
         <v>1.4</v>
       </c>
       <c r="AT166">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU166">
         <v>1.34</v>
@@ -33076,7 +33079,7 @@
         <v>187</v>
       </c>
       <c r="P167" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33166,7 +33169,7 @@
         <v>1.27</v>
       </c>
       <c r="AT167">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU167">
         <v>1.68</v>
@@ -33354,7 +33357,7 @@
         <v>1</v>
       </c>
       <c r="AS168">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT168">
         <v>0.87</v>
@@ -33930,7 +33933,7 @@
         <v>2.2</v>
       </c>
       <c r="AT171">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU171">
         <v>1.96</v>
@@ -34121,7 +34124,7 @@
         <v>0.8</v>
       </c>
       <c r="AT172">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU172">
         <v>1.28</v>
@@ -34604,7 +34607,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -34691,7 +34694,7 @@
         <v>1.6</v>
       </c>
       <c r="AS175">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT175">
         <v>1.87</v>
@@ -34986,7 +34989,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35073,7 +35076,7 @@
         <v>2</v>
       </c>
       <c r="AS177">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT177">
         <v>2</v>
@@ -35267,7 +35270,7 @@
         <v>1.6</v>
       </c>
       <c r="AT178">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU178">
         <v>1.89</v>
@@ -35559,7 +35562,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -35941,7 +35944,7 @@
         <v>88</v>
       </c>
       <c r="P182" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -36028,7 +36031,7 @@
         <v>0.91</v>
       </c>
       <c r="AS182">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT182">
         <v>0.87</v>
@@ -36132,7 +36135,7 @@
         <v>197</v>
       </c>
       <c r="P183" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -36219,7 +36222,7 @@
         <v>1.73</v>
       </c>
       <c r="AS183">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT183">
         <v>1.73</v>
@@ -36323,7 +36326,7 @@
         <v>88</v>
       </c>
       <c r="P184" t="s">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36514,7 +36517,7 @@
         <v>198</v>
       </c>
       <c r="P185" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36983,7 +36986,7 @@
         <v>0.82</v>
       </c>
       <c r="AS187">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT187">
         <v>0.73</v>
@@ -37368,7 +37371,7 @@
         <v>0.8</v>
       </c>
       <c r="AT189">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU189">
         <v>1.31</v>
@@ -37469,7 +37472,7 @@
         <v>88</v>
       </c>
       <c r="P190" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -37750,7 +37753,7 @@
         <v>1.27</v>
       </c>
       <c r="AT191">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU191">
         <v>1.53</v>
@@ -37938,7 +37941,7 @@
         <v>1.36</v>
       </c>
       <c r="AS192">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT192">
         <v>1.27</v>
@@ -38042,7 +38045,7 @@
         <v>205</v>
       </c>
       <c r="P193" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38233,7 +38236,7 @@
         <v>153</v>
       </c>
       <c r="P194" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q194">
         <v>5</v>
@@ -38323,7 +38326,7 @@
         <v>2.2</v>
       </c>
       <c r="AT194">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU194">
         <v>1.95</v>
@@ -38424,7 +38427,7 @@
         <v>206</v>
       </c>
       <c r="P195" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38893,7 +38896,7 @@
         <v>1.83</v>
       </c>
       <c r="AS197">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT197">
         <v>1.73</v>
@@ -38997,7 +39000,7 @@
         <v>171</v>
       </c>
       <c r="P198" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q198">
         <v>4</v>
@@ -39188,7 +39191,7 @@
         <v>208</v>
       </c>
       <c r="P199" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39570,7 +39573,7 @@
         <v>210</v>
       </c>
       <c r="P201" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q201">
         <v>6</v>
@@ -39851,7 +39854,7 @@
         <v>0.8</v>
       </c>
       <c r="AT202">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU202">
         <v>1.32</v>
@@ -40039,7 +40042,7 @@
         <v>0.58</v>
       </c>
       <c r="AS203">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT203">
         <v>0.53</v>
@@ -40230,10 +40233,10 @@
         <v>1</v>
       </c>
       <c r="AS204">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT204">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU204">
         <v>1.93</v>
@@ -40612,7 +40615,7 @@
         <v>1.25</v>
       </c>
       <c r="AS206">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT206">
         <v>1.27</v>
@@ -40806,7 +40809,7 @@
         <v>1.27</v>
       </c>
       <c r="AT207">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU207">
         <v>1.54</v>
@@ -40907,7 +40910,7 @@
         <v>214</v>
       </c>
       <c r="P208" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q208">
         <v>9</v>
@@ -41098,7 +41101,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41480,7 +41483,7 @@
         <v>216</v>
       </c>
       <c r="P211" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q211">
         <v>4</v>
@@ -42244,7 +42247,7 @@
         <v>98</v>
       </c>
       <c r="P215" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q215">
         <v>3</v>
@@ -42331,7 +42334,7 @@
         <v>1.92</v>
       </c>
       <c r="AS215">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT215">
         <v>1.87</v>
@@ -42435,7 +42438,7 @@
         <v>219</v>
       </c>
       <c r="P216" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q216">
         <v>3</v>
@@ -42713,7 +42716,7 @@
         <v>0.54</v>
       </c>
       <c r="AS217">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT217">
         <v>0.71</v>
@@ -42907,7 +42910,7 @@
         <v>1.14</v>
       </c>
       <c r="AT218">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU218">
         <v>1.68</v>
@@ -43095,10 +43098,10 @@
         <v>1.54</v>
       </c>
       <c r="AS219">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT219">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU219">
         <v>1.92</v>
@@ -43199,7 +43202,7 @@
         <v>88</v>
       </c>
       <c r="P220" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q220">
         <v>4</v>
@@ -43581,7 +43584,7 @@
         <v>171</v>
       </c>
       <c r="P222" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -43671,7 +43674,7 @@
         <v>1.27</v>
       </c>
       <c r="AT222">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU222">
         <v>1.58</v>
@@ -44050,10 +44053,10 @@
         <v>0.92</v>
       </c>
       <c r="AS224">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT224">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU224">
         <v>1.97</v>
@@ -44536,7 +44539,7 @@
         <v>88</v>
       </c>
       <c r="P227" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q227">
         <v>5</v>
@@ -45109,7 +45112,7 @@
         <v>226</v>
       </c>
       <c r="P230" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q230">
         <v>1</v>
@@ -45491,7 +45494,7 @@
         <v>227</v>
       </c>
       <c r="P232" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q232">
         <v>3</v>
@@ -45682,7 +45685,7 @@
         <v>228</v>
       </c>
       <c r="P233" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q233">
         <v>2</v>
@@ -45873,7 +45876,7 @@
         <v>229</v>
       </c>
       <c r="P234" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -46015,6 +46018,770 @@
       </c>
       <c r="BK234">
         <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:63">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>2708329</v>
+      </c>
+      <c r="C235" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235" t="s">
+        <v>64</v>
+      </c>
+      <c r="E235" s="2">
+        <v>44996.52083333334</v>
+      </c>
+      <c r="F235">
+        <v>30</v>
+      </c>
+      <c r="G235" t="s">
+        <v>67</v>
+      </c>
+      <c r="H235" t="s">
+        <v>72</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235">
+        <v>1</v>
+      </c>
+      <c r="N235">
+        <v>1</v>
+      </c>
+      <c r="O235" t="s">
+        <v>88</v>
+      </c>
+      <c r="P235" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q235">
+        <v>4</v>
+      </c>
+      <c r="R235">
+        <v>2</v>
+      </c>
+      <c r="S235">
+        <v>6</v>
+      </c>
+      <c r="T235">
+        <v>3.3</v>
+      </c>
+      <c r="U235">
+        <v>1.85</v>
+      </c>
+      <c r="V235">
+        <v>3.7</v>
+      </c>
+      <c r="W235">
+        <v>1.58</v>
+      </c>
+      <c r="X235">
+        <v>2.25</v>
+      </c>
+      <c r="Y235">
+        <v>3.6</v>
+      </c>
+      <c r="Z235">
+        <v>1.25</v>
+      </c>
+      <c r="AA235">
+        <v>8.5</v>
+      </c>
+      <c r="AB235">
+        <v>1.04</v>
+      </c>
+      <c r="AC235">
+        <v>2.4</v>
+      </c>
+      <c r="AD235">
+        <v>2.95</v>
+      </c>
+      <c r="AE235">
+        <v>2.85</v>
+      </c>
+      <c r="AF235">
+        <v>1.1</v>
+      </c>
+      <c r="AG235">
+        <v>7.3</v>
+      </c>
+      <c r="AH235">
+        <v>1.44</v>
+      </c>
+      <c r="AI235">
+        <v>2.4</v>
+      </c>
+      <c r="AJ235">
+        <v>2.4</v>
+      </c>
+      <c r="AK235">
+        <v>1.5</v>
+      </c>
+      <c r="AL235">
+        <v>2.1</v>
+      </c>
+      <c r="AM235">
+        <v>1.65</v>
+      </c>
+      <c r="AN235">
+        <v>1.4</v>
+      </c>
+      <c r="AO235">
+        <v>1.35</v>
+      </c>
+      <c r="AP235">
+        <v>1.48</v>
+      </c>
+      <c r="AQ235">
+        <v>1.14</v>
+      </c>
+      <c r="AR235">
+        <v>0.86</v>
+      </c>
+      <c r="AS235">
+        <v>1.07</v>
+      </c>
+      <c r="AT235">
+        <v>1</v>
+      </c>
+      <c r="AU235">
+        <v>1.43</v>
+      </c>
+      <c r="AV235">
+        <v>1.27</v>
+      </c>
+      <c r="AW235">
+        <v>2.7</v>
+      </c>
+      <c r="AX235">
+        <v>1.75</v>
+      </c>
+      <c r="AY235">
+        <v>7.5</v>
+      </c>
+      <c r="AZ235">
+        <v>2.53</v>
+      </c>
+      <c r="BA235">
+        <v>1.44</v>
+      </c>
+      <c r="BB235">
+        <v>1.83</v>
+      </c>
+      <c r="BC235">
+        <v>2.36</v>
+      </c>
+      <c r="BD235">
+        <v>3.2</v>
+      </c>
+      <c r="BE235">
+        <v>4.8</v>
+      </c>
+      <c r="BF235">
+        <v>5</v>
+      </c>
+      <c r="BG235">
+        <v>3</v>
+      </c>
+      <c r="BH235">
+        <v>4</v>
+      </c>
+      <c r="BI235">
+        <v>8</v>
+      </c>
+      <c r="BJ235">
+        <v>9</v>
+      </c>
+      <c r="BK235">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:63">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>2708333</v>
+      </c>
+      <c r="C236" t="s">
+        <v>63</v>
+      </c>
+      <c r="D236" t="s">
+        <v>64</v>
+      </c>
+      <c r="E236" s="2">
+        <v>44996.64583333334</v>
+      </c>
+      <c r="F236">
+        <v>30</v>
+      </c>
+      <c r="G236" t="s">
+        <v>69</v>
+      </c>
+      <c r="H236" t="s">
+        <v>78</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+      <c r="K236">
+        <v>2</v>
+      </c>
+      <c r="L236">
+        <v>2</v>
+      </c>
+      <c r="M236">
+        <v>1</v>
+      </c>
+      <c r="N236">
+        <v>3</v>
+      </c>
+      <c r="O236" t="s">
+        <v>230</v>
+      </c>
+      <c r="P236" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q236">
+        <v>1</v>
+      </c>
+      <c r="R236">
+        <v>5</v>
+      </c>
+      <c r="S236">
+        <v>6</v>
+      </c>
+      <c r="T236">
+        <v>2.94</v>
+      </c>
+      <c r="U236">
+        <v>1.99</v>
+      </c>
+      <c r="V236">
+        <v>4.14</v>
+      </c>
+      <c r="W236">
+        <v>1.49</v>
+      </c>
+      <c r="X236">
+        <v>2.52</v>
+      </c>
+      <c r="Y236">
+        <v>3.28</v>
+      </c>
+      <c r="Z236">
+        <v>1.31</v>
+      </c>
+      <c r="AA236">
+        <v>9</v>
+      </c>
+      <c r="AB236">
+        <v>1.05</v>
+      </c>
+      <c r="AC236">
+        <v>2.19</v>
+      </c>
+      <c r="AD236">
+        <v>3.05</v>
+      </c>
+      <c r="AE236">
+        <v>3.2</v>
+      </c>
+      <c r="AF236">
+        <v>1.09</v>
+      </c>
+      <c r="AG236">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="AH236">
+        <v>1.44</v>
+      </c>
+      <c r="AI236">
+        <v>2.73</v>
+      </c>
+      <c r="AJ236">
+        <v>2.19</v>
+      </c>
+      <c r="AK236">
+        <v>1.56</v>
+      </c>
+      <c r="AL236">
+        <v>2</v>
+      </c>
+      <c r="AM236">
+        <v>1.72</v>
+      </c>
+      <c r="AN236">
+        <v>1.35</v>
+      </c>
+      <c r="AO236">
+        <v>1.35</v>
+      </c>
+      <c r="AP236">
+        <v>1.58</v>
+      </c>
+      <c r="AQ236">
+        <v>2.5</v>
+      </c>
+      <c r="AR236">
+        <v>1.36</v>
+      </c>
+      <c r="AS236">
+        <v>2.53</v>
+      </c>
+      <c r="AT236">
+        <v>1.27</v>
+      </c>
+      <c r="AU236">
+        <v>1.96</v>
+      </c>
+      <c r="AV236">
+        <v>1.31</v>
+      </c>
+      <c r="AW236">
+        <v>3.27</v>
+      </c>
+      <c r="AX236">
+        <v>1.85</v>
+      </c>
+      <c r="AY236">
+        <v>7.5</v>
+      </c>
+      <c r="AZ236">
+        <v>2.33</v>
+      </c>
+      <c r="BA236">
+        <v>1.48</v>
+      </c>
+      <c r="BB236">
+        <v>1.85</v>
+      </c>
+      <c r="BC236">
+        <v>2.46</v>
+      </c>
+      <c r="BD236">
+        <v>3.42</v>
+      </c>
+      <c r="BE236">
+        <v>5.2</v>
+      </c>
+      <c r="BF236">
+        <v>7</v>
+      </c>
+      <c r="BG236">
+        <v>4</v>
+      </c>
+      <c r="BH236">
+        <v>8</v>
+      </c>
+      <c r="BI236">
+        <v>3</v>
+      </c>
+      <c r="BJ236">
+        <v>15</v>
+      </c>
+      <c r="BK236">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:63">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>2708331</v>
+      </c>
+      <c r="C237" t="s">
+        <v>63</v>
+      </c>
+      <c r="D237" t="s">
+        <v>64</v>
+      </c>
+      <c r="E237" s="2">
+        <v>44997.66666666666</v>
+      </c>
+      <c r="F237">
+        <v>30</v>
+      </c>
+      <c r="G237" t="s">
+        <v>70</v>
+      </c>
+      <c r="H237" t="s">
+        <v>75</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>1</v>
+      </c>
+      <c r="O237" t="s">
+        <v>112</v>
+      </c>
+      <c r="P237" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q237">
+        <v>2</v>
+      </c>
+      <c r="R237">
+        <v>2</v>
+      </c>
+      <c r="S237">
+        <v>4</v>
+      </c>
+      <c r="T237">
+        <v>2.65</v>
+      </c>
+      <c r="U237">
+        <v>2.05</v>
+      </c>
+      <c r="V237">
+        <v>4.1</v>
+      </c>
+      <c r="W237">
+        <v>1.45</v>
+      </c>
+      <c r="X237">
+        <v>2.55</v>
+      </c>
+      <c r="Y237">
+        <v>3.05</v>
+      </c>
+      <c r="Z237">
+        <v>1.32</v>
+      </c>
+      <c r="AA237">
+        <v>7</v>
+      </c>
+      <c r="AB237">
+        <v>1.07</v>
+      </c>
+      <c r="AC237">
+        <v>1.95</v>
+      </c>
+      <c r="AD237">
+        <v>3.4</v>
+      </c>
+      <c r="AE237">
+        <v>3.45</v>
+      </c>
+      <c r="AF237">
+        <v>1.06</v>
+      </c>
+      <c r="AG237">
+        <v>10</v>
+      </c>
+      <c r="AH237">
+        <v>1.36</v>
+      </c>
+      <c r="AI237">
+        <v>3.08</v>
+      </c>
+      <c r="AJ237">
+        <v>2.02</v>
+      </c>
+      <c r="AK237">
+        <v>1.65</v>
+      </c>
+      <c r="AL237">
+        <v>1.88</v>
+      </c>
+      <c r="AM237">
+        <v>1.82</v>
+      </c>
+      <c r="AN237">
+        <v>1.3</v>
+      </c>
+      <c r="AO237">
+        <v>1.3</v>
+      </c>
+      <c r="AP237">
+        <v>1.75</v>
+      </c>
+      <c r="AQ237">
+        <v>1.86</v>
+      </c>
+      <c r="AR237">
+        <v>1.43</v>
+      </c>
+      <c r="AS237">
+        <v>1.93</v>
+      </c>
+      <c r="AT237">
+        <v>1.33</v>
+      </c>
+      <c r="AU237">
+        <v>1.99</v>
+      </c>
+      <c r="AV237">
+        <v>1.57</v>
+      </c>
+      <c r="AW237">
+        <v>3.56</v>
+      </c>
+      <c r="AX237">
+        <v>1.55</v>
+      </c>
+      <c r="AY237">
+        <v>8</v>
+      </c>
+      <c r="AZ237">
+        <v>3.02</v>
+      </c>
+      <c r="BA237">
+        <v>1.34</v>
+      </c>
+      <c r="BB237">
+        <v>1.64</v>
+      </c>
+      <c r="BC237">
+        <v>2.11</v>
+      </c>
+      <c r="BD237">
+        <v>2.76</v>
+      </c>
+      <c r="BE237">
+        <v>3.84</v>
+      </c>
+      <c r="BF237">
+        <v>6</v>
+      </c>
+      <c r="BG237">
+        <v>3</v>
+      </c>
+      <c r="BH237">
+        <v>9</v>
+      </c>
+      <c r="BI237">
+        <v>4</v>
+      </c>
+      <c r="BJ237">
+        <v>15</v>
+      </c>
+      <c r="BK237">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:63">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>2708334</v>
+      </c>
+      <c r="C238" t="s">
+        <v>63</v>
+      </c>
+      <c r="D238" t="s">
+        <v>64</v>
+      </c>
+      <c r="E238" s="2">
+        <v>44997.66666666666</v>
+      </c>
+      <c r="F238">
+        <v>30</v>
+      </c>
+      <c r="G238" t="s">
+        <v>65</v>
+      </c>
+      <c r="H238" t="s">
+        <v>76</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>1</v>
+      </c>
+      <c r="O238" t="s">
+        <v>231</v>
+      </c>
+      <c r="P238" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q238">
+        <v>4</v>
+      </c>
+      <c r="R238">
+        <v>3</v>
+      </c>
+      <c r="S238">
+        <v>7</v>
+      </c>
+      <c r="T238">
+        <v>4</v>
+      </c>
+      <c r="U238">
+        <v>1.88</v>
+      </c>
+      <c r="V238">
+        <v>3.05</v>
+      </c>
+      <c r="W238">
+        <v>1.55</v>
+      </c>
+      <c r="X238">
+        <v>2.3</v>
+      </c>
+      <c r="Y238">
+        <v>3.5</v>
+      </c>
+      <c r="Z238">
+        <v>1.25</v>
+      </c>
+      <c r="AA238">
+        <v>8.25</v>
+      </c>
+      <c r="AB238">
+        <v>1.04</v>
+      </c>
+      <c r="AC238">
+        <v>3.1</v>
+      </c>
+      <c r="AD238">
+        <v>3.05</v>
+      </c>
+      <c r="AE238">
+        <v>2.24</v>
+      </c>
+      <c r="AF238">
+        <v>1.1</v>
+      </c>
+      <c r="AG238">
+        <v>7.55</v>
+      </c>
+      <c r="AH238">
+        <v>1.49</v>
+      </c>
+      <c r="AI238">
+        <v>2.55</v>
+      </c>
+      <c r="AJ238">
+        <v>2.48</v>
+      </c>
+      <c r="AK238">
+        <v>1.43</v>
+      </c>
+      <c r="AL238">
+        <v>2.1</v>
+      </c>
+      <c r="AM238">
+        <v>1.68</v>
+      </c>
+      <c r="AN238">
+        <v>1.58</v>
+      </c>
+      <c r="AO238">
+        <v>1.35</v>
+      </c>
+      <c r="AP238">
+        <v>1.35</v>
+      </c>
+      <c r="AQ238">
+        <v>1.29</v>
+      </c>
+      <c r="AR238">
+        <v>1.08</v>
+      </c>
+      <c r="AS238">
+        <v>1.4</v>
+      </c>
+      <c r="AT238">
+        <v>1</v>
+      </c>
+      <c r="AU238">
+        <v>1.38</v>
+      </c>
+      <c r="AV238">
+        <v>1.42</v>
+      </c>
+      <c r="AW238">
+        <v>2.8</v>
+      </c>
+      <c r="AX238">
+        <v>2.33</v>
+      </c>
+      <c r="AY238">
+        <v>7.5</v>
+      </c>
+      <c r="AZ238">
+        <v>1.85</v>
+      </c>
+      <c r="BA238">
+        <v>1.51</v>
+      </c>
+      <c r="BB238">
+        <v>1.98</v>
+      </c>
+      <c r="BC238">
+        <v>2.57</v>
+      </c>
+      <c r="BD238">
+        <v>3.56</v>
+      </c>
+      <c r="BE238">
+        <v>5.4</v>
+      </c>
+      <c r="BF238">
+        <v>6</v>
+      </c>
+      <c r="BG238">
+        <v>6</v>
+      </c>
+      <c r="BH238">
+        <v>5</v>
+      </c>
+      <c r="BI238">
+        <v>8</v>
+      </c>
+      <c r="BJ238">
+        <v>11</v>
+      </c>
+      <c r="BK238">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -712,6 +712,12 @@
     <t>['69']</t>
   </si>
   <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['25', '32', '42', '90+4']</t>
+  </si>
+  <si>
     <t>['73', '87']</t>
   </si>
   <si>
@@ -743,9 +749,6 @@
   </si>
   <si>
     <t>['58']</t>
-  </si>
-  <si>
-    <t>['71']</t>
   </si>
   <si>
     <t>['79']</t>
@@ -959,6 +962,9 @@
   </si>
   <si>
     <t>['31', '36']</t>
+  </si>
+  <si>
+    <t>['15']</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK238"/>
+  <dimension ref="A1:BK240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1755,7 +1761,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2224,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT5">
         <v>1.27</v>
@@ -2519,7 +2525,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2609,7 +2615,7 @@
         <v>1.93</v>
       </c>
       <c r="AT7">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2710,7 +2716,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2901,7 +2907,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3665,7 +3671,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3856,7 +3862,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4238,7 +4244,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4325,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT16">
         <v>1.33</v>
@@ -4620,7 +4626,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -4710,7 +4716,7 @@
         <v>1.07</v>
       </c>
       <c r="AT18">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU18">
         <v>1.63</v>
@@ -5193,7 +5199,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5280,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT21">
         <v>0.67</v>
@@ -5384,7 +5390,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5766,7 +5772,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5957,7 +5963,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6339,7 +6345,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6530,7 +6536,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6912,7 +6918,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6999,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT30">
         <v>2</v>
@@ -7103,7 +7109,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -7294,7 +7300,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7676,7 +7682,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7957,7 +7963,7 @@
         <v>1.27</v>
       </c>
       <c r="AT35">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU35">
         <v>1.29</v>
@@ -8440,7 +8446,7 @@
         <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8527,7 +8533,7 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT38">
         <v>0.87</v>
@@ -8631,7 +8637,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q39">
         <v>12</v>
@@ -9395,7 +9401,7 @@
         <v>88</v>
       </c>
       <c r="P43" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q43">
         <v>12</v>
@@ -9968,7 +9974,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10249,7 +10255,7 @@
         <v>1.27</v>
       </c>
       <c r="AT47">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU47">
         <v>1.24</v>
@@ -10732,7 +10738,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11114,7 +11120,7 @@
         <v>114</v>
       </c>
       <c r="P52" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11201,7 +11207,7 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT52">
         <v>1.73</v>
@@ -11305,7 +11311,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11687,7 +11693,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12159,7 +12165,7 @@
         <v>2.2</v>
       </c>
       <c r="AT57">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU57">
         <v>1.42</v>
@@ -12260,7 +12266,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12347,7 +12353,7 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT58">
         <v>1</v>
@@ -12538,7 +12544,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT59">
         <v>1</v>
@@ -13406,7 +13412,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14170,7 +14176,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14361,7 +14367,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14552,7 +14558,7 @@
         <v>100</v>
       </c>
       <c r="P70" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14743,7 +14749,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14830,7 +14836,7 @@
         <v>1.2</v>
       </c>
       <c r="AS71">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT71">
         <v>1.33</v>
@@ -15594,7 +15600,7 @@
         <v>1.33</v>
       </c>
       <c r="AS75">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT75">
         <v>1.27</v>
@@ -15788,7 +15794,7 @@
         <v>0.8</v>
       </c>
       <c r="AT76">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU76">
         <v>1.22</v>
@@ -15889,7 +15895,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16271,7 +16277,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16462,7 +16468,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17226,7 +17232,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17799,7 +17805,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -18077,7 +18083,7 @@
         <v>1.8</v>
       </c>
       <c r="AS88">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT88">
         <v>1</v>
@@ -18181,7 +18187,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18563,7 +18569,7 @@
         <v>144</v>
       </c>
       <c r="P91" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18844,7 +18850,7 @@
         <v>1.27</v>
       </c>
       <c r="AT92">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU92">
         <v>1.64</v>
@@ -19032,7 +19038,7 @@
         <v>1.5</v>
       </c>
       <c r="AS93">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT93">
         <v>1.27</v>
@@ -19709,7 +19715,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19900,7 +19906,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20091,7 +20097,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20282,7 +20288,7 @@
         <v>88</v>
       </c>
       <c r="P100" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20473,7 +20479,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q101">
         <v>12</v>
@@ -20855,7 +20861,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -21327,7 +21333,7 @@
         <v>2.53</v>
       </c>
       <c r="AT105">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU105">
         <v>1.82</v>
@@ -21428,7 +21434,7 @@
         <v>152</v>
       </c>
       <c r="P106" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21706,7 +21712,7 @@
         <v>0.57</v>
       </c>
       <c r="AS107">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT107">
         <v>0.67</v>
@@ -22088,7 +22094,7 @@
         <v>1.71</v>
       </c>
       <c r="AS109">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT109">
         <v>1.33</v>
@@ -22192,7 +22198,7 @@
         <v>100</v>
       </c>
       <c r="P110" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22383,7 +22389,7 @@
         <v>88</v>
       </c>
       <c r="P111" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22956,7 +22962,7 @@
         <v>157</v>
       </c>
       <c r="P114" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23147,7 +23153,7 @@
         <v>116</v>
       </c>
       <c r="P115" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23720,7 +23726,7 @@
         <v>159</v>
       </c>
       <c r="P118" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23807,7 +23813,7 @@
         <v>1.13</v>
       </c>
       <c r="AS118">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT118">
         <v>0.87</v>
@@ -23911,7 +23917,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24293,7 +24299,7 @@
         <v>88</v>
       </c>
       <c r="P121" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24675,7 +24681,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24866,7 +24872,7 @@
         <v>88</v>
       </c>
       <c r="P124" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -25248,7 +25254,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25630,7 +25636,7 @@
         <v>88</v>
       </c>
       <c r="P128" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25821,7 +25827,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -26102,7 +26108,7 @@
         <v>2.33</v>
       </c>
       <c r="AT130">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU130">
         <v>1.99</v>
@@ -26394,7 +26400,7 @@
         <v>166</v>
       </c>
       <c r="P132" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26672,7 +26678,7 @@
         <v>0.75</v>
       </c>
       <c r="AS133">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT133">
         <v>1</v>
@@ -26967,7 +26973,7 @@
         <v>141</v>
       </c>
       <c r="P135" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27054,7 +27060,7 @@
         <v>2.13</v>
       </c>
       <c r="AS135">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT135">
         <v>1.73</v>
@@ -27158,7 +27164,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27349,7 +27355,7 @@
         <v>157</v>
       </c>
       <c r="P137" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27731,7 +27737,7 @@
         <v>88</v>
       </c>
       <c r="P139" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27922,7 +27928,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -28391,7 +28397,7 @@
         <v>1.38</v>
       </c>
       <c r="AS142">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT142">
         <v>1.27</v>
@@ -28495,7 +28501,7 @@
         <v>172</v>
       </c>
       <c r="P143" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28686,7 +28692,7 @@
         <v>173</v>
       </c>
       <c r="P144" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28877,7 +28883,7 @@
         <v>174</v>
       </c>
       <c r="P145" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -29158,7 +29164,7 @@
         <v>1.4</v>
       </c>
       <c r="AT146">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU146">
         <v>1.32</v>
@@ -29450,7 +29456,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -29919,7 +29925,7 @@
         <v>1.22</v>
       </c>
       <c r="AS150">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT150">
         <v>1</v>
@@ -30023,7 +30029,7 @@
         <v>165</v>
       </c>
       <c r="P151" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30405,7 +30411,7 @@
         <v>180</v>
       </c>
       <c r="P153" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -31169,7 +31175,7 @@
         <v>88</v>
       </c>
       <c r="P157" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31256,7 +31262,7 @@
         <v>1.44</v>
       </c>
       <c r="AS157">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT157">
         <v>1.87</v>
@@ -31551,7 +31557,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -32124,7 +32130,7 @@
         <v>124</v>
       </c>
       <c r="P162" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32315,7 +32321,7 @@
         <v>183</v>
       </c>
       <c r="P163" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -32405,7 +32411,7 @@
         <v>1.36</v>
       </c>
       <c r="AT163">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU163">
         <v>1.87</v>
@@ -32697,7 +32703,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33079,7 +33085,7 @@
         <v>187</v>
       </c>
       <c r="P167" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33548,7 +33554,7 @@
         <v>1.4</v>
       </c>
       <c r="AS169">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT169">
         <v>1.33</v>
@@ -34607,7 +34613,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -34885,7 +34891,7 @@
         <v>0.8</v>
       </c>
       <c r="AS176">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT176">
         <v>0.73</v>
@@ -34989,7 +34995,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35562,7 +35568,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -35944,7 +35950,7 @@
         <v>88</v>
       </c>
       <c r="P182" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -36135,7 +36141,7 @@
         <v>197</v>
       </c>
       <c r="P183" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -36517,7 +36523,7 @@
         <v>198</v>
       </c>
       <c r="P185" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36604,7 +36610,7 @@
         <v>0.64</v>
       </c>
       <c r="AS185">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT185">
         <v>0.53</v>
@@ -36798,7 +36804,7 @@
         <v>1.73</v>
       </c>
       <c r="AT186">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU186">
         <v>1.69</v>
@@ -37472,7 +37478,7 @@
         <v>88</v>
       </c>
       <c r="P190" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -37559,7 +37565,7 @@
         <v>1.73</v>
       </c>
       <c r="AS190">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT190">
         <v>1.87</v>
@@ -38045,7 +38051,7 @@
         <v>205</v>
       </c>
       <c r="P193" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38236,7 +38242,7 @@
         <v>153</v>
       </c>
       <c r="P194" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q194">
         <v>5</v>
@@ -38427,7 +38433,7 @@
         <v>206</v>
       </c>
       <c r="P195" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -39000,7 +39006,7 @@
         <v>171</v>
       </c>
       <c r="P198" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q198">
         <v>4</v>
@@ -39191,7 +39197,7 @@
         <v>208</v>
       </c>
       <c r="P199" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39573,7 +39579,7 @@
         <v>210</v>
       </c>
       <c r="P201" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q201">
         <v>6</v>
@@ -39660,10 +39666,10 @@
         <v>0.5</v>
       </c>
       <c r="AS201">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT201">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU201">
         <v>1.68</v>
@@ -40424,7 +40430,7 @@
         <v>0.83</v>
       </c>
       <c r="AS205">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT205">
         <v>0.73</v>
@@ -40910,7 +40916,7 @@
         <v>214</v>
       </c>
       <c r="P208" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q208">
         <v>9</v>
@@ -41101,7 +41107,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41483,7 +41489,7 @@
         <v>216</v>
       </c>
       <c r="P211" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q211">
         <v>4</v>
@@ -42247,7 +42253,7 @@
         <v>98</v>
       </c>
       <c r="P215" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q215">
         <v>3</v>
@@ -42438,7 +42444,7 @@
         <v>219</v>
       </c>
       <c r="P216" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q216">
         <v>3</v>
@@ -42719,7 +42725,7 @@
         <v>1.4</v>
       </c>
       <c r="AT217">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU217">
         <v>1.37</v>
@@ -42907,7 +42913,7 @@
         <v>1.08</v>
       </c>
       <c r="AS218">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT218">
         <v>1</v>
@@ -43202,7 +43208,7 @@
         <v>88</v>
       </c>
       <c r="P220" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q220">
         <v>4</v>
@@ -43584,7 +43590,7 @@
         <v>171</v>
       </c>
       <c r="P222" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -43862,7 +43868,7 @@
         <v>0.62</v>
       </c>
       <c r="AS223">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT223">
         <v>0.53</v>
@@ -44539,7 +44545,7 @@
         <v>88</v>
       </c>
       <c r="P227" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q227">
         <v>5</v>
@@ -45112,7 +45118,7 @@
         <v>226</v>
       </c>
       <c r="P230" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q230">
         <v>1</v>
@@ -45494,7 +45500,7 @@
         <v>227</v>
       </c>
       <c r="P232" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q232">
         <v>3</v>
@@ -45685,7 +45691,7 @@
         <v>228</v>
       </c>
       <c r="P233" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q233">
         <v>2</v>
@@ -45876,7 +45882,7 @@
         <v>229</v>
       </c>
       <c r="P234" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -46258,7 +46264,7 @@
         <v>230</v>
       </c>
       <c r="P236" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q236">
         <v>1</v>
@@ -46407,7 +46413,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>2708331</v>
+        <v>2708334</v>
       </c>
       <c r="C237" t="s">
         <v>63</v>
@@ -46422,19 +46428,19 @@
         <v>30</v>
       </c>
       <c r="G237" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H237" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237">
         <v>0</v>
       </c>
       <c r="K237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L237">
         <v>1</v>
@@ -46446,151 +46452,151 @@
         <v>1</v>
       </c>
       <c r="O237" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="P237" t="s">
         <v>88</v>
       </c>
       <c r="Q237">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S237">
+        <v>7</v>
+      </c>
+      <c r="T237">
         <v>4</v>
       </c>
-      <c r="T237">
-        <v>2.65</v>
-      </c>
       <c r="U237">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="V237">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="W237">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="X237">
+        <v>2.3</v>
+      </c>
+      <c r="Y237">
+        <v>3.5</v>
+      </c>
+      <c r="Z237">
+        <v>1.25</v>
+      </c>
+      <c r="AA237">
+        <v>8.25</v>
+      </c>
+      <c r="AB237">
+        <v>1.04</v>
+      </c>
+      <c r="AC237">
+        <v>3.1</v>
+      </c>
+      <c r="AD237">
+        <v>3.05</v>
+      </c>
+      <c r="AE237">
+        <v>2.24</v>
+      </c>
+      <c r="AF237">
+        <v>1.1</v>
+      </c>
+      <c r="AG237">
+        <v>7.55</v>
+      </c>
+      <c r="AH237">
+        <v>1.49</v>
+      </c>
+      <c r="AI237">
         <v>2.55</v>
       </c>
-      <c r="Y237">
-        <v>3.05</v>
-      </c>
-      <c r="Z237">
-        <v>1.32</v>
-      </c>
-      <c r="AA237">
-        <v>7</v>
-      </c>
-      <c r="AB237">
-        <v>1.07</v>
-      </c>
-      <c r="AC237">
-        <v>1.95</v>
-      </c>
-      <c r="AD237">
-        <v>3.4</v>
-      </c>
-      <c r="AE237">
-        <v>3.45</v>
-      </c>
-      <c r="AF237">
-        <v>1.06</v>
-      </c>
-      <c r="AG237">
-        <v>10</v>
-      </c>
-      <c r="AH237">
-        <v>1.36</v>
-      </c>
-      <c r="AI237">
-        <v>3.08</v>
-      </c>
       <c r="AJ237">
-        <v>2.02</v>
+        <v>2.48</v>
       </c>
       <c r="AK237">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
       <c r="AL237">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="AM237">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AN237">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AO237">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AP237">
-        <v>1.75</v>
+        <v>1.35</v>
       </c>
       <c r="AQ237">
-        <v>1.86</v>
+        <v>1.29</v>
       </c>
       <c r="AR237">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="AS237">
-        <v>1.93</v>
+        <v>1.4</v>
       </c>
       <c r="AT237">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU237">
-        <v>1.99</v>
+        <v>1.38</v>
       </c>
       <c r="AV237">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="AW237">
+        <v>2.8</v>
+      </c>
+      <c r="AX237">
+        <v>2.33</v>
+      </c>
+      <c r="AY237">
+        <v>7.5</v>
+      </c>
+      <c r="AZ237">
+        <v>1.85</v>
+      </c>
+      <c r="BA237">
+        <v>1.51</v>
+      </c>
+      <c r="BB237">
+        <v>1.98</v>
+      </c>
+      <c r="BC237">
+        <v>2.57</v>
+      </c>
+      <c r="BD237">
         <v>3.56</v>
       </c>
-      <c r="AX237">
-        <v>1.55</v>
-      </c>
-      <c r="AY237">
-        <v>8</v>
-      </c>
-      <c r="AZ237">
-        <v>3.02</v>
-      </c>
-      <c r="BA237">
-        <v>1.34</v>
-      </c>
-      <c r="BB237">
-        <v>1.64</v>
-      </c>
-      <c r="BC237">
-        <v>2.11</v>
-      </c>
-      <c r="BD237">
-        <v>2.76</v>
-      </c>
       <c r="BE237">
-        <v>3.84</v>
+        <v>5.4</v>
       </c>
       <c r="BF237">
         <v>6</v>
       </c>
       <c r="BG237">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH237">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BI237">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BJ237">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BK237">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238" spans="1:63">
@@ -46598,7 +46604,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>2708334</v>
+        <v>2708331</v>
       </c>
       <c r="C238" t="s">
         <v>63</v>
@@ -46613,19 +46619,19 @@
         <v>30</v>
       </c>
       <c r="G238" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H238" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238">
         <v>0</v>
       </c>
       <c r="K238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L238">
         <v>1</v>
@@ -46637,151 +46643,533 @@
         <v>1</v>
       </c>
       <c r="O238" t="s">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="P238" t="s">
         <v>88</v>
       </c>
       <c r="Q238">
+        <v>2</v>
+      </c>
+      <c r="R238">
+        <v>2</v>
+      </c>
+      <c r="S238">
         <v>4</v>
       </c>
-      <c r="R238">
-        <v>3</v>
-      </c>
-      <c r="S238">
+      <c r="T238">
+        <v>2.65</v>
+      </c>
+      <c r="U238">
+        <v>2.05</v>
+      </c>
+      <c r="V238">
+        <v>4.1</v>
+      </c>
+      <c r="W238">
+        <v>1.45</v>
+      </c>
+      <c r="X238">
+        <v>2.55</v>
+      </c>
+      <c r="Y238">
+        <v>3.05</v>
+      </c>
+      <c r="Z238">
+        <v>1.32</v>
+      </c>
+      <c r="AA238">
         <v>7</v>
       </c>
-      <c r="T238">
-        <v>4</v>
-      </c>
-      <c r="U238">
+      <c r="AB238">
+        <v>1.07</v>
+      </c>
+      <c r="AC238">
+        <v>1.95</v>
+      </c>
+      <c r="AD238">
+        <v>3.4</v>
+      </c>
+      <c r="AE238">
+        <v>3.45</v>
+      </c>
+      <c r="AF238">
+        <v>1.06</v>
+      </c>
+      <c r="AG238">
+        <v>10</v>
+      </c>
+      <c r="AH238">
+        <v>1.36</v>
+      </c>
+      <c r="AI238">
+        <v>3.08</v>
+      </c>
+      <c r="AJ238">
+        <v>2.02</v>
+      </c>
+      <c r="AK238">
+        <v>1.65</v>
+      </c>
+      <c r="AL238">
         <v>1.88</v>
       </c>
-      <c r="V238">
-        <v>3.05</v>
-      </c>
-      <c r="W238">
+      <c r="AM238">
+        <v>1.82</v>
+      </c>
+      <c r="AN238">
+        <v>1.3</v>
+      </c>
+      <c r="AO238">
+        <v>1.3</v>
+      </c>
+      <c r="AP238">
+        <v>1.75</v>
+      </c>
+      <c r="AQ238">
+        <v>1.86</v>
+      </c>
+      <c r="AR238">
+        <v>1.43</v>
+      </c>
+      <c r="AS238">
+        <v>1.93</v>
+      </c>
+      <c r="AT238">
+        <v>1.33</v>
+      </c>
+      <c r="AU238">
+        <v>1.99</v>
+      </c>
+      <c r="AV238">
+        <v>1.57</v>
+      </c>
+      <c r="AW238">
+        <v>3.56</v>
+      </c>
+      <c r="AX238">
         <v>1.55</v>
       </c>
-      <c r="X238">
-        <v>2.3</v>
-      </c>
-      <c r="Y238">
-        <v>3.5</v>
-      </c>
-      <c r="Z238">
-        <v>1.25</v>
-      </c>
-      <c r="AA238">
-        <v>8.25</v>
-      </c>
-      <c r="AB238">
-        <v>1.04</v>
-      </c>
-      <c r="AC238">
-        <v>3.1</v>
-      </c>
-      <c r="AD238">
-        <v>3.05</v>
-      </c>
-      <c r="AE238">
-        <v>2.24</v>
-      </c>
-      <c r="AF238">
-        <v>1.1</v>
-      </c>
-      <c r="AG238">
-        <v>7.55</v>
-      </c>
-      <c r="AH238">
-        <v>1.49</v>
-      </c>
-      <c r="AI238">
-        <v>2.55</v>
-      </c>
-      <c r="AJ238">
-        <v>2.48</v>
-      </c>
-      <c r="AK238">
-        <v>1.43</v>
-      </c>
-      <c r="AL238">
-        <v>2.1</v>
-      </c>
-      <c r="AM238">
-        <v>1.68</v>
-      </c>
-      <c r="AN238">
-        <v>1.58</v>
-      </c>
-      <c r="AO238">
-        <v>1.35</v>
-      </c>
-      <c r="AP238">
-        <v>1.35</v>
-      </c>
-      <c r="AQ238">
-        <v>1.29</v>
-      </c>
-      <c r="AR238">
-        <v>1.08</v>
-      </c>
-      <c r="AS238">
-        <v>1.4</v>
-      </c>
-      <c r="AT238">
-        <v>1</v>
-      </c>
-      <c r="AU238">
-        <v>1.38</v>
-      </c>
-      <c r="AV238">
-        <v>1.42</v>
-      </c>
-      <c r="AW238">
-        <v>2.8</v>
-      </c>
-      <c r="AX238">
-        <v>2.33</v>
-      </c>
       <c r="AY238">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ238">
-        <v>1.85</v>
+        <v>3.02</v>
       </c>
       <c r="BA238">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="BB238">
-        <v>1.98</v>
+        <v>1.64</v>
       </c>
       <c r="BC238">
-        <v>2.57</v>
+        <v>2.11</v>
       </c>
       <c r="BD238">
-        <v>3.56</v>
+        <v>2.76</v>
       </c>
       <c r="BE238">
-        <v>5.4</v>
+        <v>3.84</v>
       </c>
       <c r="BF238">
         <v>6</v>
       </c>
       <c r="BG238">
+        <v>3</v>
+      </c>
+      <c r="BH238">
+        <v>9</v>
+      </c>
+      <c r="BI238">
+        <v>4</v>
+      </c>
+      <c r="BJ238">
+        <v>15</v>
+      </c>
+      <c r="BK238">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:63">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>2708336</v>
+      </c>
+      <c r="C239" t="s">
+        <v>63</v>
+      </c>
+      <c r="D239" t="s">
+        <v>64</v>
+      </c>
+      <c r="E239" s="2">
+        <v>44998.52083333334</v>
+      </c>
+      <c r="F239">
+        <v>30</v>
+      </c>
+      <c r="G239" t="s">
+        <v>79</v>
+      </c>
+      <c r="H239" t="s">
+        <v>74</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239">
+        <v>1</v>
+      </c>
+      <c r="N239">
+        <v>2</v>
+      </c>
+      <c r="O239" t="s">
+        <v>232</v>
+      </c>
+      <c r="P239" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q239">
+        <v>7</v>
+      </c>
+      <c r="R239">
+        <v>3</v>
+      </c>
+      <c r="S239">
+        <v>10</v>
+      </c>
+      <c r="T239">
+        <v>3.1</v>
+      </c>
+      <c r="U239">
+        <v>1.9</v>
+      </c>
+      <c r="V239">
+        <v>3.75</v>
+      </c>
+      <c r="W239">
+        <v>1.56</v>
+      </c>
+      <c r="X239">
+        <v>2.31</v>
+      </c>
+      <c r="Y239">
+        <v>3.9</v>
+      </c>
+      <c r="Z239">
+        <v>1.21</v>
+      </c>
+      <c r="AA239">
+        <v>12</v>
+      </c>
+      <c r="AB239">
+        <v>1.03</v>
+      </c>
+      <c r="AC239">
+        <v>2.6</v>
+      </c>
+      <c r="AD239">
+        <v>2.95</v>
+      </c>
+      <c r="AE239">
+        <v>2.8</v>
+      </c>
+      <c r="AF239">
+        <v>1.11</v>
+      </c>
+      <c r="AG239">
         <v>6</v>
       </c>
-      <c r="BH238">
+      <c r="AH239">
+        <v>1.57</v>
+      </c>
+      <c r="AI239">
+        <v>2.35</v>
+      </c>
+      <c r="AJ239">
+        <v>2.45</v>
+      </c>
+      <c r="AK239">
+        <v>1.52</v>
+      </c>
+      <c r="AL239">
+        <v>2.05</v>
+      </c>
+      <c r="AM239">
+        <v>1.72</v>
+      </c>
+      <c r="AN239">
+        <v>1.3</v>
+      </c>
+      <c r="AO239">
+        <v>1.3</v>
+      </c>
+      <c r="AP239">
+        <v>1.47</v>
+      </c>
+      <c r="AQ239">
+        <v>1.14</v>
+      </c>
+      <c r="AR239">
+        <v>1</v>
+      </c>
+      <c r="AS239">
+        <v>1.13</v>
+      </c>
+      <c r="AT239">
+        <v>1</v>
+      </c>
+      <c r="AU239">
+        <v>1.63</v>
+      </c>
+      <c r="AV239">
+        <v>1.26</v>
+      </c>
+      <c r="AW239">
+        <v>2.89</v>
+      </c>
+      <c r="AX239">
+        <v>1.88</v>
+      </c>
+      <c r="AY239">
+        <v>7.1</v>
+      </c>
+      <c r="AZ239">
+        <v>2.42</v>
+      </c>
+      <c r="BA239">
+        <v>1.57</v>
+      </c>
+      <c r="BB239">
+        <v>2.03</v>
+      </c>
+      <c r="BC239">
+        <v>2.76</v>
+      </c>
+      <c r="BD239">
+        <v>3.88</v>
+      </c>
+      <c r="BE239">
+        <v>5.6</v>
+      </c>
+      <c r="BF239">
+        <v>7</v>
+      </c>
+      <c r="BG239">
         <v>5</v>
       </c>
-      <c r="BI238">
+      <c r="BH239">
+        <v>5</v>
+      </c>
+      <c r="BI239">
+        <v>4</v>
+      </c>
+      <c r="BJ239">
+        <v>12</v>
+      </c>
+      <c r="BK239">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:63">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>2708332</v>
+      </c>
+      <c r="C240" t="s">
+        <v>63</v>
+      </c>
+      <c r="D240" t="s">
+        <v>64</v>
+      </c>
+      <c r="E240" s="2">
+        <v>44998.64583333334</v>
+      </c>
+      <c r="F240">
+        <v>30</v>
+      </c>
+      <c r="G240" t="s">
+        <v>68</v>
+      </c>
+      <c r="H240" t="s">
+        <v>77</v>
+      </c>
+      <c r="I240">
+        <v>3</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>3</v>
+      </c>
+      <c r="L240">
+        <v>4</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>4</v>
+      </c>
+      <c r="O240" t="s">
+        <v>233</v>
+      </c>
+      <c r="P240" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q240">
         <v>8</v>
       </c>
-      <c r="BJ238">
-        <v>11</v>
-      </c>
-      <c r="BK238">
-        <v>14</v>
+      <c r="R240">
+        <v>2</v>
+      </c>
+      <c r="S240">
+        <v>10</v>
+      </c>
+      <c r="T240">
+        <v>2.2</v>
+      </c>
+      <c r="U240">
+        <v>2.15</v>
+      </c>
+      <c r="V240">
+        <v>5</v>
+      </c>
+      <c r="W240">
+        <v>1.45</v>
+      </c>
+      <c r="X240">
+        <v>2.66</v>
+      </c>
+      <c r="Y240">
+        <v>3.1</v>
+      </c>
+      <c r="Z240">
+        <v>1.34</v>
+      </c>
+      <c r="AA240">
+        <v>8.1</v>
+      </c>
+      <c r="AB240">
+        <v>1.06</v>
+      </c>
+      <c r="AC240">
+        <v>1.55</v>
+      </c>
+      <c r="AD240">
+        <v>3.75</v>
+      </c>
+      <c r="AE240">
+        <v>6</v>
+      </c>
+      <c r="AF240">
+        <v>1.08</v>
+      </c>
+      <c r="AG240">
+        <v>7</v>
+      </c>
+      <c r="AH240">
+        <v>1.54</v>
+      </c>
+      <c r="AI240">
+        <v>2.43</v>
+      </c>
+      <c r="AJ240">
+        <v>2.05</v>
+      </c>
+      <c r="AK240">
+        <v>1.72</v>
+      </c>
+      <c r="AL240">
+        <v>2.1</v>
+      </c>
+      <c r="AM240">
+        <v>1.7</v>
+      </c>
+      <c r="AN240">
+        <v>1.1</v>
+      </c>
+      <c r="AO240">
+        <v>1.2</v>
+      </c>
+      <c r="AP240">
+        <v>2.15</v>
+      </c>
+      <c r="AQ240">
+        <v>2.14</v>
+      </c>
+      <c r="AR240">
+        <v>0.71</v>
+      </c>
+      <c r="AS240">
+        <v>2.2</v>
+      </c>
+      <c r="AT240">
+        <v>0.67</v>
+      </c>
+      <c r="AU240">
+        <v>1.86</v>
+      </c>
+      <c r="AV240">
+        <v>1.31</v>
+      </c>
+      <c r="AW240">
+        <v>3.17</v>
+      </c>
+      <c r="AX240">
+        <v>1.38</v>
+      </c>
+      <c r="AY240">
+        <v>8.6</v>
+      </c>
+      <c r="AZ240">
+        <v>4.08</v>
+      </c>
+      <c r="BA240">
+        <v>1.45</v>
+      </c>
+      <c r="BB240">
+        <v>1.83</v>
+      </c>
+      <c r="BC240">
+        <v>2.36</v>
+      </c>
+      <c r="BD240">
+        <v>3.2</v>
+      </c>
+      <c r="BE240">
+        <v>5</v>
+      </c>
+      <c r="BF240">
+        <v>10</v>
+      </c>
+      <c r="BG240">
+        <v>5</v>
+      </c>
+      <c r="BH240">
+        <v>8</v>
+      </c>
+      <c r="BI240">
+        <v>2</v>
+      </c>
+      <c r="BJ240">
+        <v>18</v>
+      </c>
+      <c r="BK240">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK242"/>
+  <dimension ref="A1:BK245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.07</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT7" t="n">
         <v>0.67</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>1.6</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>2.53</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU19" t="n">
         <v>1.9</v>
@@ -4557,7 +4557,7 @@
         <v>1.25</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU20" t="n">
         <v>1.27</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT22" t="n">
         <v>1.33</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT24" t="n">
         <v>0.93</v>
@@ -6384,7 +6384,7 @@
         <v>1.47</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU29" t="n">
         <v>2.09</v>
@@ -6790,7 +6790,7 @@
         <v>1.73</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU31" t="n">
         <v>1.66</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT33" t="n">
         <v>1.73</v>
@@ -7802,7 +7802,7 @@
         <v>1.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT36" t="n">
         <v>1.27</v>
@@ -8411,10 +8411,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT39" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU39" t="n">
         <v>1.91</v>
@@ -9429,7 +9429,7 @@
         <v>2.2</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU44" t="n">
         <v>1.52</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT49" t="n">
         <v>0.67</v>
@@ -10850,7 +10850,7 @@
         <v>1.07</v>
       </c>
       <c r="AT51" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU51" t="n">
         <v>1.62</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT53" t="n">
         <v>1.31</v>
@@ -11662,7 +11662,7 @@
         <v>0.8</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU55" t="n">
         <v>1.1</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT61" t="n">
         <v>0.73</v>
@@ -13083,7 +13083,7 @@
         <v>1.4</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU62" t="n">
         <v>1.44</v>
@@ -13692,7 +13692,7 @@
         <v>1.27</v>
       </c>
       <c r="AT65" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU65" t="n">
         <v>1.5</v>
@@ -14095,7 +14095,7 @@
         <v>1.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT67" t="n">
         <v>0.87</v>
@@ -14704,10 +14704,10 @@
         <v>0.4</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU70" t="n">
         <v>1.69</v>
@@ -15722,7 +15722,7 @@
         <v>2.2</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU75" t="n">
         <v>1.88</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT77" t="n">
         <v>1</v>
@@ -16531,7 +16531,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT79" t="n">
         <v>1.73</v>
@@ -17346,7 +17346,7 @@
         <v>1.6</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU83" t="n">
         <v>1.76</v>
@@ -18767,7 +18767,7 @@
         <v>2.53</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU90" t="n">
         <v>1.95</v>
@@ -18967,7 +18967,7 @@
         <v>0.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT91" t="n">
         <v>0.73</v>
@@ -19170,7 +19170,7 @@
         <v>0.83</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT92" t="n">
         <v>0.67</v>
@@ -19782,7 +19782,7 @@
         <v>1.07</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU95" t="n">
         <v>1.61</v>
@@ -20591,7 +20591,7 @@
         <v>0.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT99" t="n">
         <v>1.87</v>
@@ -20797,7 +20797,7 @@
         <v>1.73</v>
       </c>
       <c r="AT100" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU100" t="n">
         <v>1.79</v>
@@ -21606,7 +21606,7 @@
         <v>0.86</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT104" t="n">
         <v>0.93</v>
@@ -22418,10 +22418,10 @@
         <v>0.71</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU108" t="n">
         <v>2.28</v>
@@ -23030,7 +23030,7 @@
         <v>1.25</v>
       </c>
       <c r="AT111" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU111" t="n">
         <v>1.07</v>
@@ -23639,7 +23639,7 @@
         <v>1.27</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU114" t="n">
         <v>1.58</v>
@@ -24042,7 +24042,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT116" t="n">
         <v>0.73</v>
@@ -25060,7 +25060,7 @@
         <v>1.47</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU121" t="n">
         <v>1.9</v>
@@ -26072,7 +26072,7 @@
         <v>0.86</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT126" t="n">
         <v>1</v>
@@ -26681,10 +26681,10 @@
         <v>0.63</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU129" t="n">
         <v>1.31</v>
@@ -27090,7 +27090,7 @@
         <v>1.4</v>
       </c>
       <c r="AT131" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU131" t="n">
         <v>1.38</v>
@@ -27290,7 +27290,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT132" t="n">
         <v>1.27</v>
@@ -28105,7 +28105,7 @@
         <v>2.2</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU136" t="n">
         <v>2</v>
@@ -29117,7 +29117,7 @@
         <v>1.63</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT141" t="n">
         <v>1.31</v>
@@ -29323,7 +29323,7 @@
         <v>1.13</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU142" t="n">
         <v>1.67</v>
@@ -29726,7 +29726,7 @@
         <v>1.25</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT144" t="n">
         <v>1.87</v>
@@ -30132,7 +30132,7 @@
         <v>0.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT146" t="n">
         <v>0.67</v>
@@ -30947,7 +30947,7 @@
         <v>2.2</v>
       </c>
       <c r="AT150" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU150" t="n">
         <v>1.88</v>
@@ -31350,7 +31350,7 @@
         <v>0.44</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT152" t="n">
         <v>0.67</v>
@@ -31962,7 +31962,7 @@
         <v>1.6</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU155" t="n">
         <v>1.74</v>
@@ -32162,7 +32162,7 @@
         <v>2</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT156" t="n">
         <v>2</v>
@@ -32774,7 +32774,7 @@
         <v>0.8</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU159" t="n">
         <v>1.31</v>
@@ -33177,7 +33177,7 @@
         <v>1.89</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT161" t="n">
         <v>2</v>
@@ -33789,7 +33789,7 @@
         <v>2.33</v>
       </c>
       <c r="AT164" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU164" t="n">
         <v>1.96</v>
@@ -34192,7 +34192,7 @@
         <v>0.9</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT166" t="n">
         <v>0.93</v>
@@ -34598,7 +34598,7 @@
         <v>1</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT168" t="n">
         <v>0.87</v>
@@ -35613,10 +35613,10 @@
         <v>1.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU173" t="n">
         <v>1.6</v>
@@ -35819,7 +35819,7 @@
         <v>1.73</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU174" t="n">
         <v>1.72</v>
@@ -37034,10 +37034,10 @@
         <v>1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT180" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU180" t="n">
         <v>1.29</v>
@@ -37643,7 +37643,7 @@
         <v>1.73</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT183" t="n">
         <v>1.73</v>
@@ -38052,7 +38052,7 @@
         <v>1.13</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU185" t="n">
         <v>1.65</v>
@@ -39267,7 +39267,7 @@
         <v>1.09</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT191" t="n">
         <v>1</v>
@@ -39473,7 +39473,7 @@
         <v>2.53</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU192" t="n">
         <v>1.91</v>
@@ -40894,7 +40894,7 @@
         <v>1.47</v>
       </c>
       <c r="AT199" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU199" t="n">
         <v>1.82</v>
@@ -41094,7 +41094,7 @@
         <v>1.42</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT200" t="n">
         <v>1.31</v>
@@ -41706,7 +41706,7 @@
         <v>1.4</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU203" t="n">
         <v>1.39</v>
@@ -42312,10 +42312,10 @@
         <v>1.25</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU206" t="n">
         <v>2</v>
@@ -42515,7 +42515,7 @@
         <v>1.58</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT207" t="n">
         <v>1.33</v>
@@ -43736,7 +43736,7 @@
         <v>2.2</v>
       </c>
       <c r="AT213" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU213" t="n">
         <v>1.95</v>
@@ -43939,7 +43939,7 @@
         <v>1.25</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU214" t="n">
         <v>1.27</v>
@@ -44342,7 +44342,7 @@
         <v>2</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT216" t="n">
         <v>2</v>
@@ -45560,7 +45560,7 @@
         <v>1.23</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT222" t="n">
         <v>1.27</v>
@@ -45766,7 +45766,7 @@
         <v>2.2</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU223" t="n">
         <v>1.85</v>
@@ -45966,7 +45966,7 @@
         <v>0.92</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT224" t="n">
         <v>1</v>
@@ -46781,7 +46781,7 @@
         <v>0.8</v>
       </c>
       <c r="AT228" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU228" t="n">
         <v>1.29</v>
@@ -46981,10 +46981,10 @@
         <v>1.14</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU229" t="n">
         <v>1.34</v>
@@ -47793,7 +47793,7 @@
         <v>0.64</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT233" t="n">
         <v>0.67</v>
@@ -47999,7 +47999,7 @@
         <v>2.33</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU234" t="n">
         <v>1.88</v>
@@ -48808,7 +48808,7 @@
         <v>1.43</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT238" t="n">
         <v>1.33</v>
@@ -49675,6 +49675,615 @@
       </c>
       <c r="BK242" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>5629947</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45002.64583333334</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>2</v>
+      </c>
+      <c r="R243" t="n">
+        <v>6</v>
+      </c>
+      <c r="S243" t="n">
+        <v>8</v>
+      </c>
+      <c r="T243" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U243" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V243" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X243" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>5629948</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45003.39583333334</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Chindia Târgovişte</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>5</v>
+      </c>
+      <c r="R244" t="n">
+        <v>6</v>
+      </c>
+      <c r="S244" t="n">
+        <v>11</v>
+      </c>
+      <c r="T244" t="n">
+        <v>3</v>
+      </c>
+      <c r="U244" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V244" t="n">
+        <v>4</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X244" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>5629949</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45003.625</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="n">
+        <v>2</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>7</v>
+      </c>
+      <c r="R245" t="n">
+        <v>4</v>
+      </c>
+      <c r="S245" t="n">
+        <v>11</v>
+      </c>
+      <c r="T245" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U245" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V245" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X245" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK249"/>
+  <dimension ref="A1:BK257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT2" t="n">
         <v>0.63</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT3" t="n">
         <v>1.25</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT4" t="n">
         <v>0.5</v>
@@ -1918,7 +1918,7 @@
         <v>1.88</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.38</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.25</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT12" t="n">
         <v>0.6899999999999999</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT13" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU18" t="n">
         <v>1.63</v>
@@ -4354,7 +4354,7 @@
         <v>2.56</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AU19" t="n">
         <v>1.9</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT23" t="n">
         <v>1.25</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU25" t="n">
         <v>1.65</v>
@@ -5775,7 +5775,7 @@
         <v>1.69</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU26" t="n">
         <v>1.8</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU27" t="n">
         <v>0.99</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT28" t="n">
         <v>0.6899999999999999</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT29" t="n">
         <v>0.5</v>
@@ -6587,7 +6587,7 @@
         <v>1.13</v>
       </c>
       <c r="AT30" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU30" t="n">
         <v>1.32</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT31" t="n">
         <v>1.25</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU32" t="n">
         <v>1.5</v>
@@ -7196,7 +7196,7 @@
         <v>1.38</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU33" t="n">
         <v>1.22</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT34" t="n">
         <v>0.93</v>
@@ -7599,10 +7599,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU35" t="n">
         <v>1.29</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT37" t="n">
         <v>0.63</v>
@@ -8211,7 +8211,7 @@
         <v>2.13</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU38" t="n">
         <v>1.89</v>
@@ -8414,7 +8414,7 @@
         <v>1.88</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AU39" t="n">
         <v>1.91</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT42" t="n">
         <v>0.6899999999999999</v>
@@ -9223,10 +9223,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT43" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU43" t="n">
         <v>1.7</v>
@@ -9426,7 +9426,7 @@
         <v>0.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT44" t="n">
         <v>0.5</v>
@@ -9835,7 +9835,7 @@
         <v>2.56</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU46" t="n">
         <v>2.02</v>
@@ -10038,7 +10038,7 @@
         <v>1.25</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU47" t="n">
         <v>1.24</v>
@@ -10238,7 +10238,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT48" t="n">
         <v>0.93</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT50" t="n">
         <v>1.25</v>
@@ -10847,10 +10847,10 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AU51" t="n">
         <v>1.62</v>
@@ -11053,7 +11053,7 @@
         <v>2.13</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU52" t="n">
         <v>1.88</v>
@@ -11456,10 +11456,10 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU54" t="n">
         <v>1.81</v>
@@ -11659,7 +11659,7 @@
         <v>0.25</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT55" t="n">
         <v>0.5</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT56" t="n">
         <v>1.25</v>
@@ -12065,10 +12065,10 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU57" t="n">
         <v>1.42</v>
@@ -12271,7 +12271,7 @@
         <v>1.13</v>
       </c>
       <c r="AT58" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU58" t="n">
         <v>1.66</v>
@@ -12474,7 +12474,7 @@
         <v>2.13</v>
       </c>
       <c r="AT59" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU59" t="n">
         <v>1.85</v>
@@ -12677,7 +12677,7 @@
         <v>2.56</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU60" t="n">
         <v>2.09</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT62" t="n">
         <v>1.25</v>
@@ -13283,7 +13283,7 @@
         <v>0.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT63" t="n">
         <v>0.63</v>
@@ -13689,10 +13689,10 @@
         <v>0.25</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AU65" t="n">
         <v>1.5</v>
@@ -14098,7 +14098,7 @@
         <v>1.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU67" t="n">
         <v>1.21</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT68" t="n">
         <v>1.31</v>
@@ -14501,10 +14501,10 @@
         <v>2.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU69" t="n">
         <v>1.96</v>
@@ -15110,10 +15110,10 @@
         <v>2.25</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT72" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU72" t="n">
         <v>1.34</v>
@@ -15313,7 +15313,7 @@
         <v>1.8</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT73" t="n">
         <v>1.25</v>
@@ -15922,10 +15922,10 @@
         <v>0.4</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU76" t="n">
         <v>1.22</v>
@@ -16128,7 +16128,7 @@
         <v>1.88</v>
       </c>
       <c r="AT77" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU77" t="n">
         <v>2.06</v>
@@ -16534,7 +16534,7 @@
         <v>1.5</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU79" t="n">
         <v>1.25</v>
@@ -16734,7 +16734,7 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT80" t="n">
         <v>1.31</v>
@@ -16937,10 +16937,10 @@
         <v>1.4</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU81" t="n">
         <v>1.91</v>
@@ -17140,7 +17140,7 @@
         <v>0.8</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT82" t="n">
         <v>0.63</v>
@@ -17346,7 +17346,7 @@
         <v>1.69</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AU83" t="n">
         <v>1.76</v>
@@ -17546,10 +17546,10 @@
         <v>0.33</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU84" t="n">
         <v>1.98</v>
@@ -17749,10 +17749,10 @@
         <v>1.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT85" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU85" t="n">
         <v>1.67</v>
@@ -17952,10 +17952,10 @@
         <v>0.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT86" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU86" t="n">
         <v>1.98</v>
@@ -18155,7 +18155,7 @@
         <v>0.83</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT87" t="n">
         <v>0.93</v>
@@ -18361,7 +18361,7 @@
         <v>2.13</v>
       </c>
       <c r="AT88" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU88" t="n">
         <v>1.83</v>
@@ -18561,7 +18561,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT89" t="n">
         <v>1.25</v>
@@ -19173,7 +19173,7 @@
         <v>1.38</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU92" t="n">
         <v>1.64</v>
@@ -19779,7 +19779,7 @@
         <v>1</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT95" t="n">
         <v>1.25</v>
@@ -20185,10 +20185,10 @@
         <v>1.17</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU97" t="n">
         <v>1.64</v>
@@ -20388,10 +20388,10 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU98" t="n">
         <v>1.99</v>
@@ -20594,7 +20594,7 @@
         <v>1.5</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU99" t="n">
         <v>1.3</v>
@@ -20794,10 +20794,10 @@
         <v>0.33</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AU100" t="n">
         <v>1.79</v>
@@ -20997,10 +20997,10 @@
         <v>2</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT101" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU101" t="n">
         <v>1.61</v>
@@ -21200,10 +21200,10 @@
         <v>0.83</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT102" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU102" t="n">
         <v>1.57</v>
@@ -21403,7 +21403,7 @@
         <v>1.29</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT103" t="n">
         <v>1.25</v>
@@ -21812,7 +21812,7 @@
         <v>2.56</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU105" t="n">
         <v>1.82</v>
@@ -22012,10 +22012,10 @@
         <v>1.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT106" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU106" t="n">
         <v>2.04</v>
@@ -22824,10 +22824,10 @@
         <v>2.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU110" t="n">
         <v>1.85</v>
@@ -23030,7 +23030,7 @@
         <v>1.25</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AU111" t="n">
         <v>1.07</v>
@@ -23230,7 +23230,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT112" t="n">
         <v>1.31</v>
@@ -23433,10 +23433,10 @@
         <v>1.14</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU113" t="n">
         <v>1.35</v>
@@ -23636,7 +23636,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT114" t="n">
         <v>1.25</v>
@@ -23842,7 +23842,7 @@
         <v>1.69</v>
       </c>
       <c r="AT115" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU115" t="n">
         <v>1.62</v>
@@ -24245,10 +24245,10 @@
         <v>0.8</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU117" t="n">
         <v>2.02</v>
@@ -24451,7 +24451,7 @@
         <v>1.13</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU118" t="n">
         <v>1.71</v>
@@ -24651,10 +24651,10 @@
         <v>2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU119" t="n">
         <v>1.68</v>
@@ -24857,7 +24857,7 @@
         <v>1.25</v>
       </c>
       <c r="AT120" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU120" t="n">
         <v>1.1</v>
@@ -25057,7 +25057,7 @@
         <v>1.17</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT121" t="n">
         <v>1.25</v>
@@ -25260,7 +25260,7 @@
         <v>0.57</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT122" t="n">
         <v>0.6899999999999999</v>
@@ -25463,10 +25463,10 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT123" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU123" t="n">
         <v>2.03</v>
@@ -25666,7 +25666,7 @@
         <v>1.43</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT124" t="n">
         <v>1.31</v>
@@ -25872,7 +25872,7 @@
         <v>1.69</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU125" t="n">
         <v>1.66</v>
@@ -26075,7 +26075,7 @@
         <v>1.38</v>
       </c>
       <c r="AT126" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU126" t="n">
         <v>1.65</v>
@@ -26478,7 +26478,7 @@
         <v>1.5</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT128" t="n">
         <v>1.25</v>
@@ -26884,10 +26884,10 @@
         <v>0.75</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU130" t="n">
         <v>1.99</v>
@@ -27087,10 +27087,10 @@
         <v>1</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AU131" t="n">
         <v>1.38</v>
@@ -27696,10 +27696,10 @@
         <v>1.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT134" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU134" t="n">
         <v>1.9</v>
@@ -27902,7 +27902,7 @@
         <v>1.13</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU135" t="n">
         <v>1.63</v>
@@ -28102,7 +28102,7 @@
         <v>1.43</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT136" t="n">
         <v>1.25</v>
@@ -28305,10 +28305,10 @@
         <v>1.13</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT137" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU137" t="n">
         <v>1.66</v>
@@ -28508,10 +28508,10 @@
         <v>1.67</v>
       </c>
       <c r="AS138" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT138" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU138" t="n">
         <v>1.31</v>
@@ -28711,10 +28711,10 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU139" t="n">
         <v>1.72</v>
@@ -29523,10 +29523,10 @@
         <v>1.86</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT143" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU143" t="n">
         <v>1.42</v>
@@ -29729,7 +29729,7 @@
         <v>1.38</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU144" t="n">
         <v>1.7</v>
@@ -29929,7 +29929,7 @@
         <v>1.67</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT145" t="n">
         <v>1.25</v>
@@ -30135,7 +30135,7 @@
         <v>1.5</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU146" t="n">
         <v>1.32</v>
@@ -30538,7 +30538,7 @@
         <v>0.67</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT148" t="n">
         <v>0.93</v>
@@ -30744,7 +30744,7 @@
         <v>2.56</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU149" t="n">
         <v>1.88</v>
@@ -30947,7 +30947,7 @@
         <v>2.13</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AU150" t="n">
         <v>1.88</v>
@@ -31147,7 +31147,7 @@
         <v>1.33</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT151" t="n">
         <v>1.25</v>
@@ -31553,10 +31553,10 @@
         <v>1.11</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT153" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU153" t="n">
         <v>1.92</v>
@@ -31756,10 +31756,10 @@
         <v>2</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU154" t="n">
         <v>1.39</v>
@@ -32165,7 +32165,7 @@
         <v>1.38</v>
       </c>
       <c r="AT156" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU156" t="n">
         <v>1.68</v>
@@ -32368,7 +32368,7 @@
         <v>1.13</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU157" t="n">
         <v>1.61</v>
@@ -32568,7 +32568,7 @@
         <v>0.89</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT158" t="n">
         <v>0.6899999999999999</v>
@@ -32771,7 +32771,7 @@
         <v>1.33</v>
       </c>
       <c r="AS159" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT159" t="n">
         <v>1.25</v>
@@ -32974,10 +32974,10 @@
         <v>1.33</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT160" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU160" t="n">
         <v>1.96</v>
@@ -33180,7 +33180,7 @@
         <v>1.88</v>
       </c>
       <c r="AT161" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU161" t="n">
         <v>2.11</v>
@@ -33383,7 +33383,7 @@
         <v>1.25</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU162" t="n">
         <v>1.23</v>
@@ -33583,10 +33583,10 @@
         <v>0.6</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU163" t="n">
         <v>1.87</v>
@@ -33786,10 +33786,10 @@
         <v>1.1</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AU164" t="n">
         <v>1.96</v>
@@ -33989,7 +33989,7 @@
         <v>0.4</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT165" t="n">
         <v>0.63</v>
@@ -34395,7 +34395,7 @@
         <v>1.3</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT167" t="n">
         <v>1.25</v>
@@ -34601,7 +34601,7 @@
         <v>1.88</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU168" t="n">
         <v>2.05</v>
@@ -35007,7 +35007,7 @@
         <v>1.69</v>
       </c>
       <c r="AT170" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU170" t="n">
         <v>1.79</v>
@@ -35207,7 +35207,7 @@
         <v>1.8</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT171" t="n">
         <v>1.25</v>
@@ -35410,10 +35410,10 @@
         <v>1.2</v>
       </c>
       <c r="AS172" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT172" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU172" t="n">
         <v>1.28</v>
@@ -35816,7 +35816,7 @@
         <v>0.6</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT174" t="n">
         <v>0.5</v>
@@ -36019,10 +36019,10 @@
         <v>1.6</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU175" t="n">
         <v>1.37</v>
@@ -36428,7 +36428,7 @@
         <v>2.56</v>
       </c>
       <c r="AT177" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU177" t="n">
         <v>2.01</v>
@@ -36831,7 +36831,7 @@
         <v>0.45</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT179" t="n">
         <v>0.63</v>
@@ -37037,7 +37037,7 @@
         <v>1.5</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AU180" t="n">
         <v>1.29</v>
@@ -37237,7 +37237,7 @@
         <v>1.55</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT181" t="n">
         <v>1.31</v>
@@ -37440,10 +37440,10 @@
         <v>0.91</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU182" t="n">
         <v>1.52</v>
@@ -37646,7 +37646,7 @@
         <v>1.88</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU183" t="n">
         <v>2.06</v>
@@ -37849,7 +37849,7 @@
         <v>1.25</v>
       </c>
       <c r="AT184" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU184" t="n">
         <v>1.34</v>
@@ -38252,10 +38252,10 @@
         <v>0.55</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU186" t="n">
         <v>1.69</v>
@@ -38455,7 +38455,7 @@
         <v>0.82</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT187" t="n">
         <v>0.6899999999999999</v>
@@ -38658,10 +38658,10 @@
         <v>1</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT188" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU188" t="n">
         <v>1.88</v>
@@ -38861,7 +38861,7 @@
         <v>1.64</v>
       </c>
       <c r="AS189" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT189" t="n">
         <v>1.25</v>
@@ -39067,7 +39067,7 @@
         <v>2.13</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU190" t="n">
         <v>1.87</v>
@@ -39270,7 +39270,7 @@
         <v>1.38</v>
       </c>
       <c r="AT191" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU191" t="n">
         <v>1.53</v>
@@ -39876,7 +39876,7 @@
         <v>0.91</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT194" t="n">
         <v>0.93</v>
@@ -40079,10 +40079,10 @@
         <v>1.08</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU195" t="n">
         <v>1.71</v>
@@ -40282,10 +40282,10 @@
         <v>2.17</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT196" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU196" t="n">
         <v>1.93</v>
@@ -40485,10 +40485,10 @@
         <v>1.83</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU197" t="n">
         <v>1.5</v>
@@ -40691,7 +40691,7 @@
         <v>1.25</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU198" t="n">
         <v>1.31</v>
@@ -40891,10 +40891,10 @@
         <v>1.17</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AU199" t="n">
         <v>1.82</v>
@@ -41300,7 +41300,7 @@
         <v>1.13</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU201" t="n">
         <v>1.68</v>
@@ -41500,7 +41500,7 @@
         <v>1.25</v>
       </c>
       <c r="AS202" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT202" t="n">
         <v>1.25</v>
@@ -41703,7 +41703,7 @@
         <v>0.58</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT203" t="n">
         <v>0.5</v>
@@ -41909,7 +41909,7 @@
         <v>2.56</v>
       </c>
       <c r="AT204" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU204" t="n">
         <v>1.93</v>
@@ -42718,10 +42718,10 @@
         <v>0.92</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT208" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU208" t="n">
         <v>1.73</v>
@@ -42921,7 +42921,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT209" t="n">
         <v>0.63</v>
@@ -43124,10 +43124,10 @@
         <v>1.77</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU210" t="n">
         <v>1.69</v>
@@ -43327,7 +43327,7 @@
         <v>1.31</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT211" t="n">
         <v>1.31</v>
@@ -43533,7 +43533,7 @@
         <v>1.69</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU212" t="n">
         <v>1.91</v>
@@ -43733,10 +43733,10 @@
         <v>1.15</v>
       </c>
       <c r="AS213" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AU213" t="n">
         <v>1.95</v>
@@ -44139,10 +44139,10 @@
         <v>1.92</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU215" t="n">
         <v>1.44</v>
@@ -44345,7 +44345,7 @@
         <v>1.5</v>
       </c>
       <c r="AT216" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU216" t="n">
         <v>1.34</v>
@@ -44545,10 +44545,10 @@
         <v>0.54</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU217" t="n">
         <v>1.37</v>
@@ -45154,10 +45154,10 @@
         <v>0.85</v>
       </c>
       <c r="AS220" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT220" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU220" t="n">
         <v>1.25</v>
@@ -45357,7 +45357,7 @@
         <v>0.77</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT221" t="n">
         <v>0.6899999999999999</v>
@@ -45969,7 +45969,7 @@
         <v>1.88</v>
       </c>
       <c r="AT224" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU224" t="n">
         <v>1.97</v>
@@ -46172,7 +46172,7 @@
         <v>1.69</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU225" t="n">
         <v>1.86</v>
@@ -46372,10 +46372,10 @@
         <v>0.93</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU226" t="n">
         <v>1.72</v>
@@ -46575,7 +46575,7 @@
         <v>1.21</v>
       </c>
       <c r="AS227" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT227" t="n">
         <v>1.31</v>
@@ -46778,10 +46778,10 @@
         <v>1.07</v>
       </c>
       <c r="AS228" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AU228" t="n">
         <v>1.29</v>
@@ -47184,10 +47184,10 @@
         <v>2</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU230" t="n">
         <v>1.68</v>
@@ -47590,10 +47590,10 @@
         <v>2.07</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT232" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU232" t="n">
         <v>1.82</v>
@@ -47996,7 +47996,7 @@
         <v>0.57</v>
       </c>
       <c r="AS234" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT234" t="n">
         <v>0.5</v>
@@ -48199,10 +48199,10 @@
         <v>0.86</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT235" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU235" t="n">
         <v>1.43</v>
@@ -48605,7 +48605,7 @@
         <v>1.08</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT237" t="n">
         <v>0.93</v>
@@ -49014,7 +49014,7 @@
         <v>1.13</v>
       </c>
       <c r="AT239" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU239" t="n">
         <v>1.63</v>
@@ -49217,7 +49217,7 @@
         <v>2.13</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU240" t="n">
         <v>1.86</v>
@@ -49417,7 +49417,7 @@
         <v>1</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT241" t="n">
         <v>0.93</v>
@@ -50029,7 +50029,7 @@
         <v>1.38</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AU244" t="n">
         <v>1.57</v>
@@ -50838,7 +50838,7 @@
         <v>0.67</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT248" t="n">
         <v>0.63</v>
@@ -51095,6 +51095,1630 @@
         <v>9</v>
       </c>
       <c r="BK249" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>5651524</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>45016.625</v>
+      </c>
+      <c r="F250" t="n">
+        <v>2</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>U Craiova 1948</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="n">
+        <v>1</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>4</v>
+      </c>
+      <c r="R250" t="n">
+        <v>6</v>
+      </c>
+      <c r="S250" t="n">
+        <v>10</v>
+      </c>
+      <c r="T250" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U250" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V250" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="W250" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X250" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ250" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>5651525</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>45017.25</v>
+      </c>
+      <c r="F251" t="n">
+        <v>2</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>2</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>2</v>
+      </c>
+      <c r="L251" t="n">
+        <v>2</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>2</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['23', '26']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>5</v>
+      </c>
+      <c r="R251" t="n">
+        <v>6</v>
+      </c>
+      <c r="S251" t="n">
+        <v>11</v>
+      </c>
+      <c r="T251" t="n">
+        <v>3</v>
+      </c>
+      <c r="U251" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V251" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X251" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>5651527</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F252" t="n">
+        <v>2</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="n">
+        <v>2</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>4</v>
+      </c>
+      <c r="R252" t="n">
+        <v>8</v>
+      </c>
+      <c r="S252" t="n">
+        <v>12</v>
+      </c>
+      <c r="T252" t="n">
+        <v>3</v>
+      </c>
+      <c r="U252" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V252" t="n">
+        <v>4</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X252" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>5651529</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45017.65625</v>
+      </c>
+      <c r="F253" t="n">
+        <v>2</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>SSC Farul</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="n">
+        <v>2</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>2</v>
+      </c>
+      <c r="R253" t="n">
+        <v>4</v>
+      </c>
+      <c r="S253" t="n">
+        <v>6</v>
+      </c>
+      <c r="T253" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U253" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V253" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X253" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>5651526</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>45018.3125</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Argeș</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Voluntari</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>2</v>
+      </c>
+      <c r="K254" t="n">
+        <v>2</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>2</v>
+      </c>
+      <c r="N254" t="n">
+        <v>2</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>['9', '17']</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>2</v>
+      </c>
+      <c r="R254" t="n">
+        <v>3</v>
+      </c>
+      <c r="S254" t="n">
+        <v>5</v>
+      </c>
+      <c r="T254" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="U254" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V254" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X254" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG254" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH254" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>5651530</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>45018.625</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="n">
+        <v>2</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q255" t="n">
+        <v>15</v>
+      </c>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
+      <c r="S255" t="n">
+        <v>15</v>
+      </c>
+      <c r="T255" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U255" t="n">
+        <v>2</v>
+      </c>
+      <c r="V255" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W255" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X255" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ255" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA255" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB255" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BC255" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BD255" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BE255" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF255" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG255" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH255" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI255" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ255" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK255" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>5651528</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>45019.47916666666</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Mioveni</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Chindia Târgovişte</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="n">
+        <v>1</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q256" t="n">
+        <v>2</v>
+      </c>
+      <c r="R256" t="n">
+        <v>7</v>
+      </c>
+      <c r="S256" t="n">
+        <v>9</v>
+      </c>
+      <c r="T256" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U256" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V256" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W256" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X256" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL256" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT256" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ256" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA256" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BB256" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BC256" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BD256" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BE256" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BF256" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG256" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH256" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI256" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ256" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK256" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>5651531</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>45019.60416666666</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Sepsi</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>1</v>
+      </c>
+      <c r="J257" t="n">
+        <v>2</v>
+      </c>
+      <c r="K257" t="n">
+        <v>3</v>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="n">
+        <v>2</v>
+      </c>
+      <c r="N257" t="n">
+        <v>3</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>['8', '19']</t>
+        </is>
+      </c>
+      <c r="Q257" t="n">
+        <v>4</v>
+      </c>
+      <c r="R257" t="n">
+        <v>6</v>
+      </c>
+      <c r="S257" t="n">
+        <v>10</v>
+      </c>
+      <c r="T257" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U257" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V257" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W257" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X257" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI257" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ257" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK257" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL257" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP257" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ257" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR257" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS257" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT257" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW257" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX257" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ257" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA257" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB257" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BC257" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BD257" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BE257" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF257" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG257" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH257" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI257" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ257" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK257" t="n">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK257"/>
+  <dimension ref="A1:BK260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT11" t="n">
         <v>0.88</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AT19" t="n">
         <v>1.06</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU20" t="n">
         <v>1.27</v>
@@ -5369,7 +5369,7 @@
         <v>1.88</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU24" t="n">
         <v>1.56</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT26" t="n">
         <v>1.13</v>
@@ -6384,7 +6384,7 @@
         <v>1.38</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU29" t="n">
         <v>2.09</v>
@@ -6790,7 +6790,7 @@
         <v>1.71</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU31" t="n">
         <v>1.66</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU34" t="n">
         <v>1.66</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT40" t="n">
         <v>1.25</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AT41" t="n">
         <v>1.31</v>
@@ -9429,7 +9429,7 @@
         <v>2.13</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU44" t="n">
         <v>1.52</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT45" t="n">
         <v>1.25</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AT46" t="n">
         <v>1.13</v>
@@ -10035,7 +10035,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT47" t="n">
         <v>0.63</v>
@@ -10241,7 +10241,7 @@
         <v>1.38</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU48" t="n">
         <v>1.45</v>
@@ -11662,7 +11662,7 @@
         <v>0.75</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU55" t="n">
         <v>1.1</v>
@@ -12674,7 +12674,7 @@
         <v>0.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AT60" t="n">
         <v>1.94</v>
@@ -13083,7 +13083,7 @@
         <v>1.38</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU62" t="n">
         <v>1.44</v>
@@ -13486,10 +13486,10 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU64" t="n">
         <v>1.69</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT66" t="n">
         <v>1.25</v>
@@ -14707,7 +14707,7 @@
         <v>1.38</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU70" t="n">
         <v>1.69</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AT74" t="n">
         <v>0.6899999999999999</v>
@@ -15722,7 +15722,7 @@
         <v>2.13</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU75" t="n">
         <v>1.88</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU78" t="n">
         <v>1.08</v>
@@ -17343,7 +17343,7 @@
         <v>0.4</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT83" t="n">
         <v>1.06</v>
@@ -18158,7 +18158,7 @@
         <v>0.75</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU87" t="n">
         <v>1.34</v>
@@ -18764,10 +18764,10 @@
         <v>0.83</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU90" t="n">
         <v>1.95</v>
@@ -19576,7 +19576,7 @@
         <v>0.67</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT94" t="n">
         <v>0.63</v>
@@ -19782,7 +19782,7 @@
         <v>1</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU95" t="n">
         <v>1.61</v>
@@ -19982,7 +19982,7 @@
         <v>1.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT96" t="n">
         <v>1.31</v>
@@ -21609,7 +21609,7 @@
         <v>1.38</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU104" t="n">
         <v>1.54</v>
@@ -21809,7 +21809,7 @@
         <v>0.86</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AT105" t="n">
         <v>0.63</v>
@@ -22421,7 +22421,7 @@
         <v>1.88</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU108" t="n">
         <v>2.28</v>
@@ -23027,7 +23027,7 @@
         <v>0.71</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT111" t="n">
         <v>1.06</v>
@@ -23639,7 +23639,7 @@
         <v>1.38</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU114" t="n">
         <v>1.58</v>
@@ -23839,7 +23839,7 @@
         <v>1.75</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT115" t="n">
         <v>1.94</v>
@@ -24854,7 +24854,7 @@
         <v>1.29</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT120" t="n">
         <v>1.13</v>
@@ -25060,7 +25060,7 @@
         <v>1.38</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU121" t="n">
         <v>1.9</v>
@@ -25869,7 +25869,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT125" t="n">
         <v>1.94</v>
@@ -26275,7 +26275,7 @@
         <v>0.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AT127" t="n">
         <v>0.63</v>
@@ -26684,7 +26684,7 @@
         <v>1.5</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU129" t="n">
         <v>1.31</v>
@@ -27496,7 +27496,7 @@
         <v>2.13</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU133" t="n">
         <v>1.87</v>
@@ -28105,7 +28105,7 @@
         <v>2.13</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU136" t="n">
         <v>2</v>
@@ -28914,7 +28914,7 @@
         <v>0.88</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT140" t="n">
         <v>0.6899999999999999</v>
@@ -29323,7 +29323,7 @@
         <v>1.13</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU142" t="n">
         <v>1.67</v>
@@ -30335,7 +30335,7 @@
         <v>1.56</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT147" t="n">
         <v>1.31</v>
@@ -30541,7 +30541,7 @@
         <v>2.25</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU148" t="n">
         <v>2</v>
@@ -30741,7 +30741,7 @@
         <v>1.11</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AT149" t="n">
         <v>0.88</v>
@@ -31959,10 +31959,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU155" t="n">
         <v>1.74</v>
@@ -32774,7 +32774,7 @@
         <v>0.75</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU159" t="n">
         <v>1.31</v>
@@ -33380,7 +33380,7 @@
         <v>1.8</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT162" t="n">
         <v>1.69</v>
@@ -34195,7 +34195,7 @@
         <v>1.5</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU166" t="n">
         <v>1.34</v>
@@ -35004,7 +35004,7 @@
         <v>1.1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT170" t="n">
         <v>1.13</v>
@@ -35616,7 +35616,7 @@
         <v>1.38</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU173" t="n">
         <v>1.6</v>
@@ -35819,7 +35819,7 @@
         <v>1.71</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU174" t="n">
         <v>1.72</v>
@@ -36425,7 +36425,7 @@
         <v>2</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AT177" t="n">
         <v>1.94</v>
@@ -36628,7 +36628,7 @@
         <v>1.27</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT178" t="n">
         <v>1.25</v>
@@ -37846,7 +37846,7 @@
         <v>2.09</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT184" t="n">
         <v>1.94</v>
@@ -38052,7 +38052,7 @@
         <v>1.13</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU185" t="n">
         <v>1.65</v>
@@ -39470,10 +39470,10 @@
         <v>1.36</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU192" t="n">
         <v>1.91</v>
@@ -39673,7 +39673,7 @@
         <v>0.67</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT193" t="n">
         <v>0.63</v>
@@ -39879,7 +39879,7 @@
         <v>2.13</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU194" t="n">
         <v>1.95</v>
@@ -40688,7 +40688,7 @@
         <v>1.83</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT198" t="n">
         <v>1.94</v>
@@ -41706,7 +41706,7 @@
         <v>1.38</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU203" t="n">
         <v>1.39</v>
@@ -41906,7 +41906,7 @@
         <v>1</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AT204" t="n">
         <v>1.13</v>
@@ -42315,7 +42315,7 @@
         <v>1.88</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU206" t="n">
         <v>2</v>
@@ -43530,7 +43530,7 @@
         <v>1</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT212" t="n">
         <v>0.88</v>
@@ -43936,10 +43936,10 @@
         <v>1.23</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU214" t="n">
         <v>1.27</v>
@@ -44751,7 +44751,7 @@
         <v>1.13</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU218" t="n">
         <v>1.68</v>
@@ -44951,7 +44951,7 @@
         <v>1.54</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AT219" t="n">
         <v>1.25</v>
@@ -45766,7 +45766,7 @@
         <v>2.13</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU223" t="n">
         <v>1.85</v>
@@ -46169,7 +46169,7 @@
         <v>1.86</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT225" t="n">
         <v>1.69</v>
@@ -46984,7 +46984,7 @@
         <v>1.5</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU229" t="n">
         <v>1.34</v>
@@ -47387,7 +47387,7 @@
         <v>0.71</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT231" t="n">
         <v>0.6899999999999999</v>
@@ -47999,7 +47999,7 @@
         <v>2.25</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU234" t="n">
         <v>1.88</v>
@@ -48402,7 +48402,7 @@
         <v>1.36</v>
       </c>
       <c r="AS236" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AT236" t="n">
         <v>1.25</v>
@@ -48608,7 +48608,7 @@
         <v>1.38</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU237" t="n">
         <v>1.38</v>
@@ -49420,7 +49420,7 @@
         <v>1.38</v>
       </c>
       <c r="AT241" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU241" t="n">
         <v>1.79</v>
@@ -49620,7 +49620,7 @@
         <v>1.33</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT242" t="n">
         <v>1.31</v>
@@ -49826,7 +49826,7 @@
         <v>1.5</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU243" t="n">
         <v>1.37</v>
@@ -50232,7 +50232,7 @@
         <v>1.88</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU245" t="n">
         <v>1.99</v>
@@ -50432,7 +50432,7 @@
         <v>1.33</v>
       </c>
       <c r="AS246" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AT246" t="n">
         <v>1.25</v>
@@ -51041,7 +51041,7 @@
         <v>0.73</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT249" t="n">
         <v>0.6899999999999999</v>
@@ -52720,6 +52720,615 @@
       </c>
       <c r="BK257" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>5651534</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>45024.375</v>
+      </c>
+      <c r="F258" t="n">
+        <v>3</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Voluntari</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>1</v>
+      </c>
+      <c r="J258" t="n">
+        <v>1</v>
+      </c>
+      <c r="K258" t="n">
+        <v>2</v>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="n">
+        <v>2</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q258" t="n">
+        <v>2</v>
+      </c>
+      <c r="R258" t="n">
+        <v>7</v>
+      </c>
+      <c r="S258" t="n">
+        <v>9</v>
+      </c>
+      <c r="T258" t="n">
+        <v>3</v>
+      </c>
+      <c r="U258" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V258" t="n">
+        <v>4</v>
+      </c>
+      <c r="W258" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X258" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW258" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ258" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA258" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB258" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC258" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD258" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE258" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF258" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG258" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH258" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI258" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ258" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK258" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>5651532</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>45024.47916666666</v>
+      </c>
+      <c r="F259" t="n">
+        <v>3</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>U Craiova 1948</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>3</v>
+      </c>
+      <c r="K259" t="n">
+        <v>3</v>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="n">
+        <v>3</v>
+      </c>
+      <c r="N259" t="n">
+        <v>4</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>['5', '7', '27']</t>
+        </is>
+      </c>
+      <c r="Q259" t="n">
+        <v>2</v>
+      </c>
+      <c r="R259" t="n">
+        <v>5</v>
+      </c>
+      <c r="S259" t="n">
+        <v>7</v>
+      </c>
+      <c r="T259" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U259" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V259" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W259" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X259" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL259" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP259" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ259" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS259" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT259" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU259" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW259" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX259" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY259" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ259" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BA259" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB259" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC259" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD259" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE259" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF259" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG259" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH259" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI259" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ259" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK259" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>5651537</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>45024.60416666666</v>
+      </c>
+      <c r="F260" t="n">
+        <v>3</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>SSC Farul</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>1</v>
+      </c>
+      <c r="J260" t="n">
+        <v>1</v>
+      </c>
+      <c r="K260" t="n">
+        <v>2</v>
+      </c>
+      <c r="L260" t="n">
+        <v>3</v>
+      </c>
+      <c r="M260" t="n">
+        <v>2</v>
+      </c>
+      <c r="N260" t="n">
+        <v>5</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>['17', '54', '84']</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>['9', '48']</t>
+        </is>
+      </c>
+      <c r="Q260" t="n">
+        <v>7</v>
+      </c>
+      <c r="R260" t="n">
+        <v>4</v>
+      </c>
+      <c r="S260" t="n">
+        <v>11</v>
+      </c>
+      <c r="T260" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U260" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V260" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W260" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X260" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ260" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA260" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB260" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC260" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD260" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE260" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF260" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG260" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH260" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI260" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ260" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK260" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK260"/>
+  <dimension ref="A1:BK263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT5" t="n">
         <v>1.25</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT8" t="n">
         <v>1.06</v>
@@ -2933,7 +2933,7 @@
         <v>1.38</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2.13</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT21" t="n">
         <v>0.63</v>
@@ -5978,7 +5978,7 @@
         <v>0.75</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AU27" t="n">
         <v>0.99</v>
@@ -6181,7 +6181,7 @@
         <v>2.13</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU28" t="n">
         <v>1.44</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT30" t="n">
         <v>1.94</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT33" t="n">
         <v>1.69</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT38" t="n">
         <v>0.88</v>
@@ -8820,7 +8820,7 @@
         <v>2.59</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU41" t="n">
         <v>1.98</v>
@@ -9023,7 +9023,7 @@
         <v>0.75</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU42" t="n">
         <v>1.05</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT52" t="n">
         <v>1.69</v>
@@ -11256,7 +11256,7 @@
         <v>1.88</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU53" t="n">
         <v>2.15</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT58" t="n">
         <v>1.13</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT59" t="n">
         <v>1.13</v>
@@ -12677,7 +12677,7 @@
         <v>2.59</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AU60" t="n">
         <v>2.09</v>
@@ -12877,10 +12877,10 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU61" t="n">
         <v>1.21</v>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU68" t="n">
         <v>1.68</v>
@@ -14704,7 +14704,7 @@
         <v>0.4</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT70" t="n">
         <v>0.53</v>
@@ -14907,7 +14907,7 @@
         <v>1.2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT71" t="n">
         <v>1.25</v>
@@ -15519,7 +15519,7 @@
         <v>2.59</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU74" t="n">
         <v>1.99</v>
@@ -15719,7 +15719,7 @@
         <v>1.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT75" t="n">
         <v>1.18</v>
@@ -16737,7 +16737,7 @@
         <v>1.38</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU80" t="n">
         <v>1.67</v>
@@ -17549,7 +17549,7 @@
         <v>2.25</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AU84" t="n">
         <v>1.98</v>
@@ -18358,7 +18358,7 @@
         <v>1.8</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT88" t="n">
         <v>1.13</v>
@@ -18970,7 +18970,7 @@
         <v>1.88</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU91" t="n">
         <v>2.09</v>
@@ -19170,7 +19170,7 @@
         <v>0.83</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT92" t="n">
         <v>0.63</v>
@@ -19373,7 +19373,7 @@
         <v>1.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT93" t="n">
         <v>1.25</v>
@@ -19985,7 +19985,7 @@
         <v>1.59</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU96" t="n">
         <v>1.72</v>
@@ -20594,7 +20594,7 @@
         <v>1.5</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AU99" t="n">
         <v>1.3</v>
@@ -21606,7 +21606,7 @@
         <v>0.86</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT104" t="n">
         <v>1.06</v>
@@ -22215,7 +22215,7 @@
         <v>0.57</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT107" t="n">
         <v>0.63</v>
@@ -22621,7 +22621,7 @@
         <v>1.71</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT109" t="n">
         <v>1.25</v>
@@ -23233,7 +23233,7 @@
         <v>1.71</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU112" t="n">
         <v>1.68</v>
@@ -24045,7 +24045,7 @@
         <v>1.5</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU116" t="n">
         <v>1.29</v>
@@ -24248,7 +24248,7 @@
         <v>1.38</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AU117" t="n">
         <v>2.02</v>
@@ -24448,7 +24448,7 @@
         <v>1.13</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT118" t="n">
         <v>0.88</v>
@@ -25263,7 +25263,7 @@
         <v>1.38</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU122" t="n">
         <v>1.52</v>
@@ -25669,7 +25669,7 @@
         <v>0.75</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU124" t="n">
         <v>1.36</v>
@@ -25872,7 +25872,7 @@
         <v>1.59</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AU125" t="n">
         <v>1.66</v>
@@ -26072,7 +26072,7 @@
         <v>0.86</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT126" t="n">
         <v>1.13</v>
@@ -27493,7 +27493,7 @@
         <v>0.75</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT133" t="n">
         <v>1.06</v>
@@ -27899,7 +27899,7 @@
         <v>2.13</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT135" t="n">
         <v>1.69</v>
@@ -28714,7 +28714,7 @@
         <v>1.71</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AU139" t="n">
         <v>1.72</v>
@@ -28917,7 +28917,7 @@
         <v>1.59</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU140" t="n">
         <v>1.69</v>
@@ -29117,10 +29117,10 @@
         <v>1.63</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU141" t="n">
         <v>1.68</v>
@@ -29320,7 +29320,7 @@
         <v>1.38</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT142" t="n">
         <v>1.18</v>
@@ -29726,10 +29726,10 @@
         <v>1.25</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AU144" t="n">
         <v>1.7</v>
@@ -30338,7 +30338,7 @@
         <v>1.24</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU147" t="n">
         <v>1.18</v>
@@ -30944,7 +30944,7 @@
         <v>1.22</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT150" t="n">
         <v>1.06</v>
@@ -32162,7 +32162,7 @@
         <v>2</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT156" t="n">
         <v>1.94</v>
@@ -32365,10 +32365,10 @@
         <v>1.44</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AU157" t="n">
         <v>1.61</v>
@@ -32571,7 +32571,7 @@
         <v>1.71</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU158" t="n">
         <v>1.72</v>
@@ -34801,10 +34801,10 @@
         <v>1.4</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU169" t="n">
         <v>1.89</v>
@@ -35613,7 +35613,7 @@
         <v>1.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT173" t="n">
         <v>1.18</v>
@@ -36022,7 +36022,7 @@
         <v>1.38</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AU175" t="n">
         <v>1.37</v>
@@ -36222,10 +36222,10 @@
         <v>0.8</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU176" t="n">
         <v>1.59</v>
@@ -37240,7 +37240,7 @@
         <v>2.25</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU181" t="n">
         <v>1.94</v>
@@ -38049,7 +38049,7 @@
         <v>0.64</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT185" t="n">
         <v>0.53</v>
@@ -38458,7 +38458,7 @@
         <v>1.38</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU187" t="n">
         <v>1.35</v>
@@ -39064,10 +39064,10 @@
         <v>1.73</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AU190" t="n">
         <v>1.87</v>
@@ -39267,7 +39267,7 @@
         <v>1.09</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT191" t="n">
         <v>1.13</v>
@@ -40691,7 +40691,7 @@
         <v>1.24</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AU198" t="n">
         <v>1.31</v>
@@ -41097,7 +41097,7 @@
         <v>1.5</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU200" t="n">
         <v>1.35</v>
@@ -41297,7 +41297,7 @@
         <v>0.5</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT201" t="n">
         <v>0.63</v>
@@ -42109,10 +42109,10 @@
         <v>0.83</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU205" t="n">
         <v>1.83</v>
@@ -42515,7 +42515,7 @@
         <v>1.58</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT207" t="n">
         <v>1.25</v>
@@ -43330,7 +43330,7 @@
         <v>1.38</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU211" t="n">
         <v>1.83</v>
@@ -44142,7 +44142,7 @@
         <v>1</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AU215" t="n">
         <v>1.44</v>
@@ -44748,7 +44748,7 @@
         <v>1.08</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT218" t="n">
         <v>1.06</v>
@@ -45360,7 +45360,7 @@
         <v>2.25</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU221" t="n">
         <v>1.89</v>
@@ -45560,7 +45560,7 @@
         <v>1.23</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT222" t="n">
         <v>1.25</v>
@@ -45763,7 +45763,7 @@
         <v>0.62</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT223" t="n">
         <v>0.53</v>
@@ -46578,7 +46578,7 @@
         <v>2.13</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU227" t="n">
         <v>1.97</v>
@@ -47187,7 +47187,7 @@
         <v>1.38</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AU230" t="n">
         <v>1.68</v>
@@ -47390,7 +47390,7 @@
         <v>1.24</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU231" t="n">
         <v>1.24</v>
@@ -47793,7 +47793,7 @@
         <v>0.64</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT233" t="n">
         <v>0.63</v>
@@ -49011,7 +49011,7 @@
         <v>1</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT239" t="n">
         <v>1.13</v>
@@ -49214,7 +49214,7 @@
         <v>0.71</v>
       </c>
       <c r="AS240" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT240" t="n">
         <v>0.63</v>
@@ -49623,7 +49623,7 @@
         <v>1.24</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU242" t="n">
         <v>1.29</v>
@@ -50026,7 +50026,7 @@
         <v>1</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT244" t="n">
         <v>1.06</v>
@@ -50635,7 +50635,7 @@
         <v>1.27</v>
       </c>
       <c r="AS247" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT247" t="n">
         <v>1.25</v>
@@ -51044,7 +51044,7 @@
         <v>1.59</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU249" t="n">
         <v>1.9</v>
@@ -52668,7 +52668,7 @@
         <v>1.38</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AU257" t="n">
         <v>1.79</v>
@@ -53313,22 +53313,631 @@
         <v>5.2</v>
       </c>
       <c r="BF260" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG260" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH260" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI260" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ260" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK260" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>5651536</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>45025.29166666666</v>
+      </c>
+      <c r="F261" t="n">
         <v>3</v>
       </c>
-      <c r="BG260" t="n">
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Chindia Târgovişte</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>1</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="n">
+        <v>2</v>
+      </c>
+      <c r="N261" t="n">
         <v>3</v>
       </c>
-      <c r="BH260" t="n">
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>['78', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q261" t="n">
+        <v>3</v>
+      </c>
+      <c r="R261" t="n">
+        <v>5</v>
+      </c>
+      <c r="S261" t="n">
+        <v>8</v>
+      </c>
+      <c r="T261" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U261" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V261" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W261" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X261" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ261" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA261" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BB261" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BC261" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BD261" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BE261" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BF261" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG261" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH261" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI261" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ261" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK261" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>5651535</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>45025.39583333334</v>
+      </c>
+      <c r="F262" t="n">
+        <v>3</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Argeș</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N262" t="n">
+        <v>1</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q262" t="n">
+        <v>5</v>
+      </c>
+      <c r="R262" t="n">
+        <v>4</v>
+      </c>
+      <c r="S262" t="n">
+        <v>9</v>
+      </c>
+      <c r="T262" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U262" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V262" t="n">
+        <v>5</v>
+      </c>
+      <c r="W262" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X262" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC262" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD262" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF262" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG262" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH262" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ262" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK262" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>5651538</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45025.625</v>
+      </c>
+      <c r="F263" t="n">
+        <v>3</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>1</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="n">
+        <v>2</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q263" t="n">
+        <v>4</v>
+      </c>
+      <c r="R263" t="n">
+        <v>5</v>
+      </c>
+      <c r="S263" t="n">
+        <v>9</v>
+      </c>
+      <c r="T263" t="n">
+        <v>3</v>
+      </c>
+      <c r="U263" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V263" t="n">
+        <v>4</v>
+      </c>
+      <c r="W263" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X263" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA263" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BC263" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BD263" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE263" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BF263" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG263" t="n">
         <v>6</v>
       </c>
-      <c r="BI260" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ260" t="n">
+      <c r="BH263" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI263" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ263" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK263" t="n">
         <v>9</v>
-      </c>
-      <c r="BK260" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK263"/>
+  <dimension ref="A1:BK265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.38</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2.06</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT9" t="n">
         <v>1.13</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT12" t="n">
         <v>0.65</v>
@@ -4760,7 +4760,7 @@
         <v>2.06</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU21" t="n">
         <v>1.66</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT22" t="n">
         <v>1.25</v>
@@ -5166,7 +5166,7 @@
         <v>2.25</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU23" t="n">
         <v>1.65</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT29" t="n">
         <v>0.53</v>
@@ -7802,10 +7802,10 @@
         <v>1.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU36" t="n">
         <v>1.22</v>
@@ -8008,7 +8008,7 @@
         <v>2.25</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU37" t="n">
         <v>1.67</v>
@@ -10441,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU49" t="n">
         <v>1.18</v>
@@ -10644,10 +10644,10 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU50" t="n">
         <v>1.75</v>
@@ -13283,10 +13283,10 @@
         <v>0.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU63" t="n">
         <v>2.04</v>
@@ -13895,7 +13895,7 @@
         <v>1.24</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU66" t="n">
         <v>1.11</v>
@@ -14095,7 +14095,7 @@
         <v>1.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT67" t="n">
         <v>0.88</v>
@@ -15316,7 +15316,7 @@
         <v>1.71</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU73" t="n">
         <v>1.75</v>
@@ -16531,7 +16531,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT79" t="n">
         <v>1.69</v>
@@ -16937,7 +16937,7 @@
         <v>1.4</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT81" t="n">
         <v>0.88</v>
@@ -17143,7 +17143,7 @@
         <v>2.13</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU82" t="n">
         <v>1.4</v>
@@ -19376,7 +19376,7 @@
         <v>1.06</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU93" t="n">
         <v>1.71</v>
@@ -19579,7 +19579,7 @@
         <v>1.24</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU94" t="n">
         <v>1.06</v>
@@ -20388,7 +20388,7 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT98" t="n">
         <v>1.69</v>
@@ -20591,7 +20591,7 @@
         <v>0.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT99" t="n">
         <v>1.88</v>
@@ -21406,7 +21406,7 @@
         <v>1.38</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU103" t="n">
         <v>1.38</v>
@@ -22218,7 +22218,7 @@
         <v>1.06</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU107" t="n">
         <v>1.67</v>
@@ -24042,7 +24042,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT116" t="n">
         <v>0.65</v>
@@ -24245,7 +24245,7 @@
         <v>0.8</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT117" t="n">
         <v>1.88</v>
@@ -25057,7 +25057,7 @@
         <v>1.17</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT121" t="n">
         <v>1.18</v>
@@ -26278,7 +26278,7 @@
         <v>2.59</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU127" t="n">
         <v>1.84</v>
@@ -26681,7 +26681,7 @@
         <v>0.63</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT129" t="n">
         <v>0.53</v>
@@ -27293,7 +27293,7 @@
         <v>1.88</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU132" t="n">
         <v>2.22</v>
@@ -27696,7 +27696,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT134" t="n">
         <v>1.13</v>
@@ -30132,7 +30132,7 @@
         <v>0.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT146" t="n">
         <v>0.63</v>
@@ -31150,7 +31150,7 @@
         <v>1</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU151" t="n">
         <v>1.43</v>
@@ -31353,7 +31353,7 @@
         <v>1.88</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU152" t="n">
         <v>2.15</v>
@@ -31553,7 +31553,7 @@
         <v>1.11</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT153" t="n">
         <v>1.13</v>
@@ -33583,7 +33583,7 @@
         <v>0.6</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT163" t="n">
         <v>0.63</v>
@@ -33992,7 +33992,7 @@
         <v>1</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU165" t="n">
         <v>1.49</v>
@@ -34192,7 +34192,7 @@
         <v>0.9</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT166" t="n">
         <v>1.06</v>
@@ -34398,7 +34398,7 @@
         <v>1.38</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU167" t="n">
         <v>1.68</v>
@@ -36631,7 +36631,7 @@
         <v>1.59</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU178" t="n">
         <v>1.89</v>
@@ -36834,7 +36834,7 @@
         <v>1.38</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU179" t="n">
         <v>1.66</v>
@@ -37034,7 +37034,7 @@
         <v>1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT180" t="n">
         <v>1.06</v>
@@ -39676,7 +39676,7 @@
         <v>1.59</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU193" t="n">
         <v>1.85</v>
@@ -40891,7 +40891,7 @@
         <v>1.17</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT199" t="n">
         <v>1.06</v>
@@ -41094,7 +41094,7 @@
         <v>1.42</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT200" t="n">
         <v>1.41</v>
@@ -41503,7 +41503,7 @@
         <v>0.75</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU202" t="n">
         <v>1.32</v>
@@ -42924,7 +42924,7 @@
         <v>1.71</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU209" t="n">
         <v>1.72</v>
@@ -43327,7 +43327,7 @@
         <v>1.31</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT211" t="n">
         <v>1.41</v>
@@ -44342,7 +44342,7 @@
         <v>2</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT216" t="n">
         <v>1.94</v>
@@ -45563,7 +45563,7 @@
         <v>1.47</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU222" t="n">
         <v>1.58</v>
@@ -46981,7 +46981,7 @@
         <v>1.14</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT229" t="n">
         <v>1.18</v>
@@ -47590,7 +47590,7 @@
         <v>2.07</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT232" t="n">
         <v>1.94</v>
@@ -47796,7 +47796,7 @@
         <v>1.47</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU233" t="n">
         <v>1.56</v>
@@ -48405,7 +48405,7 @@
         <v>2.59</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU236" t="n">
         <v>1.96</v>
@@ -49417,7 +49417,7 @@
         <v>1</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT241" t="n">
         <v>1.06</v>
@@ -49823,7 +49823,7 @@
         <v>0.53</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT243" t="n">
         <v>0.53</v>
@@ -50638,7 +50638,7 @@
         <v>2.06</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU247" t="n">
         <v>1.9</v>
@@ -50841,7 +50841,7 @@
         <v>1.71</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU248" t="n">
         <v>1.72</v>
@@ -52665,7 +52665,7 @@
         <v>1.87</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT257" t="n">
         <v>1.88</v>
@@ -53938,6 +53938,412 @@
       </c>
       <c r="BK263" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>5651533</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45026.47916666666</v>
+      </c>
+      <c r="F264" t="n">
+        <v>3</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Mioveni</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>2</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>2</v>
+      </c>
+      <c r="L264" t="n">
+        <v>2</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N264" t="n">
+        <v>2</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>['10', '24']</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q264" t="n">
+        <v>3</v>
+      </c>
+      <c r="R264" t="n">
+        <v>1</v>
+      </c>
+      <c r="S264" t="n">
+        <v>4</v>
+      </c>
+      <c r="T264" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U264" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V264" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W264" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X264" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC264" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD264" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE264" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF264" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG264" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH264" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ264" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK264" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>5651539</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45026.60416666666</v>
+      </c>
+      <c r="F265" t="n">
+        <v>3</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Sepsi</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>1</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="n">
+        <v>2</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" t="n">
+        <v>2</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>['26', '86']</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q265" t="n">
+        <v>7</v>
+      </c>
+      <c r="R265" t="n">
+        <v>1</v>
+      </c>
+      <c r="S265" t="n">
+        <v>8</v>
+      </c>
+      <c r="T265" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U265" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V265" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W265" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X265" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC265" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD265" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE265" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF265" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG265" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH265" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI265" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ265" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK265" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -54125,7 +54125,7 @@
         <v>5.2</v>
       </c>
       <c r="BF264" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG264" t="n">
         <v>2</v>
@@ -54137,7 +54137,7 @@
         <v>3</v>
       </c>
       <c r="BJ264" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BK264" t="n">
         <v>5</v>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK265"/>
+  <dimension ref="A1:BK267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,7 +2324,7 @@
         <v>1.59</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.24</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT13" t="n">
         <v>1.94</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT17" t="n">
         <v>1.13</v>
@@ -5572,7 +5572,7 @@
         <v>1.38</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>1.65</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT31" t="n">
         <v>1.18</v>
@@ -6993,7 +6993,7 @@
         <v>1.38</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU32" t="n">
         <v>1.5</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT35" t="n">
         <v>0.63</v>
@@ -8211,7 +8211,7 @@
         <v>2.06</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>1.89</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT43" t="n">
         <v>1.13</v>
@@ -9835,7 +9835,7 @@
         <v>2.59</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU46" t="n">
         <v>2.02</v>
@@ -10238,7 +10238,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT48" t="n">
         <v>1.06</v>
@@ -11459,7 +11459,7 @@
         <v>2.25</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU54" t="n">
         <v>1.81</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT56" t="n">
         <v>1.25</v>
@@ -12474,7 +12474,7 @@
         <v>2.06</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU59" t="n">
         <v>1.85</v>
@@ -13689,7 +13689,7 @@
         <v>0.25</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT65" t="n">
         <v>1.06</v>
@@ -14098,7 +14098,7 @@
         <v>1.59</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>1.21</v>
@@ -15313,7 +15313,7 @@
         <v>1.8</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT73" t="n">
         <v>1.18</v>
@@ -16128,7 +16128,7 @@
         <v>1.88</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU77" t="n">
         <v>2.06</v>
@@ -16734,7 +16734,7 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT80" t="n">
         <v>1.41</v>
@@ -16940,7 +16940,7 @@
         <v>1.47</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU81" t="n">
         <v>1.91</v>
@@ -17955,7 +17955,7 @@
         <v>2.25</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU86" t="n">
         <v>1.98</v>
@@ -20188,7 +20188,7 @@
         <v>2.13</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU97" t="n">
         <v>1.64</v>
@@ -20794,7 +20794,7 @@
         <v>0.33</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT100" t="n">
         <v>1.06</v>
@@ -20997,7 +20997,7 @@
         <v>2</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT101" t="n">
         <v>1.94</v>
@@ -21203,7 +21203,7 @@
         <v>1</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU102" t="n">
         <v>1.57</v>
@@ -23230,7 +23230,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT112" t="n">
         <v>1.41</v>
@@ -23436,7 +23436,7 @@
         <v>0.75</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU113" t="n">
         <v>1.35</v>
@@ -23636,7 +23636,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT114" t="n">
         <v>1.18</v>
@@ -24451,7 +24451,7 @@
         <v>1.06</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU118" t="n">
         <v>1.71</v>
@@ -24651,7 +24651,7 @@
         <v>2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT119" t="n">
         <v>1.69</v>
@@ -25260,7 +25260,7 @@
         <v>0.57</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT122" t="n">
         <v>0.65</v>
@@ -26075,7 +26075,7 @@
         <v>1.47</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU126" t="n">
         <v>1.65</v>
@@ -28305,10 +28305,10 @@
         <v>1.13</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU137" t="n">
         <v>1.66</v>
@@ -28711,7 +28711,7 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT139" t="n">
         <v>1.88</v>
@@ -29929,7 +29929,7 @@
         <v>1.67</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT145" t="n">
         <v>1.25</v>
@@ -30744,7 +30744,7 @@
         <v>2.59</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU149" t="n">
         <v>1.88</v>
@@ -31556,7 +31556,7 @@
         <v>1.47</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU153" t="n">
         <v>1.92</v>
@@ -32568,7 +32568,7 @@
         <v>0.89</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT158" t="n">
         <v>0.65</v>
@@ -34395,7 +34395,7 @@
         <v>1.3</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT167" t="n">
         <v>1.18</v>
@@ -34601,7 +34601,7 @@
         <v>1.88</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU168" t="n">
         <v>2.05</v>
@@ -35007,7 +35007,7 @@
         <v>1.59</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU170" t="n">
         <v>1.79</v>
@@ -35816,7 +35816,7 @@
         <v>0.6</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT174" t="n">
         <v>0.53</v>
@@ -36831,7 +36831,7 @@
         <v>0.45</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT179" t="n">
         <v>0.59</v>
@@ -37443,7 +37443,7 @@
         <v>1</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU182" t="n">
         <v>1.52</v>
@@ -38252,7 +38252,7 @@
         <v>0.55</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT186" t="n">
         <v>0.63</v>
@@ -38661,7 +38661,7 @@
         <v>2.13</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU188" t="n">
         <v>1.88</v>
@@ -40079,10 +40079,10 @@
         <v>1.08</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU195" t="n">
         <v>1.71</v>
@@ -42718,10 +42718,10 @@
         <v>0.92</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU208" t="n">
         <v>1.73</v>
@@ -42921,7 +42921,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT209" t="n">
         <v>0.59</v>
@@ -43124,7 +43124,7 @@
         <v>1.77</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT210" t="n">
         <v>1.69</v>
@@ -43533,7 +43533,7 @@
         <v>1.59</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU212" t="n">
         <v>1.91</v>
@@ -45157,7 +45157,7 @@
         <v>0.75</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU220" t="n">
         <v>1.25</v>
@@ -46372,10 +46372,10 @@
         <v>0.93</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU226" t="n">
         <v>1.72</v>
@@ -47184,7 +47184,7 @@
         <v>2</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT230" t="n">
         <v>1.88</v>
@@ -49014,7 +49014,7 @@
         <v>1.06</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU239" t="n">
         <v>1.63</v>
@@ -50838,7 +50838,7 @@
         <v>0.67</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT248" t="n">
         <v>0.59</v>
@@ -51244,7 +51244,7 @@
         <v>1</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT250" t="n">
         <v>1.13</v>
@@ -51447,7 +51447,7 @@
         <v>0.67</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT251" t="n">
         <v>0.63</v>
@@ -51653,7 +51653,7 @@
         <v>1.38</v>
       </c>
       <c r="AT252" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU252" t="n">
         <v>1.4</v>
@@ -52059,7 +52059,7 @@
         <v>1</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU254" t="n">
         <v>1.43</v>
@@ -54344,6 +54344,412 @@
       </c>
       <c r="BK265" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>5651540</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>45030.5</v>
+      </c>
+      <c r="F266" t="n">
+        <v>4</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>U Craiova 1948</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Voluntari</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>1</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="n">
+        <v>3</v>
+      </c>
+      <c r="M266" t="n">
+        <v>3</v>
+      </c>
+      <c r="N266" t="n">
+        <v>6</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>['22', '54', '69']</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>['66', '77', '82']</t>
+        </is>
+      </c>
+      <c r="Q266" t="n">
+        <v>4</v>
+      </c>
+      <c r="R266" t="n">
+        <v>6</v>
+      </c>
+      <c r="S266" t="n">
+        <v>10</v>
+      </c>
+      <c r="T266" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U266" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V266" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="W266" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X266" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ266" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA266" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC266" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD266" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BE266" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF266" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG266" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH266" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI266" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ266" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK266" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>5651542</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>45030.625</v>
+      </c>
+      <c r="F267" t="n">
+        <v>4</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>2</v>
+      </c>
+      <c r="K267" t="n">
+        <v>2</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M267" t="n">
+        <v>2</v>
+      </c>
+      <c r="N267" t="n">
+        <v>2</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>['12', '35']</t>
+        </is>
+      </c>
+      <c r="Q267" t="n">
+        <v>6</v>
+      </c>
+      <c r="R267" t="n">
+        <v>1</v>
+      </c>
+      <c r="S267" t="n">
+        <v>7</v>
+      </c>
+      <c r="T267" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U267" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V267" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W267" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X267" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD267" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE267" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF267" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG267" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH267" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ267" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK267" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK267"/>
+  <dimension ref="A1:BK271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.88</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" t="n">
         <v>1.12</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT10" t="n">
         <v>1.69</v>
@@ -3745,7 +3745,7 @@
         <v>1.06</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU18" t="n">
         <v>1.63</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT21" t="n">
         <v>0.59</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU22" t="n">
         <v>1.32</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU23" t="n">
         <v>1.65</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT27" t="n">
         <v>1.88</v>
@@ -7602,7 +7602,7 @@
         <v>1.29</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU35" t="n">
         <v>1.29</v>
@@ -7802,10 +7802,10 @@
         <v>1.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU36" t="n">
         <v>1.22</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT37" t="n">
         <v>0.59</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT38" t="n">
         <v>1</v>
@@ -8617,7 +8617,7 @@
         <v>1.24</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU40" t="n">
         <v>1.45</v>
@@ -8820,7 +8820,7 @@
         <v>2.59</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU41" t="n">
         <v>1.98</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT42" t="n">
         <v>0.65</v>
@@ -9632,7 +9632,7 @@
         <v>1.59</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU45" t="n">
         <v>1.57</v>
@@ -10038,7 +10038,7 @@
         <v>1.24</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU47" t="n">
         <v>1.24</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT49" t="n">
         <v>0.59</v>
@@ -10647,7 +10647,7 @@
         <v>1.47</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU50" t="n">
         <v>1.75</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT52" t="n">
         <v>1.69</v>
@@ -11256,7 +11256,7 @@
         <v>1.88</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU53" t="n">
         <v>2.15</v>
@@ -11456,7 +11456,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT54" t="n">
         <v>1</v>
@@ -11659,7 +11659,7 @@
         <v>0.25</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT55" t="n">
         <v>0.53</v>
@@ -11865,7 +11865,7 @@
         <v>1.67</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU56" t="n">
         <v>1.87</v>
@@ -12068,7 +12068,7 @@
         <v>2.13</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU57" t="n">
         <v>1.42</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT59" t="n">
         <v>1.12</v>
@@ -13895,7 +13895,7 @@
         <v>1.24</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU66" t="n">
         <v>1.11</v>
@@ -14095,7 +14095,7 @@
         <v>1.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT67" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU68" t="n">
         <v>1.68</v>
@@ -14501,7 +14501,7 @@
         <v>2.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT69" t="n">
         <v>1.69</v>
@@ -14910,7 +14910,7 @@
         <v>1.06</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU71" t="n">
         <v>1.9</v>
@@ -15316,7 +15316,7 @@
         <v>1.67</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU73" t="n">
         <v>1.75</v>
@@ -15719,7 +15719,7 @@
         <v>1.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT75" t="n">
         <v>1.18</v>
@@ -15922,10 +15922,10 @@
         <v>0.4</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU76" t="n">
         <v>1.22</v>
@@ -16531,7 +16531,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT79" t="n">
         <v>1.69</v>
@@ -16737,7 +16737,7 @@
         <v>1.29</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU80" t="n">
         <v>1.67</v>
@@ -17546,7 +17546,7 @@
         <v>0.33</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT84" t="n">
         <v>1.88</v>
@@ -17952,7 +17952,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT86" t="n">
         <v>1.12</v>
@@ -18155,7 +18155,7 @@
         <v>0.83</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT87" t="n">
         <v>1.06</v>
@@ -18358,7 +18358,7 @@
         <v>1.8</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT88" t="n">
         <v>1.13</v>
@@ -18564,7 +18564,7 @@
         <v>1.38</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU89" t="n">
         <v>1.42</v>
@@ -19173,7 +19173,7 @@
         <v>1.47</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU92" t="n">
         <v>1.64</v>
@@ -19376,7 +19376,7 @@
         <v>1.06</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU93" t="n">
         <v>1.71</v>
@@ -19985,7 +19985,7 @@
         <v>1.59</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU96" t="n">
         <v>1.72</v>
@@ -20591,7 +20591,7 @@
         <v>0.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT99" t="n">
         <v>1.88</v>
@@ -21406,7 +21406,7 @@
         <v>1.38</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU103" t="n">
         <v>1.38</v>
@@ -21812,7 +21812,7 @@
         <v>2.59</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU105" t="n">
         <v>1.82</v>
@@ -22012,7 +22012,7 @@
         <v>1.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT106" t="n">
         <v>1.13</v>
@@ -22621,10 +22621,10 @@
         <v>1.71</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU109" t="n">
         <v>1.85</v>
@@ -23233,7 +23233,7 @@
         <v>1.67</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU112" t="n">
         <v>1.68</v>
@@ -23433,7 +23433,7 @@
         <v>1.14</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT113" t="n">
         <v>1</v>
@@ -24042,7 +24042,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT116" t="n">
         <v>0.65</v>
@@ -25666,10 +25666,10 @@
         <v>1.43</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU124" t="n">
         <v>1.36</v>
@@ -26481,7 +26481,7 @@
         <v>1</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU128" t="n">
         <v>1.52</v>
@@ -26681,7 +26681,7 @@
         <v>0.63</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT129" t="n">
         <v>0.53</v>
@@ -26884,10 +26884,10 @@
         <v>0.75</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU130" t="n">
         <v>1.99</v>
@@ -27293,7 +27293,7 @@
         <v>1.88</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU132" t="n">
         <v>2.22</v>
@@ -27493,7 +27493,7 @@
         <v>0.75</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT133" t="n">
         <v>1.06</v>
@@ -28508,7 +28508,7 @@
         <v>1.67</v>
       </c>
       <c r="AS138" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT138" t="n">
         <v>1.94</v>
@@ -29120,7 +29120,7 @@
         <v>1.47</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU141" t="n">
         <v>1.68</v>
@@ -29932,7 +29932,7 @@
         <v>1.29</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU145" t="n">
         <v>1.75</v>
@@ -30132,10 +30132,10 @@
         <v>0.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU146" t="n">
         <v>1.32</v>
@@ -30338,7 +30338,7 @@
         <v>1.24</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU147" t="n">
         <v>1.18</v>
@@ -30538,7 +30538,7 @@
         <v>0.67</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT148" t="n">
         <v>1.06</v>
@@ -30944,7 +30944,7 @@
         <v>1.22</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT150" t="n">
         <v>1.06</v>
@@ -31150,7 +31150,7 @@
         <v>1</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU151" t="n">
         <v>1.43</v>
@@ -32771,7 +32771,7 @@
         <v>1.33</v>
       </c>
       <c r="AS159" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT159" t="n">
         <v>1.18</v>
@@ -33586,7 +33586,7 @@
         <v>1.47</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU163" t="n">
         <v>1.87</v>
@@ -33786,7 +33786,7 @@
         <v>1.1</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT164" t="n">
         <v>1.06</v>
@@ -34192,7 +34192,7 @@
         <v>0.9</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT166" t="n">
         <v>1.06</v>
@@ -34398,7 +34398,7 @@
         <v>1.29</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU167" t="n">
         <v>1.68</v>
@@ -34801,10 +34801,10 @@
         <v>1.4</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU169" t="n">
         <v>1.89</v>
@@ -35210,7 +35210,7 @@
         <v>2.13</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU171" t="n">
         <v>1.96</v>
@@ -35410,7 +35410,7 @@
         <v>1.2</v>
       </c>
       <c r="AS172" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT172" t="n">
         <v>1.13</v>
@@ -36631,7 +36631,7 @@
         <v>1.59</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU178" t="n">
         <v>1.89</v>
@@ -37034,7 +37034,7 @@
         <v>1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT180" t="n">
         <v>1.06</v>
@@ -37237,10 +37237,10 @@
         <v>1.55</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU181" t="n">
         <v>1.94</v>
@@ -38255,7 +38255,7 @@
         <v>1.67</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU186" t="n">
         <v>1.69</v>
@@ -38861,10 +38861,10 @@
         <v>1.64</v>
       </c>
       <c r="AS189" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU189" t="n">
         <v>1.31</v>
@@ -39064,7 +39064,7 @@
         <v>1.73</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT190" t="n">
         <v>1.88</v>
@@ -40282,7 +40282,7 @@
         <v>2.17</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT196" t="n">
         <v>1.94</v>
@@ -41094,10 +41094,10 @@
         <v>1.42</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU200" t="n">
         <v>1.35</v>
@@ -41300,7 +41300,7 @@
         <v>1.06</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU201" t="n">
         <v>1.68</v>
@@ -41500,10 +41500,10 @@
         <v>1.25</v>
       </c>
       <c r="AS202" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU202" t="n">
         <v>1.32</v>
@@ -42109,7 +42109,7 @@
         <v>0.83</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT205" t="n">
         <v>0.65</v>
@@ -42518,7 +42518,7 @@
         <v>1.47</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU207" t="n">
         <v>1.54</v>
@@ -43330,7 +43330,7 @@
         <v>1.47</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU211" t="n">
         <v>1.83</v>
@@ -44342,7 +44342,7 @@
         <v>2</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT216" t="n">
         <v>1.94</v>
@@ -44548,7 +44548,7 @@
         <v>1.38</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU217" t="n">
         <v>1.37</v>
@@ -44954,7 +44954,7 @@
         <v>2.59</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU219" t="n">
         <v>1.92</v>
@@ -45154,7 +45154,7 @@
         <v>0.85</v>
       </c>
       <c r="AS220" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT220" t="n">
         <v>1.12</v>
@@ -45357,7 +45357,7 @@
         <v>0.77</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT221" t="n">
         <v>0.65</v>
@@ -45563,7 +45563,7 @@
         <v>1.47</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU222" t="n">
         <v>1.58</v>
@@ -45763,7 +45763,7 @@
         <v>0.62</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT223" t="n">
         <v>0.53</v>
@@ -46578,7 +46578,7 @@
         <v>2.13</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU227" t="n">
         <v>1.97</v>
@@ -46778,7 +46778,7 @@
         <v>1.07</v>
       </c>
       <c r="AS228" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT228" t="n">
         <v>1.06</v>
@@ -46981,7 +46981,7 @@
         <v>1.14</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT229" t="n">
         <v>1.18</v>
@@ -47996,7 +47996,7 @@
         <v>0.57</v>
       </c>
       <c r="AS234" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT234" t="n">
         <v>0.53</v>
@@ -48405,7 +48405,7 @@
         <v>2.59</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU236" t="n">
         <v>1.96</v>
@@ -48811,7 +48811,7 @@
         <v>1.88</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU238" t="n">
         <v>1.99</v>
@@ -49214,10 +49214,10 @@
         <v>0.71</v>
       </c>
       <c r="AS240" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU240" t="n">
         <v>1.86</v>
@@ -49623,7 +49623,7 @@
         <v>1.24</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU242" t="n">
         <v>1.29</v>
@@ -49823,7 +49823,7 @@
         <v>0.53</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT243" t="n">
         <v>0.53</v>
@@ -50435,7 +50435,7 @@
         <v>2.59</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU246" t="n">
         <v>1.96</v>
@@ -50635,10 +50635,10 @@
         <v>1.27</v>
       </c>
       <c r="AS247" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU247" t="n">
         <v>1.9</v>
@@ -51450,7 +51450,7 @@
         <v>1.29</v>
       </c>
       <c r="AT251" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU251" t="n">
         <v>1.68</v>
@@ -52259,7 +52259,7 @@
         <v>2</v>
       </c>
       <c r="AS255" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT255" t="n">
         <v>1.94</v>
@@ -52462,7 +52462,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS256" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT256" t="n">
         <v>1.06</v>
@@ -53480,7 +53480,7 @@
         <v>1.06</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AU261" t="n">
         <v>1.63</v>
@@ -53883,7 +53883,7 @@
         <v>1.94</v>
       </c>
       <c r="AS263" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT263" t="n">
         <v>1.88</v>
@@ -54086,7 +54086,7 @@
         <v>0.63</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT264" t="n">
         <v>0.59</v>
@@ -54292,7 +54292,7 @@
         <v>1.47</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU265" t="n">
         <v>1.73</v>
@@ -54740,16 +54740,828 @@
         <v>3</v>
       </c>
       <c r="BH267" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ267" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK267" t="n">
         <v>9</v>
       </c>
-      <c r="BI267" t="n">
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>5651544</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>45031.25</v>
+      </c>
+      <c r="F268" t="n">
+        <v>4</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Mioveni</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>1</v>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>2</v>
+      </c>
+      <c r="N268" t="n">
+        <v>2</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>['34', '65']</t>
+        </is>
+      </c>
+      <c r="Q268" t="n">
+        <v>4</v>
+      </c>
+      <c r="R268" t="n">
+        <v>3</v>
+      </c>
+      <c r="S268" t="n">
         <v>7</v>
       </c>
-      <c r="BJ267" t="n">
+      <c r="T268" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U268" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V268" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W268" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X268" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ268" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA268" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BC268" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BD268" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="BE268" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF268" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG268" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH268" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI268" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ268" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK268" t="n">
         <v>11</v>
       </c>
-      <c r="BK267" t="n">
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>5651547</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>45031.54166666666</v>
+      </c>
+      <c r="F269" t="n">
+        <v>4</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Sepsi</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>1</v>
+      </c>
+      <c r="J269" t="n">
+        <v>1</v>
+      </c>
+      <c r="K269" t="n">
+        <v>2</v>
+      </c>
+      <c r="L269" t="n">
+        <v>2</v>
+      </c>
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="n">
+        <v>3</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>['44', '53']</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q269" t="n">
+        <v>6</v>
+      </c>
+      <c r="R269" t="n">
+        <v>2</v>
+      </c>
+      <c r="S269" t="n">
+        <v>8</v>
+      </c>
+      <c r="T269" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U269" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V269" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W269" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X269" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE269" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI269" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ269" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK269" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL269" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AM269" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN269" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO269" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP269" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ269" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AR269" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS269" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT269" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU269" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW269" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX269" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY269" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ269" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BA269" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB269" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC269" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD269" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE269" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF269" t="n">
         <v>10</v>
+      </c>
+      <c r="BG269" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH269" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI269" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ269" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK269" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>5651541</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>45032.51041666666</v>
+      </c>
+      <c r="F270" t="n">
+        <v>4</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>2</v>
+      </c>
+      <c r="K270" t="n">
+        <v>2</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>2</v>
+      </c>
+      <c r="N270" t="n">
+        <v>2</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>['10', '16']</t>
+        </is>
+      </c>
+      <c r="Q270" t="n">
+        <v>2</v>
+      </c>
+      <c r="R270" t="n">
+        <v>6</v>
+      </c>
+      <c r="S270" t="n">
+        <v>8</v>
+      </c>
+      <c r="T270" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="U270" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V270" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="W270" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X270" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL270" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN270" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO270" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP270" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ270" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AR270" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS270" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT270" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AU270" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW270" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX270" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ270" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BA270" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB270" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BC270" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BD270" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE270" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF270" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG270" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH270" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI270" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ270" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK270" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>5651546</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>45032.625</v>
+      </c>
+      <c r="F271" t="n">
+        <v>4</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>1</v>
+      </c>
+      <c r="J271" t="n">
+        <v>1</v>
+      </c>
+      <c r="K271" t="n">
+        <v>2</v>
+      </c>
+      <c r="L271" t="n">
+        <v>3</v>
+      </c>
+      <c r="M271" t="n">
+        <v>1</v>
+      </c>
+      <c r="N271" t="n">
+        <v>4</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>['38', '82', '90+2']</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q271" t="n">
+        <v>11</v>
+      </c>
+      <c r="R271" t="n">
+        <v>1</v>
+      </c>
+      <c r="S271" t="n">
+        <v>12</v>
+      </c>
+      <c r="T271" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U271" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V271" t="n">
+        <v>4</v>
+      </c>
+      <c r="W271" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X271" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ271" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BA271" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB271" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC271" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD271" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE271" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF271" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG271" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH271" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI271" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ271" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK271" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK271"/>
+  <dimension ref="A1:BK273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT4" t="n">
         <v>0.53</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT7" t="n">
         <v>0.76</v>
@@ -2121,7 +2121,7 @@
         <v>1.47</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0.71</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT18" t="n">
         <v>0.76</v>
@@ -4354,7 +4354,7 @@
         <v>2.59</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>1.9</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT24" t="n">
         <v>1.06</v>
@@ -7196,7 +7196,7 @@
         <v>1.47</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU33" t="n">
         <v>1.22</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT34" t="n">
         <v>1.06</v>
@@ -8411,10 +8411,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>1.91</v>
@@ -10847,10 +10847,10 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
         <v>1.62</v>
@@ -11053,7 +11053,7 @@
         <v>2.11</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU52" t="n">
         <v>1.88</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT53" t="n">
         <v>1.5</v>
@@ -13692,7 +13692,7 @@
         <v>1.29</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU65" t="n">
         <v>1.5</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT68" t="n">
         <v>1.5</v>
@@ -14504,7 +14504,7 @@
         <v>2.29</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU69" t="n">
         <v>1.96</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT77" t="n">
         <v>1.12</v>
@@ -16534,7 +16534,7 @@
         <v>1.5</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU79" t="n">
         <v>1.25</v>
@@ -17346,7 +17346,7 @@
         <v>1.59</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.76</v>
@@ -17749,7 +17749,7 @@
         <v>1.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT85" t="n">
         <v>1.94</v>
@@ -18967,7 +18967,7 @@
         <v>0.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT91" t="n">
         <v>0.65</v>
@@ -19779,7 +19779,7 @@
         <v>1</v>
       </c>
       <c r="AS95" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT95" t="n">
         <v>1.18</v>
@@ -20391,7 +20391,7 @@
         <v>1.47</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU98" t="n">
         <v>1.99</v>
@@ -20797,7 +20797,7 @@
         <v>1.67</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU100" t="n">
         <v>1.79</v>
@@ -21200,7 +21200,7 @@
         <v>0.83</v>
       </c>
       <c r="AS102" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT102" t="n">
         <v>1.12</v>
@@ -22418,7 +22418,7 @@
         <v>0.71</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT108" t="n">
         <v>0.53</v>
@@ -22827,7 +22827,7 @@
         <v>2.13</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU110" t="n">
         <v>1.85</v>
@@ -23030,7 +23030,7 @@
         <v>1.24</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU111" t="n">
         <v>1.07</v>
@@ -24654,7 +24654,7 @@
         <v>1.67</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU119" t="n">
         <v>1.68</v>
@@ -26478,7 +26478,7 @@
         <v>1.5</v>
       </c>
       <c r="AS128" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT128" t="n">
         <v>1.18</v>
@@ -27090,7 +27090,7 @@
         <v>1.38</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU131" t="n">
         <v>1.38</v>
@@ -27290,7 +27290,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT132" t="n">
         <v>1.11</v>
@@ -27902,7 +27902,7 @@
         <v>1.06</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU135" t="n">
         <v>1.63</v>
@@ -30947,7 +30947,7 @@
         <v>2.11</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU150" t="n">
         <v>1.88</v>
@@ -31147,7 +31147,7 @@
         <v>1.33</v>
       </c>
       <c r="AS151" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT151" t="n">
         <v>1.11</v>
@@ -31350,7 +31350,7 @@
         <v>0.44</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT152" t="n">
         <v>0.59</v>
@@ -31759,7 +31759,7 @@
         <v>1.38</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU154" t="n">
         <v>1.39</v>
@@ -33177,7 +33177,7 @@
         <v>1.89</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT161" t="n">
         <v>1.94</v>
@@ -33383,7 +33383,7 @@
         <v>1.24</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU162" t="n">
         <v>1.23</v>
@@ -33789,7 +33789,7 @@
         <v>2.29</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU164" t="n">
         <v>1.96</v>
@@ -33989,7 +33989,7 @@
         <v>0.4</v>
       </c>
       <c r="AS165" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT165" t="n">
         <v>0.59</v>
@@ -34598,7 +34598,7 @@
         <v>1</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT168" t="n">
         <v>1</v>
@@ -37037,7 +37037,7 @@
         <v>1.5</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU180" t="n">
         <v>1.29</v>
@@ -37440,7 +37440,7 @@
         <v>0.91</v>
       </c>
       <c r="AS182" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT182" t="n">
         <v>1</v>
@@ -37643,10 +37643,10 @@
         <v>1.73</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU183" t="n">
         <v>2.06</v>
@@ -40485,10 +40485,10 @@
         <v>1.83</v>
       </c>
       <c r="AS197" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU197" t="n">
         <v>1.5</v>
@@ -40894,7 +40894,7 @@
         <v>1.47</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU199" t="n">
         <v>1.82</v>
@@ -42312,7 +42312,7 @@
         <v>1.25</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT206" t="n">
         <v>1.18</v>
@@ -43127,7 +43127,7 @@
         <v>1.29</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU210" t="n">
         <v>1.69</v>
@@ -43736,7 +43736,7 @@
         <v>2.13</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU213" t="n">
         <v>1.95</v>
@@ -44139,7 +44139,7 @@
         <v>1.92</v>
       </c>
       <c r="AS215" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT215" t="n">
         <v>1.88</v>
@@ -45966,7 +45966,7 @@
         <v>0.92</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT224" t="n">
         <v>1.13</v>
@@ -46172,7 +46172,7 @@
         <v>1.59</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU225" t="n">
         <v>1.86</v>
@@ -46781,7 +46781,7 @@
         <v>0.71</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU228" t="n">
         <v>1.29</v>
@@ -48199,7 +48199,7 @@
         <v>0.86</v>
       </c>
       <c r="AS235" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT235" t="n">
         <v>1.13</v>
@@ -48808,7 +48808,7 @@
         <v>1.43</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT238" t="n">
         <v>1.18</v>
@@ -50029,7 +50029,7 @@
         <v>1.47</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU244" t="n">
         <v>1.57</v>
@@ -50229,7 +50229,7 @@
         <v>1.27</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT245" t="n">
         <v>1.18</v>
@@ -51856,7 +51856,7 @@
         <v>2.13</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU253" t="n">
         <v>1.97</v>
@@ -52056,7 +52056,7 @@
         <v>1</v>
       </c>
       <c r="AS254" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT254" t="n">
         <v>1.12</v>
@@ -52465,7 +52465,7 @@
         <v>0.71</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU256" t="n">
         <v>1.25</v>
@@ -55562,6 +55562,412 @@
       </c>
       <c r="BK271" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>5651543</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>45033.47916666666</v>
+      </c>
+      <c r="F272" t="n">
+        <v>4</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Argeș</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Chindia Târgovişte</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" t="n">
+        <v>1</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>1</v>
+      </c>
+      <c r="R272" t="n">
+        <v>8</v>
+      </c>
+      <c r="S272" t="n">
+        <v>9</v>
+      </c>
+      <c r="T272" t="n">
+        <v>4</v>
+      </c>
+      <c r="U272" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V272" t="n">
+        <v>3</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X272" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>5651545</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>45033.60416666666</v>
+      </c>
+      <c r="F273" t="n">
+        <v>4</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>SSC Farul</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>1</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="n">
+        <v>2</v>
+      </c>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" t="n">
+        <v>3</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>['35', '47']</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q273" t="n">
+        <v>9</v>
+      </c>
+      <c r="R273" t="n">
+        <v>8</v>
+      </c>
+      <c r="S273" t="n">
+        <v>17</v>
+      </c>
+      <c r="T273" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U273" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V273" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X273" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
